--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D9295-CC48-416D-A770-558EF4EEEA97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39882A-2DE2-49DF-B57A-FA3E68949727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
     <sheet name="接受箱补款" sheetId="4" r:id="rId2"/>
     <sheet name="韩国到货" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="旧包通关" sheetId="3" r:id="rId5"/>
+    <sheet name="其他问题" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="237">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -939,6 +939,120 @@
   </si>
   <si>
     <t>KuMiNG_DP</t>
+  </si>
+  <si>
+    <t>曹承衍 hidden 二代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓小橘子🍊反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓宝矿力手幅 二贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫fm官方周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南道贤 love dearly 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓YOUTH 1set CHEERING反光手幅 [二贩]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模 挥手小模反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Still You 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 strawberry macaroon一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 小云朵手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 20cm娃娃</t>
+  </si>
+  <si>
+    <t>金宇硕金曜汉曹承衍Elysian反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁 SolarMonth 一代反光手幅</t>
+  </si>
+  <si>
+    <t>8.11/8.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩胜宇 Splendorous 二代反光手幅</t>
+  </si>
+  <si>
+    <t>8.9/8.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 具正模20cm娃娃</t>
+  </si>
+  <si>
+    <t>定价时未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价时手机支架未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价时钥匙扣和胶带未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX 饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙扣和胶带未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机支架未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时sgd汇成usd 等推主退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peachyhoonz</t>
+  </si>
+  <si>
+    <t>超截止时间 还未付款 不确定是否有库存售卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数21 实际20 需核实是否多报一套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时运费按每套3000计算 需向推主核实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时运费51,000 需向推主核实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1074,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,6 +1221,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2010,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495DA92-C979-4DD5-9C84-AE4B61FE6D41}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2405,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2775,22 +2892,22 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>143</v>
+      <c r="A39" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B39">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>144</v>
+      <c r="A40" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B40">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="E40" t="s">
         <v>191</v>
@@ -2798,7 +2915,7 @@
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41">
         <v>8.6</v>
@@ -2808,33 +2925,33 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42">
+        <v>8.6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43">
+        <v>8.6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B42">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="B44">
         <v>8.6999999999999993</v>
@@ -2845,10 +2962,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B45">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E45" t="s">
         <v>191</v>
@@ -2856,10 +2973,13 @@
     </row>
     <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B46">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="E46" t="s">
         <v>191</v>
@@ -2867,10 +2987,10 @@
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B47">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E47" t="s">
         <v>191</v>
@@ -2878,15 +2998,18 @@
     </row>
     <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B48">
-        <v>8.11</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B49">
         <v>8.8000000000000007</v>
@@ -2896,99 +3019,141 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>154</v>
+      <c r="A50" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="B50">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B53">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B54">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B55">
-        <v>8.1300000000000008</v>
+        <v>8.9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56">
-        <v>8.1199999999999992</v>
+        <v>169</v>
+      </c>
+      <c r="B56" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57">
-        <v>8.11</v>
+        <v>212</v>
+      </c>
+      <c r="B57" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B58">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B59">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B60">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B61">
-        <v>8.9</v>
+        <v>8.11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,45 +3163,207 @@
       <c r="B62">
         <v>8.11</v>
       </c>
+      <c r="D62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B63">
-        <v>8.9</v>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B64">
-        <v>8.11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B65">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B66">
-        <v>8.11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B67">
         <v>8.1300000000000008</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70">
+        <v>8.14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73">
+        <v>8.15</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74">
+        <v>8.16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75">
+        <v>8.16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76">
+        <v>8.16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82">
+        <v>8.19</v>
       </c>
     </row>
   </sheetData>
@@ -3048,16 +3375,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908382A-6997-4BD3-9D2F-54A185B9AF10}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,6 +3443,50 @@
         <v>77</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10">
+        <v>8.16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>8.14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>8.11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13">
+        <v>8.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39882A-2DE2-49DF-B57A-FA3E68949727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B85851E-FB96-45AB-98FE-36B28182207A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="4836" yWindow="456" windowWidth="16500" windowHeight="11904" firstSheet="1" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
     <sheet name="接受箱补款" sheetId="4" r:id="rId2"/>
     <sheet name="韩国到货" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="其他问题" sheetId="3" r:id="rId5"/>
+    <sheet name="贩卖机其他" sheetId="5" r:id="rId4"/>
+    <sheet name="接受箱其他" sheetId="6" r:id="rId5"/>
+    <sheet name="其他问题" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="283">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -476,10 +477,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AB6IX 团体手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>田雄 URSA MINOR 一代</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -774,15 +771,6 @@
   <si>
     <t>8.6回复：8.10 8.11寄出 是否已寄出待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mindgooods</t>
-  </si>
-  <si>
-    <t>971015com</t>
-  </si>
-  <si>
-    <t>gold_debut</t>
   </si>
   <si>
     <t>金宇硕upsidedown 手幅</t>
@@ -945,113 +933,744 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>孙东杓宝矿力手幅 二贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫fm官方周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南道贤 love dearly 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓YOUTH 1set CHEERING反光手幅 [二贩]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模 挥手小模反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Still You 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 strawberry macaroon一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 小云朵手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕金曜汉曹承衍Elysian反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁 SolarMonth 一代反光手幅</t>
+  </si>
+  <si>
+    <t>8.11/8.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9/8.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价时手机支架未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价时钥匙扣和胶带未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX 饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙扣和胶带未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机支架未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peachyhoonz</t>
+  </si>
+  <si>
+    <t>超截止时间 还未付款 不确定是否有库存售卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数21 实际20 需核实是否多报一套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12/8.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时运费按每套3000计算 发货后退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时运费51,000 发货后退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催 推主未回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decadence_kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAMA_03514</t>
+  </si>
+  <si>
+    <t>汇款错误 白18w 蓝16w 蓝*2汇了39w 应汇35w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB_000205</t>
+  </si>
+  <si>
+    <t>971015com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_debut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindgooods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>孙东杓小橘子🍊反光手幅</t>
-  </si>
-  <si>
-    <t>孙东杓宝矿力手幅 二贩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李镇赫fm官方周边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南道贤 love dearly 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓YOUTH 1set CHEERING反光手幅 [二贩]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具正模 挥手小模反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹承衍 Still You 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 strawberry macaroon一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 小云朵手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>孙东杓 20cm娃娃</t>
-  </si>
-  <si>
-    <t>金宇硕金曜汉曹承衍Elysian反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李翰洁 SolarMonth 一代反光手幅</t>
-  </si>
-  <si>
-    <t>8.11/8.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 具正模20cm娃娃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>韩胜宇 Splendorous 二代反光手幅</t>
-  </si>
-  <si>
-    <t>8.9/8.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李垠尚 具正模20cm娃娃</t>
-  </si>
-  <si>
-    <t>定价时未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价时手机支架未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价时钥匙扣和胶带未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB6IX 饭制证件照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙扣和胶带未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机支架未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总价未加代购费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款时sgd汇成usd 等推主退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>peachyhoonz</t>
-  </si>
-  <si>
-    <t>超截止时间 还未付款 不确定是否有库存售卖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报数21 实际20 需核实是否多报一套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款时运费按每套3000计算 需向推主核实</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款时运费51,000 需向推主核实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔叡娜 LUNAYENA 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金珉周 DOUBLE SUADE 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 15cm 娃娃（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄允圣 ShineOnU 1st Cheering Kit（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 HolicSeok 1st Cheering Kit（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.24截止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁 👑FINALGAN👑 反光手幅（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙 @2001_berry_1006 反光手幅（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29截止</t>
+  </si>
+  <si>
+    <t>已报数 推主未回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁 🐰RABBIT GYUL🐰20cm娃（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙 only for mini 反光手幅（二贩）(在接收箱上架)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩胜宇 watercolor 2nd cheering slogan（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILKY 宇硕🍼 &amp; MILKY 曜汉🍼 20cm娃（在接收箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朴佑镇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> JINNIE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7/8.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LE PETIT PRINCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13/8.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林煐岷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MY MINI HAPPINESS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FALLIN’ LOVE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二贩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李大辉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 🍒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>樱桃辉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CIX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金昇勋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 💛Yellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VICTON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林势俊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Beyond Fancy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NINE FEVER!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报数 未汇款 推主说款式有更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉 beautiful memory（在接受箱上架）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Fluffy Wing 1st CHEERING KIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Little Moment一代双面仿麂皮手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>young k youngandnew1219手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAE朴再兴OUVER PLANET二代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX 团体手幅 一贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20usd 定价142 总价未加代购费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时sgd汇成usd 等推主退款 / 17sgd 定价122 错当usd来定价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金东贤 方型反光手幅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AB6IX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制证件照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shining Star⭐️ PVC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱包</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WINNER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋旻浩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NEVERTHINKS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WINNER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应援棒收纳包</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX LAPIS BLUE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>团体手幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二贩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4/7.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内到货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1755,41 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1188,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,17 +1867,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1542,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1569,50 +2229,50 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,7 +2283,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,18 +2294,18 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +2362,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,12 +2381,12 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -1734,7 +2394,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -1756,7 +2416,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,13 +2461,13 @@
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1826,7 +2486,7 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,7 +2521,7 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,12 +2551,12 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1910,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1921,7 +2581,7 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1932,7 +2592,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,7 +2619,7 @@
         <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,7 +2630,7 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,7 +2673,7 @@
         <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2036,10 +2696,10 @@
     <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,68 +2713,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2127,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495DA92-C979-4DD5-9C84-AE4B61FE6D41}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,7 +2926,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,10 +2934,10 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,21 +2950,21 @@
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2285,13 +2983,13 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2997,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,15 +3005,15 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,7 +3021,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +3029,7 @@
         <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +3037,7 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,10 +3045,10 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,15 +3056,15 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,7 +3072,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +3080,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2390,7 +3088,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,8 +3161,8 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>191</v>
+      <c r="E35" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,7 +3172,7 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2483,7 +3181,7 @@
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2492,7 +3190,7 @@
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2507,7 +3205,7 @@
         <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2522,18 +3220,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,7 +3250,7 @@
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -2566,23 +3264,26 @@
         <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -2590,23 +3291,23 @@
     </row>
     <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -2614,7 +3315,7 @@
     </row>
     <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
@@ -2622,7 +3323,7 @@
     </row>
     <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -2630,7 +3331,7 @@
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -2638,7 +3339,7 @@
     </row>
     <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>102</v>
@@ -2646,7 +3347,7 @@
     </row>
     <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -2654,7 +3355,7 @@
     </row>
     <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>102</v>
@@ -2662,15 +3363,15 @@
     </row>
     <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -2678,7 +3379,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -2686,7 +3387,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
@@ -2694,7 +3395,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -2702,7 +3403,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>89</v>
@@ -2710,7 +3411,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -2718,7 +3419,7 @@
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -2726,7 +3427,7 @@
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -2734,18 +3435,18 @@
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -2767,7 +3468,7 @@
         <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2777,11 +3478,11 @@
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
-        <v>181</v>
+      <c r="C28" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,11 +3492,11 @@
       <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" t="s">
-        <v>182</v>
+      <c r="C29" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,22 +3506,22 @@
       <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
-        <v>180</v>
+      <c r="C30" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,10 +3540,10 @@
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,284 +3577,281 @@
       <c r="B37" t="s">
         <v>102</v>
       </c>
+      <c r="C37" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39">
-        <v>8.5</v>
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40">
-        <v>8.5</v>
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41">
-        <v>8.6</v>
+      <c r="A41" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="9">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B42">
+        <v>8.4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>8.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <v>8.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45">
+        <v>8.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46">
         <v>8.6</v>
       </c>
-      <c r="D42" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43">
-        <v>8.6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B47">
+        <v>8.6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48">
+        <v>8.6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B49">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="B50">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B51">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B52">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="B53">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B54">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E54" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B55">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>235</v>
+      <c r="A56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56">
+        <v>8.8000000000000007</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>234</v>
+        <v>152</v>
+      </c>
+      <c r="B57">
+        <v>8.8000000000000007</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="B58">
-        <v>8.11</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B59">
-        <v>8.11</v>
+        <v>8.9</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B60">
-        <v>8.11</v>
+        <v>8.9</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B61">
-        <v>8.11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" t="s">
-        <v>191</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,209 +3859,370 @@
         <v>166</v>
       </c>
       <c r="B62">
-        <v>8.11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>226</v>
+        <v>8.9</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63">
-        <v>8.1199999999999992</v>
+        <v>168</v>
+      </c>
+      <c r="B63" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64">
-        <v>8.1300000000000008</v>
+        <v>207</v>
+      </c>
+      <c r="B64" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65">
-        <v>8.1300000000000008</v>
+        <v>243</v>
+      </c>
+      <c r="B65" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="B66">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B67">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B68">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B69">
-        <v>8.14</v>
+        <v>8.11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B70">
-        <v>8.14</v>
+        <v>8.11</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="B71">
-        <v>8.14</v>
+        <v>8.11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B72">
-        <v>8.15</v>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="B73">
-        <v>8.15</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B74">
-        <v>8.16</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B75">
-        <v>8.16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>225</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="B76">
-        <v>8.16</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B77">
-        <v>8.17</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B78">
-        <v>8.17</v>
+        <v>8.14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B79">
-        <v>8.17</v>
+        <v>8.14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81">
+        <v>8.15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82">
+        <v>8.15</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82">
+      <c r="D82" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83">
+        <v>8.16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84">
+        <v>8.16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85">
+        <v>8.16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86">
+        <v>8.17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87">
+        <v>8.17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88">
+        <v>8.17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89">
+        <v>8.17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92">
         <v>8.19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3374,11 +4233,205 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908382A-6997-4BD3-9D2F-54A185B9AF10}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4">
+        <v>8.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <v>8.11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15">
+        <v>8.19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908382A-6997-4BD3-9D2F-54A185B9AF10}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3386,10 +4439,10 @@
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +4456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3411,7 +4464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -3419,7 +4472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3427,7 +4480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3435,7 +4488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3443,48 +4496,77 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>8.16</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>8.14</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>8.11</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14">
+        <v>8.15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B85851E-FB96-45AB-98FE-36B28182207A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86C9B0-E30D-42AD-9A78-5CC9BCF8ECDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="456" windowWidth="16500" windowHeight="11904" firstSheet="1" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="311">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,9 +89,6 @@
     <t>具正模饭制贴纸包</t>
   </si>
   <si>
-    <t>田雄fallinlove一代手幅</t>
-  </si>
-  <si>
     <t>田雄babybear一代手幅</t>
   </si>
   <si>
@@ -105,40 +102,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>韩胜宇 blue wave gan手幅</t>
-  </si>
-  <si>
     <t>金曜汉moodIndigo二代夏日周边</t>
   </si>
   <si>
-    <t>李镇赫 BRILLIANT 夏日周边（手幅）</t>
-  </si>
-  <si>
     <t>孙东杓饭制证件照2.0</t>
-  </si>
-  <si>
-    <t>饭制404姓名牌</t>
-  </si>
-  <si>
-    <t>金宇硕饭绘贴纸</t>
-  </si>
-  <si>
-    <t>具正模饭制pvc卡包</t>
-  </si>
-  <si>
-    <t>金旻奎饭制透扇</t>
-  </si>
-  <si>
-    <t>姜敏熙 only for Mini 反光手幅</t>
-  </si>
-  <si>
-    <t>金旻奎 likin' 手幅</t>
-  </si>
-  <si>
-    <t>李垠尚饭制贴纸包</t>
-  </si>
-  <si>
-    <t>姜敏熙饭制证件照</t>
   </si>
   <si>
     <t>孙东杓YOUTH 1set CHEERING反光手幅</t>
@@ -347,24 +314,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李镇赫 action 一代 MOVE 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕@19961027反光手幅 二贩</t>
   </si>
   <si>
-    <t>田雄 sweety一代韩国到货</t>
-  </si>
-  <si>
     <t>具正模 @9_jung_mo9 反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>差两套 补发韩国已到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金曜汉 Your Heartthrob一代反光手幅</t>
   </si>
   <si>
@@ -425,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曹承衍 foryou SEUNGYOUN 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>田雄 phenomenal 一代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,19 +509,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李垠尚饭制恋爱三阶段反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕 金旻奎 20cm娃</t>
   </si>
   <si>
     <t>金旻奎 MELLIFLUOUS CARAMEL一代反光手幅</t>
   </si>
   <si>
-    <t>金旻奎MINGYU_is_ART夏日周边</t>
-  </si>
-  <si>
     <t>金旻奎 1 st Coastal Love KIT手幅</t>
   </si>
   <si>
@@ -596,9 +541,6 @@
     <t>黄允省饭制校服手幅</t>
   </si>
   <si>
-    <t>黄允省 Deer glows 一代手幅</t>
-  </si>
-  <si>
     <t>黄允省饭制证件照</t>
   </si>
   <si>
@@ -642,10 +584,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 夏日清爽小勺手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>韩胜宇 BLUE BLOOD 反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -694,18 +632,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕 LoveAffair一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>宋亨俊 🍋小俊反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>具正模 水蜜桃 小云朵反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>琴东贤 初见+终场决赛夜反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -714,10 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓kiss of the gun二代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>曹承衍 Bunny 二代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -746,10 +672,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>韩国到货 清点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -794,14 +716,6 @@
   </si>
   <si>
     <t>曹承衍ver 退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyoo02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.10截止 未发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -916,16 +830,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【国内到货】</t>
-  </si>
-  <si>
     <t xml:space="preserve">【国内到货】 </t>
   </si>
   <si>
-    <t>【国内到货】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KuMiNG_DP</t>
   </si>
   <si>
@@ -961,10 +868,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 小云朵手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕金曜汉曹承衍Elysian反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -976,10 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8.9/8.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>定价时手机支架未加代购费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1015,10 +914,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8.12/8.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>汇款时运费按每套3000计算 发货后退</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1038,10 +933,6 @@
     <t>MAMA_03514</t>
   </si>
   <si>
-    <t>汇款错误 白18w 蓝16w 蓝*2汇了39w 应汇35w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SB_000205</t>
   </si>
   <si>
@@ -1069,10 +960,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>韩胜宇 Splendorous 二代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>✔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1117,10 +1004,6 @@
   </si>
   <si>
     <t>李翰洁 🐰RABBIT GYUL🐰20cm娃（在接受箱上架）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜敏熙 only for mini 反光手幅（二贩）(在接收箱上架)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1670,7 +1553,705 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国内到货</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李垠尚饭制证件照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金曜汉饭制证件照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习生手机壳（一贩）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习生全息姓名贴纸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.19到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫action一代move手幅</t>
+  </si>
+  <si>
+    <t>8.20到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时sgd汇成usd 推主已退款(paypal 32.58usd) / 17sgd 定价122 错当usd来定价 正确定价:94  销量:9</t>
+  </si>
+  <si>
+    <t>汇160usd-退32.58usd=127.42usd(911rmb) - 运费7sgd=875rmb           用paypal转账 中间扣了两次手续费 9.88sgd+1.81usd=64rmb ~ 12.5sgd 汇率差：0.082</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差两套 补发已到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款错误 白18k 蓝16k 蓝*2汇了39k 应汇35k 已退回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄sweety一代反光手幅</t>
+  </si>
+  <si>
+    <t>韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李洗赈 rainbow sherbet 一代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rv. JOY朴秀荣 CHEERING SET</t>
+  </si>
+  <si>
+    <t>AB6IX 金东贤 《Accompany 》PHOTO BO</t>
+  </si>
+  <si>
+    <t>AB6IX 田雄 Fly High MAGENTA反光手幅</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MyStarWoong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朴佑镇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MOONSTRUCK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">反光手幅
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIX 李炳坤 "HELLO! BX" 1ST SLOGAN</t>
+  </si>
+  <si>
+    <t>AB6IX 林煐岷 VisualMin☁️反光手幅</t>
+  </si>
+  <si>
+    <t>田雄 Harry Potter 反光手幅</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fallinlove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩胜宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> blue wave gan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李镇赫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BRILLIANT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏日周边（手幅）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（✔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金旻奎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MINGYU_is_ART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏日周边</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄允省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Deer glows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名牌</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0608and1027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具正模饭制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡包</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃衣娃包🥔potato 衣橱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 bold一代手幅再贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金智秀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> KIM JISOO CHEERING KIT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 KISSOFTHEGUN 二代反光手幅</t>
+  </si>
+  <si>
+    <t>漏发的10套蓝色8.28韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 LoveAffair 一代反光手幅</t>
+  </si>
+  <si>
+    <t>8.28韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 饭制夏日清爽小勺手幅</t>
+  </si>
+  <si>
+    <t>曹承衍 foryou_SY19961st CHEERING KIT反光手幅 </t>
+  </si>
+  <si>
+    <t>姜敏熙 Only for Mini 反光手幅【二贩】</t>
+  </si>
+  <si>
+    <t>曹承衍 Bunny 二代反光手幅</t>
+  </si>
+  <si>
+    <t>韩胜宇 Splendorous 二代反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓 小云朵手幅</t>
+  </si>
+  <si>
+    <t>8.30韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模 水蜜桃🍑 小云朵☁️反光手幅</t>
+  </si>
+  <si>
+    <t>南道贤 “我不把咖喱和米饭混在一起吃” 定制T恤+帆布包</t>
+  </si>
+  <si>
+    <t>曹承衍 hidden 二代反光手幅</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李垠尚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恋爱三阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一贩+二贩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKL0623</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜敏熙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> only for Mini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What_A_Mini</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金旻奎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>likin 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏日周边</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚饭制贴纸包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭绘贴纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旻奎饭制透扇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1681,7 +2262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,6 +2371,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF657786"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1842,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,8 +2491,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2200,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2229,50 +2850,62 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,389 +2924,600 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
+      <c r="A10" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>259</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
+      <c r="A14" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+      <c r="A16" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>126</v>
+      <c r="A18" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>134</v>
+      <c r="A19" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
+      <c r="A20" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
+      <c r="A21" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
+      <c r="A22" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
+      <c r="A23" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
+      <c r="A24" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
+      <c r="A25" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
+      <c r="A26" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
+      <c r="E28" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" t="s">
-        <v>187</v>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2685,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2715,126 +3559,149 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495DA92-C979-4DD5-9C84-AE4B61FE6D41}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2867,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,7 +3774,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2915,7 +3782,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -2923,294 +3790,320 @@
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" t="s">
-        <v>187</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>266</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>266</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>291</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>183</v>
+        <v>291</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>291</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
+        <v>291</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>183</v>
+        <v>291</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>291</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>291</v>
+      </c>
+      <c r="D34" t="s">
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" t="s">
         <v>187</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>199</v>
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3220,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3231,7 +4124,8 @@
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="4" max="4" width="48.21875" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,979 +4144,852 @@
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>123</v>
+      <c r="A15" t="s">
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>129</v>
+      <c r="A17" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>139</v>
+      <c r="A23" t="s">
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" t="s">
-        <v>182</v>
+        <v>216</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>246</v>
+      <c r="A39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="9">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>248</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>249</v>
+      <c r="A40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40">
+        <v>8.4</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="9">
-        <v>8.1999999999999993</v>
+        <v>129</v>
+      </c>
+      <c r="B41">
+        <v>8.5</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="B42">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>148</v>
+      <c r="A43" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B43">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B44">
-        <v>8.5</v>
+        <v>8.6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B45">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B46">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B47">
-        <v>8.6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>223</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>144</v>
+      <c r="A48" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B48">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>145</v>
+      <c r="A49" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B49">
         <v>8.6999999999999993</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B50">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B51">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>202</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>147</v>
+      <c r="A52" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B52">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="B53">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B54">
         <v>8.8000000000000007</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B55">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>142</v>
+      <c r="A56" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B56">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B57">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58">
-        <v>8.8000000000000007</v>
+        <v>146</v>
+      </c>
+      <c r="B58" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59">
-        <v>8.9</v>
+        <v>180</v>
+      </c>
+      <c r="B59" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60">
-        <v>8.9</v>
+        <v>211</v>
+      </c>
+      <c r="B60" s="6">
+        <v>8.1</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B61">
-        <v>8.9</v>
+        <v>8.11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B62">
-        <v>8.9</v>
+        <v>8.11</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>226</v>
+        <v>140</v>
+      </c>
+      <c r="B63">
+        <v>8.11</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64">
+        <v>8.11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69">
+        <v>8.14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70">
+        <v>8.14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71">
+        <v>8.15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72">
+        <v>8.15</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73">
+        <v>8.16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74">
+        <v>8.17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75">
+        <v>8.17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76">
+        <v>8.17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77">
+        <v>8.17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66">
-        <v>8.11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67">
-        <v>8.11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68">
-        <v>8.11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69">
-        <v>8.11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70">
-        <v>8.11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71">
-        <v>8.11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="E72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B78">
-        <v>8.14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="B79">
-        <v>8.14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>273</v>
+        <v>8.19</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" t="s">
-        <v>231</v>
+        <v>285</v>
+      </c>
+      <c r="B80">
+        <v>8.2100000000000009</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B81">
-        <v>8.15</v>
+        <v>8.26</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82">
-        <v>8.15</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83">
-        <v>8.16</v>
-      </c>
-      <c r="E83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84">
-        <v>8.16</v>
-      </c>
-      <c r="D84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85">
-        <v>8.16</v>
-      </c>
-      <c r="E85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B86">
-        <v>8.17</v>
-      </c>
-      <c r="E86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87">
-        <v>8.17</v>
-      </c>
-      <c r="E87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88">
-        <v>8.17</v>
-      </c>
-      <c r="E88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B89">
-        <v>8.17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B92">
-        <v>8.19</v>
-      </c>
-      <c r="E92" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4234,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4264,87 +5031,84 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>282</v>
+      <c r="A3" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3">
+        <v>8.1</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4">
+        <v>243</v>
+      </c>
+      <c r="B4" s="6">
         <v>8.1</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="6">
-        <v>8.1</v>
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B6">
-        <v>8.11</v>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B7">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="D7" t="s">
-        <v>265</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="B8">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E8" t="s">
-        <v>187</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>8.15</v>
@@ -4352,72 +5116,166 @@
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B10">
-        <v>8.15</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>280</v>
+      <c r="A11" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="B11">
-        <v>8.16</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12">
-        <v>8.18</v>
+      <c r="A12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>258</v>
+        <v>226</v>
+      </c>
+      <c r="B14">
+        <v>8.19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>8.19</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B16">
-        <v>8.19</v>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B17">
-        <v>8.2100000000000009</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20">
+        <v>8.23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>8.24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22">
+        <v>8.24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23">
+        <v>8.24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24">
+        <v>8.27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4458,115 +5316,115 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>8.16</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B11">
         <v>8.14</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>8.11</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>8.15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86C9B0-E30D-42AD-9A78-5CC9BCF8ECDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7564F7DB-7606-4D86-9833-8BE285C0736C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="323">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,21 +111,6 @@
     <t>孙东杓YOUTH 1set CHEERING反光手幅</t>
   </si>
   <si>
-    <t>李镇赫🏄夏日周边🏖️饭制反光手幅</t>
-  </si>
-  <si>
-    <t>金旻奎 perfum 一代反光手幅</t>
-  </si>
-  <si>
-    <t>车俊昊LAPUTA二代反光手幅 </t>
-  </si>
-  <si>
-    <t>具正模饭制证件照</t>
-  </si>
-  <si>
-    <t>南道贤饭制贴纸组合</t>
-  </si>
-  <si>
     <t>金宇硕BLUE1027_love shot手幅</t>
   </si>
   <si>
@@ -185,9 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李美談 饭制反光手幅</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -223,15 +205,6 @@
     <t>李镇宇citrus boy一代手幅</t>
   </si>
   <si>
-    <t>车俊昊U GOT IT反光手幅</t>
-  </si>
-  <si>
-    <t>李镇赫Real Fantasy反光手幅</t>
-  </si>
-  <si>
-    <t>韩胜宇Uooooooo_H12反光手幅</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -277,18 +250,12 @@
     <t>李美談 folder 一代反光手幅</t>
   </si>
   <si>
-    <t>姜敏熙MMM.二代反光手幅</t>
-  </si>
-  <si>
     <t>孙东杓 KISS OF THE GUN 一代手幅</t>
   </si>
   <si>
     <t>具正模 李垠尚饭制全息贴纸</t>
   </si>
   <si>
-    <t>饭制404练习生position舞台手机壳 手机支架 ​​​</t>
-  </si>
-  <si>
     <t xml:space="preserve">饭绘404练习生手机壳 </t>
   </si>
   <si>
@@ -304,19 +271,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>具正模 小白熊反光手幅</t>
-  </si>
-  <si>
-    <t>曹承衍 Bunny 一代反光手幅</t>
-  </si>
-  <si>
     <t>金宇硕 小樱桃反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕@19961027反光手幅 二贩</t>
-  </si>
-  <si>
     <t>具正模 @9_jung_mo9 反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,10 +311,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 同款蓝白短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>孙东杓 同款工装裤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,10 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 同款白色短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>具正模 into stereo 一代手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,10 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推主少发25套 8.28补发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金曜汉 babyyohan 20cm娃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -512,9 +458,6 @@
     <t>金宇硕 金旻奎 20cm娃</t>
   </si>
   <si>
-    <t>金旻奎 MELLIFLUOUS CARAMEL一代反光手幅</t>
-  </si>
-  <si>
     <t>金旻奎 1 st Coastal Love KIT手幅</t>
   </si>
   <si>
@@ -536,9 +479,6 @@
   <si>
     <t>李镇赫金宇硕金属徽章1.0 &amp; 2.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄允省饭制校服手幅</t>
   </si>
   <si>
     <t>黄允省饭制证件照</t>
@@ -844,10 +784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李镇赫fm官方周边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>南道贤 love dearly 一代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1554,6 +1490,9 @@
   </si>
   <si>
     <r>
+      <t>404</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF333333"/>
@@ -1561,67 +1500,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>李垠尚饭制证件照</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金曜汉饭制证件照</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>饭制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>404</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>练习生手机壳（一贩）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>404</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>练习生全息姓名贴纸</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1629,9 +1507,6 @@
   <si>
     <t>8.19到货补款</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李镇赫action一代move手幅</t>
   </si>
   <si>
     <t>8.20到货补款</t>
@@ -1866,10 +1741,6 @@
       </rPr>
       <t>夏日周边（手幅）</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（✔）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2252,6 +2123,422 @@
   </si>
   <si>
     <t>金旻奎饭制透扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>*✔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李镇赫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>🏄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏日周边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>🏖️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金旻奎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> perfum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车俊昊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LAPUTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二代反光手幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南道贤饭制贴纸组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 同款短袖(蓝白)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 同款dynafit白色短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔)</t>
+  </si>
+  <si>
+    <t>✔)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李镇赫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Real Fantasy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李美談</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车俊昊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>U GOT IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩胜宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uooooooo_H12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ES_cherry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄允省饭制校服手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙MMM.二代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李镇赫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模 小白熊反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOGUisOK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Bunny 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旻奎 MELLIFLUOUS CARAMEL一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepem_ys</t>
+  </si>
+  <si>
+    <t>孙东杓 Cheering 方型手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫fm官方周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕@19961027反光手幅 二贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Bunny 一代反光手幅（库存贩卖）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制404练习生position舞台手机壳 手机支架 ​​​</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制404手机壳【一贩】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyoo02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2451,7 +2738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2502,6 +2789,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2823,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,62 +3140,62 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2927,29 +3217,29 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2960,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,7 +3261,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,21 +3272,21 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,21 +3294,21 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3026,134 +3316,134 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,363 +3451,465 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
+      <c r="A30" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
+      <c r="A31" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
+      <c r="A32" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
+      <c r="A33" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
+      <c r="A34" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
-        <v>44</v>
+      <c r="E41" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
+      <c r="A42" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>39</v>
+      <c r="A45" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
+      <c r="A46" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
+      <c r="A47" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>249</v>
+      <c r="A50" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>230</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>250</v>
+      <c r="A51" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>251</v>
+      <c r="A52" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>283</v>
+        <v>258</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>254</v>
+      <c r="A57" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>232</v>
+      </c>
+      <c r="E59" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>256</v>
+        <v>232</v>
+      </c>
+      <c r="E63" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>237</v>
+      </c>
+      <c r="E65" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>237</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="E67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>237</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3532,7 +3924,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3559,126 +3951,135 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3690,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495DA92-C979-4DD5-9C84-AE4B61FE6D41}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3734,7 +4135,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,6 +4153,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3774,7 +4178,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3782,7 +4186,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3790,7 +4194,7 @@
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -3798,70 +4202,67 @@
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -3869,56 +4270,56 @@
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>162</v>
+        <v>296</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17"/>
+        <v>296</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="17"/>
+        <v>296</v>
+      </c>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="17"/>
+        <v>296</v>
+      </c>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3926,179 +4327,212 @@
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4113,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4144,120 +4578,120 @@
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4265,7 +4699,7 @@
     </row>
     <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -4273,66 +4707,72 @@
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -4340,656 +4780,640 @@
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
+        <v>195</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>217</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B38" s="9"/>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B39" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B40">
         <v>8.4</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>8.5</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B42">
         <v>8.5</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>8.6</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B44">
         <v>8.6</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>8.6</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>8.6999999999999993</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B47">
         <v>8.6999999999999993</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>8.6999999999999993</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B49">
         <v>8.6999999999999993</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B50">
         <v>8.8000000000000007</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>8.8000000000000007</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>8.8000000000000007</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>8.8000000000000007</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B54">
         <v>8.8000000000000007</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>8.9</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B56">
         <v>8.9</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>8.9</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B58" s="6">
         <v>8.1</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B59" s="6">
         <v>8.1</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B60" s="6">
         <v>8.1</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B61">
         <v>8.11</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B62">
         <v>8.11</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B63">
         <v>8.11</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>8.11</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B65">
         <v>8.1300000000000008</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B66">
         <v>8.1300000000000008</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B67">
         <v>8.1300000000000008</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B68">
         <v>8.1300000000000008</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B69">
         <v>8.14</v>
       </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B70">
-        <v>8.14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>240</v>
+        <v>8.15</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B71">
         <v>8.15</v>
       </c>
+      <c r="C71" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="E71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B72">
-        <v>8.15</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>257</v>
+        <v>8.16</v>
       </c>
       <c r="E72" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B73">
-        <v>8.16</v>
+        <v>8.17</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B74">
         <v>8.17</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B75">
         <v>8.17</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B76">
         <v>8.17</v>
       </c>
-      <c r="E76" t="s">
-        <v>162</v>
+      <c r="D76" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B77">
-        <v>8.17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>218</v>
+        <v>165</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="B78">
+        <v>8.19</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="B79">
-        <v>8.19</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B80">
-        <v>8.2100000000000009</v>
+        <v>8.26</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B81">
-        <v>8.26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5031,76 +5455,76 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B3">
         <v>8.1</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B4" s="6">
         <v>8.1</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>8.1199999999999992</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>8.1300000000000008</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B8">
         <v>8.15</v>
@@ -5108,7 +5532,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B9">
         <v>8.15</v>
@@ -5116,7 +5540,7 @@
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B10">
         <v>8.16</v>
@@ -5124,7 +5548,7 @@
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B11">
         <v>8.18</v>
@@ -5132,150 +5556,150 @@
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>8.19</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>8.19</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>8.2100000000000009</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B17">
         <v>8.2200000000000006</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B18">
         <v>8.2200000000000006</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>8.2200000000000006</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B20">
         <v>8.23</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B21">
         <v>8.24</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B22">
         <v>8.24</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B23">
         <v>8.24</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B24">
         <v>8.27</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B25">
         <v>8.2899999999999991</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +5713,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5316,115 +5740,115 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>8.16</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>8.14</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>8.11</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B14">
         <v>8.15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7564F7DB-7606-4D86-9833-8BE285C0736C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF2021-A6C3-436B-B9DE-970EBEF1CE9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
     <sheet name="接受箱补款" sheetId="4" r:id="rId2"/>
     <sheet name="韩国到货" sheetId="2" r:id="rId3"/>
-    <sheet name="贩卖机其他" sheetId="5" r:id="rId4"/>
-    <sheet name="接受箱其他" sheetId="6" r:id="rId5"/>
+    <sheet name="接受箱其他" sheetId="6" r:id="rId4"/>
+    <sheet name="贩卖机其他" sheetId="5" r:id="rId5"/>
     <sheet name="其他问题" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="408">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,9 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曹承衍 HIDDEN 一代反光手幅</t>
-  </si>
-  <si>
     <t>金宇硕 琴东贤 扇子/透扇/ins透卡 ​​</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>金施勲 navyblue反光手幅 二贩</t>
   </si>
   <si>
-    <t xml:space="preserve">田雄 OMW！一代反光手幅 </t>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,22 +73,10 @@
     <t xml:space="preserve">车银优twinklestar夏日周边 </t>
   </si>
   <si>
-    <t>李美談 Eternal love_1027 一代反光手幅</t>
-  </si>
-  <si>
     <t>7.16到货补款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>具正模饭制贴纸包</t>
-  </si>
-  <si>
-    <t>田雄babybear一代手幅</t>
-  </si>
-  <si>
-    <t>金宇硕readyforthestage手幅</t>
-  </si>
-  <si>
     <t>金宇硕饭制黑枪手幅</t>
   </si>
   <si>
@@ -102,21 +84,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金曜汉moodIndigo二代夏日周边</t>
-  </si>
-  <si>
-    <t>孙东杓饭制证件照2.0</t>
-  </si>
-  <si>
     <t>孙东杓YOUTH 1set CHEERING反光手幅</t>
   </si>
   <si>
     <t>金宇硕BLUE1027_love shot手幅</t>
   </si>
   <si>
-    <t>孙东杓饭制透扇</t>
-  </si>
-  <si>
     <t>黄允省 Shine on U 1st Cheering Kit一代手幅</t>
   </si>
   <si>
@@ -303,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕 车俊昊饭制证件照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>饭制404练习生手机壳 第二批</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -351,10 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 宝矿力手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金曜汉 babyyohan 20cm娃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -614,9 +579,6 @@
   <si>
     <t>制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQVE_1026</t>
   </si>
   <si>
     <t>6.28汇款 7.26后无回复</t>
@@ -780,10 +742,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓宝矿力手幅 二贩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>南道贤 love dearly 一代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -811,10 +769,6 @@
     <t>李翰洁 SolarMonth 一代反光手幅</t>
   </si>
   <si>
-    <t>8.11/8.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>定价时手机支架未加代购费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -846,14 +800,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>报数21 实际20 需核实是否多报一套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款时运费按每套3000计算 发货后退</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>汇款时运费51,000 发货后退</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -866,9 +812,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MAMA_03514</t>
-  </si>
-  <si>
     <t>SB_000205</t>
   </si>
   <si>
@@ -912,10 +855,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄允圣 ShineOnU 1st Cheering Kit（在接受箱上架）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕 HolicSeok 1st Cheering Kit（在接受箱上架）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -933,18 +872,6 @@
   </si>
   <si>
     <t>7.29截止</t>
-  </si>
-  <si>
-    <t>已报数 推主未回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李翰洁 🐰RABBIT GYUL🐰20cm娃（在接受箱上架）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩胜宇 watercolor 2nd cheering slogan（在接受箱上架）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MILKY 宇硕🍼 &amp; MILKY 曜汉🍼 20cm娃（在接收箱上架）</t>
@@ -1319,10 +1246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>汇款时sgd汇成usd 等推主退款 / 17sgd 定价122 错当usd来定价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">AB6IX </t>
     </r>
@@ -1536,9 +1459,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>田雄sweety一代反光手幅</t>
-  </si>
-  <si>
     <t>韩国到货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1909,10 +1829,6 @@
     <t>孙东杓 KISSOFTHEGUN 二代反光手幅</t>
   </si>
   <si>
-    <t>漏发的10套蓝色8.28韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕 LoveAffair 一代反光手幅</t>
   </si>
   <si>
@@ -1926,9 +1842,6 @@
     <t>曹承衍 foryou_SY19961st CHEERING KIT反光手幅 </t>
   </si>
   <si>
-    <t>姜敏熙 Only for Mini 反光手幅【二贩】</t>
-  </si>
-  <si>
     <t>曹承衍 Bunny 二代反光手幅</t>
   </si>
   <si>
@@ -1938,17 +1851,7 @@
     <t>孙东杓 小云朵手幅</t>
   </si>
   <si>
-    <t>8.30韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>具正模 水蜜桃🍑 小云朵☁️反光手幅</t>
-  </si>
-  <si>
-    <t>南道贤 “我不把咖喱和米饭混在一起吃” 定制T恤+帆布包</t>
-  </si>
-  <si>
-    <t>曹承衍 hidden 二代反光手幅</t>
   </si>
   <si>
     <r>
@@ -2503,42 +2406,810 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>孙东杓 Cheering 方型手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫fm官方周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕@19961027反光手幅 二贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Bunny 一代反光手幅（库存贩卖）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制404练习生position舞台手机壳 手机支架 ​​​</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制404手机壳【一贩】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyoo02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李美談</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eternal love_1027 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模饭制贴纸包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金曜汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>moodIndigo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二代夏日周边</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金宇硕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>readyforthestage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙东杓饭制证件照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙东杓饭制证件照二贩 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.19 / 51.33</t>
+  </si>
+  <si>
+    <t>囤货*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未补*2 囤货*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockdown0922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微店收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>囤货/未补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错发漏发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 宝矿力手幅（一贩+二贩）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 hidden 二代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JENNIE DearMyQueen 二代反光手幅</t>
+  </si>
+  <si>
+    <t>金秦禹20cm娃</t>
+  </si>
+  <si>
+    <t>#AB6IX 田雄 Milky WRONG 二代反光手幅</t>
+  </si>
+  <si>
+    <t>金在奂 MALLANG MOMO 反光手幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李大辉 #Seduire 反光手幅
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时sgd汇成usd 推主已退款(paypal 32.58usd) / 17sgd 定价122 错当usd来定价 正确定价:100  销量:9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄sweety一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">田雄 OMW！一代反光手幅 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴彩英 Rosé Aloha. 1st slogan</t>
+  </si>
+  <si>
+    <t>9.12/9.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴佑镇 A miracle boy's 二代反光手幅</t>
+  </si>
+  <si>
+    <t>AB6IX 李大辉 🍒樱桃辉15cm娃</t>
+  </si>
+  <si>
+    <t>金东贤 15cm裸娃</t>
+  </si>
+  <si>
+    <t>Wendy Ice cream反光手幅</t>
+  </si>
+  <si>
+    <t>许灿 SEE MAKER 反光手幅组</t>
+  </si>
+  <si>
+    <t>OHMYGIRL 玄胜熙 金美贤 刘是我 裴有彬 反光手幅</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AB6IX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>团体反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#ITZY #YEJI ZZANG YEJI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#AB6IX #BTS #EXO mini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版应援灯</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#IZONE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权恩妃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金珉周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安宥真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张元英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭制心形钥匙扣组合</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辉映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BLACK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ROSÉ COACHELLA!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">反光手幅
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜昇植 ROMANTIC UTOPIA 1st cheering kit</t>
+  </si>
+  <si>
+    <t>裴珠泫 DALCOM 1ST CHEERING KIT</t>
+  </si>
+  <si>
+    <t>郑秀彬 ICING ON YOU 1st Cheering Kit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WINNER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李昇勋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HOONGRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机壳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粉色东东反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YUNA YOULOVE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁ninevelvet反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>170.68 / 262.68</t>
+  </si>
+  <si>
+    <t>囤货*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.23 / 90.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.05 / 38.05</t>
+  </si>
+  <si>
+    <t>63.51 / 71.51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.07 / 121.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.61 / 185.61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.08 / 48.08</t>
+  </si>
+  <si>
+    <t>未补*3 / 推主漏发 退款28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.2 / 45.2</t>
+  </si>
+  <si>
+    <t>33.03 / 87.03</t>
+  </si>
+  <si>
+    <t>94.09 / 125.09</t>
+  </si>
+  <si>
+    <t>95.49 / 144.5</t>
+  </si>
+  <si>
+    <t>32.76 / 63.77</t>
+  </si>
+  <si>
+    <t>囤货*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模饭制证件照（二次购买）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.31 / 29.31</t>
+  </si>
+  <si>
+    <t>2.65 / 28.66</t>
+  </si>
+  <si>
+    <t>未正确补款*1(囤货× 国内×)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQVE_1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAMA_03514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>keepem_ys</t>
-  </si>
-  <si>
-    <t>孙东杓 Cheering 方型手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李镇赫fm官方周边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕@19961027反光手幅 二贩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹承衍 Bunny 一代反光手幅（库存贩卖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭制404练习生position舞台手机壳 手机支架 ​​​</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭制404手机壳【一贩】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyoo02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.16到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leejinu913</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款时运费按每套3000计算 发货后退(已联系)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉 手幅收纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.41 / 148.41</t>
+  </si>
+  <si>
+    <t>南道贤 “我不把咖喱和米饭混在一起吃” 定制T恤+帆布包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩胜宇 watercolor 2nd cheering slogan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙 Only for Mini 反光手幅【二贩】(补款上架在箱)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 HIDDEN 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.71 / 60.71</t>
+  </si>
+  <si>
+    <t>报数12 实际11 需核对是否多报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数21 实际20 需核对是否多报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数A*6 C*2 实际A*4 C*2 需核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄允圣 ShineOnU 1st Cheering Kit 二贩(在接受箱上架)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.7 / 114.7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>babybear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.19 / 24.19</t>
+  </si>
+  <si>
+    <t>未补*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未补*2 囤货*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.25 / 47.25</t>
+  </si>
+  <si>
+    <t>55.05 / 117.05</t>
+  </si>
+  <si>
+    <t>囤货*4  未补*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错发8+16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200.53 / 254.53</t>
+  </si>
+  <si>
+    <t>补发8 + 未拍国内 1.51+8.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制金旻奎证件照（紫色版本）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未补*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.92 / 18.11</t>
+  </si>
+  <si>
+    <t>孙东杓饭制透扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.21已发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16 / 9.20发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补发9.11发出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一代GOT IT*3 / 决赛夜red*1 purple*1 / 漏发GOT*2 red*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款多汇了1000 已退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉 Your Heartthrob一代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2549,7 +3220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2686,6 +3357,56 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2706,7 +3427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2729,6 +3450,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2738,7 +3479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2792,6 +3533,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3111,22 +3873,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,779 +3903,1263 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2361.7399999999998</v>
+      </c>
+      <c r="G2">
+        <v>-2288.5</v>
+      </c>
+      <c r="H2">
+        <v>323.42</v>
+      </c>
+      <c r="I2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8">
+        <v>685.86</v>
+      </c>
+      <c r="G8">
+        <v>660</v>
+      </c>
+      <c r="H8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13">
+        <v>286.27</v>
+      </c>
+      <c r="G13">
+        <v>294.24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14">
+        <v>333.98</v>
+      </c>
+      <c r="G14">
+        <v>340.31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>349</v>
+      </c>
+      <c r="J14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15">
+        <v>876.71</v>
+      </c>
+      <c r="G15">
+        <v>867.36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16">
+        <v>178.92</v>
+      </c>
+      <c r="G16">
+        <v>126.59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19">
+        <v>306.14999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>352</v>
+      </c>
+      <c r="J19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20">
+        <v>107.35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>358</v>
+      </c>
+      <c r="J20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29">
+        <v>214.7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32">
+        <v>47.71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>361</v>
+      </c>
+      <c r="J32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33">
+        <v>63.04</v>
+      </c>
+      <c r="H33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43">
+        <v>566.58000000000004</v>
+      </c>
+      <c r="H43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47">
+        <v>155.06</v>
+      </c>
+      <c r="H47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52">
+        <v>535.77</v>
+      </c>
+      <c r="H52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53">
+        <v>437.36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58">
+        <v>679.9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64">
+        <v>500.98</v>
+      </c>
+      <c r="H64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>311</v>
+      </c>
+      <c r="E73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74">
+        <v>608.33000000000004</v>
+      </c>
+      <c r="H74" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>368</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
+        <v>368</v>
+      </c>
+      <c r="E78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>368</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>367</v>
+      </c>
+      <c r="D88" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" t="s">
+        <v>382</v>
+      </c>
+      <c r="E90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="s">
         <v>258</v>
       </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B61" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" t="s">
-        <v>232</v>
-      </c>
-      <c r="E64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>320</v>
-      </c>
-      <c r="B67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D67" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" t="s">
-        <v>243</v>
+    </row>
+    <row r="93" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>377</v>
+      </c>
+      <c r="B94" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95">
+        <v>214.7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3921,10 +5171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3933,9 +5183,13 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,140 +5200,296 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>219</v>
+        <v>7</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>1073.52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3">
+        <v>202.78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>226.63</v>
+      </c>
+      <c r="H5" s="24">
+        <v>19.13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <v>304.16000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <v>1395.58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11">
+        <v>1502.93</v>
+      </c>
+      <c r="G11">
+        <v>1412.46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
         <v>215</v>
       </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" t="s">
-        <v>237</v>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4091,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495DA92-C979-4DD5-9C84-AE4B61FE6D41}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4116,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,18 +5534,18 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,401 +5553,277 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
+        <v>268</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>143</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>143</v>
+        <v>369</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>242</v>
       </c>
+      <c r="C24" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>370</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" t="s">
-        <v>143</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>271</v>
-      </c>
-      <c r="B33" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4546,894 +5832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" customWidth="1"/>
-    <col min="7" max="7" width="64.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>319</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40">
-        <v>8.4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41">
-        <v>8.5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42">
-        <v>8.5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43">
-        <v>8.6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44">
-        <v>8.6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45">
-        <v>8.6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55">
-        <v>8.9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56">
-        <v>8.9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57">
-        <v>8.9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61">
-        <v>8.11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62">
-        <v>8.11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63">
-        <v>8.11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64">
-        <v>8.11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69">
-        <v>8.14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>220</v>
-      </c>
-      <c r="E69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70">
-        <v>8.15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71">
-        <v>8.15</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72">
-        <v>8.16</v>
-      </c>
-      <c r="E72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73">
-        <v>8.17</v>
-      </c>
-      <c r="E73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74">
-        <v>8.17</v>
-      </c>
-      <c r="E74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75">
-        <v>8.17</v>
-      </c>
-      <c r="E75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76">
-        <v>8.17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78">
-        <v>8.19</v>
-      </c>
-      <c r="E78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="E79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B80">
-        <v>8.26</v>
-      </c>
-      <c r="E80" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
@@ -5450,270 +5858,1187 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>8.1</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B4" s="6">
         <v>8.1</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>8.1199999999999992</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>8.1300000000000008</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>8.15</v>
       </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>208</v>
+      <c r="A9" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B9">
-        <v>8.15</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10">
-        <v>8.16</v>
+        <v>181</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11">
-        <v>8.18</v>
+      <c r="A11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
+      </c>
+      <c r="B12">
+        <v>8.19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="B13">
+        <v>8.19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B14">
-        <v>8.19</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B15">
-        <v>8.19</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B16">
-        <v>8.2100000000000009</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B17">
-        <v>8.2200000000000006</v>
+        <v>8.23</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B18">
-        <v>8.2200000000000006</v>
+        <v>8.24</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B19">
-        <v>8.2200000000000006</v>
+        <v>8.24</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B20">
-        <v>8.23</v>
+        <v>8.27</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>244</v>
+      <c r="A21" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="B21">
-        <v>8.24</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>249</v>
+      <c r="A22" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="B22">
-        <v>8.24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>250</v>
+      <c r="A23" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="B23">
-        <v>8.24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>245</v>
+      <c r="A24" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="B24">
-        <v>8.27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>262</v>
+      <c r="A25" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="B25">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38">
+        <v>9.14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39">
+        <v>9.14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40">
+        <v>9.14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41">
+        <v>9.14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42">
+        <v>9.14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45">
+        <v>9.15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="E33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>8.4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>8.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>8.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>8.6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38">
+        <v>8.6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46">
+        <v>8.9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>8.9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48">
+        <v>8.9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50">
+        <v>8.11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51">
+        <v>8.11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>8.11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53">
+        <v>8.11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58">
+        <v>8.14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59">
+        <v>8.15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60">
+        <v>8.15</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>403</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62">
+        <v>8.17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63">
+        <v>8.19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65">
+        <v>8.26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908382A-6997-4BD3-9D2F-54A185B9AF10}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5721,7 +7046,7 @@
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,120 +7060,253 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B10">
         <v>8.16</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>8.14</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>8.11</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>8.15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34">
+        <v>6.17</v>
       </c>
     </row>
   </sheetData>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D3142-E4DC-44EA-BA84-D8C3F6D3ED16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B3CC30-BBA7-4C19-A7A9-9595A7A0B4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="557">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓YOUTH 1ST CHEERING反光手幅【二贩】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>李垠尚mind1723反光手幅/全息扇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,10 +491,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李翰洁eternity一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>琴东贤breathing反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,10 +531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>饭制 X1 金属徽章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>李津宇 Jinwoo Cheering Slogan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -560,10 +548,6 @@
   </si>
   <si>
     <t>制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28汇款 7.26后无回复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -768,10 +752,6 @@
     <t>peachyhoonz</t>
   </si>
   <si>
-    <t>超截止时间 还未付款 不确定是否有库存售卖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>催 推主未回复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -820,10 +800,6 @@
   </si>
   <si>
     <t>孙东杓 15cm 娃娃（在接受箱上架）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕 HolicSeok 1st Cheering Kit（在接受箱上架）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2901,10 +2877,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>汇款时运费51,000 退26,000 暂时未退</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>汇款时运费按每套3000计算 已退8,000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3339,10 +3311,6 @@
   </si>
   <si>
     <t>10.5/10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未汇款 与一般入金一同汇款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3467,15 +3435,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未补*2(王佳雯 神州-2003214249) 囤货*1(孙瑶)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未补*1(神州-2003214249)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未补*3(聂紫燕 丁昕怡 攸倾心)     囤货*1(孙瑶)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3988,6 +3948,671 @@
   </si>
   <si>
     <t>多报一套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹产贺 💛🧡 Pong Dang X 2 2nd Photo Blanket</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车银优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 𝐭𝐰𝐢𝐧𝐤𝐥𝐞𝐬𝐭𝐚𝐫 𝟏𝐬𝐭 𝐛𝐥𝐚𝐧𝐤𝐞𝐭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金多贤 1st CHEERING KIT
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">裴珠泫 [MOON] 反光手幅
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮费后付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款一套15,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未补*3(聂紫燕 丁昕怡 攸倾心)     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未补*2(王佳雯 神州-2003214249) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONEYDONGPYO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退26,000运费 已退(155rmb)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideandSeek_kws</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo__25j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>watercolor_sw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少发了特典手拿镜*3 补发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junho_kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlyGDH_0514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry__gGu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20usd 定价142 总价未加代购费 / 直接发到沈阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stillyouSY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDH030514_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX cheering kits♡</t>
+  </si>
+  <si>
+    <t>车银优 Together_w_EW ✨Transparent Fan✨</t>
+  </si>
+  <si>
+    <t>曺柔理 帽子柔理🧢 魔术反光手幅</t>
+  </si>
+  <si>
+    <r>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2020 SEASON'S GREETING</t>
+    </r>
+  </si>
+  <si>
+    <t>和一般入金一起汇款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车银优 DearDeer 2nd Cheering kit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裴珠泫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PINKY PINKY IRENE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与一般入金一起汇款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14/10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14/10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑秀彬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> witty cheering slogan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15/10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17回复：11月发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发出：61107-0114-0515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">曺柔理 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>You're My Gladness!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车银优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Photo Blanket</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金珉周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Light Cheering Kit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车银优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> First sight slogan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车银优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cha-Rabbit Cheering Kit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">车银优 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1st Photo Blanket</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grin_with_ew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Together_w_EW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18发货：61423-0210-2737</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文彬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  2020 SEASON'S GREETING </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>odetomoonbin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINNIE HIT THE JACKPOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄恩妃 @Tangerine_0530 照片毛毯</t>
+  </si>
+  <si>
+    <t>金珉周 PINK WINTER Cheering Kit for MINJU</t>
+  </si>
+  <si>
+    <t>崔叡娜 The star's name is Choi Yena.</t>
+  </si>
+  <si>
+    <t>姜惠元 Kaku 1ST CHEERING KIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裴珠泫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Carrot Irene🐇🥕</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑真率 Jinsoul "𝚁𝚎𝚝𝚛𝚘." 2020台历</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李知恩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Red Moon Cheering Kit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bobby 2020 season's greetings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台历</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20/11.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和10.21截止的郑艺琳款一起汇款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">woodoll_
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEOWMoSang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pyodong___
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongpyo_doll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milky_ProX101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABY_yohan_doll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemung_jun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjalrang_ws</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21：二次打样中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21：取消制作 已给账号等退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yourstruly_jh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J08050922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21：12月会寄出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower_dolls_mw</t>
+  </si>
+  <si>
+    <t>mind1723</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loveandmore_JH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youn___XXx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb_eunsang</t>
+  </si>
+  <si>
+    <t>upsidedown1027</t>
+  </si>
+  <si>
+    <t>已私信补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 HolicSeok 1st Cheering Kit(接受箱)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideandSeek_kws</t>
+  </si>
+  <si>
+    <t>9.20：准备打包发货 后无回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改id 暂未找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato_closet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月后DM失效 需用Kakao联系 暂未联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22：二次打样中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22：十一月末完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发yellow*2 blue*4  / 10.22：已回复补发 等单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22：十一月初发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裴珠泫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF070C38"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2nd CHEERING KIT for IRENE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭绘手机贴纸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3999,7 +4624,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4043,14 +4668,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4319,6 +4936,61 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF070C38"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF657786"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4493,7 +5165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4506,9 +5178,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4518,52 +5187,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4572,73 +5241,94 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4959,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4993,98 +5683,98 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>281</v>
+      <c r="E1" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>685.86</v>
@@ -5103,14 +5793,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>272</v>
+      <c r="A9" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>196.81</v>
@@ -5128,24 +5818,24 @@
         <v>40.24</v>
       </c>
       <c r="K9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>516.88</v>
@@ -5165,13 +5855,13 @@
     </row>
     <row r="11" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F11">
         <v>1246.48</v>
@@ -5186,18 +5876,18 @@
         <v>43.27</v>
       </c>
       <c r="M11" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>339.95</v>
@@ -5215,7 +5905,7 @@
         <v>20.12</v>
       </c>
       <c r="M12" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,10 +5916,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>1586.42</v>
@@ -5247,7 +5937,7 @@
         <v>78.48</v>
       </c>
       <c r="K13" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L13">
         <v>251.61</v>
@@ -5255,13 +5945,13 @@
     </row>
     <row r="14" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14">
         <v>286.27</v>
@@ -5279,7 +5969,7 @@
         <v>24.15</v>
       </c>
       <c r="K14" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -5287,13 +5977,13 @@
     </row>
     <row r="15" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F15">
         <v>333.98</v>
@@ -5311,18 +6001,18 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="M15" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16">
         <v>876.71</v>
@@ -5342,16 +6032,16 @@
     </row>
     <row r="17" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F17">
         <v>178.92</v>
@@ -5369,24 +6059,24 @@
         <v>89.55</v>
       </c>
       <c r="K17" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>333.98</v>
@@ -5406,13 +6096,13 @@
     </row>
     <row r="19" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F19">
         <v>214.7</v>
@@ -5430,21 +6120,21 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F20">
         <v>306.14999999999998</v>
@@ -5459,24 +6149,24 @@
         <v>28.17</v>
       </c>
       <c r="K20" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L20">
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>235</v>
+      <c r="A21" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F21">
         <v>107.35</v>
@@ -5496,13 +6186,13 @@
     </row>
     <row r="22" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>75.540000000000006</v>
@@ -5515,14 +6205,14 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>236</v>
+      <c r="A23" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>89.46</v>
@@ -5540,27 +6230,27 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K23" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="L23">
         <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>232</v>
+      <c r="C24" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F24">
         <v>709.72</v>
@@ -5578,7 +6268,7 @@
         <v>36.22</v>
       </c>
       <c r="K24" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="L24">
         <v>8</v>
@@ -5586,17 +6276,20 @@
     </row>
     <row r="25" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <v>608.33000000000004</v>
       </c>
+      <c r="G25">
+        <v>613.14</v>
+      </c>
       <c r="H25">
         <v>112.3</v>
       </c>
@@ -5608,18 +6301,21 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>234</v>
+      <c r="A26" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <v>323.05</v>
       </c>
+      <c r="G26">
+        <v>296.17</v>
+      </c>
       <c r="H26">
         <v>76.05</v>
       </c>
@@ -5630,18 +6326,18 @@
         <v>60.37</v>
       </c>
       <c r="M26" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F27">
         <v>59.6</v>
@@ -5659,18 +6355,18 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="M27" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>231</v>
+      <c r="A28" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F28">
         <v>125.24</v>
@@ -5690,13 +6386,13 @@
     </row>
     <row r="29" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <v>9124.92</v>
@@ -5714,24 +6410,24 @@
         <v>589.6</v>
       </c>
       <c r="K29" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L29">
         <v>17.510000000000002</v>
       </c>
       <c r="M29" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <v>214.7</v>
@@ -5751,35 +6447,35 @@
     </row>
     <row r="31" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>243</v>
+      <c r="A33" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <v>47.71</v>
@@ -5797,18 +6493,18 @@
         <v>10.06</v>
       </c>
       <c r="M33" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>313</v>
+      <c r="A34" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <v>63.04</v>
@@ -5827,14 +6523,14 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>244</v>
+      <c r="A35" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,40 +6541,40 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>334</v>
+      <c r="A37" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>466</v>
+      <c r="A39" s="47" t="s">
+        <v>456</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F39">
         <v>222.66</v>
@@ -5901,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,7 +6608,7 @@
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,18 +6619,18 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5945,7 +6641,7 @@
         <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F44">
         <v>566.58000000000004</v>
@@ -5968,40 +6664,40 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F48">
         <v>155.06</v>
@@ -6027,7 +6723,7 @@
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6038,46 +6734,46 @@
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>254</v>
+      <c r="A51" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>255</v>
+      <c r="A52" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>269</v>
+      <c r="A53" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>270</v>
+        <v>187</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F53">
         <v>535.77</v>
@@ -6092,21 +6788,21 @@
         <v>18.11</v>
       </c>
       <c r="M53" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>192</v>
+      <c r="A54" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F54">
         <v>437.36</v>
@@ -6124,7 +6820,7 @@
         <v>70.430000000000007</v>
       </c>
       <c r="M54" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6132,57 +6828,57 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>261</v>
+        <v>188</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F59">
         <v>679.9</v>
@@ -6205,32 +6901,32 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6238,21 +6934,21 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>263</v>
+      <c r="A64" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,13 +6956,13 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F65">
         <v>500.98</v>
@@ -6286,38 +6982,38 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>268</v>
+      <c r="A68" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>270</v>
+        <v>191</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F68">
         <v>934.36</v>
@@ -6332,7 +7028,7 @@
         <v>31.19</v>
       </c>
       <c r="K68" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L68">
         <v>388</v>
@@ -6343,79 +7039,79 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>122</v>
+        <v>279</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>145</v>
+        <v>279</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F75">
         <v>608.33000000000004</v>
@@ -6435,237 +7131,243 @@
     </row>
     <row r="76" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
-        <v>322</v>
+      <c r="A79" s="40" t="s">
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>155</v>
+        <v>312</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" t="s">
+        <v>482</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E86" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>139</v>
+      <c r="A88" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>326</v>
+        <v>311</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>325</v>
+        <v>311</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
-        <v>317</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>136</v>
+        <v>311</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>327</v>
+        <v>311</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>146</v>
+        <v>311</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E93" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>224</v>
+      <c r="A94" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F95">
         <v>214.7</v>
@@ -6684,152 +7386,152 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41" t="s">
-        <v>379</v>
+      <c r="A96" s="40" t="s">
+        <v>372</v>
       </c>
       <c r="B96" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>196</v>
+        <v>344</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41" t="s">
-        <v>167</v>
+      <c r="A101" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>316</v>
+        <v>344</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
-        <v>168</v>
+      <c r="A105" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="s">
-        <v>86</v>
+      <c r="A106" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E107" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E108" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6837,32 +7539,32 @@
         <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E110" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E111" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6870,60 +7572,60 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E112" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E113" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
-        <v>87</v>
+      <c r="A114" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E114" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>361</v>
+        <v>352</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>354</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,57 +7633,57 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41" t="s">
-        <v>328</v>
+      <c r="A118" s="40" t="s">
+        <v>322</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E118" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
-      </c>
-      <c r="D119" s="41" t="s">
-        <v>360</v>
+        <v>352</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>478</v>
       </c>
       <c r="E119" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="38" t="s">
-        <v>142</v>
+      <c r="A120" s="37" t="s">
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E120" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,19 +7691,19 @@
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F122">
         <v>304.16000000000003</v>
       </c>
       <c r="K122" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L122">
         <v>306</v>
@@ -7009,16 +7711,16 @@
     </row>
     <row r="123" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>200</v>
-      </c>
-      <c r="D123" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="E123" s="55" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7026,57 +7728,76 @@
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
-      </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
+        <v>194</v>
+      </c>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
     </row>
     <row r="125" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
-      </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
+        <v>194</v>
+      </c>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
     </row>
     <row r="126" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
-      </c>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
+        <v>194</v>
+      </c>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
     </row>
     <row r="127" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E127" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" s="41" t="s">
-        <v>416</v>
+        <v>147</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>408</v>
       </c>
       <c r="E128" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131" t="s">
+        <v>544</v>
+      </c>
+      <c r="E131" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7094,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7107,7 +7828,7 @@
     <col min="5" max="5" width="5.21875" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="7.109375" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
@@ -7130,55 +7851,55 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>281</v>
+      <c r="F1" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="S1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1073.52</v>
@@ -7195,44 +7916,44 @@
       <c r="J2">
         <v>15.09</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="41">
         <f>F2+H2*0.994-G2</f>
         <v>87.636320000000069</v>
       </c>
       <c r="L2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M2">
         <v>24</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="44">
         <f>K2-M2</f>
         <v>63.636320000000069</v>
       </c>
-      <c r="O2" s="42">
-        <f t="shared" ref="O2:O11" si="0">J2*0.994+I2*0.994</f>
+      <c r="O2" s="41">
+        <f t="shared" ref="O2:O12" si="0">J2*0.994+I2*0.994</f>
         <v>18.001339999999999</v>
       </c>
-      <c r="P2" s="43">
-        <f t="shared" ref="P2:P11" si="1">N2+O2</f>
+      <c r="P2" s="42">
+        <f t="shared" ref="P2:P12" si="1">N2+O2</f>
         <v>81.637660000000068</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>434</v>
+      <c r="Q2" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="S2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>202.78</v>
@@ -7249,38 +7970,38 @@
       <c r="J3">
         <v>5.03</v>
       </c>
-      <c r="K3" s="42">
-        <f t="shared" ref="K3:K11" si="2">F3+H3*0.994-G3</f>
+      <c r="K3" s="41">
+        <f t="shared" ref="K3:K12" si="2">F3+H3*0.994-G3</f>
         <v>2.986140000000006</v>
       </c>
-      <c r="N3" s="45">
-        <f t="shared" ref="N3:N11" si="3">K3-M3</f>
+      <c r="N3" s="44">
+        <f t="shared" ref="N3:N12" si="3">K3-M3</f>
         <v>2.986140000000006</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="41">
         <f t="shared" si="0"/>
         <v>6.987820000000001</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="42">
         <f t="shared" si="1"/>
         <v>9.973960000000007</v>
       </c>
       <c r="Q3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="S3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>2194.75</v>
@@ -7297,24 +8018,24 @@
       <c r="J4">
         <v>97.59</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="41">
         <f t="shared" si="2"/>
         <v>322.4043999999999</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="44">
         <f t="shared" si="3"/>
         <v>322.4043999999999</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="41">
         <f t="shared" si="0"/>
         <v>118.50468000000001</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="42">
         <f t="shared" si="1"/>
         <v>440.9090799999999</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>436</v>
+      <c r="Q4" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7325,7 +8046,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>226.63</v>
@@ -7333,33 +8054,33 @@
       <c r="G5">
         <v>235.41</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>17.25</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <f t="shared" si="2"/>
         <v>8.366500000000002</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="44">
         <f t="shared" si="3"/>
         <v>8.366500000000002</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="42">
         <f t="shared" si="1"/>
         <v>8.366500000000002</v>
       </c>
       <c r="Q5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7370,7 +8091,7 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>304.16000000000003</v>
@@ -7387,24 +8108,24 @@
       <c r="J6">
         <v>16.100000000000001</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <f t="shared" si="2"/>
         <v>26.40948000000003</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="44">
         <f t="shared" si="3"/>
         <v>26.40948000000003</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="41">
         <f t="shared" si="0"/>
         <v>19.005280000000003</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="42">
         <f t="shared" si="1"/>
         <v>45.41476000000003</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>435</v>
+      <c r="Q6" s="11" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7415,7 +8136,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>1395.58</v>
@@ -7432,19 +8153,19 @@
       <c r="J7">
         <v>100.6</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <f t="shared" si="2"/>
         <v>41.801159999999982</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <f t="shared" si="3"/>
         <v>41.801159999999982</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="41">
         <f t="shared" si="0"/>
         <v>119.97579999999999</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="42">
         <f t="shared" si="1"/>
         <v>161.77695999999997</v>
       </c>
@@ -7457,7 +8178,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>95.42</v>
@@ -7474,19 +8195,19 @@
       <c r="J8">
         <v>8.0500000000000007</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <f t="shared" si="2"/>
         <v>8.362560000000002</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f t="shared" si="3"/>
         <v>8.362560000000002</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="41">
         <f t="shared" si="0"/>
         <v>8.0017000000000014</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="42">
         <f t="shared" si="1"/>
         <v>16.364260000000002</v>
       </c>
@@ -7499,7 +8220,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>214.7</v>
@@ -7516,32 +8237,32 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <f t="shared" si="2"/>
         <v>22.55419999999998</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="44">
         <f t="shared" si="3"/>
         <v>22.55419999999998</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="41">
         <f t="shared" si="0"/>
         <v>1.5009399999999999</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="42">
         <f t="shared" si="1"/>
         <v>24.05513999999998</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>858.82</v>
@@ -7558,30 +8279,30 @@
       <c r="J10">
         <v>46.28</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <f t="shared" si="2"/>
         <v>68.212620000000015</v>
       </c>
       <c r="L10" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M10">
         <v>150</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <f t="shared" si="3"/>
         <v>-81.787379999999985</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="41">
         <f t="shared" si="0"/>
         <v>54.013959999999997</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="42">
         <f t="shared" si="1"/>
         <v>-27.773419999999987</v>
       </c>
       <c r="Q10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7592,7 +8313,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F11">
         <v>1502.93</v>
@@ -7609,330 +8330,366 @@
       <c r="J11">
         <v>57.35</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <f t="shared" si="2"/>
         <v>280.00592000000006</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>453</v>
+      <c r="L11" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="M11">
         <v>8</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="44">
         <f t="shared" si="3"/>
         <v>272.00592000000006</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <f t="shared" si="0"/>
         <v>65.544360000000012</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="42">
         <f t="shared" si="1"/>
         <v>337.55028000000004</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
+      <c r="A12" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>474</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>122</v>
+      </c>
+      <c r="F12" s="5">
+        <v>286.27</v>
+      </c>
+      <c r="G12">
+        <v>292.95999999999998</v>
+      </c>
+      <c r="H12">
+        <v>32.56</v>
+      </c>
+      <c r="I12">
+        <v>3.12</v>
+      </c>
+      <c r="J12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K12" s="41">
+        <f t="shared" si="2"/>
+        <v>25.674640000000011</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="44">
+        <f t="shared" si="3"/>
+        <v>25.674640000000011</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" si="0"/>
+        <v>19.104680000000002</v>
+      </c>
+      <c r="P12" s="42">
+        <f t="shared" si="1"/>
+        <v>44.779320000000013</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>180</v>
+      <c r="A13" t="s">
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>204</v>
+      <c r="A18" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
         <v>285</v>
       </c>
-      <c r="E18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
         <v>285</v>
       </c>
-      <c r="E19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" t="s">
-        <v>291</v>
-      </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="B24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" t="s">
+        <v>410</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B25" t="s">
-        <v>350</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B28" t="s">
-        <v>358</v>
-      </c>
-      <c r="E28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" t="s">
-        <v>358</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" t="s">
-        <v>358</v>
-      </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="B31" t="s">
-        <v>358</v>
-      </c>
-      <c r="E31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="B32" t="s">
-        <v>358</v>
-      </c>
-      <c r="E32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" t="s">
-        <v>358</v>
-      </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" t="s">
-        <v>418</v>
-      </c>
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>417</v>
+      <c r="B38" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7947,7 +8704,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7988,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8017,13 +8774,13 @@
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8033,11 +8790,11 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>215</v>
+      <c r="C8" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8058,24 +8815,24 @@
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8083,59 +8840,59 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -8147,10 +8904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8177,875 +8934,1201 @@
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>158</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="5">
         <v>8.1</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>189</v>
+      <c r="A4" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="B4">
         <v>8.1199999999999992</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>174</v>
+      <c r="A5" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B5">
         <v>8.15</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>173</v>
+      <c r="A6" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B6">
         <v>8.18</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>172</v>
+      <c r="A7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>176</v>
+      <c r="A8" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="B8">
         <v>8.19</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>388</v>
+      <c r="A9" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>175</v>
+      <c r="A10" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>203</v>
+      <c r="A11" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B11">
         <v>8.2200000000000006</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>205</v>
+      <c r="A12" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B12">
         <v>8.23</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>201</v>
+      <c r="A13" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="B13">
         <v>8.24</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>206</v>
+      <c r="A14" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="B14">
         <v>8.24</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>202</v>
+      <c r="A15" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="B15">
         <v>8.27</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>219</v>
+      <c r="A16" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="B16">
         <v>8.2899999999999991</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>302</v>
+      <c r="A17" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>288</v>
+      <c r="A18" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="B18">
         <v>9.6</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>289</v>
+      <c r="A19" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="B19">
         <v>9.6999999999999993</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="5">
         <v>9.1</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>294</v>
+      <c r="A21" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="B21">
         <v>9.11</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>295</v>
+      <c r="A22" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>309</v>
+      <c r="A23" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="B23">
         <v>9.1300000000000008</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>308</v>
+      <c r="A24" s="19" t="s">
+        <v>302</v>
       </c>
       <c r="B24">
         <v>9.14</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>296</v>
+      <c r="A25" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="B25">
         <v>9.14</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>297</v>
+      <c r="A26" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="B26">
         <v>9.14</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>298</v>
+      <c r="A27" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="B27">
         <v>9.14</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>299</v>
+      <c r="A28" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>357</v>
+      <c r="A29" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>300</v>
+      <c r="A30" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="B30">
         <v>9.15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>301</v>
+      <c r="A31" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="B31">
         <v>9.15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>338</v>
+      <c r="A32" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="B32">
         <v>9.19</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>339</v>
+      <c r="A33" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="B33">
         <v>9.19</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>340</v>
+      <c r="A34" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="B34">
         <v>9.19</v>
       </c>
+      <c r="D34" t="s">
+        <v>511</v>
+      </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>341</v>
+      <c r="A35" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="B35">
         <v>9.19</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>362</v>
+      <c r="C35" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="5">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="5">
+        <v>9.23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="5">
+        <v>9.24</v>
+      </c>
+      <c r="E45" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B37" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B38" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B39" s="6">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" s="6">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B41" s="6">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="E41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B42" s="6">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9.24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="5">
+        <v>9.24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="24">
+        <v>9.25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B43" s="6">
-        <v>9.23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="B50" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B45" s="6">
-        <v>9.24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B46" s="6">
-        <v>9.24</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B47" s="6">
-        <v>9.24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B48" s="25">
-        <v>9.25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>456</v>
-      </c>
-      <c r="E48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B49" s="6">
-        <v>9.27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="6">
-        <v>9.27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B51" s="6">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B52" s="6">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="B53" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B57" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B60" s="5">
         <v>9.2899999999999991</v>
       </c>
-      <c r="E53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B54" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B55" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B56" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B57" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B58" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B59" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="E59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" s="6">
-        <v>9.2899999999999991</v>
-      </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D61" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B62" s="23">
+        <v>10.4</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B61" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D61" t="s">
-        <v>403</v>
-      </c>
-      <c r="E61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B62" s="24">
-        <v>10.4</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="D64" t="s">
+        <v>496</v>
+      </c>
+      <c r="E64" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E63" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D64" t="s">
-        <v>410</v>
-      </c>
-      <c r="E64" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="65" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>399</v>
+      <c r="A65" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="B65">
         <v>10.5</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>412</v>
+      <c r="C65" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B66">
         <v>10.6</v>
       </c>
       <c r="D66" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="E66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="B67">
         <v>10.6</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>414</v>
+      <c r="A68" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="B68">
         <v>10.6</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>415</v>
+      <c r="A69" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="B69">
         <v>10.7</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>419</v>
+      <c r="A70" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="B70">
         <v>10.8</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>420</v>
+      <c r="A71" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="B71">
         <v>10.9</v>
       </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>421</v>
+      <c r="A72" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="B72">
         <v>10.9</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>422</v>
+      <c r="A73" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="B73">
         <v>10.9</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>423</v>
+      <c r="A74" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="B74">
         <v>10.9</v>
       </c>
+      <c r="E74" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>455</v>
+      <c r="A75" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="B75">
         <v>10.9</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" s="5">
+        <v>10.11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B80" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B76" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B77" s="6">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B78" s="6">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B79" s="6">
-        <v>10.11</v>
+      <c r="B81" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B82" s="5">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B83" s="5">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B85" s="5">
+        <v>10.14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B86" s="5">
+        <v>10.14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" s="5">
+        <v>10.14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B89" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B90" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B91" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B93" s="5">
+        <v>10.16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B94" s="5">
+        <v>10.16</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" s="5">
+        <v>10.16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="5">
+        <v>10.16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B97" s="5">
+        <v>10.17</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B98" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B99" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B100" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B101" s="5">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B102" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B103" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B104" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B105" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B107" s="5">
+        <v>10.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9057,17 +10140,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.88671875" customWidth="1"/>
   </cols>
@@ -9087,28 +10170,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>314</v>
+      <c r="C2" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="49" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>315</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9118,13 +10201,22 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9132,7 +10224,13 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9142,390 +10240,437 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>74</v>
+      <c r="A10" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>79</v>
+      <c r="A11" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+      <c r="C12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
+      <c r="A13" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>156</v>
+      <c r="C13" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
+      <c r="C15" s="7" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>76</v>
+      <c r="A16" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
-        <v>126</v>
+      <c r="C16" s="7" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
+      <c r="A17" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>329</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
+      <c r="A18" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
+      <c r="A19" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>335</v>
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>552</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>154</v>
+      <c r="A21" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21">
+        <v>8.5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>547</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
+      <c r="A22" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B23">
-        <v>8.4</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>94</v>
+      <c r="A24" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="B24">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>8.9</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" t="s">
+        <v>502</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B25">
-        <v>8.5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>8.6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="B27">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" t="s">
+        <v>553</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>277</v>
+        <v>160</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29">
-        <v>8.8000000000000007</v>
+        <v>155</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>169</v>
+      <c r="A30" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="B30">
-        <v>8.8000000000000007</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D30" t="s">
+        <v>501</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B31">
-        <v>8.9</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D31" t="s">
+        <v>537</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B32">
-        <v>8.9</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D32" t="s">
+        <v>548</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="6">
-        <v>8.1</v>
+      <c r="A33" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>8.14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D33" t="s">
+        <v>486</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>110</v>
+      <c r="A34" s="50" t="s">
+        <v>136</v>
       </c>
       <c r="B34">
-        <v>8.11</v>
+        <v>8.15</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B35">
-        <v>8.1300000000000008</v>
+        <v>8.19</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" t="s">
+        <v>551</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="B36">
-        <v>8.1300000000000008</v>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D36" t="s">
+        <v>554</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38">
-        <v>8.14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39">
-        <v>8.15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40">
-        <v>8.17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41">
-        <v>8.19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
+      <c r="A37" s="51" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -9586,7 +10731,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9594,7 +10739,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9607,88 +10752,88 @@
     </row>
     <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>8.16</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>8.14</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>8.11</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>8.15</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>290</v>
+      <c r="C14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B18">
         <v>5.24</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>235</v>
+      <c r="A19" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="B19">
         <v>6.23</v>
@@ -9696,23 +10841,23 @@
     </row>
     <row r="20" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="6">
+        <v>234</v>
+      </c>
+      <c r="B20" s="5">
         <v>7.1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>243</v>
+      <c r="A21" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="B21">
         <v>6.4</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>313</v>
+      <c r="A22" s="14" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,15 +10870,15 @@
     </row>
     <row r="24" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="6">
+        <v>247</v>
+      </c>
+      <c r="B24" s="5">
         <v>7.1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>192</v>
+      <c r="A25" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="B25">
         <v>6.8</v>
@@ -9741,7 +10886,7 @@
     </row>
     <row r="26" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B26">
         <v>6.21</v>
@@ -9751,13 +10896,13 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>7.1</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B28">
         <v>6.17</v>
@@ -9765,7 +10910,7 @@
     </row>
     <row r="29" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>7.28</v>
@@ -9797,7 +10942,7 @@
     </row>
     <row r="33" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B33">
         <v>6.5</v>
@@ -9805,7 +10950,7 @@
     </row>
     <row r="34" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B34">
         <v>6.17</v>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4FB5C-AB1A-4F64-AE54-9D7DA25C6837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED953ED9-AAB9-462D-A666-0067E139FC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="12252" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="11616" yWindow="0" windowWidth="11232" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1376">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7990,10 +7990,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.8：会在12月发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.5：已寄出 / 待退多付的运费 1208php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -8195,10 +8191,6 @@
   </si>
   <si>
     <t>990913days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.9：12月第四周发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10199,10 +10191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：预计12.20~12.30发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -10571,10 +10559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：今年发货(预计12.24之前)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TOB1NI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10849,10 +10833,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：12月末发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9：12.23开始发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -11389,10 +11369,6 @@
   </si>
   <si>
     <t>12.9：预计12.16开始发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.9：12月中下旬发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -11445,14 +11421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：中旬寄出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.9：最迟12.20发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9：预计12.16~12.20发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12444,10 +12412,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：预计12.14发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9：12月底或一月发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12496,23 +12460,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：预计12月内发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9：1619001319390</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RedBeat_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款4套 已退48,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.9：预计12.20~12.30发货 / 需填表格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12624,10 +12576,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.10：12月中旬发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>epitome_ph</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12980,14 +12928,6 @@
       </rPr>
       <t xml:space="preserve"> Together_w_EW ✨Transparent Fan✨</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.11：12月下旬发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.11：预计下周发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -13185,10 +13125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.12：下周发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>12.12：CJ</t>
     </r>
@@ -13377,9 +13313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：预计12.18发货</t>
-  </si>
-  <si>
     <t>和二贩一起发 漏发白色帆布袋*1  年底补发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13453,10 +13386,6 @@
   </si>
   <si>
     <t>车银优 🌈Dong Mini 20cm娃  【9】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.16：12月发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -14094,10 +14023,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中国发货 / 12,17：本周发货 和补发的拉链袋一起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一起发货 日本发 /拉链袋破*5 待退款100yen/个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14384,10 +14309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.19：明天发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mattgraydh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14621,10 +14542,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.19：预计一月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.20：12.25开始发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15007,6 +14924,220 @@
       </rPr>
       <t>韩国到货：</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.22：明年一月发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：今天开始发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：12月发货 / 和漏发的COOL钥匙扣*4 一起发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：12月最后一周发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：本周发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：12.26开始发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：明天发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.23：415126663862 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한진택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：预计26号发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：1417202513001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：已发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国发货 / 12,23：中通202000678895</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.23：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한진택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 415126623881</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.23：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우체국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 61119-0117-2133</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：尽量12月发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：预计12.26发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：今明两天发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.20：CJ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대한통운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6355706383 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：预计1月第一周或第二周发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：最迟本周周末发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款4套 已退48,000 / 12.23：预计一月第一周发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：预计一月发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19：预计一月发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：53566-0500-5713</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16627,20 +16758,8 @@
     <xf numFmtId="0" fontId="83" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -16650,6 +16769,18 @@
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -17753,8 +17884,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156" t="s">
-        <v>1362</v>
+      <c r="A21" s="152" t="s">
+        <v>1341</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -18056,7 +18187,7 @@
         <v>22.378400000000006</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="M28" s="5">
         <v>13</v>
@@ -18066,7 +18197,7 @@
         <v>9.3784000000000063</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="P28" s="5">
         <v>1</v>
@@ -20149,7 +20280,7 @@
         <v>10.06</v>
       </c>
       <c r="K81" s="58">
-        <f>F81+H81*0.994-G81</f>
+        <f t="shared" ref="K81:K88" si="10">F81+H81*0.994-G81</f>
         <v>347.91759999999999</v>
       </c>
       <c r="N81" s="58">
@@ -20189,7 +20320,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K82" s="58">
-        <f>F82+H82*0.994-G82</f>
+        <f t="shared" si="10"/>
         <v>18.434440000000023</v>
       </c>
       <c r="N82" s="58">
@@ -20226,7 +20357,7 @@
         <v>18.11</v>
       </c>
       <c r="K83" s="58">
-        <f>F83+H83*0.994-G83</f>
+        <f t="shared" si="10"/>
         <v>23.981279999999998</v>
       </c>
       <c r="N83" s="58">
@@ -20260,7 +20391,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K84" s="58">
-        <f>F84+H84*0.994-G84</f>
+        <f t="shared" si="10"/>
         <v>46.050200000000018</v>
       </c>
       <c r="N84" s="58">
@@ -20297,7 +20428,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K85" s="58">
-        <f>F85+H85*0.994-G85</f>
+        <f t="shared" si="10"/>
         <v>30.450240000000008</v>
       </c>
       <c r="N85" s="58">
@@ -20331,7 +20462,7 @@
         <v>24.15</v>
       </c>
       <c r="K86" s="58">
-        <f>F86+H86*0.994-G86</f>
+        <f t="shared" si="10"/>
         <v>50.428720000000055</v>
       </c>
       <c r="L86" t="s">
@@ -20380,7 +20511,7 @@
         <v>25.15</v>
       </c>
       <c r="K87" s="58">
-        <f>F87+H87*0.994-G87</f>
+        <f t="shared" si="10"/>
         <v>43.044960000000003</v>
       </c>
       <c r="N87" s="58">
@@ -20415,7 +20546,7 @@
         <v>134.83000000000001</v>
       </c>
       <c r="K88" s="58">
-        <f>F88+H88*0.994-G88</f>
+        <f t="shared" si="10"/>
         <v>-175.22960000000012</v>
       </c>
       <c r="N88" s="58">
@@ -20460,11 +20591,11 @@
         <v>26.16</v>
       </c>
       <c r="K90" s="58">
-        <f t="shared" ref="K90:K96" si="10">F90+H90*0.994-G90</f>
+        <f t="shared" ref="K90:K96" si="11">F90+H90*0.994-G90</f>
         <v>84.106920000000059</v>
       </c>
       <c r="N90" s="58">
-        <f t="shared" ref="N90:N96" si="11">K90-M90</f>
+        <f t="shared" ref="N90:N96" si="12">K90-M90</f>
         <v>84.106920000000059</v>
       </c>
     </row>
@@ -20497,11 +20628,11 @@
         <v>102.64</v>
       </c>
       <c r="K91" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>320.61362000000008</v>
       </c>
       <c r="N91" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>320.61362000000008</v>
       </c>
       <c r="O91" s="57" t="s">
@@ -20565,11 +20696,11 @@
         <v>52.32</v>
       </c>
       <c r="K93" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-81.181280000000015</v>
       </c>
       <c r="N93" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-81.181280000000015</v>
       </c>
     </row>
@@ -20602,11 +20733,11 @@
         <v>72.44</v>
       </c>
       <c r="K94" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-229.81179999999995</v>
       </c>
       <c r="N94" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-229.81179999999995</v>
       </c>
     </row>
@@ -20636,11 +20767,11 @@
         <v>34.21</v>
       </c>
       <c r="K95" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95.87063999999998</v>
       </c>
       <c r="N95" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95.87063999999998</v>
       </c>
       <c r="O95" s="57" t="s">
@@ -20673,11 +20804,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.473960000000034</v>
       </c>
       <c r="N96" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28.473960000000034</v>
       </c>
     </row>
@@ -20745,7 +20876,7 @@
         <v>71.347299999999962</v>
       </c>
       <c r="L98" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="M98">
         <v>26</v>
@@ -20781,11 +20912,11 @@
         <v>36.22</v>
       </c>
       <c r="K99" s="58">
-        <f t="shared" ref="K99:K102" si="12">F99+H99*0.994-G99</f>
+        <f t="shared" ref="K99:K102" si="13">F99+H99*0.994-G99</f>
         <v>92.465599999999995</v>
       </c>
       <c r="N99" s="58">
-        <f t="shared" ref="N99:N114" si="13">K99-M99</f>
+        <f t="shared" ref="N99:N114" si="14">K99-M99</f>
         <v>92.465599999999995</v>
       </c>
     </row>
@@ -20815,11 +20946,11 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K100" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.35596000000001</v>
       </c>
       <c r="N100" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.35596000000001</v>
       </c>
     </row>
@@ -20852,7 +20983,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K101" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.7721600000000137</v>
       </c>
       <c r="L101" s="57" t="s">
@@ -20862,7 +20993,7 @@
         <v>131.4</v>
       </c>
       <c r="N101" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-124.62783999999999</v>
       </c>
     </row>
@@ -20892,11 +21023,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.32735999999997</v>
       </c>
       <c r="N102" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.32735999999997</v>
       </c>
     </row>
@@ -20926,11 +21057,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K103" s="58">
-        <f>F103+H103*0.994-G103</f>
+        <f t="shared" ref="K103:K115" si="15">F103+H103*0.994-G103</f>
         <v>42.424320000000023</v>
       </c>
       <c r="N103" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.424320000000023</v>
       </c>
     </row>
@@ -20963,17 +21094,17 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K104" s="58">
-        <f>F104+H104*0.994-G104</f>
+        <f t="shared" si="15"/>
         <v>86.461039999999912</v>
       </c>
       <c r="L104" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="M104">
         <v>19</v>
       </c>
       <c r="N104" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67.461039999999912</v>
       </c>
     </row>
@@ -21003,11 +21134,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K105" s="58">
-        <f>F105+H105*0.994-G105</f>
+        <f t="shared" si="15"/>
         <v>24.559279999999973</v>
       </c>
       <c r="N105" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.559279999999973</v>
       </c>
     </row>
@@ -21037,11 +21168,11 @@
         <v>18.11</v>
       </c>
       <c r="K106" s="58">
-        <f>F106+H106*0.994-G106</f>
+        <f t="shared" si="15"/>
         <v>27.225839999999977</v>
       </c>
       <c r="N106" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.225839999999977</v>
       </c>
     </row>
@@ -21071,11 +21202,11 @@
         <v>14.09</v>
       </c>
       <c r="K107" s="58">
-        <f>F107+H107*0.994-G107</f>
+        <f t="shared" si="15"/>
         <v>43.062439999999981</v>
       </c>
       <c r="N107" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.062439999999981</v>
       </c>
     </row>
@@ -21105,11 +21236,11 @@
         <v>18.11</v>
       </c>
       <c r="K108" s="58">
-        <f>F108+H108*0.994-G108</f>
+        <f t="shared" si="15"/>
         <v>-71.51460000000003</v>
       </c>
       <c r="N108" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-71.51460000000003</v>
       </c>
     </row>
@@ -21139,11 +21270,11 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K109" s="58">
-        <f>F109+H109*0.994-G109</f>
+        <f t="shared" si="15"/>
         <v>45.486899999999991</v>
       </c>
       <c r="N109" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.486899999999991</v>
       </c>
       <c r="O109" s="57" t="s">
@@ -21176,15 +21307,15 @@
         <v>40.25</v>
       </c>
       <c r="K110" s="58">
-        <f>F110+H110*0.994-G110</f>
+        <f t="shared" si="15"/>
         <v>88.439759999999978</v>
       </c>
       <c r="N110" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88.439759999999978</v>
       </c>
       <c r="O110" s="57" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21213,15 +21344,15 @@
         <v>0</v>
       </c>
       <c r="K111" s="58">
-        <f>F111+H111*0.994-G111</f>
+        <f t="shared" si="15"/>
         <v>-2.5147599999999954</v>
       </c>
       <c r="N111" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.5147599999999954</v>
       </c>
       <c r="O111" s="57" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21250,11 +21381,11 @@
         <v>52.32</v>
       </c>
       <c r="K112" s="58">
-        <f>F112+H112*0.994-G112</f>
+        <f t="shared" si="15"/>
         <v>61.65476000000001</v>
       </c>
       <c r="N112" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>61.65476000000001</v>
       </c>
       <c r="O112" s="57" t="s">
@@ -21287,15 +21418,15 @@
         <v>24.15</v>
       </c>
       <c r="K113" s="58">
-        <f>F113+H113*0.994-G113</f>
+        <f t="shared" si="15"/>
         <v>40.775319999999965</v>
       </c>
       <c r="N113" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40.775319999999965</v>
       </c>
       <c r="O113" s="57" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21324,11 +21455,11 @@
         <v>106.66</v>
       </c>
       <c r="K114" s="58">
-        <f>F114+H114*0.994-G114</f>
+        <f t="shared" si="15"/>
         <v>308.30711999999994</v>
       </c>
       <c r="N114" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>308.30711999999994</v>
       </c>
       <c r="O114" s="57" t="s">
@@ -21337,7 +21468,7 @@
     </row>
     <row r="115" spans="1:15" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="B115" s="57" t="s">
         <v>271</v>
@@ -21345,42 +21476,42 @@
       <c r="E115" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F115" s="152">
+      <c r="F115" s="157">
         <v>1335.94</v>
       </c>
-      <c r="G115" s="152">
+      <c r="G115" s="157">
         <v>1182.3499999999999</v>
       </c>
-      <c r="H115" s="152">
+      <c r="H115" s="157">
         <v>92.52</v>
       </c>
-      <c r="I115" s="152">
+      <c r="I115" s="157">
         <v>9.34</v>
       </c>
-      <c r="J115" s="152">
+      <c r="J115" s="157">
         <v>112.7</v>
       </c>
-      <c r="K115" s="151">
-        <f>F115+H115*0.994-G115</f>
+      <c r="K115" s="155">
+        <f t="shared" si="15"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="L115" s="153" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M115" s="152">
+      <c r="L115" s="156" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M115" s="157">
         <v>23</v>
       </c>
-      <c r="N115" s="151">
+      <c r="N115" s="155">
         <f>K115-M115</f>
         <v>222.55488000000014</v>
       </c>
       <c r="O115" s="57" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="B116" t="s">
         <v>271</v>
@@ -21388,27 +21519,27 @@
       <c r="E116" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="152"/>
-      <c r="G116" s="152"/>
-      <c r="H116" s="152">
+      <c r="F116" s="157"/>
+      <c r="G116" s="157"/>
+      <c r="H116" s="157">
         <v>49.72</v>
       </c>
-      <c r="I116" s="152">
+      <c r="I116" s="157">
         <v>4.84</v>
       </c>
-      <c r="J116" s="152">
+      <c r="J116" s="157">
         <v>50.31</v>
       </c>
-      <c r="K116" s="151"/>
-      <c r="L116" s="153" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M116" s="152">
+      <c r="K116" s="155"/>
+      <c r="L116" s="156" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M116" s="157">
         <v>23</v>
       </c>
-      <c r="N116" s="152"/>
+      <c r="N116" s="157"/>
       <c r="O116" s="57" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21437,7 +21568,7 @@
         <v>58.36</v>
       </c>
       <c r="K117" s="58">
-        <f>F117+H117*0.994-G117</f>
+        <f t="shared" ref="K117:K124" si="16">F117+H117*0.994-G117</f>
         <v>248.49689999999987</v>
       </c>
       <c r="N117" s="58">
@@ -21477,11 +21608,11 @@
         <v>24.15</v>
       </c>
       <c r="K118" s="58">
-        <f>F118+H118*0.994-G118</f>
+        <f t="shared" si="16"/>
         <v>10.348720000000071</v>
       </c>
       <c r="N118" s="58">
-        <f t="shared" ref="N118:N123" si="14">K118-M118</f>
+        <f t="shared" ref="N118:N123" si="17">K118-M118</f>
         <v>10.348720000000071</v>
       </c>
       <c r="O118" s="57" t="s">
@@ -21514,11 +21645,11 @@
         <v>60.37</v>
       </c>
       <c r="K119" s="58">
-        <f>F119+H119*0.994-G119</f>
+        <f t="shared" si="16"/>
         <v>152.48019999999997</v>
       </c>
       <c r="N119" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>152.48019999999997</v>
       </c>
     </row>
@@ -21548,11 +21679,11 @@
         <v>42.26</v>
       </c>
       <c r="K120" s="58">
-        <f>F120+H120*0.994-G120</f>
+        <f t="shared" si="16"/>
         <v>45.15779999999998</v>
       </c>
       <c r="N120" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45.15779999999998</v>
       </c>
       <c r="O120" t="s">
@@ -21585,11 +21716,11 @@
         <v>74.459999999999994</v>
       </c>
       <c r="K121" s="58">
-        <f>F121+H121*0.994-G121</f>
+        <f t="shared" si="16"/>
         <v>187.08611999999994</v>
       </c>
       <c r="N121" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.08611999999994</v>
       </c>
       <c r="O121" s="57" t="s">
@@ -21625,11 +21756,11 @@
         <v>370.27</v>
       </c>
       <c r="K122" s="58">
-        <f>F122+H122*0.994-G122</f>
+        <f t="shared" si="16"/>
         <v>871.67617999999948</v>
       </c>
       <c r="N122" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>871.67617999999948</v>
       </c>
       <c r="O122" s="57" t="s">
@@ -21662,11 +21793,11 @@
         <v>108.67</v>
       </c>
       <c r="K123" s="58">
-        <f>F123+H123*0.994-G123</f>
+        <f t="shared" si="16"/>
         <v>416.82136000000037</v>
       </c>
       <c r="N123" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>416.82136000000037</v>
       </c>
       <c r="O123" t="s">
@@ -21699,7 +21830,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K124" s="58">
-        <f>F124+H124*0.994-G124</f>
+        <f t="shared" si="16"/>
         <v>35.196440000000052</v>
       </c>
       <c r="N124" s="58">
@@ -21741,38 +21872,38 @@
       <c r="B126" t="s">
         <v>148</v>
       </c>
-      <c r="D126" s="153" t="s">
+      <c r="D126" s="156" t="s">
         <v>297</v>
       </c>
-      <c r="E126" s="153" t="s">
+      <c r="E126" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="152">
+      <c r="F126" s="157">
         <v>1566.74</v>
       </c>
-      <c r="G126" s="152">
+      <c r="G126" s="157">
         <v>1566.14</v>
       </c>
-      <c r="H126" s="152">
+      <c r="H126" s="157">
         <v>160.19</v>
       </c>
-      <c r="I126" s="152">
+      <c r="I126" s="157">
         <v>1.61</v>
       </c>
-      <c r="J126" s="152">
+      <c r="J126" s="157">
         <v>26.16</v>
       </c>
-      <c r="K126" s="155">
+      <c r="K126" s="158">
         <f>F126+H126*0.994-G126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="L126" s="153"/>
-      <c r="M126" s="153"/>
-      <c r="N126" s="151">
+      <c r="L126" s="156"/>
+      <c r="M126" s="156"/>
+      <c r="N126" s="155">
         <f>K126-M126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="O126" s="153"/>
+      <c r="O126" s="156"/>
     </row>
     <row r="127" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -21781,18 +21912,18 @@
       <c r="B127" t="s">
         <v>148</v>
       </c>
-      <c r="D127" s="153"/>
-      <c r="E127" s="153"/>
-      <c r="F127" s="152"/>
-      <c r="G127" s="152"/>
-      <c r="H127" s="152"/>
-      <c r="I127" s="152"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="155"/>
-      <c r="L127" s="153"/>
-      <c r="M127" s="153"/>
-      <c r="N127" s="151"/>
-      <c r="O127" s="153"/>
+      <c r="D127" s="156"/>
+      <c r="E127" s="156"/>
+      <c r="F127" s="157"/>
+      <c r="G127" s="157"/>
+      <c r="H127" s="157"/>
+      <c r="I127" s="157"/>
+      <c r="J127" s="157"/>
+      <c r="K127" s="158"/>
+      <c r="L127" s="156"/>
+      <c r="M127" s="156"/>
+      <c r="N127" s="155"/>
+      <c r="O127" s="156"/>
     </row>
     <row r="128" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -21801,18 +21932,18 @@
       <c r="B128" t="s">
         <v>148</v>
       </c>
-      <c r="D128" s="153"/>
-      <c r="E128" s="153"/>
-      <c r="F128" s="152"/>
-      <c r="G128" s="152"/>
-      <c r="H128" s="152"/>
-      <c r="I128" s="152"/>
-      <c r="J128" s="152"/>
-      <c r="K128" s="155"/>
-      <c r="L128" s="153"/>
-      <c r="M128" s="153"/>
-      <c r="N128" s="151"/>
-      <c r="O128" s="153"/>
+      <c r="D128" s="156"/>
+      <c r="E128" s="156"/>
+      <c r="F128" s="157"/>
+      <c r="G128" s="157"/>
+      <c r="H128" s="157"/>
+      <c r="I128" s="157"/>
+      <c r="J128" s="157"/>
+      <c r="K128" s="158"/>
+      <c r="L128" s="156"/>
+      <c r="M128" s="156"/>
+      <c r="N128" s="155"/>
+      <c r="O128" s="156"/>
     </row>
     <row r="129" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -21821,18 +21952,18 @@
       <c r="B129" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="153"/>
-      <c r="E129" s="153"/>
-      <c r="F129" s="152"/>
-      <c r="G129" s="152"/>
-      <c r="H129" s="152"/>
-      <c r="I129" s="152"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="155"/>
-      <c r="L129" s="153"/>
-      <c r="M129" s="153"/>
-      <c r="N129" s="151"/>
-      <c r="O129" s="153"/>
+      <c r="D129" s="156"/>
+      <c r="E129" s="156"/>
+      <c r="F129" s="157"/>
+      <c r="G129" s="157"/>
+      <c r="H129" s="157"/>
+      <c r="I129" s="157"/>
+      <c r="J129" s="157"/>
+      <c r="K129" s="158"/>
+      <c r="L129" s="156"/>
+      <c r="M129" s="156"/>
+      <c r="N129" s="155"/>
+      <c r="O129" s="156"/>
     </row>
     <row r="130" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -21870,7 +22001,7 @@
     </row>
     <row r="131" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="96" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="B131" s="57" t="s">
         <v>417</v>
@@ -21918,11 +22049,11 @@
         <v>66.41</v>
       </c>
       <c r="K133" s="64">
-        <f>F133+H133*0.994-G133</f>
+        <f t="shared" ref="K133:K140" si="18">F133+H133*0.994-G133</f>
         <v>171.39368000000002</v>
       </c>
       <c r="N133" s="58">
-        <f>K133-M133</f>
+        <f t="shared" ref="N133:N140" si="19">K133-M133</f>
         <v>171.39368000000002</v>
       </c>
     </row>
@@ -21958,11 +22089,11 @@
         <v>80.489999999999995</v>
       </c>
       <c r="K134" s="64">
-        <f>F134+H134*0.994-G134</f>
+        <f t="shared" si="18"/>
         <v>271.86771999999996</v>
       </c>
       <c r="N134" s="58">
-        <f>K134-M134</f>
+        <f t="shared" si="19"/>
         <v>271.86771999999996</v>
       </c>
     </row>
@@ -21995,11 +22126,11 @@
         <v>36.22</v>
       </c>
       <c r="K135" s="64">
-        <f>F135+H135*0.994-G135</f>
+        <f t="shared" si="18"/>
         <v>19.45608</v>
       </c>
       <c r="N135" s="58">
-        <f>K135-M135</f>
+        <f t="shared" si="19"/>
         <v>19.45608</v>
       </c>
       <c r="O135" s="57" t="s">
@@ -22032,11 +22163,11 @@
         <v>185.14</v>
       </c>
       <c r="K136" s="64">
-        <f>F136+H136*0.994-G136</f>
+        <f t="shared" si="18"/>
         <v>586.66499999999996</v>
       </c>
       <c r="N136" s="58">
-        <f>K136-M136</f>
+        <f t="shared" si="19"/>
         <v>586.66499999999996</v>
       </c>
       <c r="O136" s="57" t="s">
@@ -22069,11 +22200,11 @@
         <v>122.61</v>
       </c>
       <c r="K137" s="64">
-        <f>F137+H137*0.994-G137</f>
+        <f t="shared" si="18"/>
         <v>282.82951999999977</v>
       </c>
       <c r="N137" s="58">
-        <f>K137-M137</f>
+        <f t="shared" si="19"/>
         <v>282.82951999999977</v>
       </c>
     </row>
@@ -22106,15 +22237,15 @@
         <v>48.29</v>
       </c>
       <c r="K138" s="64">
-        <f>F138+H138*0.994-G138</f>
+        <f t="shared" si="18"/>
         <v>88.353700000000003</v>
       </c>
       <c r="N138" s="58">
-        <f>K138-M138</f>
+        <f t="shared" si="19"/>
         <v>88.353700000000003</v>
       </c>
       <c r="O138" s="57" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22149,15 +22280,15 @@
         <v>40.25</v>
       </c>
       <c r="K139" s="64">
-        <f>F139+H139*0.994-G139</f>
+        <f t="shared" si="18"/>
         <v>53.422239999999988</v>
       </c>
       <c r="N139" s="58">
-        <f>K139-M139</f>
+        <f t="shared" si="19"/>
         <v>53.422239999999988</v>
       </c>
       <c r="O139" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22192,11 +22323,11 @@
         <v>60.37</v>
       </c>
       <c r="K140" s="64">
-        <f>F140+H140*0.994-G140</f>
+        <f t="shared" si="18"/>
         <v>102.23936000000003</v>
       </c>
       <c r="N140" s="58">
-        <f>K140-M140</f>
+        <f t="shared" si="19"/>
         <v>102.23936000000003</v>
       </c>
     </row>
@@ -22223,11 +22354,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="157" t="s">
+      <c r="A144" s="153" t="s">
         <v>600</v>
       </c>
       <c r="B144" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="E144" s="57" t="s">
         <v>187</v>
@@ -22246,11 +22377,11 @@
       </c>
     </row>
     <row r="145" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="157" t="s">
+      <c r="A145" s="153" t="s">
         <v>72</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>373</v>
@@ -22261,15 +22392,15 @@
     </row>
     <row r="147" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="157" t="s">
+      <c r="A148" s="153" t="s">
         <v>82</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>381</v>
@@ -22286,13 +22417,13 @@
         <v>162</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>420</v>
       </c>
       <c r="D149" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="E149" t="s">
         <v>92</v>
@@ -22301,7 +22432,7 @@
     </row>
     <row r="151" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="F151">
         <v>2485</v>
@@ -22314,7 +22445,7 @@
         <v>-15</v>
       </c>
       <c r="L151" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="M151">
         <v>850</v>
@@ -22350,10 +22481,10 @@
     </row>
     <row r="155" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B155" s="158" t="s">
-        <v>1365</v>
+        <v>1335</v>
+      </c>
+      <c r="B155" s="154" t="s">
+        <v>1344</v>
       </c>
       <c r="C155">
         <v>2221.9299999999998</v>
@@ -22361,24 +22492,33 @@
     </row>
     <row r="156" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="57" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B156" s="158"/>
+        <v>1337</v>
+      </c>
+      <c r="B156" s="154"/>
       <c r="C156">
         <v>23500.84</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="57" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B157" s="158"/>
+        <v>1336</v>
+      </c>
+      <c r="B157" s="154"/>
       <c r="C157">
         <v>14428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
     <mergeCell ref="B155:B157"/>
     <mergeCell ref="N126:N129"/>
     <mergeCell ref="O126:O129"/>
@@ -22392,15 +22532,6 @@
     <mergeCell ref="F126:F129"/>
     <mergeCell ref="G126:G129"/>
     <mergeCell ref="H126:H129"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22454,7 +22585,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>212</v>
@@ -22529,7 +22660,7 @@
         <v>87.636320000000069</v>
       </c>
       <c r="M2" t="s">
-        <v>1266</v>
+        <v>1248</v>
       </c>
       <c r="N2">
         <v>47</v>
@@ -22970,7 +23101,7 @@
         <v>280.00592000000006</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="N11">
         <v>16</v>
@@ -23319,7 +23450,7 @@
         <v>113.42960000000005</v>
       </c>
       <c r="M19" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="N19">
         <v>20</v>
@@ -23846,7 +23977,7 @@
     </row>
     <row r="31" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B31" t="s">
         <v>280</v>
@@ -23889,7 +24020,7 @@
         <v>186.09418000000002</v>
       </c>
       <c r="R31" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23937,7 +24068,7 @@
         <v>172.64268000000001</v>
       </c>
       <c r="R32" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24078,7 +24209,7 @@
         <v>64.684319999999971</v>
       </c>
       <c r="R35" s="57" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24162,7 +24293,7 @@
         <v>204.03775999999971</v>
       </c>
       <c r="M37" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="N37">
         <v>8</v>
@@ -24180,7 +24311,7 @@
         <v>249.37579999999971</v>
       </c>
       <c r="R37" s="57" t="s">
-        <v>1272</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24273,7 +24404,7 @@
         <v>54.847719999999967</v>
       </c>
       <c r="R39" s="57" t="s">
-        <v>1286</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24608,7 +24739,7 @@
         <v>16.413959999999989</v>
       </c>
       <c r="R47" s="57" t="s">
-        <v>1289</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24772,7 +24903,7 @@
         <v>51.373559999999998</v>
       </c>
       <c r="R58" s="57" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24830,7 +24961,7 @@
         <v>43.191599999999994</v>
       </c>
       <c r="M61" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="N61">
         <v>23</v>
@@ -24848,7 +24979,7 @@
         <v>63.162219999999991</v>
       </c>
       <c r="R61" s="57" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24929,7 +25060,7 @@
         <v>539.27203999999972</v>
       </c>
       <c r="R65" s="57" t="s">
-        <v>1287</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25129,7 +25260,7 @@
         <v>213.17451999999997</v>
       </c>
       <c r="R79" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25701,7 +25832,7 @@
     </row>
     <row r="127" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B127" s="57" t="s">
         <v>659</v>
@@ -25853,7 +25984,7 @@
         <v>719</v>
       </c>
       <c r="D140" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="E140" t="s">
         <v>531</v>
@@ -25878,13 +26009,13 @@
         <v>719</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="D142" s="67" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="E142" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25923,7 +26054,7 @@
         <v>719</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="D145" s="57"/>
       <c r="E145" t="s">
@@ -25974,7 +26105,7 @@
         <v>627</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="E149" s="57" t="s">
         <v>92</v>
@@ -25985,7 +26116,7 @@
         <v>610</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="D150" t="s">
         <v>654</v>
@@ -25996,16 +26127,16 @@
     </row>
     <row r="151" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="D151" s="67" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="E151" t="s">
         <v>467</v>
@@ -26016,7 +26147,7 @@
         <v>762</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="C152" s="57"/>
       <c r="D152" s="57"/>
@@ -26029,7 +26160,7 @@
         <v>266</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>574</v>
@@ -26046,13 +26177,13 @@
         <v>303</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>618</v>
       </c>
       <c r="D154" s="67" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="E154" t="s">
         <v>92</v>
@@ -26063,10 +26194,10 @@
         <v>611</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="D155" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="E155" t="s">
         <v>615</v>
@@ -26077,7 +26208,7 @@
         <v>616</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="E156" t="s">
         <v>615</v>
@@ -26088,7 +26219,7 @@
         <v>533</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="E157" t="s">
         <v>536</v>
@@ -26099,7 +26230,7 @@
         <v>614</v>
       </c>
       <c r="B158" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="D158" t="s">
         <v>674</v>
@@ -26113,7 +26244,7 @@
         <v>548</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="E159" t="s">
         <v>540</v>
@@ -26124,7 +26255,7 @@
         <v>525</v>
       </c>
       <c r="B160" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E160" t="s">
         <v>531</v>
@@ -26135,13 +26266,13 @@
         <v>238</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>570</v>
       </c>
       <c r="D161" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
       <c r="E161" t="s">
         <v>92</v>
@@ -26152,7 +26283,7 @@
         <v>534</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E162" t="s">
         <v>536</v>
@@ -26161,10 +26292,10 @@
     </row>
     <row r="163" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E163" t="s">
         <v>511</v>
@@ -26175,7 +26306,7 @@
         <v>763</v>
       </c>
       <c r="B164" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E164" s="57" t="s">
         <v>92</v>
@@ -26186,13 +26317,13 @@
         <v>587</v>
       </c>
       <c r="B165" s="57" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="D165" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="E165" t="s">
         <v>596</v>
@@ -26203,7 +26334,7 @@
         <v>473</v>
       </c>
       <c r="B166" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>754</v>
@@ -26217,7 +26348,7 @@
         <v>586</v>
       </c>
       <c r="B167" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="D167" t="s">
         <v>685</v>
@@ -26231,7 +26362,7 @@
         <v>400</v>
       </c>
       <c r="B168" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>737</v>
@@ -26245,10 +26376,10 @@
         <v>612</v>
       </c>
       <c r="B169" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D169" t="s">
         <v>653</v>
@@ -26266,7 +26397,7 @@
         <v>494</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>761</v>
@@ -26277,16 +26408,16 @@
     </row>
     <row r="171" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="75" t="s">
-        <v>1290</v>
+        <v>1271</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D171" s="57" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="E171" s="65" t="s">
         <v>92</v>
@@ -26297,13 +26428,13 @@
         <v>442</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="D172" s="153" t="s">
-        <v>1282</v>
+      <c r="D172" s="156" t="s">
+        <v>1263</v>
       </c>
       <c r="E172" s="67" t="s">
         <v>467</v>
@@ -26321,12 +26452,12 @@
         <v>688</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D173" s="153"/>
+        <v>1002</v>
+      </c>
+      <c r="D173" s="156"/>
       <c r="E173" s="67" t="s">
         <v>92</v>
       </c>
@@ -26336,16 +26467,16 @@
     </row>
     <row r="174" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="68" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D174" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="E174" s="67" t="s">
         <v>536</v>
@@ -26353,16 +26484,16 @@
     </row>
     <row r="175" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="78" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D175" s="57" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="E175" s="67" t="s">
         <v>624</v>
@@ -26370,16 +26501,16 @@
     </row>
     <row r="176" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="80" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B176" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>750</v>
       </c>
       <c r="D176" s="57" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="E176" s="67" t="s">
         <v>467</v>
@@ -26390,13 +26521,13 @@
         <v>474</v>
       </c>
       <c r="B177" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>758</v>
       </c>
       <c r="D177" s="57" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E177" s="67" t="s">
         <v>92</v>
@@ -26407,7 +26538,7 @@
         <v>396</v>
       </c>
       <c r="B178" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>734</v>
@@ -26421,13 +26552,13 @@
         <v>764</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D179" s="57" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="E179" s="67" t="s">
         <v>92</v>
@@ -26435,16 +26566,16 @@
     </row>
     <row r="180" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="78" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D180" s="57" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="E180" s="67" t="s">
         <v>550</v>
@@ -26452,16 +26583,16 @@
     </row>
     <row r="181" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="77" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>732</v>
       </c>
       <c r="D181" s="57" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="E181" s="67" t="s">
         <v>92</v>
@@ -26469,10 +26600,10 @@
     </row>
     <row r="182" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="B182" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>571</v>
@@ -26490,13 +26621,13 @@
         <v>650</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D183" s="57" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E183" s="67" t="s">
         <v>92</v>
@@ -26504,13 +26635,13 @@
     </row>
     <row r="184" spans="1:8" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="57" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="E184" s="67"/>
     </row>
@@ -26558,10 +26689,10 @@
         <v>9.19</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="D188" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="E188" t="s">
         <v>92</v>
@@ -26581,7 +26712,7 @@
         <v>746</v>
       </c>
       <c r="E189" s="57" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26591,18 +26722,18 @@
     </row>
     <row r="191" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="57" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="D192" s="67" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="E192" s="57" t="s">
         <v>92</v>
@@ -26616,10 +26747,10 @@
         <v>11.19</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D193" s="57" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E193" s="67" t="s">
         <v>92</v>
@@ -26628,21 +26759,21 @@
     <row r="195" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="197" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="78" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B197" s="58">
         <v>11.1</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D197" s="57" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E197" s="67" t="s">
         <v>540</v>
@@ -26650,16 +26781,16 @@
     </row>
     <row r="198" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="77" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B198" s="58">
         <v>11.29</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D198" s="57" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="E198" s="67" t="s">
         <v>92</v>
@@ -26667,16 +26798,16 @@
     </row>
     <row r="199" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="78" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B199" s="57">
         <v>11.4</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D199" s="57" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="E199" s="65" t="s">
         <v>92</v>
@@ -26684,16 +26815,16 @@
     </row>
     <row r="200" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="78" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B200" s="58">
         <v>11.17</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D200" s="57" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E200" s="67" t="s">
         <v>92</v>
@@ -26701,16 +26832,16 @@
     </row>
     <row r="201" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="78" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B201" s="58">
         <v>11.14</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D201" s="57" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E201" s="67" t="s">
         <v>596</v>
@@ -26718,16 +26849,16 @@
     </row>
     <row r="202" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="78" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B202" s="58">
         <v>11.26</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D202" s="57" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E202" s="67" t="s">
         <v>638</v>
@@ -26742,21 +26873,21 @@
     </row>
     <row r="204" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="57" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="75" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B205" s="58">
         <v>9.27</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D205" s="67" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="E205" s="67" t="s">
         <v>92</v>
@@ -26768,21 +26899,21 @@
     </row>
     <row r="207" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1321</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="78" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B208" s="57">
         <v>11.3</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D208" s="67" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
       <c r="E208" s="67" t="s">
         <v>502</v>
@@ -26801,10 +26932,10 @@
         <v>10.9</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="D209" s="67" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="E209" s="67" t="s">
         <v>92</v>
@@ -26817,16 +26948,16 @@
     </row>
     <row r="210" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="78" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B210" s="57">
         <v>11.3</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D210" s="67" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="E210" s="67" t="s">
         <v>502</v>
@@ -26839,19 +26970,19 @@
     </row>
     <row r="211" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="78" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B211" s="57">
         <v>11.7</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D211" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="E211" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F211" s="89"/>
       <c r="H211" s="57"/>
@@ -26861,27 +26992,27 @@
     </row>
     <row r="212" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="78" t="s">
-        <v>1324</v>
+        <v>1304</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1325</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="78" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B213" s="58">
         <v>11.19</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D213" s="67" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="E213" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F213" s="89"/>
       <c r="H213" s="57"/>
@@ -26897,31 +27028,31 @@
         <v>12.4</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D214" s="67" t="s">
-        <v>1279</v>
+        <v>1261</v>
       </c>
       <c r="E214" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F214" s="89"/>
     </row>
     <row r="215" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="78" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B215" s="57">
         <v>11.3</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D215" s="67" t="s">
-        <v>1294</v>
+        <v>1275</v>
       </c>
       <c r="E215" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F215" s="89"/>
       <c r="H215" s="57"/>
@@ -26931,19 +27062,19 @@
     </row>
     <row r="216" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="77" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B216" s="58">
         <v>11.17</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D216" s="67" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
       <c r="E216" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F216" s="89"/>
       <c r="H216" s="57"/>
@@ -26953,19 +27084,19 @@
     </row>
     <row r="217" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="78" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B217" s="58">
         <v>11.22</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D217" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E217" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F217" s="89"/>
       <c r="H217" s="57"/>
@@ -26975,25 +27106,25 @@
     </row>
     <row r="218" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="144" t="s">
-        <v>1326</v>
+        <v>1306</v>
       </c>
       <c r="B218" s="58">
         <v>11.28</v>
       </c>
       <c r="C218" s="138" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D218" s="67" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="E218" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F218" s="89"/>
     </row>
     <row r="219" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="74" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B219">
         <v>9.2899999999999991</v>
@@ -27002,10 +27133,10 @@
         <v>689</v>
       </c>
       <c r="D219" s="67" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="E219" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F219" s="89"/>
       <c r="H219" s="57"/>
@@ -27015,19 +27146,19 @@
     </row>
     <row r="220" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B220" s="57">
         <v>11.8</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D220" s="67" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
       <c r="E220" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F220" s="89"/>
       <c r="H220" s="57"/>
@@ -27037,19 +27168,19 @@
     </row>
     <row r="221" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="78" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B221" s="58">
         <v>11.19</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D221" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E221" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F221" s="89"/>
       <c r="H221" s="57"/>
@@ -27059,19 +27190,19 @@
     </row>
     <row r="222" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="78" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B222" s="58">
         <v>11.21</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D222" s="65" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="E222" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F222" s="89"/>
       <c r="H222" s="57"/>
@@ -27081,7 +27212,7 @@
     </row>
     <row r="223" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="77" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="B223" s="58">
         <v>10.3</v>
@@ -27090,10 +27221,10 @@
         <v>757</v>
       </c>
       <c r="D223" s="67" t="s">
-        <v>1293</v>
+        <v>1274</v>
       </c>
       <c r="E223" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F223" s="89"/>
       <c r="H223" s="57"/>
@@ -27103,37 +27234,37 @@
     </row>
     <row r="224" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="77" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B224" s="58">
         <v>11.28</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D224" s="67" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="E224" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F224" s="89"/>
     </row>
     <row r="225" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="87" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="B225" s="58">
         <v>12.13</v>
       </c>
       <c r="C225" s="138" t="s">
-        <v>1292</v>
+        <v>1273</v>
       </c>
       <c r="D225" s="67" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="E225" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F225" s="89"/>
     </row>
@@ -27147,11 +27278,11 @@
       <c r="C226" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="D226" s="154" t="s">
-        <v>1352</v>
+      <c r="D226" s="151" t="s">
+        <v>1331</v>
       </c>
       <c r="E226" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F226" s="89"/>
       <c r="H226" s="57"/>
@@ -27161,7 +27292,7 @@
     </row>
     <row r="227" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="74" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B227">
         <v>10.25</v>
@@ -27170,10 +27301,10 @@
         <v>743</v>
       </c>
       <c r="D227" s="57" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E227" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F227" s="89"/>
       <c r="H227" s="57"/>
@@ -27183,19 +27314,19 @@
     </row>
     <row r="228" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="87" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="B228" s="58">
         <v>12.11</v>
       </c>
       <c r="C228" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D228" s="57" t="s">
         <v>1080</v>
       </c>
-      <c r="D228" s="57" t="s">
-        <v>1096</v>
-      </c>
       <c r="E228" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F228" s="89"/>
     </row>
@@ -27210,10 +27341,10 @@
         <v>759</v>
       </c>
       <c r="D229" s="67" t="s">
-        <v>1283</v>
+        <v>1264</v>
       </c>
       <c r="E229" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F229" s="89"/>
       <c r="H229" s="57"/>
@@ -27232,10 +27363,10 @@
         <v>760</v>
       </c>
       <c r="D230" s="67" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="E230" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F230" s="89"/>
       <c r="H230" s="57"/>
@@ -27245,25 +27376,25 @@
     </row>
     <row r="231" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="75" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="B231" s="63">
         <v>12.4</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>1271</v>
+        <v>1253</v>
       </c>
       <c r="E231" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F231" s="89"/>
     </row>
     <row r="232" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="77" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B232" s="58">
         <v>10.3</v>
@@ -27272,10 +27403,10 @@
         <v>756</v>
       </c>
       <c r="D232" s="67" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="E232" s="96" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F232" s="89"/>
       <c r="H232" s="57"/>
@@ -27285,19 +27416,19 @@
     </row>
     <row r="233" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="78" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="B233" s="58">
         <v>11.19</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D233" s="57" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E233" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F233" s="89"/>
       <c r="H233" s="57"/>
@@ -27307,19 +27438,19 @@
     </row>
     <row r="234" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="77" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B234" s="57">
         <v>11.9</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D234" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="E234" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F234" s="89"/>
       <c r="H234" s="57"/>
@@ -27329,7 +27460,7 @@
     </row>
     <row r="235" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="78" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B235">
         <v>10.15</v>
@@ -27338,10 +27469,10 @@
         <v>392</v>
       </c>
       <c r="D235" s="67" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
       <c r="E235" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F235" s="89"/>
       <c r="H235" s="57"/>
@@ -27351,19 +27482,19 @@
     </row>
     <row r="236" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="78" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="B236" s="58">
         <v>11.16</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D236" s="67" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="E236" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F236" s="89"/>
       <c r="H236" s="57"/>
@@ -27373,7 +27504,7 @@
     </row>
     <row r="238" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="78" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27384,13 +27515,13 @@
         <v>12.7</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="D239" s="67" t="s">
-        <v>1317</v>
+        <v>1297</v>
       </c>
       <c r="E239" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F239" s="89"/>
       <c r="H239" s="57"/>
@@ -27402,19 +27533,19 @@
     </row>
     <row r="240" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="74" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B240" s="58">
         <v>11.16</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D240" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E240" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F240" s="89"/>
       <c r="H240" s="57"/>
@@ -27441,10 +27572,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="D61" sqref="D61"/>
+      <selection pane="topRight" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27473,25 +27604,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27531,7 +27662,7 @@
     </row>
     <row r="4" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B4">
         <v>8.15</v>
@@ -27540,7 +27671,7 @@
         <v>722</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F4" s="89"/>
       <c r="L4">
@@ -27578,7 +27709,7 @@
         <v>722</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F6" s="89"/>
     </row>
@@ -27622,7 +27753,7 @@
     </row>
     <row r="9" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B9" s="4">
         <v>9.1999999999999993</v>
@@ -27631,7 +27762,7 @@
         <v>725</v>
       </c>
       <c r="D9" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>92</v>
@@ -27651,10 +27782,10 @@
         <v>575</v>
       </c>
       <c r="D10" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F10" s="89"/>
     </row>
@@ -27669,7 +27800,7 @@
         <v>726</v>
       </c>
       <c r="D11" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="E11" s="146" t="s">
         <v>92</v>
@@ -27687,10 +27818,10 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>1299</v>
+        <v>1280</v>
       </c>
       <c r="E12" s="67" t="s">
         <v>92</v>
@@ -27698,7 +27829,7 @@
     </row>
     <row r="13" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B13">
         <v>10.4</v>
@@ -27707,10 +27838,10 @@
         <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="147" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F13" s="89"/>
     </row>
@@ -27725,10 +27856,10 @@
         <v>313</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F14" s="89"/>
       <c r="J14" s="57">
@@ -27760,7 +27891,7 @@
         <v>722</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F16" s="89"/>
     </row>
@@ -27775,7 +27906,7 @@
         <v>730</v>
       </c>
       <c r="D17" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="E17" s="146" t="s">
         <v>92</v>
@@ -27796,16 +27927,16 @@
         <v>564</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>1284</v>
+        <v>1265</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F18" s="89"/>
     </row>
     <row r="19" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>577</v>
@@ -27814,10 +27945,10 @@
         <v>733</v>
       </c>
       <c r="D19" t="s">
-        <v>767</v>
+        <v>1353</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F19" s="89"/>
       <c r="J19" s="57">
@@ -27832,10 +27963,10 @@
         <v>10.16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="D20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>92</v>
@@ -27843,7 +27974,7 @@
     </row>
     <row r="21" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B21">
         <v>10.17</v>
@@ -27852,19 +27983,19 @@
         <v>395</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="B22">
         <v>10.18</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="D22" t="s">
         <v>735</v>
@@ -27887,7 +28018,7 @@
         <v>736</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>92</v>
@@ -27907,7 +28038,7 @@
         <v>738</v>
       </c>
       <c r="D24" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="E24" s="67" t="s">
         <v>92</v>
@@ -27915,7 +28046,7 @@
     </row>
     <row r="25" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B25">
         <v>10.23</v>
@@ -27924,13 +28055,13 @@
         <v>739</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F25" s="89"/>
     </row>
     <row r="26" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B26">
         <v>10.24</v>
@@ -27939,7 +28070,7 @@
         <v>741</v>
       </c>
       <c r="E26" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F26" s="89"/>
       <c r="G26" s="57"/>
@@ -27955,7 +28086,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="E27" s="111" t="s">
         <v>465</v>
@@ -27963,7 +28094,7 @@
     </row>
     <row r="28" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B28" s="56" t="s">
         <v>581</v>
@@ -27972,16 +28103,16 @@
         <v>747</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B29" s="57">
         <v>10.26</v>
@@ -27990,10 +28121,10 @@
         <v>745</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>1013</v>
+        <v>1354</v>
       </c>
       <c r="E29" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F29" s="89"/>
       <c r="J29" s="57">
@@ -28002,7 +28133,7 @@
     </row>
     <row r="30" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B30">
         <v>10.26</v>
@@ -28011,10 +28142,10 @@
         <v>576</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F30" s="89"/>
       <c r="J30" s="57">
@@ -28023,7 +28154,7 @@
     </row>
     <row r="31" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B31" s="57">
         <v>10.29</v>
@@ -28032,7 +28163,7 @@
         <v>748</v>
       </c>
       <c r="D31" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="E31" s="67" t="s">
         <v>92</v>
@@ -28050,13 +28181,13 @@
         <v>749</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B33" s="56" t="s">
         <v>583</v>
@@ -28065,10 +28196,10 @@
         <v>751</v>
       </c>
       <c r="D33" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F33" s="89"/>
       <c r="J33" s="57">
@@ -28077,7 +28208,7 @@
     </row>
     <row r="34" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B34" s="58">
         <v>10.3</v>
@@ -28087,7 +28218,7 @@
       </c>
       <c r="D34" s="148"/>
       <c r="E34" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F34" s="89"/>
     </row>
@@ -28102,7 +28233,7 @@
         <v>753</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="E35" s="150" t="s">
         <v>92</v>
@@ -28111,7 +28242,7 @@
     </row>
     <row r="36" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B36" s="58">
         <v>10.3</v>
@@ -28121,7 +28252,7 @@
       </c>
       <c r="D36" s="148"/>
       <c r="E36" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F36" s="89"/>
     </row>
@@ -28136,10 +28267,10 @@
         <v>727</v>
       </c>
       <c r="D37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F37" s="89"/>
       <c r="J37" s="57">
@@ -28148,7 +28279,7 @@
     </row>
     <row r="38" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B38" s="57">
         <v>11.2</v>
@@ -28157,7 +28288,7 @@
         <v>726</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="E38" s="146" t="s">
         <v>92</v>
@@ -28170,16 +28301,16 @@
     </row>
     <row r="39" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B39" s="57">
         <v>11.3</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E39" s="67" t="s">
         <v>92</v>
@@ -28190,16 +28321,16 @@
     </row>
     <row r="40" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B40" s="57">
         <v>11.4</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="E40" s="67" t="s">
         <v>508</v>
@@ -28210,19 +28341,19 @@
     </row>
     <row r="41" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B41" s="57">
         <v>11.4</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D41" t="s">
-        <v>971</v>
+        <v>1362</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F41" s="89"/>
       <c r="J41" s="57">
@@ -28231,16 +28362,16 @@
     </row>
     <row r="42" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B42" s="57">
         <v>11.7</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E42" s="67" t="s">
         <v>540</v>
@@ -28248,13 +28379,13 @@
     </row>
     <row r="43" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B43" s="57">
         <v>11.7</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E43" t="s">
         <v>531</v>
@@ -28265,19 +28396,19 @@
     </row>
     <row r="44" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B44" s="57">
         <v>11.8</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D44" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F44" s="89"/>
       <c r="J44" s="57">
@@ -28286,19 +28417,19 @@
     </row>
     <row r="45" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B45" s="57">
         <v>11.9</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D45" t="s">
-        <v>876</v>
+        <v>1356</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F45" s="89"/>
       <c r="J45" s="57">
@@ -28307,16 +28438,16 @@
     </row>
     <row r="46" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B46" s="57">
         <v>11.9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E46" s="67" t="s">
         <v>536</v>
@@ -28324,19 +28455,19 @@
     </row>
     <row r="47" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="78" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B47" s="57">
         <v>11.9</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F47" s="89"/>
       <c r="J47" s="57">
@@ -28345,19 +28476,19 @@
     </row>
     <row r="48" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B48" s="57">
         <v>11.9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D48" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F48" s="89"/>
       <c r="J48" s="57">
@@ -28366,16 +28497,16 @@
     </row>
     <row r="49" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="B49" s="57">
         <v>11.9</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="E49" s="67" t="s">
         <v>540</v>
@@ -28386,16 +28517,16 @@
     </row>
     <row r="50" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="78" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B50" s="57">
         <v>11.9</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D50" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="E50" s="147" t="s">
         <v>92</v>
@@ -28407,34 +28538,34 @@
     </row>
     <row r="51" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B51" s="57">
         <v>11.9</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>992</v>
+        <v>1356</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F51" s="89"/>
     </row>
     <row r="52" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="78" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B52" s="57">
         <v>11.9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="E52" s="67" t="s">
         <v>540</v>
@@ -28445,19 +28576,19 @@
     </row>
     <row r="53" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B53" s="57">
         <v>11.9</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D53" t="s">
-        <v>931</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>1079</v>
+        <v>1370</v>
+      </c>
+      <c r="E53" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F53" s="89"/>
       <c r="J53" s="57">
@@ -28466,19 +28597,19 @@
     </row>
     <row r="54" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="78" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B54" s="58">
         <v>11.1</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D54" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F54" s="89"/>
       <c r="J54" s="57">
@@ -28487,16 +28618,16 @@
     </row>
     <row r="55" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B55" s="58">
         <v>11.11</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D55" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="E55" s="147" t="s">
         <v>92</v>
@@ -28514,10 +28645,10 @@
         <v>11.11</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D56" s="67" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E56" s="67" t="s">
         <v>550</v>
@@ -28525,19 +28656,19 @@
     </row>
     <row r="57" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="78" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B57" s="58">
         <v>11.12</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D57" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F57" s="89"/>
       <c r="J57" s="57">
@@ -28546,19 +28677,19 @@
     </row>
     <row r="58" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="78" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B58" s="58">
         <v>11.12</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D58" t="s">
-        <v>889</v>
+        <v>1368</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F58" s="89"/>
       <c r="J58" s="57">
@@ -28567,16 +28698,16 @@
     </row>
     <row r="59" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="78" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="B59" s="58">
         <v>11.12</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D59" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="E59" s="67" t="s">
         <v>555</v>
@@ -28587,19 +28718,19 @@
     </row>
     <row r="60" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B60" s="58">
         <v>11.13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D60" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F60" s="89"/>
       <c r="J60" s="57">
@@ -28608,16 +28739,16 @@
     </row>
     <row r="61" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="85" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B61" s="52">
         <v>11.14</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>92</v>
@@ -28626,19 +28757,19 @@
     </row>
     <row r="62" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B62" s="58">
         <v>11.14</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F62" s="89"/>
       <c r="J62" s="57">
@@ -28647,19 +28778,19 @@
     </row>
     <row r="63" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B63" s="58">
         <v>11.14</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D63" t="s">
-        <v>885</v>
-      </c>
-      <c r="E63" s="65" t="s">
-        <v>1079</v>
+        <v>882</v>
+      </c>
+      <c r="E63" s="147" t="s">
+        <v>1064</v>
       </c>
       <c r="F63" s="89"/>
       <c r="J63" s="57">
@@ -28668,19 +28799,19 @@
     </row>
     <row r="64" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="78" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B64" s="58">
         <v>11.14</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D64" t="s">
-        <v>876</v>
+        <v>1355</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F64" s="89"/>
       <c r="J64" s="57">
@@ -28689,16 +28820,16 @@
     </row>
     <row r="65" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="B65" s="58">
         <v>11.14</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="E65" s="67" t="s">
         <v>92</v>
@@ -28707,19 +28838,19 @@
     </row>
     <row r="66" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B66" s="58">
         <v>11.15</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D66" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F66" s="89"/>
       <c r="J66" s="57">
@@ -28728,19 +28859,19 @@
     </row>
     <row r="67" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B67" s="58">
         <v>11.15</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D67" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F67" s="89"/>
       <c r="J67" s="57">
@@ -28749,7 +28880,7 @@
     </row>
     <row r="68" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B68" s="58">
         <v>11.15</v>
@@ -28758,7 +28889,7 @@
         <v>725</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E68" s="67" t="s">
         <v>92</v>
@@ -28769,19 +28900,19 @@
     </row>
     <row r="69" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B69" s="58">
         <v>11.16</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D69" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F69" s="89"/>
       <c r="J69" s="57">
@@ -28790,7 +28921,7 @@
     </row>
     <row r="70" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B70" s="58">
         <v>11.16</v>
@@ -28799,7 +28930,7 @@
         <v>748</v>
       </c>
       <c r="D70" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="E70" s="67" t="s">
         <v>92</v>
@@ -28810,16 +28941,16 @@
     </row>
     <row r="71" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="74" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B71" s="58">
         <v>11.16</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F71" s="89"/>
     </row>
@@ -28831,10 +28962,10 @@
         <v>11.16</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="D72" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="E72" s="67" t="s">
         <v>596</v>
@@ -28845,16 +28976,16 @@
     </row>
     <row r="73" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="78" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B73" s="58">
         <v>11.16</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D73" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="E73" s="147" t="s">
         <v>92</v>
@@ -28866,16 +28997,16 @@
     </row>
     <row r="74" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="78" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B74" s="58">
         <v>11.16</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="E74" s="57" t="s">
-        <v>92</v>
+        <v>813</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>1064</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -28883,16 +29014,16 @@
     </row>
     <row r="75" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="78" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B75" s="58">
         <v>11.17</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E75" s="67" t="s">
         <v>92</v>
@@ -28900,19 +29031,19 @@
     </row>
     <row r="76" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="78" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B76" s="58">
         <v>11.17</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D76" t="s">
-        <v>950</v>
+        <v>1371</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F76" s="89"/>
       <c r="J76" s="57">
@@ -28921,19 +29052,19 @@
     </row>
     <row r="77" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="78" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B77" s="58">
         <v>11.17</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D77" t="s">
-        <v>946</v>
+        <v>1358</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F77" s="89"/>
       <c r="J77" s="57">
@@ -28942,19 +29073,19 @@
     </row>
     <row r="78" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B78" s="58">
         <v>11.17</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D78" t="s">
-        <v>951</v>
+        <v>1356</v>
       </c>
       <c r="E78" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F78" s="89"/>
       <c r="J78" s="57">
@@ -28963,19 +29094,19 @@
     </row>
     <row r="79" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B79" s="58">
         <v>11.17</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D79" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F79" s="89"/>
       <c r="J79" s="57">
@@ -28984,16 +29115,16 @@
     </row>
     <row r="80" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B80" s="58">
         <v>11.18</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D80" s="67" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E80" s="67" t="s">
         <v>601</v>
@@ -29001,19 +29132,19 @@
     </row>
     <row r="81" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="78" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B81" s="58">
         <v>11.19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D81" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F81" s="89"/>
       <c r="J81" s="57">
@@ -29022,19 +29153,19 @@
     </row>
     <row r="82" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="78" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B82" s="58">
         <v>11.19</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D82" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F82" s="89"/>
       <c r="J82" s="57">
@@ -29043,16 +29174,16 @@
     </row>
     <row r="83" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B83" s="58">
         <v>11.19</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D83" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="E83" s="67" t="s">
         <v>609</v>
@@ -29063,19 +29194,19 @@
     </row>
     <row r="84" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="78" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B84" s="58">
         <v>11.21</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D84" s="67" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F84" s="89"/>
       <c r="I84" s="57">
@@ -29084,19 +29215,19 @@
     </row>
     <row r="85" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="78" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B85" s="58">
         <v>11.21</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D85" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F85" s="89"/>
       <c r="J85" s="57">
@@ -29105,19 +29236,19 @@
     </row>
     <row r="86" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="78" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B86" s="58">
         <v>11.21</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D86" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F86" s="89"/>
       <c r="J86" s="57">
@@ -29126,19 +29257,19 @@
     </row>
     <row r="87" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="78" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B87" s="58">
         <v>11.22</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D87" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F87" s="89"/>
       <c r="J87" s="57">
@@ -29147,19 +29278,19 @@
     </row>
     <row r="88" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="78" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B88" s="58">
         <v>11.23</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D88" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E88" s="89" t="s">
-        <v>1079</v>
+        <v>1367</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>1064</v>
       </c>
       <c r="F88" s="89"/>
       <c r="J88" s="57">
@@ -29168,16 +29299,16 @@
     </row>
     <row r="89" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B89" s="58">
         <v>11.23</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D89" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E89" s="147" t="s">
         <v>92</v>
@@ -29189,19 +29320,19 @@
     </row>
     <row r="90" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="78" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B90" s="58">
         <v>11.24</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D90" t="s">
-        <v>995</v>
-      </c>
-      <c r="E90" s="65" t="s">
-        <v>1079</v>
+        <v>983</v>
+      </c>
+      <c r="E90" s="147" t="s">
+        <v>1064</v>
       </c>
       <c r="F90" s="89"/>
       <c r="J90" s="57">
@@ -29210,16 +29341,16 @@
     </row>
     <row r="91" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="78" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B91" s="58">
         <v>11.24</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D91" s="67" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="E91" s="67" t="s">
         <v>638</v>
@@ -29227,16 +29358,16 @@
     </row>
     <row r="92" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="78" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B92" s="58">
         <v>11.24</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D92" t="s">
-        <v>1281</v>
+        <v>1363</v>
       </c>
       <c r="E92" s="67" t="s">
         <v>624</v>
@@ -29247,19 +29378,19 @@
     </row>
     <row r="93" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B93" s="58">
         <v>11.26</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D93" t="s">
-        <v>1311</v>
+        <v>1369</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F93" s="89"/>
       <c r="I93" s="57">
@@ -29268,7 +29399,7 @@
     </row>
     <row r="94" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="77" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B94" s="58">
         <v>11.29</v>
@@ -29277,7 +29408,7 @@
         <v>754</v>
       </c>
       <c r="E94" s="89" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F94" s="89"/>
     </row>
@@ -29289,7 +29420,7 @@
         <v>11.29</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D95" s="57" t="s">
         <v>683</v>
@@ -29301,19 +29432,19 @@
     </row>
     <row r="96" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B96" s="58">
         <v>11.29</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>988</v>
+        <v>1357</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F96" s="89"/>
       <c r="J96" s="57">
@@ -29322,16 +29453,16 @@
     </row>
     <row r="97" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B97" s="58">
         <v>11.29</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D97" s="57" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="E97" s="146" t="s">
         <v>92</v>
@@ -29343,19 +29474,19 @@
     </row>
     <row r="98" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="77" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B98" s="58">
         <v>11.29</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="E98" s="146" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F98" s="89"/>
       <c r="J98" s="57">
@@ -29367,19 +29498,19 @@
     </row>
     <row r="99" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="77" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B99" s="58">
         <v>11.29</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="D99" s="57" t="s">
-        <v>980</v>
+        <v>919</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>1364</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F99" s="89"/>
       <c r="I99" s="57">
@@ -29388,7 +29519,7 @@
     </row>
     <row r="100" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="72" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B100" s="52">
         <v>11.3</v>
@@ -29410,10 +29541,10 @@
         <v>11.3</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="D101" s="57" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="E101" s="67" t="s">
         <v>92</v>
@@ -29434,7 +29565,7 @@
         <v>690</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F102" s="89"/>
     </row>
@@ -29449,10 +29580,10 @@
         <v>691</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F103" s="89"/>
     </row>
@@ -29467,7 +29598,7 @@
         <v>750</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F104" s="89"/>
     </row>
@@ -29479,7 +29610,7 @@
         <v>12.4</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D105" s="57" t="s">
         <v>703</v>
@@ -29500,13 +29631,13 @@
         <v>12.5</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="E106" s="146" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F106" s="89"/>
     </row>
@@ -29518,13 +29649,13 @@
         <v>12.5</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>991</v>
-      </c>
-      <c r="E107" s="65" t="s">
-        <v>1079</v>
+        <v>1372</v>
+      </c>
+      <c r="E107" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F107" s="89"/>
     </row>
@@ -29536,10 +29667,10 @@
         <v>12.6</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E108" s="65" t="s">
-        <v>1079</v>
+        <v>1006</v>
+      </c>
+      <c r="E108" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F108" s="89"/>
     </row>
@@ -29551,13 +29682,13 @@
         <v>12.6</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>988</v>
+        <v>1357</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F109" s="89"/>
       <c r="J109" s="57">
@@ -29572,13 +29703,13 @@
         <v>12.7</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D110" t="s">
-        <v>819</v>
+        <v>1365</v>
       </c>
       <c r="E110" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F110" s="89"/>
       <c r="J110" s="57">
@@ -29593,79 +29724,82 @@
         <v>12.7</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D111" t="s">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F111" s="89"/>
     </row>
     <row r="112" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B112" s="63">
         <v>12.8</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="E112" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F112" s="89"/>
     </row>
     <row r="113" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="87" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B113" s="63">
         <v>12.8</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1001</v>
+        <v>989</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>1361</v>
       </c>
       <c r="E113" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F113" s="89"/>
     </row>
     <row r="114" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="87" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B114" s="63">
         <v>12.9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E114" s="65" t="s">
-        <v>1079</v>
+        <v>1085</v>
+      </c>
+      <c r="E114" s="147" t="s">
+        <v>1064</v>
       </c>
       <c r="F114" s="89"/>
     </row>
     <row r="115" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="87" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="B115" s="63">
         <v>12.9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>1055</v>
+        <v>1356</v>
       </c>
       <c r="E115" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F115" s="89"/>
       <c r="J115" s="57">
@@ -29674,37 +29808,37 @@
     </row>
     <row r="116" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="87" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="B116" s="63">
         <v>12.9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F116" s="89"/>
     </row>
     <row r="117" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="87" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B117" s="63">
         <v>12.9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>1056</v>
+        <v>1360</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F117" s="89"/>
       <c r="J117" s="57">
@@ -29713,19 +29847,19 @@
     </row>
     <row r="118" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="87" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B118" s="58">
         <v>12.1</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>1087</v>
+        <v>1358</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F118" s="89"/>
       <c r="J118" s="57">
@@ -29734,16 +29868,16 @@
     </row>
     <row r="119" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="87" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="B119" s="58">
         <v>12.1</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="E119" s="67" t="s">
         <v>92</v>
@@ -29752,196 +29886,205 @@
     </row>
     <row r="120" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="87" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="B120" s="58">
         <v>12.12</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F120" s="89"/>
     </row>
     <row r="121" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="87" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="B121" s="58">
         <v>12.12</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="D121" s="67" t="s">
-        <v>1318</v>
+        <v>1298</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F121" s="89"/>
     </row>
     <row r="122" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="87" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="B122" s="58">
         <v>12.13</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="D122" s="103" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F122" s="89"/>
     </row>
     <row r="123" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="87" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="B123" s="58">
         <v>12.14</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>1118</v>
+        <v>1101</v>
+      </c>
+      <c r="D123" s="103" t="s">
+        <v>1359</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F123" s="89"/>
     </row>
     <row r="124" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="87" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="B124" s="58">
         <v>12.14</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="D124" s="57" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E124" s="65" t="s">
-        <v>1079</v>
+        <v>1366</v>
+      </c>
+      <c r="E124" s="147" t="s">
+        <v>1064</v>
       </c>
       <c r="F124" s="89"/>
     </row>
     <row r="125" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="B125" s="58">
         <v>12.14</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F125" s="89"/>
     </row>
     <row r="126" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="87" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="B126" s="58">
         <v>12.14</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>1126</v>
+        <v>1109</v>
+      </c>
+      <c r="D126" s="57" t="s">
+        <v>1375</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F126" s="89"/>
     </row>
     <row r="127" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="87" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="B127" s="58">
         <v>12.14</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="F127" s="103"/>
     </row>
     <row r="128" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="87" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="B128" s="58">
         <v>12.15</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>1303</v>
+        <v>1115</v>
+      </c>
+      <c r="E128" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F128" s="103"/>
     </row>
     <row r="129" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="87" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="B129" s="58">
         <v>12.16</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="D129" s="57" t="s">
-        <v>1295</v>
+        <v>1276</v>
       </c>
       <c r="E129" s="146" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F129" s="89"/>
     </row>
     <row r="130" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="87" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="B130" s="58">
         <v>12.16</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="D130" s="57" t="s">
-        <v>1316</v>
+        <v>1296</v>
       </c>
       <c r="E130" s="89" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="F130" s="103"/>
     </row>
     <row r="131" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="87" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="B131" s="58">
         <v>12.17</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E131" s="65" t="s">
-        <v>1079</v>
+        <v>1258</v>
+      </c>
+      <c r="D131" s="57" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E131" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F131" s="103"/>
       <c r="G131" s="57">
@@ -29971,76 +30114,79 @@
     </row>
     <row r="132" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="87" t="s">
-        <v>1297</v>
+        <v>1278</v>
       </c>
       <c r="B132" s="58">
         <v>12.17</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>1285</v>
+        <v>1266</v>
       </c>
       <c r="D132" s="57" t="s">
-        <v>1327</v>
+        <v>1374</v>
       </c>
       <c r="E132" s="146" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F132" s="103"/>
     </row>
     <row r="133" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="87" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="B133" s="58">
         <v>12.18</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E133" s="89" t="s">
-        <v>1079</v>
+        <v>1277</v>
+      </c>
+      <c r="D133" s="57" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E133" s="146" t="s">
+        <v>1064</v>
       </c>
       <c r="F133" s="103"/>
     </row>
     <row r="134" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="87" t="s">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="B134" s="58">
         <v>12.19</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
       <c r="F134" s="103"/>
     </row>
     <row r="135" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="87" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="B135" s="58">
         <v>12.2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="F135" s="103"/>
     </row>
     <row r="136" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="87" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="B136" s="58">
         <v>12.21</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="F136" s="103"/>
     </row>
     <row r="137" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="87" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="B137" s="58">
         <v>12.21</v>
@@ -30134,7 +30280,7 @@
     </row>
     <row r="153" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>1291</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -30148,8 +30294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30184,7 +30330,7 @@
     </row>
     <row r="2" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="6"/>
     </row>
@@ -30199,7 +30345,7 @@
         <v>421</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30210,10 +30356,10 @@
         <v>243</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30224,10 +30370,10 @@
         <v>408</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30238,10 +30384,10 @@
         <v>409</v>
       </c>
       <c r="D6" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30252,10 +30398,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30266,10 +30412,10 @@
         <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30280,10 +30426,10 @@
         <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30294,24 +30440,24 @@
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30322,10 +30468,10 @@
         <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30336,10 +30482,10 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30353,10 +30499,10 @@
         <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -30373,10 +30519,10 @@
         <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -30389,7 +30535,7 @@
     </row>
     <row r="17" spans="1:6" s="57" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -30401,10 +30547,10 @@
         <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="E18" s="105" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30418,7 +30564,7 @@
         <v>426</v>
       </c>
       <c r="E19" s="105" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>92</v>
@@ -30432,12 +30578,12 @@
         <v>425</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="107" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="105"/>
@@ -30451,10 +30597,10 @@
         <v>512</v>
       </c>
       <c r="D23" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30468,10 +30614,10 @@
         <v>415</v>
       </c>
       <c r="D24" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -30485,10 +30631,10 @@
         <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -30500,7 +30646,7 @@
     </row>
     <row r="27" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="C27" s="6"/>
     </row>
@@ -30512,10 +30658,10 @@
         <v>404</v>
       </c>
       <c r="D28" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -30541,19 +30687,19 @@
     </row>
     <row r="30" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="B30">
         <v>8.8000000000000007</v>
       </c>
       <c r="C30" s="108" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="D30" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>92</v>
@@ -30570,13 +30716,13 @@
         <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30593,7 +30739,7 @@
         <v>411</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>92</v>
@@ -30610,10 +30756,10 @@
         <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -30621,7 +30767,7 @@
     </row>
     <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="107" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30636,7 +30782,7 @@
         <v>632</v>
       </c>
       <c r="E36" s="102" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F36" s="102" t="s">
         <v>92</v>
@@ -30651,10 +30797,10 @@
         <v>514</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="E37" s="102" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F37" s="102" t="s">
         <v>92</v>
@@ -30668,10 +30814,10 @@
         <v>455</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F38" t="s">
         <v>92</v>
@@ -30679,7 +30825,7 @@
     </row>
     <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="107" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30742,7 +30888,7 @@
     </row>
     <row r="46" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30823,10 +30969,10 @@
     </row>
     <row r="57" spans="1:5" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="109" t="s">
-        <v>1305</v>
+        <v>1286</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1306</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -30860,36 +31006,36 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="114" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="114" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="K1" s="115" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -47275,7 +47421,7 @@
         <v>43661</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="H2" s="142">
         <v>57</v>
@@ -47298,7 +47444,7 @@
         <v>43662</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="H3" s="142">
         <v>12</v>
@@ -47310,7 +47456,7 @@
         <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="O3">
         <f>C22+C40</f>
@@ -47328,7 +47474,7 @@
         <v>43676</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="H4" s="142">
         <v>20</v>
@@ -47340,7 +47486,7 @@
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="O4">
         <f>SUM(H2:H40)</f>
@@ -47367,7 +47513,7 @@
         <v>167</v>
       </c>
       <c r="N5" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="O5">
         <f>SUM(L2:L40)</f>
@@ -47539,7 +47685,7 @@
         <v>43733</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="H14" s="142">
         <v>638.04</v>
@@ -47556,7 +47702,7 @@
         <v>43741</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="H15" s="142">
         <v>849</v>
@@ -47573,7 +47719,7 @@
         <v>43749</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="H16" s="142">
         <v>912.19</v>
@@ -47591,7 +47737,7 @@
         <v>43758</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="H17" s="142">
         <v>909.09</v>
@@ -47609,7 +47755,7 @@
         <v>43771</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="H18" s="142">
         <v>312.88</v>
@@ -47630,7 +47776,7 @@
         <v>43776</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="H19" s="142">
         <v>208.59</v>
@@ -47647,7 +47793,7 @@
         <v>43786</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="H20" s="142">
         <v>886.5</v>
@@ -47664,7 +47810,7 @@
         <v>43791</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="H21" s="142">
         <v>469.33</v>
@@ -47678,7 +47824,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="98" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="C22">
         <v>1684.49</v>
@@ -47687,7 +47833,7 @@
         <v>43800</v>
       </c>
       <c r="G22" s="116" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="H22" s="142">
         <v>1027.19</v>
@@ -47701,7 +47847,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F23" s="141" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="G23" s="116"/>
       <c r="H23" s="142"/>
@@ -47717,7 +47863,7 @@
         <v>43801</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="H24" s="142">
         <v>2588.4499999999998</v>
@@ -47734,7 +47880,7 @@
         <v>43806</v>
       </c>
       <c r="G25" s="116" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="H25" s="142">
         <v>886.72</v>
@@ -47751,7 +47897,7 @@
         <v>43814</v>
       </c>
       <c r="G26" s="116" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="H26" s="142">
         <v>1108.1600000000001</v>
@@ -47768,7 +47914,7 @@
         <v>43821</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H27" s="142">
         <v>2364.2399999999998</v>
@@ -47922,13 +48068,13 @@
         <v>43762</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="H37" s="142">
         <v>300.93</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K37" s="141">
         <v>43747</v>
@@ -47939,7 +48085,7 @@
     </row>
     <row r="38" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B38" s="98" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="C38">
         <v>37.5</v>
@@ -47948,13 +48094,13 @@
         <v>43781</v>
       </c>
       <c r="G38" s="117" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="H38" s="142">
         <v>726.81</v>
       </c>
       <c r="I38" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K38" s="141">
         <v>43763</v>
@@ -47969,13 +48115,13 @@
         <v>43790</v>
       </c>
       <c r="G39" s="116" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="H39" s="142">
         <v>621.70000000000005</v>
       </c>
       <c r="I39" s="57" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K39" s="141">
         <v>43773</v>
@@ -47986,7 +48132,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="98" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="C40">
         <f>SUM(C29:C38)</f>
@@ -47996,13 +48142,13 @@
         <v>43793</v>
       </c>
       <c r="G40" s="116" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="H40" s="142">
         <v>624.17999999999995</v>
       </c>
       <c r="I40" s="57" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K40" s="141">
         <v>43810</v>
@@ -48365,48 +48511,48 @@
   <sheetData>
     <row r="1" spans="1:9" s="118" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="C1" s="118" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="E1" s="118" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="F1" s="118" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="G1" s="118" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="H1" s="118" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="I1" s="118" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="E2" s="119">
         <v>19866227404</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="G2" s="113">
         <v>8</v>
@@ -48420,19 +48566,19 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="E3" s="57">
         <v>15201722960</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="G3" s="113">
         <v>5</v>
@@ -48446,19 +48592,19 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
       <c r="E4" s="57">
         <v>13729855888</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="G4" s="113">
         <v>8</v>
@@ -48470,19 +48616,19 @@
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="E5" s="57">
         <v>13844233519</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="G5" s="113">
         <v>8</v>
@@ -48494,19 +48640,19 @@
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="E6" s="57">
         <v>18062915376</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="G6" s="113">
         <v>8</v>
@@ -48518,13 +48664,13 @@
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="E7" s="119"/>
       <c r="G7" s="113"/>
@@ -48534,19 +48680,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="119" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="E8" s="119">
         <v>13597066056</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="G8" s="113">
         <v>8</v>
@@ -48560,19 +48706,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="119" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>1252</v>
+        <v>1234</v>
       </c>
       <c r="E9" s="97">
         <v>17808323499</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>1253</v>
+        <v>1235</v>
       </c>
       <c r="I9" s="57" t="s">
         <v>92</v>
@@ -48580,19 +48726,19 @@
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="119" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="E10" s="57">
         <v>13962951462</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>1257</v>
+        <v>1239</v>
       </c>
       <c r="G10" s="113">
         <v>5</v>
@@ -48603,19 +48749,19 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="119" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
       <c r="E11" s="57">
         <v>13971293629</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="G11" s="113">
         <v>8</v>
@@ -48626,19 +48772,19 @@
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="119" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="57">
         <v>18019082909</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="G12" s="113">
         <v>8</v>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED953ED9-AAB9-462D-A666-0067E139FC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D42082-EAF0-40A0-B4DC-AC80EDB04801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11616" yWindow="0" windowWidth="11232" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1383">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10543,10 +10543,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：12月后两周发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.2：415126336041</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12172,10 +12168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：12月发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -12476,10 +12468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.9：预计年内发货 / 18号前提供新地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9：12月发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12862,10 +12850,6 @@
       </rPr>
       <t xml:space="preserve"> CommaComa, 1st Cheering Slogan</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.10到货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -14931,10 +14915,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.23：今天开始发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12.23：12月发货 / 和漏发的COOL钥匙扣*4 一起发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15138,6 +15118,78 @@
   </si>
   <si>
     <t>12.23：53566-0500-5713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9：12月最后一周发货或2.20后发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：假期后发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：推迟 明年发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23：1.15发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.23：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로젠택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 955-7720-4601</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24：预计花费六个月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24：可能明年发货 / 年底再联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文有更新 私信无回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法确定是否已发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微博：scarlett_nph </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开 二月初再联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redvelvet 20cm娃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16284,7 +16336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16764,8 +16816,8 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16781,6 +16833,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -17098,12 +17153,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D35FF-A1D9-4B69-917B-62B42E0E25F5}">
-  <dimension ref="A1:T157"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A27" sqref="A27"/>
-      <selection pane="topRight" activeCell="O80" sqref="O80"/>
+      <selection pane="topRight" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17885,7 +17940,7 @@
     </row>
     <row r="21" spans="1:19" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="152" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -18187,7 +18242,7 @@
         <v>22.378400000000006</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="M28" s="5">
         <v>13</v>
@@ -18197,7 +18252,7 @@
         <v>9.3784000000000063</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="P28" s="5">
         <v>1</v>
@@ -20876,7 +20931,7 @@
         <v>71.347299999999962</v>
       </c>
       <c r="L98" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="M98">
         <v>26</v>
@@ -21098,7 +21153,7 @@
         <v>86.461039999999912</v>
       </c>
       <c r="L104" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="M104">
         <v>19</v>
@@ -21315,7 +21370,7 @@
         <v>88.439759999999978</v>
       </c>
       <c r="O110" s="57" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21352,7 +21407,7 @@
         <v>-2.5147599999999954</v>
       </c>
       <c r="O111" s="57" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21426,7 +21481,7 @@
         <v>40.775319999999965</v>
       </c>
       <c r="O113" s="57" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21468,7 +21523,7 @@
     </row>
     <row r="115" spans="1:15" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B115" s="57" t="s">
         <v>271</v>
@@ -21496,7 +21551,7 @@
         <v>245.55488000000014</v>
       </c>
       <c r="L115" s="156" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="M115" s="157">
         <v>23</v>
@@ -21506,12 +21561,12 @@
         <v>222.55488000000014</v>
       </c>
       <c r="O115" s="57" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B116" t="s">
         <v>271</v>
@@ -21532,14 +21587,14 @@
       </c>
       <c r="K116" s="155"/>
       <c r="L116" s="156" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="M116" s="157">
         <v>23</v>
       </c>
       <c r="N116" s="157"/>
       <c r="O116" s="57" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21945,7 +22000,7 @@
       <c r="N128" s="155"/>
       <c r="O128" s="156"/>
     </row>
-    <row r="129" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -21965,7 +22020,7 @@
       <c r="N129" s="155"/>
       <c r="O129" s="156"/>
     </row>
-    <row r="130" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>418</v>
       </c>
@@ -21999,9 +22054,9 @@
         <v>43.011599999999987</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="96" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B131" s="57" t="s">
         <v>417</v>
@@ -22022,8 +22077,8 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -22057,7 +22112,7 @@
         <v>171.39368000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>107</v>
       </c>
@@ -22097,7 +22152,7 @@
         <v>271.86771999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -22137,7 +22192,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -22174,7 +22229,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -22208,7 +22263,7 @@
         <v>282.82951999999977</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="s">
         <v>76</v>
       </c>
@@ -22245,10 +22300,10 @@
         <v>88.353700000000003</v>
       </c>
       <c r="O138" s="57" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
         <v>73</v>
       </c>
@@ -22288,10 +22343,10 @@
         <v>53.422239999999988</v>
       </c>
       <c r="O139" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
         <v>105</v>
       </c>
@@ -22331,180 +22386,179 @@
         <v>102.23936000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E141" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F141">
+        <v>131.21</v>
+      </c>
+      <c r="H141">
+        <v>27.97</v>
+      </c>
+      <c r="I141">
+        <v>1.23</v>
+      </c>
+      <c r="J141">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" s="57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E142" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D143" t="s">
+        <v>386</v>
+      </c>
+      <c r="E143" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E144" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q144"/>
+    </row>
+    <row r="145" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>46</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B145" t="s">
         <v>558</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="E145" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="146" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>248</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B146" t="s">
         <v>417</v>
       </c>
-      <c r="E142" s="57" t="s">
+      <c r="E146" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="153" t="s">
-        <v>600</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E144" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F144">
-        <v>131.21</v>
-      </c>
-      <c r="H144">
-        <v>27.97</v>
-      </c>
-      <c r="I144">
-        <v>1.23</v>
-      </c>
-      <c r="J144">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
-        <v>72</v>
-      </c>
-      <c r="B145" s="57" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E145" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="153" t="s">
-        <v>82</v>
-      </c>
-      <c r="B148" s="57" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D148" t="s">
-        <v>386</v>
-      </c>
-      <c r="E148" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B149" s="57" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D149" t="s">
+    <row r="148" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F148">
+        <v>2485</v>
+      </c>
+      <c r="G148">
+        <v>2500</v>
+      </c>
+      <c r="K148" s="58">
+        <f>F148+H148-G148</f>
+        <v>-15</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M148">
+        <v>850</v>
+      </c>
+      <c r="N148" s="58">
+        <f>K148-M148</f>
+        <v>-865</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K149" s="58"/>
+      <c r="N149" s="58"/>
+    </row>
+    <row r="150" spans="1:14" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K150" s="58"/>
+      <c r="N150" s="58"/>
+    </row>
+    <row r="151" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58">
+        <f>SUM(I3:I148)</f>
+        <v>1119.4999999999993</v>
+      </c>
+      <c r="J151" s="58">
+        <f>SUM(J3:J148)</f>
+        <v>7076.4900000000016</v>
+      </c>
+      <c r="K151" s="58"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58"/>
+      <c r="N151" s="58">
+        <f>SUM(N3:N148)</f>
+        <v>11237.087219999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="57" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B153" s="154" t="s">
         <v>1340</v>
       </c>
-      <c r="E149" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q149"/>
-    </row>
-    <row r="151" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F151">
-        <v>2485</v>
-      </c>
-      <c r="G151">
-        <v>2500</v>
-      </c>
-      <c r="K151" s="58">
-        <f>F151+H151-G151</f>
-        <v>-15</v>
-      </c>
-      <c r="L151" t="s">
-        <v>1339</v>
-      </c>
-      <c r="M151">
-        <v>850</v>
-      </c>
-      <c r="N151" s="58">
-        <f>K151-M151</f>
-        <v>-865</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K152" s="58"/>
-      <c r="N152" s="58"/>
-    </row>
-    <row r="153" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F153" s="58"/>
-      <c r="G153" s="58"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58">
-        <f>SUM(I3:I151)</f>
-        <v>1119.4999999999993</v>
-      </c>
-      <c r="J153" s="58">
-        <f>SUM(J3:J151)</f>
-        <v>7076.4900000000016</v>
-      </c>
-      <c r="K153" s="58"/>
-      <c r="L153" s="58"/>
-      <c r="M153" s="58"/>
-      <c r="N153" s="58">
-        <f>SUM(N3:N151)</f>
-        <v>11237.087219999994</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>2221.9299999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="57" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B154" s="154"/>
+      <c r="C154">
+        <v>23500.84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B155" s="154" t="s">
-        <v>1344</v>
-      </c>
+        <v>1332</v>
+      </c>
+      <c r="B155" s="154"/>
       <c r="C155">
-        <v>2221.9299999999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="57" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B156" s="154"/>
-      <c r="C156">
-        <v>23500.84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="57" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B157" s="154"/>
-      <c r="C157">
         <v>14428</v>
       </c>
     </row>
@@ -22519,7 +22573,7 @@
     <mergeCell ref="I115:I116"/>
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
-    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B153:B155"/>
     <mergeCell ref="N126:N129"/>
     <mergeCell ref="O126:O129"/>
     <mergeCell ref="I126:I129"/>
@@ -22535,7 +22589,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B155" location="包装及运费!A1" display="包装及运费!A1" xr:uid="{E1DD4FDC-70DE-4709-8E75-628FCAC57121}"/>
+    <hyperlink ref="B153" location="包装及运费!A1" display="包装及运费!A1" xr:uid="{E1DD4FDC-70DE-4709-8E75-628FCAC57121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22546,9 +22600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
   <dimension ref="A1:T240"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A240" sqref="A240:XFD240"/>
+      <selection pane="topRight" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22585,7 +22639,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>212</v>
@@ -22660,7 +22714,7 @@
         <v>87.636320000000069</v>
       </c>
       <c r="M2" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="N2">
         <v>47</v>
@@ -23101,7 +23155,7 @@
         <v>280.00592000000006</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="N11">
         <v>16</v>
@@ -23450,7 +23504,7 @@
         <v>113.42960000000005</v>
       </c>
       <c r="M19" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="N19">
         <v>20</v>
@@ -23977,7 +24031,7 @@
     </row>
     <row r="31" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B31" t="s">
         <v>280</v>
@@ -24020,7 +24074,7 @@
         <v>186.09418000000002</v>
       </c>
       <c r="R31" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24068,7 +24122,7 @@
         <v>172.64268000000001</v>
       </c>
       <c r="R32" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24209,7 +24263,7 @@
         <v>64.684319999999971</v>
       </c>
       <c r="R35" s="57" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24293,7 +24347,7 @@
         <v>204.03775999999971</v>
       </c>
       <c r="M37" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="N37">
         <v>8</v>
@@ -24311,7 +24365,7 @@
         <v>249.37579999999971</v>
       </c>
       <c r="R37" s="57" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24404,7 +24458,7 @@
         <v>54.847719999999967</v>
       </c>
       <c r="R39" s="57" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24739,7 +24793,7 @@
         <v>16.413959999999989</v>
       </c>
       <c r="R47" s="57" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24903,7 +24957,7 @@
         <v>51.373559999999998</v>
       </c>
       <c r="R58" s="57" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24961,7 +25015,7 @@
         <v>43.191599999999994</v>
       </c>
       <c r="M61" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="N61">
         <v>23</v>
@@ -24979,7 +25033,7 @@
         <v>63.162219999999991</v>
       </c>
       <c r="R61" s="57" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25060,7 +25114,7 @@
         <v>539.27203999999972</v>
       </c>
       <c r="R65" s="57" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25260,7 +25314,7 @@
         <v>213.17451999999997</v>
       </c>
       <c r="R79" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25832,7 +25886,7 @@
     </row>
     <row r="127" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B127" s="57" t="s">
         <v>659</v>
@@ -25984,7 +26038,7 @@
         <v>719</v>
       </c>
       <c r="D140" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E140" t="s">
         <v>531</v>
@@ -26009,13 +26063,13 @@
         <v>719</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D142" s="67" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E142" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26054,7 +26108,7 @@
         <v>719</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D145" s="57"/>
       <c r="E145" t="s">
@@ -26105,7 +26159,7 @@
         <v>627</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E149" s="57" t="s">
         <v>92</v>
@@ -26116,7 +26170,7 @@
         <v>610</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D150" t="s">
         <v>654</v>
@@ -26127,16 +26181,16 @@
     </row>
     <row r="151" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D151" s="67" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E151" t="s">
         <v>467</v>
@@ -26147,7 +26201,7 @@
         <v>762</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C152" s="57"/>
       <c r="D152" s="57"/>
@@ -26160,7 +26214,7 @@
         <v>266</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>574</v>
@@ -26177,13 +26231,13 @@
         <v>303</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>618</v>
       </c>
       <c r="D154" s="67" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E154" t="s">
         <v>92</v>
@@ -26194,10 +26248,10 @@
         <v>611</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D155" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E155" t="s">
         <v>615</v>
@@ -26208,7 +26262,7 @@
         <v>616</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E156" t="s">
         <v>615</v>
@@ -26219,7 +26273,7 @@
         <v>533</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E157" t="s">
         <v>536</v>
@@ -26230,7 +26284,7 @@
         <v>614</v>
       </c>
       <c r="B158" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D158" t="s">
         <v>674</v>
@@ -26244,7 +26298,7 @@
         <v>548</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E159" t="s">
         <v>540</v>
@@ -26255,7 +26309,7 @@
         <v>525</v>
       </c>
       <c r="B160" s="57" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E160" t="s">
         <v>531</v>
@@ -26266,13 +26320,13 @@
         <v>238</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>570</v>
       </c>
       <c r="D161" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E161" t="s">
         <v>92</v>
@@ -26283,7 +26337,7 @@
         <v>534</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E162" t="s">
         <v>536</v>
@@ -26292,10 +26346,10 @@
     </row>
     <row r="163" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E163" t="s">
         <v>511</v>
@@ -26306,7 +26360,7 @@
         <v>763</v>
       </c>
       <c r="B164" s="57" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E164" s="57" t="s">
         <v>92</v>
@@ -26317,13 +26371,13 @@
         <v>587</v>
       </c>
       <c r="B165" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>1098</v>
-      </c>
       <c r="D165" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E165" t="s">
         <v>596</v>
@@ -26334,7 +26388,7 @@
         <v>473</v>
       </c>
       <c r="B166" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>754</v>
@@ -26348,7 +26402,7 @@
         <v>586</v>
       </c>
       <c r="B167" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D167" t="s">
         <v>685</v>
@@ -26362,7 +26416,7 @@
         <v>400</v>
       </c>
       <c r="B168" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>737</v>
@@ -26376,10 +26430,10 @@
         <v>612</v>
       </c>
       <c r="B169" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D169" t="s">
         <v>653</v>
@@ -26397,7 +26451,7 @@
         <v>494</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>761</v>
@@ -26408,16 +26462,16 @@
     </row>
     <row r="171" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="75" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D171" s="57" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E171" s="65" t="s">
         <v>92</v>
@@ -26428,13 +26482,13 @@
         <v>442</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>740</v>
       </c>
       <c r="D172" s="156" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E172" s="67" t="s">
         <v>467</v>
@@ -26452,10 +26506,10 @@
         <v>688</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D173" s="156"/>
       <c r="E173" s="67" t="s">
@@ -26470,13 +26524,13 @@
         <v>831</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>783</v>
       </c>
       <c r="D174" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E174" s="67" t="s">
         <v>536</v>
@@ -26484,16 +26538,16 @@
     </row>
     <row r="175" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="78" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D175" s="57" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E175" s="67" t="s">
         <v>624</v>
@@ -26504,13 +26558,13 @@
         <v>849</v>
       </c>
       <c r="B176" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>750</v>
       </c>
       <c r="D176" s="57" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E176" s="67" t="s">
         <v>467</v>
@@ -26521,7 +26575,7 @@
         <v>474</v>
       </c>
       <c r="B177" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>758</v>
@@ -26538,7 +26592,7 @@
         <v>396</v>
       </c>
       <c r="B178" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>734</v>
@@ -26552,13 +26606,13 @@
         <v>764</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D179" s="57" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E179" s="67" t="s">
         <v>92</v>
@@ -26569,13 +26623,13 @@
         <v>865</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>564</v>
       </c>
       <c r="D180" s="57" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E180" s="67" t="s">
         <v>550</v>
@@ -26586,13 +26640,13 @@
         <v>857</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>732</v>
       </c>
       <c r="D181" s="57" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E181" s="67" t="s">
         <v>92</v>
@@ -26600,10 +26654,10 @@
     </row>
     <row r="182" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B182" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>571</v>
@@ -26621,13 +26675,13 @@
         <v>650</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D183" s="57" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E183" s="67" t="s">
         <v>92</v>
@@ -26635,13 +26689,13 @@
     </row>
     <row r="184" spans="1:8" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="57" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E184" s="67"/>
     </row>
@@ -26689,10 +26743,10 @@
         <v>9.19</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D188" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E188" t="s">
         <v>92</v>
@@ -26712,7 +26766,7 @@
         <v>746</v>
       </c>
       <c r="E189" s="57" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26722,18 +26776,18 @@
     </row>
     <row r="191" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="57" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D192" s="67" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E192" s="57" t="s">
         <v>92</v>
@@ -26747,7 +26801,7 @@
         <v>11.19</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D193" s="57" t="s">
         <v>821</v>
@@ -26759,7 +26813,7 @@
     <row r="195" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="197" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26773,7 +26827,7 @@
         <v>793</v>
       </c>
       <c r="D197" s="57" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E197" s="67" t="s">
         <v>540</v>
@@ -26781,16 +26835,16 @@
     </row>
     <row r="198" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="77" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B198" s="58">
         <v>11.29</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D198" s="57" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E198" s="67" t="s">
         <v>92</v>
@@ -26807,7 +26861,7 @@
         <v>778</v>
       </c>
       <c r="D199" s="57" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E199" s="65" t="s">
         <v>92</v>
@@ -26815,13 +26869,13 @@
     </row>
     <row r="200" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B200" s="58">
         <v>11.17</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D200" s="57" t="s">
         <v>819</v>
@@ -26841,7 +26895,7 @@
         <v>802</v>
       </c>
       <c r="D201" s="57" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E201" s="67" t="s">
         <v>596</v>
@@ -26849,13 +26903,13 @@
     </row>
     <row r="202" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="78" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B202" s="58">
         <v>11.26</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D202" s="57" t="s">
         <v>819</v>
@@ -26873,12 +26927,12 @@
     </row>
     <row r="204" spans="1:11" s="57" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="57" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="75" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B205" s="58">
         <v>9.27</v>
@@ -26887,7 +26941,7 @@
         <v>796</v>
       </c>
       <c r="D205" s="67" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E205" s="67" t="s">
         <v>92</v>
@@ -26899,7 +26953,7 @@
     </row>
     <row r="207" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26913,7 +26967,7 @@
         <v>774</v>
       </c>
       <c r="D208" s="67" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E208" s="67" t="s">
         <v>502</v>
@@ -26932,10 +26986,10 @@
         <v>10.9</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D209" s="67" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E209" s="67" t="s">
         <v>92</v>
@@ -26957,7 +27011,7 @@
         <v>815</v>
       </c>
       <c r="D210" s="67" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E210" s="67" t="s">
         <v>502</v>
@@ -26979,10 +27033,10 @@
         <v>780</v>
       </c>
       <c r="D211" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E211" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F211" s="89"/>
       <c r="H211" s="57"/>
@@ -26992,27 +27046,27 @@
     </row>
     <row r="212" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="78" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="78" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B213" s="58">
         <v>11.19</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D213" s="67" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="E213" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F213" s="89"/>
       <c r="H213" s="57"/>
@@ -27028,13 +27082,13 @@
         <v>12.4</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D214" s="67" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="E214" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F214" s="89"/>
     </row>
@@ -27049,10 +27103,10 @@
         <v>775</v>
       </c>
       <c r="D215" s="67" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="E215" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F215" s="89"/>
       <c r="H215" s="57"/>
@@ -27062,19 +27116,19 @@
     </row>
     <row r="216" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="77" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B216" s="58">
         <v>11.17</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D216" s="67" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E216" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F216" s="89"/>
       <c r="H216" s="57"/>
@@ -27084,19 +27138,19 @@
     </row>
     <row r="217" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="78" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B217" s="58">
         <v>11.22</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D217" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E217" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F217" s="89"/>
       <c r="H217" s="57"/>
@@ -27106,19 +27160,19 @@
     </row>
     <row r="218" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="144" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B218" s="58">
         <v>11.28</v>
       </c>
       <c r="C218" s="138" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D218" s="67" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="E218" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F218" s="89"/>
     </row>
@@ -27133,10 +27187,10 @@
         <v>689</v>
       </c>
       <c r="D219" s="67" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E219" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F219" s="89"/>
       <c r="H219" s="57"/>
@@ -27155,10 +27209,10 @@
         <v>784</v>
       </c>
       <c r="D220" s="67" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E220" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F220" s="89"/>
       <c r="H220" s="57"/>
@@ -27168,19 +27222,19 @@
     </row>
     <row r="221" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="78" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B221" s="58">
         <v>11.19</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D221" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E221" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F221" s="89"/>
       <c r="H221" s="57"/>
@@ -27190,19 +27244,19 @@
     </row>
     <row r="222" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="78" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B222" s="58">
         <v>11.21</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D222" s="65" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E222" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F222" s="89"/>
       <c r="H222" s="57"/>
@@ -27212,7 +27266,7 @@
     </row>
     <row r="223" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="77" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B223" s="58">
         <v>10.3</v>
@@ -27221,10 +27275,10 @@
         <v>757</v>
       </c>
       <c r="D223" s="67" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E223" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F223" s="89"/>
       <c r="H223" s="57"/>
@@ -27234,37 +27288,37 @@
     </row>
     <row r="224" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="77" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B224" s="58">
         <v>11.28</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D224" s="67" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E224" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F224" s="89"/>
     </row>
     <row r="225" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="87" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B225" s="58">
         <v>12.13</v>
       </c>
       <c r="C225" s="138" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D225" s="67" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E225" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F225" s="89"/>
     </row>
@@ -27279,10 +27333,10 @@
         <v>742</v>
       </c>
       <c r="D226" s="151" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E226" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F226" s="89"/>
       <c r="H226" s="57"/>
@@ -27301,10 +27355,10 @@
         <v>743</v>
       </c>
       <c r="D227" s="57" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E227" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F227" s="89"/>
       <c r="H227" s="57"/>
@@ -27314,19 +27368,19 @@
     </row>
     <row r="228" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="87" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B228" s="58">
         <v>12.11</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D228" s="57" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E228" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F228" s="89"/>
     </row>
@@ -27341,10 +27395,10 @@
         <v>759</v>
       </c>
       <c r="D229" s="67" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E229" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F229" s="89"/>
       <c r="H229" s="57"/>
@@ -27363,10 +27417,10 @@
         <v>760</v>
       </c>
       <c r="D230" s="67" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E230" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F230" s="89"/>
       <c r="H230" s="57"/>
@@ -27376,19 +27430,19 @@
     </row>
     <row r="231" spans="1:11" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="75" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B231" s="63">
         <v>12.4</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E231" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F231" s="89"/>
     </row>
@@ -27403,10 +27457,10 @@
         <v>756</v>
       </c>
       <c r="D232" s="67" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="E232" s="96" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F232" s="89"/>
       <c r="H232" s="57"/>
@@ -27416,19 +27470,19 @@
     </row>
     <row r="233" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="78" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B233" s="58">
         <v>11.19</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D233" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E233" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F233" s="89"/>
       <c r="H233" s="57"/>
@@ -27447,10 +27501,10 @@
         <v>786</v>
       </c>
       <c r="D234" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="E234" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F234" s="89"/>
       <c r="H234" s="57"/>
@@ -27469,10 +27523,10 @@
         <v>392</v>
       </c>
       <c r="D235" s="67" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E235" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F235" s="89"/>
       <c r="H235" s="57"/>
@@ -27482,7 +27536,7 @@
     </row>
     <row r="236" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="78" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B236" s="58">
         <v>11.16</v>
@@ -27491,10 +27545,10 @@
         <v>814</v>
       </c>
       <c r="D236" s="67" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E236" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F236" s="89"/>
       <c r="H236" s="57"/>
@@ -27504,7 +27558,7 @@
     </row>
     <row r="238" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="78" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27515,13 +27569,13 @@
         <v>12.7</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D239" s="67" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="E239" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F239" s="89"/>
       <c r="H239" s="57"/>
@@ -27542,10 +27596,10 @@
         <v>810</v>
       </c>
       <c r="D240" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E240" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F240" s="89"/>
       <c r="H240" s="57"/>
@@ -27572,10 +27626,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="D127" sqref="D127"/>
+      <selection pane="topRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27604,25 +27658,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>1046</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27671,7 +27725,7 @@
         <v>722</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F4" s="89"/>
       <c r="L4">
@@ -27709,7 +27763,7 @@
         <v>722</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F6" s="89"/>
     </row>
@@ -27762,7 +27816,7 @@
         <v>725</v>
       </c>
       <c r="D9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>92</v>
@@ -27782,10 +27836,10 @@
         <v>575</v>
       </c>
       <c r="D10" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F10" s="89"/>
     </row>
@@ -27800,7 +27854,7 @@
         <v>726</v>
       </c>
       <c r="D11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E11" s="146" t="s">
         <v>92</v>
@@ -27818,10 +27872,10 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E12" s="67" t="s">
         <v>92</v>
@@ -27838,10 +27892,10 @@
         <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E13" s="147" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F13" s="89"/>
     </row>
@@ -27856,10 +27910,10 @@
         <v>313</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F14" s="89"/>
       <c r="J14" s="57">
@@ -27891,7 +27945,7 @@
         <v>722</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F16" s="89"/>
     </row>
@@ -27906,7 +27960,7 @@
         <v>730</v>
       </c>
       <c r="D17" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E17" s="146" t="s">
         <v>92</v>
@@ -27927,10 +27981,10 @@
         <v>564</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F18" s="89"/>
     </row>
@@ -27944,11 +27998,11 @@
       <c r="C19" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="D19" t="s">
-        <v>1353</v>
+      <c r="D19" s="67" t="s">
+        <v>1375</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F19" s="89"/>
       <c r="J19" s="57">
@@ -27963,7 +28017,7 @@
         <v>10.16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D20" t="s">
         <v>767</v>
@@ -27983,19 +28037,19 @@
         <v>395</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B22">
         <v>10.18</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D22" t="s">
         <v>735</v>
@@ -28018,7 +28072,7 @@
         <v>736</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>92</v>
@@ -28038,7 +28092,7 @@
         <v>738</v>
       </c>
       <c r="D24" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E24" s="67" t="s">
         <v>92</v>
@@ -28055,7 +28109,7 @@
         <v>739</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F25" s="89"/>
     </row>
@@ -28070,7 +28124,7 @@
         <v>741</v>
       </c>
       <c r="E26" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F26" s="89"/>
       <c r="G26" s="57"/>
@@ -28086,7 +28140,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E27" s="111" t="s">
         <v>465</v>
@@ -28103,16 +28157,16 @@
         <v>747</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B29" s="57">
         <v>10.26</v>
@@ -28121,10 +28175,10 @@
         <v>745</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="E29" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F29" s="89"/>
       <c r="J29" s="57">
@@ -28142,10 +28196,10 @@
         <v>576</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>962</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>1064</v>
+        <v>1373</v>
+      </c>
+      <c r="E30" s="147" t="s">
+        <v>1060</v>
       </c>
       <c r="F30" s="89"/>
       <c r="J30" s="57">
@@ -28163,7 +28217,7 @@
         <v>748</v>
       </c>
       <c r="D31" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E31" s="67" t="s">
         <v>92</v>
@@ -28181,7 +28235,7 @@
         <v>749</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F32" s="89"/>
     </row>
@@ -28196,10 +28250,10 @@
         <v>751</v>
       </c>
       <c r="D33" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F33" s="89"/>
       <c r="J33" s="57">
@@ -28218,7 +28272,7 @@
       </c>
       <c r="D34" s="148"/>
       <c r="E34" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F34" s="89"/>
     </row>
@@ -28233,7 +28287,7 @@
         <v>753</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E35" s="150" t="s">
         <v>92</v>
@@ -28252,7 +28306,7 @@
       </c>
       <c r="D36" s="148"/>
       <c r="E36" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F36" s="89"/>
     </row>
@@ -28270,7 +28324,7 @@
         <v>768</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F37" s="89"/>
       <c r="J37" s="57">
@@ -28288,7 +28342,7 @@
         <v>726</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E38" s="146" t="s">
         <v>92</v>
@@ -28330,7 +28384,7 @@
         <v>776</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E40" s="67" t="s">
         <v>508</v>
@@ -28350,10 +28404,10 @@
         <v>777</v>
       </c>
       <c r="D41" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F41" s="89"/>
       <c r="J41" s="57">
@@ -28371,7 +28425,7 @@
         <v>781</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E42" s="67" t="s">
         <v>540</v>
@@ -28405,10 +28459,10 @@
         <v>782</v>
       </c>
       <c r="D44" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F44" s="89"/>
       <c r="J44" s="57">
@@ -28426,10 +28480,10 @@
         <v>785</v>
       </c>
       <c r="D45" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F45" s="89"/>
       <c r="J45" s="57">
@@ -28464,10 +28518,10 @@
         <v>788</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F47" s="89"/>
       <c r="J47" s="57">
@@ -28484,11 +28538,11 @@
       <c r="C48" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="D48" t="s">
-        <v>1317</v>
+      <c r="D48" s="67" t="s">
+        <v>1313</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F48" s="89"/>
       <c r="J48" s="57">
@@ -28497,7 +28551,7 @@
     </row>
     <row r="49" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B49" s="57">
         <v>11.9</v>
@@ -28506,7 +28560,7 @@
         <v>792</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E49" s="67" t="s">
         <v>540</v>
@@ -28526,7 +28580,7 @@
         <v>790</v>
       </c>
       <c r="D50" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E50" s="147" t="s">
         <v>92</v>
@@ -28547,16 +28601,16 @@
         <v>785</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F51" s="89"/>
     </row>
     <row r="52" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="78" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B52" s="57">
         <v>11.9</v>
@@ -28565,7 +28619,7 @@
         <v>792</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E52" s="67" t="s">
         <v>540</v>
@@ -28585,10 +28639,10 @@
         <v>791</v>
       </c>
       <c r="D53" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="E53" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F53" s="89"/>
       <c r="J53" s="57">
@@ -28606,10 +28660,10 @@
         <v>794</v>
       </c>
       <c r="D54" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F54" s="89"/>
       <c r="J54" s="57">
@@ -28627,10 +28681,10 @@
         <v>795</v>
       </c>
       <c r="D55" t="s">
-        <v>998</v>
-      </c>
-      <c r="E55" s="147" t="s">
-        <v>92</v>
+        <v>995</v>
+      </c>
+      <c r="E55" s="150" t="s">
+        <v>1060</v>
       </c>
       <c r="F55" s="89"/>
       <c r="L55">
@@ -28648,7 +28702,7 @@
         <v>796</v>
       </c>
       <c r="D56" s="67" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E56" s="67" t="s">
         <v>550</v>
@@ -28665,10 +28719,10 @@
         <v>797</v>
       </c>
       <c r="D57" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F57" s="89"/>
       <c r="J57" s="57">
@@ -28686,10 +28740,10 @@
         <v>798</v>
       </c>
       <c r="D58" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F58" s="89"/>
       <c r="J58" s="57">
@@ -28698,7 +28752,7 @@
     </row>
     <row r="59" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="78" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B59" s="58">
         <v>11.12</v>
@@ -28707,7 +28761,7 @@
         <v>799</v>
       </c>
       <c r="D59" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E59" s="67" t="s">
         <v>555</v>
@@ -28727,10 +28781,10 @@
         <v>800</v>
       </c>
       <c r="D60" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F60" s="89"/>
       <c r="J60" s="57">
@@ -28739,7 +28793,7 @@
     </row>
     <row r="61" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="85" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B61" s="52">
         <v>11.14</v>
@@ -28748,7 +28802,7 @@
         <v>801</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>92</v>
@@ -28766,10 +28820,10 @@
         <v>803</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E62" s="65" t="s">
-        <v>1064</v>
+        <v>1372</v>
+      </c>
+      <c r="E62" s="146" t="s">
+        <v>1060</v>
       </c>
       <c r="F62" s="89"/>
       <c r="J62" s="57">
@@ -28787,10 +28841,10 @@
         <v>804</v>
       </c>
       <c r="D63" t="s">
-        <v>882</v>
-      </c>
-      <c r="E63" s="147" t="s">
-        <v>1064</v>
+        <v>1371</v>
+      </c>
+      <c r="E63" s="146" t="s">
+        <v>1060</v>
       </c>
       <c r="F63" s="89"/>
       <c r="J63" s="57">
@@ -28808,10 +28862,10 @@
         <v>805</v>
       </c>
       <c r="D64" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F64" s="89"/>
       <c r="J64" s="57">
@@ -28820,7 +28874,7 @@
     </row>
     <row r="65" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B65" s="58">
         <v>11.14</v>
@@ -28829,7 +28883,7 @@
         <v>806</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E65" s="67" t="s">
         <v>92</v>
@@ -28847,10 +28901,10 @@
         <v>807</v>
       </c>
       <c r="D66" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F66" s="89"/>
       <c r="J66" s="57">
@@ -28868,10 +28922,10 @@
         <v>808</v>
       </c>
       <c r="D67" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F67" s="89"/>
       <c r="J67" s="57">
@@ -28889,7 +28943,7 @@
         <v>725</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E68" s="67" t="s">
         <v>92</v>
@@ -28909,10 +28963,10 @@
         <v>809</v>
       </c>
       <c r="D69" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F69" s="89"/>
       <c r="J69" s="57">
@@ -28930,7 +28984,7 @@
         <v>748</v>
       </c>
       <c r="D70" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E70" s="67" t="s">
         <v>92</v>
@@ -28950,7 +29004,7 @@
         <v>811</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F71" s="89"/>
     </row>
@@ -28962,10 +29016,10 @@
         <v>11.16</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D72" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E72" s="67" t="s">
         <v>596</v>
@@ -28985,7 +29039,7 @@
         <v>812</v>
       </c>
       <c r="D73" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E73" s="147" t="s">
         <v>92</v>
@@ -29006,7 +29060,7 @@
         <v>813</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -29014,16 +29068,16 @@
     </row>
     <row r="75" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B75" s="58">
         <v>11.17</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E75" s="67" t="s">
         <v>92</v>
@@ -29031,19 +29085,19 @@
     </row>
     <row r="76" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="78" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B76" s="58">
         <v>11.17</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D76" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F76" s="89"/>
       <c r="J76" s="57">
@@ -29052,19 +29106,19 @@
     </row>
     <row r="77" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="78" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B77" s="58">
         <v>11.17</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D77" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F77" s="89"/>
       <c r="J77" s="57">
@@ -29073,19 +29127,19 @@
     </row>
     <row r="78" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B78" s="58">
         <v>11.17</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D78" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E78" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F78" s="89"/>
       <c r="J78" s="57">
@@ -29094,19 +29148,19 @@
     </row>
     <row r="79" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B79" s="58">
         <v>11.17</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D79" t="s">
-        <v>963</v>
-      </c>
-      <c r="E79" s="65" t="s">
-        <v>1064</v>
+        <v>1374</v>
+      </c>
+      <c r="E79" s="146" t="s">
+        <v>1060</v>
       </c>
       <c r="F79" s="89"/>
       <c r="J79" s="57">
@@ -29115,16 +29169,16 @@
     </row>
     <row r="80" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B80" s="58">
         <v>11.18</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D80" s="67" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E80" s="67" t="s">
         <v>601</v>
@@ -29132,19 +29186,19 @@
     </row>
     <row r="81" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="78" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B81" s="58">
         <v>11.19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D81" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F81" s="89"/>
       <c r="J81" s="57">
@@ -29153,19 +29207,19 @@
     </row>
     <row r="82" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="78" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B82" s="58">
         <v>11.19</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D82" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F82" s="89"/>
       <c r="J82" s="57">
@@ -29174,16 +29228,16 @@
     </row>
     <row r="83" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B83" s="58">
         <v>11.19</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D83" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E83" s="67" t="s">
         <v>609</v>
@@ -29194,19 +29248,19 @@
     </row>
     <row r="84" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="78" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B84" s="58">
         <v>11.21</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D84" s="67" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F84" s="89"/>
       <c r="I84" s="57">
@@ -29215,19 +29269,19 @@
     </row>
     <row r="85" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="78" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B85" s="58">
         <v>11.21</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D85" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F85" s="89"/>
       <c r="J85" s="57">
@@ -29236,19 +29290,19 @@
     </row>
     <row r="86" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="78" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B86" s="58">
         <v>11.21</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D86" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F86" s="89"/>
       <c r="J86" s="57">
@@ -29257,19 +29311,19 @@
     </row>
     <row r="87" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="78" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B87" s="58">
         <v>11.22</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D87" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F87" s="89"/>
       <c r="J87" s="57">
@@ -29278,19 +29332,19 @@
     </row>
     <row r="88" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="78" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B88" s="58">
         <v>11.23</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D88" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F88" s="89"/>
       <c r="J88" s="57">
@@ -29299,16 +29353,16 @@
     </row>
     <row r="89" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B89" s="58">
         <v>11.23</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D89" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E89" s="147" t="s">
         <v>92</v>
@@ -29320,19 +29374,19 @@
     </row>
     <row r="90" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="78" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B90" s="58">
         <v>11.24</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D90" t="s">
-        <v>983</v>
-      </c>
-      <c r="E90" s="147" t="s">
-        <v>1064</v>
+        <v>1377</v>
+      </c>
+      <c r="E90" s="146" t="s">
+        <v>1060</v>
       </c>
       <c r="F90" s="89"/>
       <c r="J90" s="57">
@@ -29341,16 +29395,16 @@
     </row>
     <row r="91" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="78" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B91" s="58">
         <v>11.24</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D91" s="67" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E91" s="67" t="s">
         <v>638</v>
@@ -29358,16 +29412,16 @@
     </row>
     <row r="92" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="78" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B92" s="58">
         <v>11.24</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1363</v>
+        <v>911</v>
+      </c>
+      <c r="D92" s="67" t="s">
+        <v>1358</v>
       </c>
       <c r="E92" s="67" t="s">
         <v>624</v>
@@ -29378,19 +29432,19 @@
     </row>
     <row r="93" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B93" s="58">
         <v>11.26</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1369</v>
+        <v>914</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>1364</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F93" s="89"/>
       <c r="I93" s="57">
@@ -29399,7 +29453,7 @@
     </row>
     <row r="94" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="77" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B94" s="58">
         <v>11.29</v>
@@ -29408,7 +29462,7 @@
         <v>754</v>
       </c>
       <c r="E94" s="89" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F94" s="89"/>
     </row>
@@ -29420,7 +29474,7 @@
         <v>11.29</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D95" s="57" t="s">
         <v>683</v>
@@ -29432,7 +29486,7 @@
     </row>
     <row r="96" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B96" s="58">
         <v>11.29</v>
@@ -29441,10 +29495,10 @@
         <v>769</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F96" s="89"/>
       <c r="J96" s="57">
@@ -29453,16 +29507,16 @@
     </row>
     <row r="97" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B97" s="58">
         <v>11.29</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D97" s="57" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E97" s="146" t="s">
         <v>92</v>
@@ -29474,19 +29528,19 @@
     </row>
     <row r="98" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="77" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B98" s="58">
         <v>11.29</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E98" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F98" s="89"/>
       <c r="J98" s="57">
@@ -29498,19 +29552,19 @@
     </row>
     <row r="99" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="77" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B99" s="58">
         <v>11.29</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>1364</v>
+        <v>918</v>
+      </c>
+      <c r="D99" s="153" t="s">
+        <v>1359</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F99" s="89"/>
       <c r="I99" s="57">
@@ -29519,7 +29573,7 @@
     </row>
     <row r="100" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="72" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B100" s="52">
         <v>11.3</v>
@@ -29541,10 +29595,10 @@
         <v>11.3</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D101" s="57" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E101" s="67" t="s">
         <v>92</v>
@@ -29565,7 +29619,7 @@
         <v>690</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F102" s="89"/>
     </row>
@@ -29580,10 +29634,10 @@
         <v>691</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F103" s="89"/>
     </row>
@@ -29598,7 +29652,7 @@
         <v>750</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F104" s="89"/>
     </row>
@@ -29610,7 +29664,7 @@
         <v>12.4</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D105" s="57" t="s">
         <v>703</v>
@@ -29631,13 +29685,13 @@
         <v>12.5</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="E106" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F106" s="89"/>
     </row>
@@ -29649,13 +29703,13 @@
         <v>12.5</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="E107" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F107" s="89"/>
     </row>
@@ -29667,10 +29721,10 @@
         <v>12.6</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E108" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F108" s="89"/>
     </row>
@@ -29685,10 +29739,10 @@
         <v>769</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F109" s="89"/>
       <c r="J109" s="57">
@@ -29706,10 +29760,10 @@
         <v>817</v>
       </c>
       <c r="D110" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E110" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F110" s="89"/>
       <c r="J110" s="57">
@@ -29724,13 +29778,13 @@
         <v>12.7</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D111" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F111" s="89"/>
     </row>
@@ -29742,10 +29796,10 @@
         <v>12.8</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E112" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F112" s="89"/>
     </row>
@@ -29757,49 +29811,49 @@
         <v>12.8</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>1361</v>
+        <v>986</v>
+      </c>
+      <c r="D113" s="153" t="s">
+        <v>1356</v>
       </c>
       <c r="E113" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F113" s="89"/>
     </row>
     <row r="114" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="87" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B114" s="63">
         <v>12.9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E114" s="147" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F114" s="89"/>
     </row>
     <row r="115" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="87" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B115" s="63">
         <v>12.9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E115" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F115" s="89"/>
       <c r="J115" s="57">
@@ -29808,37 +29862,37 @@
     </row>
     <row r="116" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="87" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B116" s="63">
         <v>12.9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F116" s="89"/>
     </row>
     <row r="117" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="87" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B117" s="63">
         <v>12.9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F117" s="89"/>
       <c r="J117" s="57">
@@ -29847,19 +29901,19 @@
     </row>
     <row r="118" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="87" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B118" s="58">
         <v>12.1</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F118" s="89"/>
       <c r="J118" s="57">
@@ -29868,16 +29922,16 @@
     </row>
     <row r="119" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="87" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B119" s="58">
         <v>12.1</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E119" s="67" t="s">
         <v>92</v>
@@ -29886,205 +29940,205 @@
     </row>
     <row r="120" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="87" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B120" s="58">
         <v>12.12</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F120" s="89"/>
     </row>
     <row r="121" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="87" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B121" s="58">
         <v>12.12</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D121" s="67" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F121" s="89"/>
     </row>
     <row r="122" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="87" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B122" s="58">
         <v>12.13</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D122" s="103" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F122" s="89"/>
     </row>
     <row r="123" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="87" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B123" s="58">
         <v>12.14</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D123" s="103" t="s">
-        <v>1359</v>
+        <v>1097</v>
+      </c>
+      <c r="D123" s="67" t="s">
+        <v>1354</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F123" s="89"/>
     </row>
     <row r="124" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="87" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B124" s="58">
         <v>12.14</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D124" s="57" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E124" s="147" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F124" s="89"/>
     </row>
     <row r="125" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B125" s="58">
         <v>12.14</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F125" s="89"/>
     </row>
     <row r="126" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="87" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B126" s="58">
         <v>12.14</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D126" s="57" t="s">
-        <v>1375</v>
+        <v>1105</v>
+      </c>
+      <c r="D126" s="67" t="s">
+        <v>1370</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F126" s="89"/>
     </row>
     <row r="127" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="87" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B127" s="58">
         <v>12.14</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F127" s="103"/>
     </row>
     <row r="128" spans="1:10" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="87" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B128" s="58">
         <v>12.15</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E128" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F128" s="103"/>
     </row>
     <row r="129" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="87" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B129" s="58">
         <v>12.16</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D129" s="57" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E129" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F129" s="89"/>
     </row>
     <row r="130" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="87" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B130" s="58">
         <v>12.16</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D130" s="57" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E130" s="89" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="F130" s="103"/>
     </row>
     <row r="131" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="87" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B131" s="58">
         <v>12.17</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D131" s="57" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="E131" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F131" s="103"/>
       <c r="G131" s="57">
@@ -30114,79 +30168,85 @@
     </row>
     <row r="132" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="87" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B132" s="58">
         <v>12.17</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D132" s="57" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="E132" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F132" s="103"/>
     </row>
     <row r="133" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="87" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B133" s="58">
         <v>12.18</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D133" s="57" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E133" s="146" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F133" s="103"/>
     </row>
     <row r="134" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="87" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B134" s="58">
         <v>12.19</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F134" s="103"/>
     </row>
     <row r="135" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="87" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B135" s="58">
         <v>12.2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F135" s="103"/>
     </row>
     <row r="136" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="87" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B136" s="58">
         <v>12.21</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>1318</v>
+        <v>1314</v>
+      </c>
+      <c r="D136" s="57" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E136" s="146" t="s">
+        <v>1060</v>
       </c>
       <c r="F136" s="103"/>
     </row>
     <row r="137" spans="1:13" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="87" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B137" s="58">
         <v>12.21</v>
@@ -30278,9 +30338,20 @@
         <v>11.26</v>
       </c>
     </row>
+    <row r="149" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="87" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1380</v>
+      </c>
+    </row>
     <row r="153" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -30292,19 +30363,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="56.21875" style="57" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" style="57" customWidth="1"/>
     <col min="8" max="8" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30330,7 +30401,7 @@
     </row>
     <row r="2" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="6"/>
     </row>
@@ -30345,7 +30416,7 @@
         <v>421</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30356,10 +30427,10 @@
         <v>243</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30370,10 +30441,10 @@
         <v>408</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30384,10 +30455,10 @@
         <v>409</v>
       </c>
       <c r="D6" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30398,10 +30469,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30412,10 +30483,10 @@
         <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30426,10 +30497,10 @@
         <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30440,24 +30511,24 @@
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30468,10 +30539,10 @@
         <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30482,10 +30553,10 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30499,10 +30570,10 @@
         <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -30519,10 +30590,10 @@
         <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -30535,7 +30606,7 @@
     </row>
     <row r="17" spans="1:6" s="57" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -30547,10 +30618,10 @@
         <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E18" s="105" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30564,7 +30635,7 @@
         <v>426</v>
       </c>
       <c r="E19" s="105" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>92</v>
@@ -30578,128 +30649,122 @@
         <v>425</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-    </row>
-    <row r="23" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="107" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D23" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="D24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D24" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>416</v>
-      </c>
       <c r="D25" t="s">
-        <v>1175</v>
+        <v>1130</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="C26" s="6"/>
+    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
-        <v>1149</v>
-      </c>
+      <c r="A27" s="48"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" s="104" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D28" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F28" s="67"/>
-    </row>
-    <row r="29" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29">
-        <v>8.5</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>1146</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>92</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1124</v>
+        <v>71</v>
       </c>
       <c r="B30">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C30" s="108" t="s">
-        <v>1135</v>
+        <v>8.5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="D30" t="s">
-        <v>1136</v>
+        <v>422</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1136</v>
+        <v>422</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>92</v>
@@ -30707,149 +30772,154 @@
     </row>
     <row r="31" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>406</v>
+        <v>1120</v>
+      </c>
+      <c r="B31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>1131</v>
       </c>
       <c r="D31" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>1064</v>
+        <v>1132</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32">
-        <v>8.1300000000000008</v>
+        <v>124</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8.1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D32" t="s">
-        <v>411</v>
+        <v>1133</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>92</v>
+        <v>1133</v>
+      </c>
+      <c r="F32" s="103" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>8.19</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D33" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D34" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
-        <v>1141</v>
-      </c>
-    </row>
     <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101" t="s">
-        <v>513</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>632</v>
-      </c>
-      <c r="E36" s="102" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F36" s="102" t="s">
-        <v>92</v>
+      <c r="A36" s="107" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="101" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1071</v>
+        <v>632</v>
       </c>
       <c r="E37" s="102" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F37" s="102" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E38" s="102" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C39" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="112" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D39" s="112" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
-        <v>1163</v>
-      </c>
-    </row>
     <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41"/>
+      <c r="A41" s="107" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D42" t="s">
         <v>90</v>
       </c>
@@ -30857,63 +30927,61 @@
     </row>
     <row r="43" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="D43" t="s">
         <v>90</v>
       </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>30</v>
+      <c r="A44" t="s">
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>556</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="103" t="s">
-        <v>704</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
+      <c r="E46" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="107" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="103" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -30922,58 +30990,70 @@
     </row>
     <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="103" t="s">
-        <v>706</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="103" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="103" t="s">
+        <v>706</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="103" t="s">
+        <v>707</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="110" t="s">
         <v>708</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="103" t="s">
+    <row r="55" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="103" t="s">
         <v>709</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B55" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="57" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="94"/>
-    </row>
-    <row r="57" spans="1:5" s="57" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="109" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>1287</v>
-      </c>
+    <row r="56" spans="1:5" s="57" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="103"/>
+      <c r="B56" s="94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30986,7 +31066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -31006,36 +31086,36 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="114" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="114" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="K1" s="115" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -47421,7 +47501,7 @@
         <v>43661</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="H2" s="142">
         <v>57</v>
@@ -47444,7 +47524,7 @@
         <v>43662</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="H3" s="142">
         <v>12</v>
@@ -47456,7 +47536,7 @@
         <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="O3">
         <f>C22+C40</f>
@@ -47474,7 +47554,7 @@
         <v>43676</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="H4" s="142">
         <v>20</v>
@@ -47486,7 +47566,7 @@
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="O4">
         <f>SUM(H2:H40)</f>
@@ -47513,7 +47593,7 @@
         <v>167</v>
       </c>
       <c r="N5" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="O5">
         <f>SUM(L2:L40)</f>
@@ -47685,7 +47765,7 @@
         <v>43733</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="H14" s="142">
         <v>638.04</v>
@@ -47702,7 +47782,7 @@
         <v>43741</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="H15" s="142">
         <v>849</v>
@@ -47719,7 +47799,7 @@
         <v>43749</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="H16" s="142">
         <v>912.19</v>
@@ -47737,7 +47817,7 @@
         <v>43758</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H17" s="142">
         <v>909.09</v>
@@ -47755,7 +47835,7 @@
         <v>43771</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="H18" s="142">
         <v>312.88</v>
@@ -47776,7 +47856,7 @@
         <v>43776</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="H19" s="142">
         <v>208.59</v>
@@ -47793,7 +47873,7 @@
         <v>43786</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="H20" s="142">
         <v>886.5</v>
@@ -47810,7 +47890,7 @@
         <v>43791</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="H21" s="142">
         <v>469.33</v>
@@ -47824,7 +47904,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="98" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C22">
         <v>1684.49</v>
@@ -47833,7 +47913,7 @@
         <v>43800</v>
       </c>
       <c r="G22" s="116" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="H22" s="142">
         <v>1027.19</v>
@@ -47847,7 +47927,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F23" s="141" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G23" s="116"/>
       <c r="H23" s="142"/>
@@ -47863,7 +47943,7 @@
         <v>43801</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H24" s="142">
         <v>2588.4499999999998</v>
@@ -47880,7 +47960,7 @@
         <v>43806</v>
       </c>
       <c r="G25" s="116" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="H25" s="142">
         <v>886.72</v>
@@ -47897,7 +47977,7 @@
         <v>43814</v>
       </c>
       <c r="G26" s="116" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="H26" s="142">
         <v>1108.1600000000001</v>
@@ -47914,7 +47994,7 @@
         <v>43821</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="H27" s="142">
         <v>2364.2399999999998</v>
@@ -48068,13 +48148,13 @@
         <v>43762</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="H37" s="142">
         <v>300.93</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="K37" s="141">
         <v>43747</v>
@@ -48085,7 +48165,7 @@
     </row>
     <row r="38" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B38" s="98" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C38">
         <v>37.5</v>
@@ -48094,13 +48174,13 @@
         <v>43781</v>
       </c>
       <c r="G38" s="117" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H38" s="142">
         <v>726.81</v>
       </c>
       <c r="I38" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="K38" s="141">
         <v>43763</v>
@@ -48115,13 +48195,13 @@
         <v>43790</v>
       </c>
       <c r="G39" s="116" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="H39" s="142">
         <v>621.70000000000005</v>
       </c>
       <c r="I39" s="57" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="K39" s="141">
         <v>43773</v>
@@ -48132,7 +48212,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="98" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C40">
         <f>SUM(C29:C38)</f>
@@ -48142,13 +48222,13 @@
         <v>43793</v>
       </c>
       <c r="G40" s="116" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="H40" s="142">
         <v>624.17999999999995</v>
       </c>
       <c r="I40" s="57" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="K40" s="141">
         <v>43810</v>
@@ -48511,48 +48591,48 @@
   <sheetData>
     <row r="1" spans="1:9" s="118" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B1" s="118" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1" s="118" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1" s="118" t="s">
         <v>1202</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="G1" s="118" t="s">
         <v>1203</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="H1" s="118" t="s">
         <v>1204</v>
       </c>
-      <c r="E1" s="118" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>1208</v>
-      </c>
       <c r="I1" s="118" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="E2" s="119">
         <v>19866227404</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G2" s="113">
         <v>8</v>
@@ -48566,19 +48646,19 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C3" s="119" t="s">
         <v>1209</v>
       </c>
-      <c r="C3" s="119" t="s">
-        <v>1213</v>
-      </c>
       <c r="D3" s="119" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E3" s="57">
         <v>15201722960</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G3" s="113">
         <v>5</v>
@@ -48592,19 +48672,19 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E4" s="57">
         <v>13729855888</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G4" s="113">
         <v>8</v>
@@ -48616,19 +48696,19 @@
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>1216</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>1220</v>
-      </c>
       <c r="D5" s="119" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E5" s="57">
         <v>13844233519</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G5" s="113">
         <v>8</v>
@@ -48640,19 +48720,19 @@
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E6" s="57">
         <v>18062915376</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G6" s="113">
         <v>8</v>
@@ -48664,13 +48744,13 @@
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E7" s="119"/>
       <c r="G7" s="113"/>
@@ -48680,19 +48760,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="119" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E8" s="119">
         <v>13597066056</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G8" s="113">
         <v>8</v>
@@ -48706,19 +48786,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="119" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C9" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="C9" s="119" t="s">
-        <v>1233</v>
-      </c>
       <c r="D9" s="57" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E9" s="97">
         <v>17808323499</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="I9" s="57" t="s">
         <v>92</v>
@@ -48726,19 +48806,19 @@
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="119" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E10" s="57">
         <v>13962951462</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G10" s="113">
         <v>5</v>
@@ -48749,19 +48829,19 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="119" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E11" s="57">
         <v>13971293629</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G11" s="113">
         <v>8</v>
@@ -48772,19 +48852,19 @@
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="119" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E12" s="57">
         <v>18019082909</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G12" s="113">
         <v>8</v>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CE87C-15FC-4C15-9C35-3E00AAE12CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD18B8-72D7-4D9D-BF20-D63BA5F72664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="接受箱年后货物情况整理" sheetId="10" r:id="rId3"/>
     <sheet name="接受箱其他" sheetId="6" r:id="rId4"/>
     <sheet name="贩卖机其他" sheetId="5" r:id="rId5"/>
-    <sheet name="包装及运费" sheetId="7" r:id="rId6"/>
-    <sheet name="代收代付" sheetId="9" r:id="rId7"/>
+    <sheet name="代收代付" sheetId="9" r:id="rId6"/>
+    <sheet name="包装及运费" sheetId="7" r:id="rId7"/>
     <sheet name="补发" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,6 +38,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{CDE1ECE5-D0A6-400D-BC01-9BF7E63F1345}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+alwaysbrightzh0704@gmail.com</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -150,12 +185,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{3745062D-A091-4668-9A12-274A6D38DADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+8kg
+66,400韩元
+支付宝直接转账:原野</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1764">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12642,10 +12705,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>漏发一条 已发送新地址 2.20后发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13138,10 +13197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中国工厂发货 /4.14：预计6月完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.7：RE029973847HK 寄到韩国</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13848,10 +13903,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.14推文：本周发货 /1.13：制作中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>截止日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13860,10 +13911,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.30：已发货，若未收到联系退款 /泰国发货 / 已改收件人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>推主说已发货，但韩国未收到：（超过两月以上，联系中）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13877,10 +13924,6 @@
   </si>
   <si>
     <t>因疫情暂时无法发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【预备发货中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -14088,10 +14131,6 @@
       </rPr>
       <t>：已到货</t>
     </r>
-  </si>
-  <si>
-    <t>当日汇率166 / 4.24：漏发一条 下周发货</t>
-    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14210,10 +14249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未到货/部分未到货</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -14269,10 +14304,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>因疫情暂时无法发货 /4.30：暂定5.15后 /东南亚 /已改收件人为：Zhang Xinyi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>JENNIE &amp; LISA Cheering kit   【14】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14983,27 +15014,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.23：预计制作需要4~5个月 /4.20推文：样品下周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4推文：因疫情原因工厂关闭了两个月，暂无法估计确切的完成时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4推文：因疫情原因工厂关闭了两个月，暂无法估计确切发货时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.25回复：目前不在韩国 五月中下旬寄出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BGon0305 /销号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.29：香港发, 怀化地址 /5.2：EB004507875HK Hong Kong Pos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -16174,9 +16189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">金东贤 ETERNALVISUAL 4th Slogan / Love is..you </t>
-  </si>
-  <si>
     <t>推特有更新 / 私信最后回复：12.20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -17990,10 +18002,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>漏发Mini横幅*1 / 5.19：下周寄出 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>漏发一套 5.18已私信 / 2.27：64167-0213-0005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18015,10 +18023,6 @@
   </si>
   <si>
     <t>5.18：制作约还需1月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30：LE(红色)*5后寄 /5.21：预计六月初</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18665,22 +18669,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>6.1：6312-1519-6511</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15：EG265957462KR，已改怀化地址 /中国工厂发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1：这周补发先入金特典 / 5.22：413894229512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF634826</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1：二次打样完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰妍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bebe Taengther 15cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【99】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰妍 Bebe Taengther 15cm娃 二次入金 【75】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发Mini横幅*1 / 6.6：5151502006179 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hwiming_doll</t>
-  </si>
-  <si>
-    <t>6.1：6312-1519-6511</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【已发货，待确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.15：EG265957462KR，已改怀化地址 /中国工厂发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1：这周补发先入金特典 / 5.22：413894229512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1：生产时间预计在夏天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金东贤 ETERNALVISUAL 4th Slogan / Love is..you </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日汇率166 / 已补一条</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分补款</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工厂发货 已给怀化地址 /6.8：预计6.15发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30：LE(红色)*5后寄 /6.8：六月底再次询问 若无法寄出 退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因疫情暂时无法发货 /6.8：仍然无法发货 /东南亚 /已改收件人为：Zhang Xinyi，已改怀化地址</t>
+  </si>
+  <si>
+    <t>6.8：待退款 已给zfb二维码 /泰国发货 / 已改收件人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发一套 / 6.9：补发今日发出 /5.2：EB004507875HK Hong Kong Pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10：生产中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23：预计制作需要4~5个月 /5.11推文：打样完成 开始生产</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18694,7 +18804,7 @@
     <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="126" x14ac:knownFonts="1">
+  <fonts count="127" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19618,6 +19728,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -20266,7 +20383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21225,14 +21342,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21262,6 +21391,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21270,9 +21402,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21668,22 +21797,22 @@
         <v>209</v>
       </c>
       <c r="Q1" s="92" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="S1" s="92" t="s">
         <v>1319</v>
       </c>
-      <c r="R1" s="92" t="s">
-        <v>1318</v>
-      </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>1320</v>
       </c>
-      <c r="T1" s="92" t="s">
-        <v>1321</v>
-      </c>
       <c r="U1" s="215" t="s">
+        <v>1336</v>
+      </c>
+      <c r="V1" s="215" t="s">
         <v>1337</v>
-      </c>
-      <c r="V1" s="215" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21751,7 +21880,7 @@
         <v>18.11</v>
       </c>
       <c r="W3" s="53" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22106,7 +22235,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W12" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22282,7 +22411,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22386,7 +22515,7 @@
         <v>10.06</v>
       </c>
       <c r="W18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23143,7 +23272,7 @@
         <v>10.06</v>
       </c>
       <c r="W37" s="53" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23700,7 +23829,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W51" s="53" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23763,7 +23892,7 @@
         <v>10.06</v>
       </c>
       <c r="W52" s="53" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23903,7 +24032,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W55" s="53" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24074,7 +24203,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W59" s="212" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24209,7 +24338,7 @@
         <v>6.04</v>
       </c>
       <c r="W62" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24273,7 +24402,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W63" s="53" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24372,7 +24501,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W65" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24594,7 +24723,7 @@
         <v>10.06</v>
       </c>
       <c r="W70" s="53" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24696,7 +24825,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W73" s="53" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24834,7 +24963,7 @@
         <v>115.98</v>
       </c>
       <c r="W76" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24918,7 +25047,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W78" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24980,7 +25109,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W79" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25370,7 +25499,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W89" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25509,7 +25638,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W92" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26143,7 +26272,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W109" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26348,32 +26477,32 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="306">
+      <c r="G115" s="310">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="306">
+      <c r="H115" s="310">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="306">
+      <c r="I115" s="310">
         <v>92.52</v>
       </c>
-      <c r="J115" s="306">
+      <c r="J115" s="310">
         <v>9.64</v>
       </c>
-      <c r="K115" s="306">
+      <c r="K115" s="310">
         <v>122.8</v>
       </c>
-      <c r="L115" s="307">
+      <c r="L115" s="309">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="305" t="s">
+      <c r="M115" s="311" t="s">
         <v>813</v>
       </c>
-      <c r="N115" s="306">
+      <c r="N115" s="310">
         <v>15</v>
       </c>
-      <c r="O115" s="307">
+      <c r="O115" s="309">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26391,25 +26520,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="306"/>
-      <c r="H116" s="306"/>
-      <c r="I116" s="306">
+      <c r="G116" s="310"/>
+      <c r="H116" s="310"/>
+      <c r="I116" s="310">
         <v>49.72</v>
       </c>
-      <c r="J116" s="306">
+      <c r="J116" s="310">
         <v>4.84</v>
       </c>
-      <c r="K116" s="306">
+      <c r="K116" s="310">
         <v>50.31</v>
       </c>
-      <c r="L116" s="307"/>
-      <c r="M116" s="305" t="s">
+      <c r="L116" s="309"/>
+      <c r="M116" s="311" t="s">
         <v>813</v>
       </c>
-      <c r="N116" s="306">
+      <c r="N116" s="310">
         <v>23</v>
       </c>
-      <c r="O116" s="306"/>
+      <c r="O116" s="310"/>
       <c r="P116" s="53" t="s">
         <v>812</v>
       </c>
@@ -26661,7 +26790,7 @@
         <v>10.06</v>
       </c>
       <c r="W122" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26714,7 +26843,7 @@
         <v>135.79</v>
       </c>
       <c r="W123" s="212" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26791,39 +26920,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="305" t="s">
+      <c r="D126" s="311" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="305" t="s">
+      <c r="E126" s="311" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="306">
+      <c r="G126" s="310">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="306">
+      <c r="H126" s="310">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="306">
+      <c r="I126" s="310">
         <v>160.19</v>
       </c>
-      <c r="J126" s="306">
+      <c r="J126" s="310">
         <v>1.61</v>
       </c>
-      <c r="K126" s="306">
+      <c r="K126" s="310">
         <v>26.16</v>
       </c>
-      <c r="L126" s="308">
+      <c r="L126" s="312">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="305"/>
-      <c r="N126" s="305"/>
-      <c r="O126" s="307">
+      <c r="M126" s="311"/>
+      <c r="N126" s="311"/>
+      <c r="O126" s="309">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="305"/>
+      <c r="P126" s="311"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -26832,19 +26961,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="305"/>
-      <c r="E127" s="305"/>
+      <c r="D127" s="311"/>
+      <c r="E127" s="311"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="306"/>
-      <c r="H127" s="306"/>
-      <c r="I127" s="306"/>
-      <c r="J127" s="306"/>
-      <c r="K127" s="306"/>
-      <c r="L127" s="308"/>
-      <c r="M127" s="305"/>
-      <c r="N127" s="305"/>
-      <c r="O127" s="307"/>
-      <c r="P127" s="305"/>
+      <c r="G127" s="310"/>
+      <c r="H127" s="310"/>
+      <c r="I127" s="310"/>
+      <c r="J127" s="310"/>
+      <c r="K127" s="310"/>
+      <c r="L127" s="312"/>
+      <c r="M127" s="311"/>
+      <c r="N127" s="311"/>
+      <c r="O127" s="309"/>
+      <c r="P127" s="311"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -26853,19 +26982,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="305"/>
-      <c r="E128" s="305"/>
+      <c r="D128" s="311"/>
+      <c r="E128" s="311"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="306"/>
-      <c r="H128" s="306"/>
-      <c r="I128" s="306"/>
-      <c r="J128" s="306"/>
-      <c r="K128" s="306"/>
-      <c r="L128" s="308"/>
-      <c r="M128" s="305"/>
-      <c r="N128" s="305"/>
-      <c r="O128" s="307"/>
-      <c r="P128" s="305"/>
+      <c r="G128" s="310"/>
+      <c r="H128" s="310"/>
+      <c r="I128" s="310"/>
+      <c r="J128" s="310"/>
+      <c r="K128" s="310"/>
+      <c r="L128" s="312"/>
+      <c r="M128" s="311"/>
+      <c r="N128" s="311"/>
+      <c r="O128" s="309"/>
+      <c r="P128" s="311"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -26874,19 +27003,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="305"/>
-      <c r="E129" s="305"/>
+      <c r="D129" s="311"/>
+      <c r="E129" s="311"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="306"/>
-      <c r="H129" s="306"/>
-      <c r="I129" s="306"/>
-      <c r="J129" s="306"/>
-      <c r="K129" s="306"/>
-      <c r="L129" s="308"/>
-      <c r="M129" s="305"/>
-      <c r="N129" s="305"/>
-      <c r="O129" s="307"/>
-      <c r="P129" s="305"/>
+      <c r="G129" s="310"/>
+      <c r="H129" s="310"/>
+      <c r="I129" s="310"/>
+      <c r="J129" s="310"/>
+      <c r="K129" s="310"/>
+      <c r="L129" s="312"/>
+      <c r="M129" s="311"/>
+      <c r="N129" s="311"/>
+      <c r="O129" s="309"/>
+      <c r="P129" s="311"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -27173,7 +27302,7 @@
         <v>10.06</v>
       </c>
       <c r="W137" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27465,7 +27594,7 @@
     </row>
     <row r="146" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R146" s="53" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S146">
         <f>SUM(S3:S145)</f>
@@ -27544,7 +27673,7 @@
         <v>1295</v>
       </c>
       <c r="I152" s="203" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J152" s="54">
         <f>SUM(J3:J147)*0.994</f>
@@ -27569,7 +27698,7 @@
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="203" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J153" s="54">
         <f>U146*0.994</f>
@@ -27647,7 +27776,7 @@
         <v>1294</v>
       </c>
       <c r="I157" s="203" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J157" s="208">
         <v>434.22</v>
@@ -27665,7 +27794,7 @@
     <row r="158" spans="1:22" s="212" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="204"/>
       <c r="I158" s="203" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J158" s="210">
         <v>8.4700000000000006</v>
@@ -27850,7 +27979,7 @@
     </row>
     <row r="174" spans="1:18" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27860,6 +27989,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -27869,18 +28010,6 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -27893,11 +28022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:AA344"/>
+  <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27979,22 +28108,22 @@
         <v>209</v>
       </c>
       <c r="T1" s="92" t="s">
+        <v>1318</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="V1" s="92" t="s">
         <v>1319</v>
       </c>
-      <c r="U1" s="92" t="s">
-        <v>1318</v>
-      </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>1320</v>
       </c>
-      <c r="W1" s="92" t="s">
-        <v>1321</v>
-      </c>
       <c r="X1" s="92" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>1325</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>1326</v>
       </c>
       <c r="Z1" s="92"/>
       <c r="AA1" t="s">
@@ -28075,7 +28204,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z2" s="212" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="AA2" t="s">
         <v>321</v>
@@ -28204,7 +28333,7 @@
         <v>18.11</v>
       </c>
       <c r="Z4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28274,7 +28403,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28338,7 +28467,7 @@
         <v>116.21</v>
       </c>
       <c r="Z6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28540,7 +28669,7 @@
         <v>1195</v>
       </c>
       <c r="T10" s="211" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="U10" s="54">
         <v>40.86</v>
@@ -28559,7 +28688,7 @@
         <v>10.06</v>
       </c>
       <c r="Z10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28853,7 +28982,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z16" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28917,7 +29046,7 @@
         <v>137</v>
       </c>
       <c r="Z17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28982,7 +29111,7 @@
         <v>121.23</v>
       </c>
       <c r="Z18" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29624,7 +29753,7 @@
         <v>10.06</v>
       </c>
       <c r="Z31" s="212" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29940,7 +30069,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z37" s="212" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30057,7 +30186,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z39" s="212" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30646,7 +30775,7 @@
         <v>10.06</v>
       </c>
       <c r="Z51" s="212" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -32624,7 +32753,7 @@
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="266" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="B167" s="266"/>
       <c r="C167" s="53">
@@ -32718,7 +32847,7 @@
         <v>673</v>
       </c>
       <c r="E172" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -32753,7 +32882,7 @@
       <c r="D174" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="E174" s="309" t="s">
+      <c r="E174" s="313" t="s">
         <v>961</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -32775,7 +32904,7 @@
       <c r="D175" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E175" s="309"/>
+      <c r="E175" s="313"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -34414,7 +34543,7 @@
     </row>
     <row r="248" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="65" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B248" s="65"/>
       <c r="C248" s="165" t="s">
@@ -34424,7 +34553,7 @@
         <v>700</v>
       </c>
       <c r="E248" s="83" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F248" s="60" t="s">
         <v>817</v>
@@ -34876,11 +35005,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="310" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B267" s="310"/>
-      <c r="C267" s="310"/>
+      <c r="A267" s="314" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B267" s="314"/>
+      <c r="C267" s="314"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -34893,19 +35022,19 @@
     </row>
     <row r="268" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="67" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="B268" s="67" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="C268" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>786</v>
       </c>
       <c r="E268" s="283" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>817</v>
@@ -34913,19 +35042,19 @@
     </row>
     <row r="269" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="177" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="C269" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D269" s="133" t="s">
         <v>521</v>
       </c>
       <c r="E269" s="129" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F269" s="129" t="s">
         <v>817</v>
@@ -34934,30 +35063,30 @@
     </row>
     <row r="270" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="257" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="B270" s="257" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
       <c r="C270" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>708</v>
       </c>
       <c r="E270" s="255" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="258" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="B271" s="258" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="C271" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>667</v>
@@ -34968,13 +35097,13 @@
     </row>
     <row r="272" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="257" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="B272" s="257" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="C272" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>659</v>
@@ -34986,13 +35115,13 @@
     </row>
     <row r="273" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="258" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="B273" s="258" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="C273" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D273" s="13" t="s">
         <v>726</v>
@@ -35004,19 +35133,19 @@
     </row>
     <row r="274" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="257" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="B274" s="257" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="C274" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>689</v>
       </c>
       <c r="E274" s="226" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="G274" s="83"/>
       <c r="U274" s="212"/>
@@ -35028,19 +35157,19 @@
     </row>
     <row r="275" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="257" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B275" s="257" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="C275" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>712</v>
       </c>
       <c r="E275" s="83" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F275" s="83"/>
       <c r="G275" s="83"/>
@@ -35053,113 +35182,113 @@
     </row>
     <row r="276" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="255" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="B276" s="268" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="C276" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>847</v>
       </c>
       <c r="E276" s="255" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="C277" s="255" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>701</v>
       </c>
       <c r="E277" s="130" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="67" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="C278" s="256" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>852</v>
       </c>
       <c r="E278" s="95" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="279" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="263" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="B279" s="263" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="C279" s="260" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>794</v>
       </c>
       <c r="E279" s="83" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H279" s="83"/>
     </row>
     <row r="280" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="264" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="B280" s="264" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="C280" s="260" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>641</v>
       </c>
       <c r="E280" s="260" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="281" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="265" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="B281" s="265" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="C281" s="260" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>641</v>
       </c>
       <c r="E281" s="260" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="266" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="B282" s="266" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35168,26 +35297,26 @@
         <v>738</v>
       </c>
       <c r="E282" s="83" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F282" s="83"/>
       <c r="G282"/>
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B283" s="67" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C283" s="261" t="s">
         <v>1565</v>
-      </c>
-      <c r="B283" s="67" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C283" s="261" t="s">
-        <v>1577</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>1264</v>
       </c>
       <c r="E283" s="130" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F283" s="69" t="s">
         <v>977</v>
@@ -35198,13 +35327,13 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="C284" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>731</v>
@@ -35218,13 +35347,13 @@
     </row>
     <row r="285" spans="1:26" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="C285" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>617</v>
@@ -35238,13 +35367,13 @@
     </row>
     <row r="286" spans="1:26" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="C286" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>788</v>
@@ -35258,13 +35387,13 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="C287" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>984</v>
@@ -35278,13 +35407,13 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="B288" s="178" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="C288" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>745</v>
@@ -35298,13 +35427,13 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="C289" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>677</v>
@@ -35318,13 +35447,13 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="C290" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>846</v>
@@ -35338,13 +35467,13 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="C291" s="261" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>703</v>
@@ -35358,13 +35487,13 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="C292" s="268" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>972</v>
@@ -35378,13 +35507,13 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="C293" s="268" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>757</v>
@@ -35399,13 +35528,13 @@
     </row>
     <row r="294" spans="1:8" s="268" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="C294" s="268" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>658</v>
@@ -35420,14 +35549,14 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E295" s="276" t="s">
         <v>1363</v>
-      </c>
-      <c r="E295" s="276" t="s">
-        <v>1364</v>
       </c>
       <c r="F295" s="53"/>
     </row>
@@ -35438,16 +35567,16 @@
       <c r="B296" s="180"/>
       <c r="C296" s="261"/>
       <c r="D296" s="182" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="180" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B297" s="180"/>
       <c r="C297" s="261"/>
@@ -35455,7 +35584,7 @@
         <v>1270</v>
       </c>
       <c r="E297" s="276" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35463,7 +35592,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35473,7 +35602,7 @@
         <v>841</v>
       </c>
       <c r="E298" s="275" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>817</v>
@@ -35481,7 +35610,7 @@
     </row>
     <row r="299" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="181" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="B299" s="181"/>
       <c r="C299" s="166" t="s">
@@ -35491,7 +35620,7 @@
         <v>655</v>
       </c>
       <c r="E299" s="276" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>817</v>
@@ -35499,7 +35628,7 @@
     </row>
     <row r="300" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="180" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="B300" s="180"/>
       <c r="C300" s="176" t="s">
@@ -35509,18 +35638,18 @@
         <v>668</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="B303" s="281" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="C303" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>673</v>
@@ -35531,19 +35660,19 @@
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="B304" s="284" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="C304" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>716</v>
       </c>
       <c r="E304" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F304" s="121" t="s">
         <v>817</v>
@@ -35554,19 +35683,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="B305" s="288" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="C305" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
       <c r="E305" s="283" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>817</v>
@@ -35577,19 +35706,19 @@
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="236" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="B306" s="287" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="C306" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>963</v>
       </c>
       <c r="E306" s="83" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F306" s="121" t="s">
         <v>817</v>
@@ -35600,19 +35729,19 @@
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="236" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="B307" s="288" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="C307" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E307" s="83" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F307" s="121" t="s">
         <v>817</v>
@@ -35623,19 +35752,19 @@
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="236" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="B308" s="288" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="C308" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>782</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>817</v>
@@ -35646,76 +35775,76 @@
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="236" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="B309" s="288" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="C309" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>768</v>
       </c>
       <c r="E309" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F309" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G309" s="89" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="B310" s="284" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="C310" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="E310" s="283" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="B311" s="289" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="C311" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>746</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G311" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="B312" s="284" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="C312" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>696</v>
@@ -35728,42 +35857,42 @@
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="B313" s="289" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
       <c r="C313" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>697</v>
       </c>
       <c r="E313" s="276" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G313" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="B314" s="285" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="C314" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>643</v>
       </c>
       <c r="E314" s="83" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F314" s="121" t="s">
         <v>817</v>
@@ -35774,13 +35903,13 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="B315" s="286" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="C315" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>666</v>
@@ -35794,19 +35923,19 @@
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="236" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="B316" s="287" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="C316" s="282" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D316" s="240" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E316" s="61" t="s">
-        <v>1665</v>
+      <c r="E316" s="308" t="s">
+        <v>1652</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>817</v>
@@ -35817,19 +35946,19 @@
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="B317" s="289" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="C317" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E317" s="130" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F317" s="121" t="s">
         <v>86</v>
@@ -35840,19 +35969,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B318" s="288" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C318" s="282" t="s">
         <v>1667</v>
-      </c>
-      <c r="B318" s="288" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C318" s="282" t="s">
-        <v>1680</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -35863,155 +35992,155 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="B319" s="288" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="C319" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
       </c>
       <c r="E319" s="83" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G319" s="268"/>
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="B320" s="286" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="C320" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>662</v>
       </c>
       <c r="E320" s="83" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G320" s="268"/>
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="B321" s="289" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="C321" s="282" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>709</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G321" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="B322" s="288" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="C322" s="291" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D322" s="244" t="s">
         <v>758</v>
       </c>
       <c r="E322" s="276" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G322" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="B323" s="63" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="C323" s="291" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>780</v>
       </c>
       <c r="E323" s="130" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F323" s="130"/>
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="B324" s="177" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C324" s="291" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E324" s="226" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F324" s="226"/>
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="B325" s="178" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="C325" s="291" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E325" s="226" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F325" s="226"/>
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="B326" s="175" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="C326" s="292" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D326" s="244" t="s">
         <v>677</v>
       </c>
       <c r="E326" s="276" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>817</v>
@@ -36022,19 +36151,19 @@
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="242" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="B327" s="242" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="C327" s="292" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D327" s="244" t="s">
         <v>616</v>
       </c>
       <c r="E327" s="276" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>817</v>
@@ -36046,19 +36175,19 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="C328" s="292" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>824</v>
       </c>
       <c r="E328" s="276" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="F328" s="60" t="s">
         <v>817</v>
@@ -36069,19 +36198,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="B329" s="151" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="C329" s="292" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>665</v>
       </c>
       <c r="E329" s="276" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>817</v>
@@ -36092,19 +36221,19 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="B330" s="65" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="C330" s="293" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>742</v>
       </c>
       <c r="E330" s="276" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="F330" s="121" t="s">
         <v>817</v>
@@ -36115,19 +36244,19 @@
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="236" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B332" s="236" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C332" s="298" t="s">
         <v>1729</v>
-      </c>
-      <c r="B332" s="236" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C332" s="298" t="s">
-        <v>1744</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="E332" s="311" t="s">
-        <v>1707</v>
+      <c r="E332" s="315" t="s">
+        <v>1694</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>817</v>
@@ -36138,18 +36267,18 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="B333" s="151" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="C333" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D333" s="244" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E333" s="311"/>
+        <v>1614</v>
+      </c>
+      <c r="E333" s="315"/>
       <c r="F333" s="121" t="s">
         <v>817</v>
       </c>
@@ -36159,18 +36288,18 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="B334" s="132" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="C334" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E334" s="311"/>
+        <v>1409</v>
+      </c>
+      <c r="E334" s="315"/>
       <c r="F334" s="121" t="s">
         <v>817</v>
       </c>
@@ -36180,19 +36309,19 @@
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="235" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="B335" s="235" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="C335" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>702</v>
       </c>
       <c r="E335" s="283" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
@@ -36201,19 +36330,19 @@
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="B336" s="132" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C336" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>790</v>
       </c>
       <c r="E336" s="276" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36224,19 +36353,19 @@
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="297" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="C337" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>879</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>817</v>
@@ -36244,42 +36373,42 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="C338" s="298" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D338" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D338" s="240" t="s">
         <v>801</v>
       </c>
-      <c r="E338" s="276" t="s">
-        <v>1555</v>
+      <c r="E338" s="61" t="s">
+        <v>1761</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1248</v>
       </c>
       <c r="G338" s="83" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="C339" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>717</v>
       </c>
       <c r="E339" s="276" t="s">
-        <v>1761</v>
+        <v>1744</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>817</v>
@@ -36290,19 +36419,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="B340" s="137" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="C340" s="298" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D340" s="240" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1726</v>
+        <v>1712</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>817</v>
@@ -36311,21 +36440,44 @@
         <v>86</v>
       </c>
     </row>
+    <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="132" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B341" s="132" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C341" s="305" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D341" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="E341" s="276" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F341" s="121" t="s">
+        <v>817</v>
+      </c>
+      <c r="G341" s="130" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="132" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B342" s="132" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C342" s="58">
-        <v>10.4</v>
-      </c>
-      <c r="D342" s="244" t="s">
-        <v>296</v>
+      <c r="A342" s="236" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B342" s="236" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C342" s="305" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D342" s="13" t="s">
+        <v>661</v>
       </c>
       <c r="E342" s="276" t="s">
-        <v>1749</v>
+        <v>1411</v>
       </c>
       <c r="F342" s="121" t="s">
         <v>817</v>
@@ -36334,67 +36486,77 @@
         <v>86</v>
       </c>
     </row>
-    <row r="343" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="236" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B343" s="236" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C343" s="54">
-        <v>10.3</v>
-      </c>
-      <c r="D343" s="13" t="s">
-        <v>661</v>
+    <row r="343" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="132" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B343" s="132" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C343" s="58">
+        <v>10.6</v>
+      </c>
+      <c r="D343" s="244" t="s">
+        <v>645</v>
       </c>
       <c r="E343" s="276" t="s">
-        <v>1413</v>
+        <v>1743</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G343" s="130" t="s">
+      <c r="G343" s="276"/>
+      <c r="H343" s="83"/>
+      <c r="U343"/>
+      <c r="V343"/>
+      <c r="W343"/>
+      <c r="X343"/>
+      <c r="Y343"/>
+      <c r="Z343"/>
+    </row>
+    <row r="344" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="67" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B344" s="67" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C344" s="54">
+        <v>12.21</v>
+      </c>
+      <c r="D344" s="244" t="s">
+        <v>645</v>
+      </c>
+      <c r="E344" s="276" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F344" s="121" t="s">
+        <v>817</v>
+      </c>
+      <c r="G344" s="276" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="344" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="44" t="s">
-        <v>856</v>
-      </c>
-      <c r="B344" s="44" t="s">
-        <v>856</v>
-      </c>
-      <c r="C344">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D344" s="13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E344" s="61" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F344" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="G344" s="220" t="s">
+      <c r="H344" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="I344">
-        <v>751.46</v>
-      </c>
-      <c r="J344">
-        <v>735.41</v>
-      </c>
-      <c r="K344" s="199">
-        <f>I344-J344</f>
-        <v>16.050000000000068</v>
-      </c>
-      <c r="U344"/>
-      <c r="V344"/>
-      <c r="W344"/>
-      <c r="X344"/>
-      <c r="Y344"/>
-      <c r="Z344"/>
+    </row>
+    <row r="346" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="241" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B346" s="260"/>
+      <c r="E346" s="61" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F346" s="83"/>
+      <c r="G346"/>
+      <c r="H346" s="83"/>
+      <c r="U346"/>
+      <c r="V346"/>
+      <c r="W346"/>
+      <c r="X346"/>
+      <c r="Y346"/>
+      <c r="Z346"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36412,11 +36574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36433,12 +36595,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="231" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="313" t="s">
-        <v>1414</v>
+      <c r="A2" s="317" t="s">
+        <v>1412</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>359</v>
@@ -36454,12 +36616,12 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="313"/>
+      <c r="A3" s="317"/>
       <c r="B3" s="65" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="132" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D3" s="54">
         <v>11.17</v>
@@ -36473,12 +36635,12 @@
       <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="313"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="67" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D4" s="58">
         <v>12.7</v>
@@ -36491,12 +36653,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="313"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="139" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D5" s="225" t="s">
         <v>531</v>
@@ -36517,7 +36679,7 @@
     </row>
     <row r="7" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="230" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="13"/>
@@ -36525,110 +36687,110 @@
       <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="314" t="s">
-        <v>1418</v>
+      <c r="A8" s="318" t="s">
+        <v>1416</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C8" s="229" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D8" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="315"/>
+      <c r="A9" s="319"/>
       <c r="B9" s="66" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C9" s="229" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D9" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="315"/>
+      <c r="A10" s="319"/>
       <c r="B10" s="66" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C10" s="229" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D10" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="315"/>
+      <c r="A11" s="319"/>
       <c r="B11" s="66" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D11" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="315"/>
+      <c r="A12" s="319"/>
       <c r="B12" s="66" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D12" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="315"/>
+      <c r="A13" s="319"/>
       <c r="B13" s="68" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C13" s="229" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D13" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="315"/>
+      <c r="A14" s="319"/>
       <c r="B14" s="68" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C14" s="229" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D14" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="315"/>
+      <c r="A15" s="319"/>
       <c r="B15" s="66" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C15" s="229" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D15" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="316"/>
+      <c r="A16" s="320"/>
       <c r="B16" s="66" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C16" s="229" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D16" s="54">
         <v>11.26</v>
@@ -36641,7 +36803,7 @@
     </row>
     <row r="18" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="228" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -36661,7 +36823,7 @@
         <v>1212</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -36676,10 +36838,10 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1615</v>
+        <v>1754</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D20" s="54">
         <v>11.18</v>
@@ -36688,10 +36850,10 @@
         <v>658</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>817</v>
@@ -36706,22 +36868,22 @@
     </row>
     <row r="21" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D21" s="58">
         <v>11.9</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="240" t="s">
         <v>698</v>
       </c>
       <c r="F21" s="61" t="s">
         <v>1242</v>
       </c>
-      <c r="G21" s="312" t="s">
-        <v>1459</v>
+      <c r="G21" s="316" t="s">
+        <v>1457</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>501</v>
@@ -36740,21 +36902,21 @@
     </row>
     <row r="22" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D22" s="58">
         <v>11.9</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="240" t="s">
         <v>698</v>
       </c>
       <c r="F22" s="83" t="s">
         <v>1167</v>
       </c>
-      <c r="G22" s="312"/>
+      <c r="G22" s="316"/>
       <c r="H22" s="61" t="s">
         <v>501</v>
       </c>
@@ -36772,10 +36934,10 @@
     </row>
     <row r="23" spans="1:28" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D23" s="58">
         <v>12.9</v>
@@ -36784,17 +36946,17 @@
         <v>738</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="G23" s="232" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:28" s="245" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="54">
@@ -36807,7 +36969,7 @@
         <v>1235</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H24" s="227" t="s">
         <v>86</v>
@@ -36816,7 +36978,7 @@
     </row>
     <row r="25" spans="1:28" s="268" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="54">
@@ -36826,10 +36988,10 @@
         <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="I25" s="83"/>
     </row>
@@ -36841,11 +37003,11 @@
     <row r="27" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="226"/>
       <c r="B27" s="231" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C27" s="226"/>
       <c r="D27" s="231" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="G27" s="226"/>
       <c r="W27" s="212"/>
@@ -36857,10 +37019,10 @@
     </row>
     <row r="28" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="267" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B28" s="302" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="166" t="s">
@@ -36886,10 +37048,10 @@
     </row>
     <row r="29" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="299" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B29" s="301" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="D29" s="226" t="s">
         <v>1223</v>
@@ -36898,7 +37060,7 @@
         <v>700</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -36915,16 +37077,16 @@
     </row>
     <row r="32" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="270" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C32" s="271"/>
       <c r="D32" s="272" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C33" s="67">
         <v>6</v>
@@ -36936,19 +37098,19 @@
         <v>435</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1721</v>
+        <v>1751</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="281" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="265" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="C34" s="67">
         <v>18</v>
@@ -36960,22 +37122,22 @@
         <v>734</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="G34" s="61"/>
       <c r="H34" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I34" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="254" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B35" s="175" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="C35" s="65">
         <v>7</v>
@@ -36987,7 +37149,7 @@
         <v>783</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>1722</v>
+        <v>1708</v>
       </c>
       <c r="G35" s="61"/>
       <c r="H35" s="121" t="s">
@@ -36999,7 +37161,7 @@
     </row>
     <row r="36" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="270" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="54"/>
@@ -37019,7 +37181,7 @@
     <row r="40" spans="1:9" s="260" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="226"/>
       <c r="B40" s="234" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C40" s="226"/>
       <c r="D40"/>
@@ -37029,7 +37191,7 @@
     </row>
     <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="233" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>532</v>
@@ -37043,13 +37205,13 @@
     </row>
     <row r="42" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="260"/>
       <c r="B43" s="269" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="C43" s="260"/>
       <c r="D43" s="58">
@@ -37067,13 +37229,13 @@
     </row>
     <row r="45" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="234" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H45" s="226"/>
     </row>
     <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C46" s="226">
         <v>9</v>
@@ -37082,10 +37244,10 @@
         <v>11.9</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="F46" s="168" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G46" s="294"/>
       <c r="H46" s="60" t="s">
@@ -37108,27 +37270,27 @@
     </row>
     <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="234" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D49" s="272" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E49" s="272" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="F49" s="272" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="H49" s="61" t="s">
         <v>514</v>
       </c>
       <c r="I49" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="235" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C50" s="226">
         <v>2</v>
@@ -37140,20 +37302,20 @@
         <v>664</v>
       </c>
       <c r="F50" s="168" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="G50" s="268"/>
       <c r="H50" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I50" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="226"/>
       <c r="B51" s="235" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C51" s="226">
         <v>5</v>
@@ -37165,19 +37327,19 @@
         <v>686</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G51" s="268"/>
       <c r="H51" s="60" t="s">
         <v>817</v>
       </c>
       <c r="I51" s="130" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="235" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C52" s="226">
         <v>5</v>
@@ -37189,10 +37351,10 @@
         <v>705</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="G52" s="268" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="H52" t="s">
         <v>86</v>
@@ -37200,7 +37362,7 @@
     </row>
     <row r="53" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="235" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C53" s="226">
         <v>1</v>
@@ -37212,7 +37374,7 @@
         <v>741</v>
       </c>
       <c r="F53" s="168" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="G53" s="268"/>
       <c r="H53" t="s">
@@ -37222,7 +37384,7 @@
     <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53"/>
       <c r="B54" s="235" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C54" s="53">
         <v>4</v>
@@ -37234,7 +37396,7 @@
         <v>773</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="G54" s="268"/>
     </row>
@@ -37253,7 +37415,7 @@
         <v>518</v>
       </c>
       <c r="F55" s="168" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="G55" s="268"/>
     </row>
@@ -37269,7 +37431,7 @@
         <v>8.24</v>
       </c>
       <c r="E56" s="262" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="F56" s="168" t="s">
         <v>522</v>
@@ -37285,16 +37447,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37314,7 +37476,7 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -37328,7 +37490,7 @@
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B2" s="132">
         <v>9</v>
@@ -37340,21 +37502,21 @@
         <v>528</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="F2" s="260" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>817</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="B3" s="132">
         <v>10</v>
@@ -37362,14 +37524,14 @@
       <c r="C3" s="54">
         <v>9.24</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1403</v>
+      <c r="D3" s="240" t="s">
+        <v>1402</v>
       </c>
       <c r="E3" s="260" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="F3" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>817</v>
@@ -37379,309 +37541,248 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B4" s="132">
-        <v>99</v>
+      <c r="A4" s="151" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B4" s="151">
+        <v>20</v>
       </c>
       <c r="C4" s="58">
-        <v>10.6</v>
-      </c>
-      <c r="D4" s="240" t="s">
-        <v>645</v>
-      </c>
-      <c r="E4" s="61" t="s">
+        <v>10.9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="227" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F4" s="290" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="178" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B5" s="178">
+        <v>39</v>
+      </c>
+      <c r="C5" s="58">
+        <v>11.3</v>
+      </c>
+      <c r="D5" s="240" t="s">
+        <v>680</v>
+      </c>
+      <c r="E5" s="227" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="239" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B6" s="65">
+        <v>5</v>
+      </c>
+      <c r="C6" s="54">
+        <v>11.13</v>
+      </c>
+      <c r="D6" s="244" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B7" s="132">
+        <v>1</v>
+      </c>
+      <c r="C7" s="54">
+        <v>11.14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" s="227" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="83"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B8" s="65">
+        <v>6</v>
+      </c>
+      <c r="C8" s="54">
+        <v>11.19</v>
+      </c>
+      <c r="D8" s="240" t="s">
+        <v>733</v>
+      </c>
+      <c r="E8" s="227" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B9" s="63">
+        <v>5</v>
+      </c>
+      <c r="C9" s="54">
+        <v>11.3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="E9" s="227" t="s">
         <v>1759</v>
       </c>
-      <c r="F4" s="304" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G4" s="121" t="s">
+      <c r="F9" s="53" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="83"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B10" s="67">
+        <v>12</v>
+      </c>
+      <c r="C10" s="58">
+        <v>12.7</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E10" s="227" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B5" s="151">
-        <v>20</v>
-      </c>
-      <c r="C5" s="58">
-        <v>10.9</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="E5" s="227" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F5" s="290" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G5" s="121" t="s">
+      <c r="H10" s="130" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B11" s="67">
+        <v>9</v>
+      </c>
+      <c r="C11" s="54">
+        <v>12.14</v>
+      </c>
+      <c r="D11" s="244" t="s">
+        <v>850</v>
+      </c>
+      <c r="E11" s="227" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F11" s="304" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G11" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B6" s="178">
-        <v>39</v>
-      </c>
-      <c r="C6" s="58">
-        <v>11.3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>680</v>
-      </c>
-      <c r="E6" s="227" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="239" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B7" s="65">
-        <v>5</v>
-      </c>
-      <c r="C7" s="54">
-        <v>11.13</v>
-      </c>
-      <c r="D7" s="244" t="s">
-        <v>706</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B8" s="132">
-        <v>1</v>
-      </c>
-      <c r="C8" s="54">
-        <v>11.14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="E8" s="227" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="83"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B9" s="65">
-        <v>6</v>
-      </c>
-      <c r="C9" s="54">
-        <v>11.19</v>
-      </c>
-      <c r="D9" s="240" t="s">
-        <v>733</v>
-      </c>
-      <c r="E9" s="227" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B10" s="63">
-        <v>5</v>
-      </c>
-      <c r="C10" s="54">
-        <v>11.3</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E10" s="227" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G10" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="83"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B11" s="67">
-        <v>12</v>
-      </c>
-      <c r="C11" s="58">
-        <v>12.7</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="E11" s="227" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1549</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="H11" s="130" t="s">
-        <v>1404</v>
-      </c>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="B12" s="67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" s="54">
-        <v>12.14</v>
-      </c>
-      <c r="D12" s="240" t="s">
-        <v>850</v>
+        <v>12.21</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>1752</v>
       </c>
       <c r="E12" s="227" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F12" s="260" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G12" s="88" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F12" s="306" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>817</v>
+      </c>
+      <c r="H12" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="B13" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="54">
-        <v>12.21</v>
+        <v>1.2</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E13" s="227" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F13" s="227" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>817</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B14" s="67">
-        <v>75</v>
-      </c>
-      <c r="C14" s="54">
-        <v>12.21</v>
-      </c>
-      <c r="D14" s="240" t="s">
-        <v>645</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F14" s="304" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>817</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B15" s="67">
-        <v>3</v>
-      </c>
-      <c r="C15" s="54">
-        <v>1.2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E15" s="238" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F15" s="260" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B16" s="260"/>
-      <c r="E16" s="61" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>1317</v>
-      </c>
+        <v>1476</v>
+      </c>
+      <c r="E13" s="238" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F13" s="260" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37694,14 +37795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="56.21875" customWidth="1"/>
     <col min="5" max="5" width="56.21875" style="53" customWidth="1"/>
@@ -37772,10 +37873,10 @@
         <v>234</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F4" s="183" t="s">
         <v>86</v>
@@ -37869,10 +37970,10 @@
         <v>111</v>
       </c>
       <c r="D8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>1392</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>1393</v>
       </c>
       <c r="F8" s="183" t="s">
         <v>86</v>
@@ -37890,10 +37991,10 @@
         <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F9" s="183" t="s">
         <v>86</v>
@@ -38068,7 +38169,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>870</v>
@@ -38092,7 +38193,7 @@
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>871</v>
@@ -38110,13 +38211,13 @@
         <v>82</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D22" t="s">
         <v>882</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38157,13 +38258,13 @@
         <v>46</v>
       </c>
       <c r="C26" s="221" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D26" t="s">
-        <v>1727</v>
+        <v>1713</v>
       </c>
       <c r="E26" s="224" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>1278</v>
@@ -38187,10 +38288,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="E27" s="303" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38220,10 +38321,10 @@
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="E28" s="222" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>817</v>
@@ -38253,10 +38354,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="E29" s="273" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38280,10 +38381,10 @@
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="E30" s="224" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38331,13 +38432,13 @@
         <v>1280</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D32" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="E32" s="223" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>817</v>
@@ -38349,16 +38450,42 @@
     </row>
     <row r="33" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="199"/>
+    </row>
+    <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="270" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>856</v>
+      </c>
+      <c r="B35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C35" s="307" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="G35" s="305" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="1:10" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="C36" s="6"/>
-      <c r="F36" s="60"/>
+      <c r="F36" s="305"/>
     </row>
     <row r="37" spans="1:10" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="C37" s="6"/>
-      <c r="F37" s="60"/>
+      <c r="F37" s="305"/>
     </row>
     <row r="38" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
@@ -38683,11 +38810,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C67651-F5E7-40B0-B9CB-A7741661BB0C}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="53"/>
+    <col min="2" max="2" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.6640625" style="53" customWidth="1"/>
+    <col min="19" max="19" width="41.6640625" style="174" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="140">
+        <v>43614</v>
+      </c>
+      <c r="C2" s="141">
+        <v>811151564362608</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F2" s="53">
+        <v>192</v>
+      </c>
+      <c r="G2" s="53">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H2" s="142">
+        <v>190.85</v>
+      </c>
+      <c r="K2" s="143"/>
+      <c r="M2" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N2" s="53">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="S2" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T2" s="53">
+        <v>15180416892</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>2</v>
+      </c>
+      <c r="B3" s="140">
+        <v>43671</v>
+      </c>
+      <c r="C3" s="141">
+        <v>811210507601120</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F3" s="53">
+        <v>114</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="H3" s="142">
+        <v>113.32</v>
+      </c>
+      <c r="I3" s="53">
+        <v>18000</v>
+      </c>
+      <c r="J3" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="143">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="L3" s="53">
+        <f>H3-K3</f>
+        <v>-16.569999999999993</v>
+      </c>
+      <c r="T3" s="53">
+        <v>15056021071</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>3</v>
+      </c>
+      <c r="B4" s="140">
+        <v>43669</v>
+      </c>
+      <c r="C4" s="141">
+        <v>811204083741936</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F4" s="53">
+        <v>168</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1.01</v>
+      </c>
+      <c r="H4" s="142">
+        <v>166.99</v>
+      </c>
+      <c r="I4" s="53">
+        <v>27000</v>
+      </c>
+      <c r="J4" s="53">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="143">
+        <v>188.35</v>
+      </c>
+      <c r="L4" s="53">
+        <f t="shared" ref="L4:L12" si="0">H4-K4</f>
+        <v>-21.359999999999985</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N4" s="53">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="O4" s="53">
+        <v>5.03</v>
+      </c>
+      <c r="P4" s="53">
+        <v>12.07</v>
+      </c>
+      <c r="Q4" s="54">
+        <f>N4*0.994+L4</f>
+        <v>120.4838</v>
+      </c>
+      <c r="T4" s="53">
+        <v>15201318164</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>4</v>
+      </c>
+      <c r="B5" s="140">
+        <v>43734</v>
+      </c>
+      <c r="C5" s="141">
+        <v>811468872954625</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F5" s="53">
+        <v>148</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.89</v>
+      </c>
+      <c r="H5" s="142">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="I5" s="53">
+        <v>23000</v>
+      </c>
+      <c r="J5" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="143">
+        <v>163.1</v>
+      </c>
+      <c r="L5" s="53">
+        <f t="shared" si="0"/>
+        <v>-15.989999999999981</v>
+      </c>
+      <c r="N5" s="53">
+        <v>43.59</v>
+      </c>
+      <c r="O5" s="53">
+        <v>1.53</v>
+      </c>
+      <c r="P5" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q5" s="54">
+        <f>N5*0.994+L5</f>
+        <v>27.338460000000019</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="T5" s="53">
+        <v>13918424554</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="140">
+        <v>43736</v>
+      </c>
+      <c r="C6" s="141">
+        <v>811478155875818</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F6" s="53">
+        <v>120</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.72</v>
+      </c>
+      <c r="H6" s="142">
+        <v>119.28</v>
+      </c>
+      <c r="I6" s="53">
+        <v>19000</v>
+      </c>
+      <c r="J6" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K6" s="143">
+        <v>138.93</v>
+      </c>
+      <c r="L6" s="53">
+        <f t="shared" si="0"/>
+        <v>-19.650000000000006</v>
+      </c>
+      <c r="N6" s="53">
+        <v>41.76</v>
+      </c>
+      <c r="Q6" s="54">
+        <f>N6*0.994+L6</f>
+        <v>21.859439999999992</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T6" s="53">
+        <v>13672747701</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="310">
+        <v>6</v>
+      </c>
+      <c r="B7" s="322">
+        <v>43722</v>
+      </c>
+      <c r="C7" s="323">
+        <v>811421352052079</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E7" s="311" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F7" s="53">
+        <v>96</v>
+      </c>
+      <c r="G7" s="310">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="324">
+        <v>190.85</v>
+      </c>
+      <c r="I7" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="310">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="200">
+        <v>205.4</v>
+      </c>
+      <c r="L7" s="310">
+        <f>H7-K7</f>
+        <v>-14.550000000000011</v>
+      </c>
+      <c r="N7" s="321">
+        <v>52.86</v>
+      </c>
+      <c r="O7" s="321">
+        <v>0.6</v>
+      </c>
+      <c r="P7" s="321">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q7" s="309">
+        <f>N7*0.994+L7</f>
+        <v>37.992839999999987</v>
+      </c>
+      <c r="R7" s="311" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S7" s="173"/>
+      <c r="T7" s="310">
+        <v>13420877860</v>
+      </c>
+      <c r="U7" s="311" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="310"/>
+      <c r="B8" s="322"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="43" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E8" s="311"/>
+      <c r="F8" s="53">
+        <v>96</v>
+      </c>
+      <c r="G8" s="310"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="310"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="310"/>
+      <c r="N8" s="321">
+        <v>26.43</v>
+      </c>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="309"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="311"/>
+    </row>
+    <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140">
+        <v>43638</v>
+      </c>
+      <c r="C9" s="141">
+        <v>811078301531235</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F9" s="53">
+        <v>96</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H9" s="142">
+        <v>95.42</v>
+      </c>
+      <c r="I9" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J9" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="143">
+        <v>113.14</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="0"/>
+        <v>-17.72</v>
+      </c>
+      <c r="N9" s="53">
+        <v>26.24</v>
+      </c>
+      <c r="O9" s="53">
+        <v>1.51</v>
+      </c>
+      <c r="P9" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q9" s="54">
+        <f>N9*0.994+L9</f>
+        <v>8.3625599999999984</v>
+      </c>
+      <c r="T9" s="53">
+        <v>15819660552</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="295">
+        <v>8</v>
+      </c>
+      <c r="B10" s="140">
+        <v>43755</v>
+      </c>
+      <c r="C10" s="141">
+        <v>811548301376903</v>
+      </c>
+      <c r="D10" s="250" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F10" s="53">
+        <v>130</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.78</v>
+      </c>
+      <c r="H10" s="142">
+        <v>129.22</v>
+      </c>
+      <c r="I10" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J10" s="53">
+        <v>3500</v>
+      </c>
+      <c r="K10" s="143">
+        <v>117.45</v>
+      </c>
+      <c r="L10" s="53">
+        <f t="shared" si="0"/>
+        <v>11.769999999999996</v>
+      </c>
+      <c r="Q10" s="54"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="53">
+        <v>15980115023</v>
+      </c>
+      <c r="U10" s="145" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="295">
+        <v>9</v>
+      </c>
+      <c r="B11" s="140">
+        <v>43749</v>
+      </c>
+      <c r="C11" s="141">
+        <v>811521431838696</v>
+      </c>
+      <c r="D11" s="248" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F11" s="53">
+        <v>308</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1.85</v>
+      </c>
+      <c r="H11" s="142">
+        <v>306.14999999999998</v>
+      </c>
+      <c r="I11" s="53">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="143">
+        <v>327.20999999999998</v>
+      </c>
+      <c r="L11" s="53">
+        <f t="shared" si="0"/>
+        <v>-21.060000000000002</v>
+      </c>
+      <c r="N11" s="53">
+        <v>117.45</v>
+      </c>
+      <c r="O11" s="53">
+        <v>1.82</v>
+      </c>
+      <c r="P11" s="53">
+        <v>12.07</v>
+      </c>
+      <c r="Q11" s="54">
+        <f>N11*0.994+L11</f>
+        <v>95.685299999999998</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S11" s="174" t="s">
+        <v>1490</v>
+      </c>
+      <c r="T11" s="53">
+        <v>13705761067</v>
+      </c>
+      <c r="U11" s="145" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="310">
+        <v>10</v>
+      </c>
+      <c r="B12" s="322">
+        <v>43764</v>
+      </c>
+      <c r="C12" s="323">
+        <v>811587551684293</v>
+      </c>
+      <c r="D12" s="150" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E12" s="311" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F12" s="53">
+        <v>126</v>
+      </c>
+      <c r="G12" s="310">
+        <v>1.51</v>
+      </c>
+      <c r="H12" s="324">
+        <v>250.49</v>
+      </c>
+      <c r="I12" s="138">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="310">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="200">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="L12" s="310">
+        <f t="shared" si="0"/>
+        <v>-16.909999999999968</v>
+      </c>
+      <c r="N12" s="310">
+        <v>51.42</v>
+      </c>
+      <c r="Q12" s="309">
+        <f>N12*0.994+L12</f>
+        <v>34.201480000000032</v>
+      </c>
+      <c r="R12" s="311" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S12" s="173"/>
+      <c r="T12" s="310">
+        <v>18108291464</v>
+      </c>
+      <c r="U12" s="311" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="310"/>
+      <c r="B13" s="322"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="150" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E13" s="311"/>
+      <c r="F13" s="53">
+        <v>126</v>
+      </c>
+      <c r="G13" s="310"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="138">
+        <v>20000</v>
+      </c>
+      <c r="J13" s="310"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="310"/>
+      <c r="N13" s="310"/>
+      <c r="Q13" s="309"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="310"/>
+      <c r="U13" s="311"/>
+    </row>
+    <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>11</v>
+      </c>
+      <c r="B14" s="140">
+        <v>43775</v>
+      </c>
+      <c r="C14" s="141">
+        <v>811639461515251</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F14" s="53">
+        <v>147</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="H14" s="142">
+        <v>146.12</v>
+      </c>
+      <c r="I14" s="53">
+        <v>22000</v>
+      </c>
+      <c r="K14" s="143">
+        <v>139.74</v>
+      </c>
+      <c r="L14" s="53">
+        <f t="shared" ref="L14:L21" si="1">H14-K14</f>
+        <v>6.3799999999999955</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N14" s="53">
+        <v>12.55</v>
+      </c>
+      <c r="Q14" s="54">
+        <f t="shared" ref="Q14:Q19" si="2">N14*0.994+L14</f>
+        <v>18.854699999999994</v>
+      </c>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T14" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>12</v>
+      </c>
+      <c r="B15" s="140">
+        <v>43767</v>
+      </c>
+      <c r="C15" s="141">
+        <v>811603150703150</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F15" s="53">
+        <v>126</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0.76</v>
+      </c>
+      <c r="H15" s="142">
+        <v>125.24</v>
+      </c>
+      <c r="I15" s="53">
+        <v>20000</v>
+      </c>
+      <c r="J15" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="143">
+        <v>145.82</v>
+      </c>
+      <c r="L15" s="53">
+        <f t="shared" si="1"/>
+        <v>-20.58</v>
+      </c>
+      <c r="N15" s="53">
+        <v>45.33</v>
+      </c>
+      <c r="Q15" s="54">
+        <f t="shared" si="2"/>
+        <v>24.478020000000001</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S15" s="174" t="s">
+        <v>1496</v>
+      </c>
+      <c r="T15" s="53">
+        <v>15603608839</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>13</v>
+      </c>
+      <c r="B16" s="140">
+        <v>43767</v>
+      </c>
+      <c r="C16" s="141">
+        <v>811604273035278</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F16" s="53">
+        <v>126</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0.76</v>
+      </c>
+      <c r="H16" s="142">
+        <v>125.24</v>
+      </c>
+      <c r="I16" s="53">
+        <v>20000</v>
+      </c>
+      <c r="J16" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="143">
+        <v>145.82</v>
+      </c>
+      <c r="L16" s="53">
+        <f t="shared" si="1"/>
+        <v>-20.58</v>
+      </c>
+      <c r="N16" s="53">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="P16" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q16" s="54">
+        <f t="shared" si="2"/>
+        <v>16.67512</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T16" s="53">
+        <v>15062270909</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="295">
+        <v>14</v>
+      </c>
+      <c r="B17" s="140">
+        <v>43749</v>
+      </c>
+      <c r="C17" s="141">
+        <v>811521431838696</v>
+      </c>
+      <c r="D17" s="248" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F17" s="53">
+        <v>152</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0.91</v>
+      </c>
+      <c r="H17" s="142">
+        <v>151.09</v>
+      </c>
+      <c r="I17" s="53">
+        <v>24000</v>
+      </c>
+      <c r="J17" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="143">
+        <v>170.13</v>
+      </c>
+      <c r="L17" s="53">
+        <f t="shared" si="1"/>
+        <v>-19.039999999999992</v>
+      </c>
+      <c r="N17" s="53">
+        <v>69.73</v>
+      </c>
+      <c r="Q17" s="54">
+        <f t="shared" si="2"/>
+        <v>50.271620000000013</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S17" s="174" t="s">
+        <v>1489</v>
+      </c>
+      <c r="T17" s="53">
+        <v>13705761067</v>
+      </c>
+      <c r="U17" s="53" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="295">
+        <v>15</v>
+      </c>
+      <c r="B18" s="140">
+        <v>43793</v>
+      </c>
+      <c r="C18" s="141">
+        <v>811719362438608</v>
+      </c>
+      <c r="D18" s="253" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F18" s="53">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="G18" s="53">
+        <v>1.65</v>
+      </c>
+      <c r="H18" s="142">
+        <v>273.95</v>
+      </c>
+      <c r="I18" s="53">
+        <v>40000</v>
+      </c>
+      <c r="J18" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="143">
+        <v>265.04000000000002</v>
+      </c>
+      <c r="L18" s="53">
+        <f t="shared" si="1"/>
+        <v>8.9099999999999682</v>
+      </c>
+      <c r="N18" s="53">
+        <v>11.32</v>
+      </c>
+      <c r="O18" s="53">
+        <v>1</v>
+      </c>
+      <c r="P18" s="53">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Q18" s="54">
+        <f t="shared" si="2"/>
+        <v>20.162079999999968</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>1755</v>
+      </c>
+      <c r="T18" s="53">
+        <v>13187381112</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
+        <v>16</v>
+      </c>
+      <c r="B19" s="140">
+        <v>43788</v>
+      </c>
+      <c r="C19" s="141">
+        <v>811719362438608</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F19" s="53">
+        <v>137.02000000000001</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0.82</v>
+      </c>
+      <c r="H19" s="142">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="I19" s="53">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="143">
+        <v>127.21</v>
+      </c>
+      <c r="L19" s="53">
+        <f t="shared" si="1"/>
+        <v>8.9899999999999949</v>
+      </c>
+      <c r="N19" s="53">
+        <v>12.9</v>
+      </c>
+      <c r="Q19" s="54">
+        <f t="shared" si="2"/>
+        <v>21.812599999999996</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T19" s="53">
+        <v>17825966284</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="295">
+        <v>17</v>
+      </c>
+      <c r="D20" s="251" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I20" s="53">
+        <v>11000</v>
+      </c>
+      <c r="K20" s="143">
+        <v>72.67</v>
+      </c>
+      <c r="L20" s="199">
+        <f t="shared" si="1"/>
+        <v>-72.67</v>
+      </c>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="S20" s="226"/>
+      <c r="T20" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U20" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>18</v>
+      </c>
+      <c r="B21" s="140">
+        <v>43796</v>
+      </c>
+      <c r="C21" s="141">
+        <v>811734286315507</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="53">
+        <v>18000</v>
+      </c>
+      <c r="K21" s="143">
+        <v>115.09</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="1"/>
+        <v>-115.09</v>
+      </c>
+      <c r="N21" s="53">
+        <v>130.78</v>
+      </c>
+      <c r="Q21" s="54">
+        <f>N21*0.994+L21</f>
+        <v>14.905319999999989</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="T21" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="52" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52">
+        <v>19</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I22" s="52">
+        <v>15000</v>
+      </c>
+      <c r="T22" s="52">
+        <v>18173757621</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="295">
+        <v>20</v>
+      </c>
+      <c r="D23" s="251" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F23" s="53">
+        <v>123.45</v>
+      </c>
+      <c r="G23" s="54">
+        <f>F23*0.006</f>
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="H23" s="147">
+        <f>F23*0.994</f>
+        <v>122.7093</v>
+      </c>
+      <c r="I23" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="53">
+        <v>3500</v>
+      </c>
+      <c r="K23" s="143">
+        <v>117.45</v>
+      </c>
+      <c r="L23" s="54">
+        <f>H23-K23</f>
+        <v>5.2592999999999961</v>
+      </c>
+      <c r="N23" s="53">
+        <v>7.75</v>
+      </c>
+      <c r="Q23" s="54">
+        <f>N23*0.994+L23</f>
+        <v>12.962799999999996</v>
+      </c>
+      <c r="R23" s="53" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>21</v>
+      </c>
+      <c r="D24" s="252" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F24" s="53">
+        <v>105.63</v>
+      </c>
+      <c r="G24" s="54">
+        <f>F24*0.006</f>
+        <v>0.63378000000000001</v>
+      </c>
+      <c r="H24" s="147">
+        <f>F24*0.994</f>
+        <v>104.99621999999999</v>
+      </c>
+      <c r="I24" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="143">
+        <v>115.09</v>
+      </c>
+      <c r="L24" s="54">
+        <f>H24-K24</f>
+        <v>-10.09378000000001</v>
+      </c>
+      <c r="N24" s="53">
+        <v>27.39</v>
+      </c>
+      <c r="Q24" s="54">
+        <f>N24*0.994+L24</f>
+        <v>17.131879999999992</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>1174</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="295">
+        <v>22</v>
+      </c>
+      <c r="B25" s="295" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D25" s="251" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E25" s="164" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F25" s="53">
+        <v>49.39</v>
+      </c>
+      <c r="G25" s="54">
+        <f>F25*0.006</f>
+        <v>0.29633999999999999</v>
+      </c>
+      <c r="H25" s="147">
+        <f>F25*0.994</f>
+        <v>49.09366</v>
+      </c>
+      <c r="I25" s="53">
+        <v>6500</v>
+      </c>
+      <c r="K25" s="143">
+        <v>45.39</v>
+      </c>
+      <c r="L25" s="54">
+        <f>H25-K25</f>
+        <v>3.7036599999999993</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>1269</v>
+      </c>
+      <c r="S25" s="83"/>
+    </row>
+    <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="295">
+        <v>23</v>
+      </c>
+      <c r="B26" s="295" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D26" s="251" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E26" s="167" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S26" s="83"/>
+    </row>
+    <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="247" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="247" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="249" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="253" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="199">
+        <f>SUM(H2,H4,H5,H6,H7,H9,H12,H14,H16,H19,H21,H23,H24)</f>
+        <v>1796.2555200000002</v>
+      </c>
+      <c r="K33" s="53">
+        <f>SUM(K2,K4,K5,K6,K7,K9,K12,K14,K16,K19,K21,K23,K24)</f>
+        <v>1836.7199999999998</v>
+      </c>
+      <c r="N33" s="199">
+        <f>SUM(N2:N32)</f>
+        <v>876.28</v>
+      </c>
+      <c r="O33" s="199">
+        <f>SUM(O2:O32)</f>
+        <v>12.39</v>
+      </c>
+      <c r="P33" s="199">
+        <f>SUM(P2:P32)</f>
+        <v>65.39</v>
+      </c>
+      <c r="Q33" s="54">
+        <f>SUM(Q2:Q32)</f>
+        <v>543.17801999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="149" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="..\..\Desktop\txt\图\代收代付\8.jpg" xr:uid="{72BD73E6-C8E8-4B76-85CC-1527316FAFCA}"/>
+    <hyperlink ref="A20" r:id="rId2" display="..\..\Desktop\txt\图\代收代付\17 有生之年_南城北海.jpg" xr:uid="{200BB495-F57D-46FD-AE9C-2DFAB1737904}"/>
+    <hyperlink ref="A23" r:id="rId3" display="..\..\Desktop\txt\图\代收代付\20 有生之年_南城北海.png" xr:uid="{99536BE8-5D05-47B3-AF56-6435B31AA441}"/>
+    <hyperlink ref="A25" r:id="rId4" display="..\..\Desktop\txt\图\代收代付\22.jpg" xr:uid="{DB39A7AF-2570-433C-963F-FC6D7E93E1CE}"/>
+    <hyperlink ref="B25" r:id="rId5" display="..\..\Desktop\txt\图\代收代付\22（2）.jpg" xr:uid="{9F4F5360-6936-4109-A7F8-AE212284103E}"/>
+    <hyperlink ref="A26" r:id="rId6" display="..\..\Desktop\txt\图\代收代付\23.jpg" xr:uid="{9CF3F4B6-5135-4DF2-B6FC-98DCE658DE3D}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{7C980615-114C-46CD-A43D-51FF56BD5EA4}"/>
+    <hyperlink ref="A18" r:id="rId8" display="..\..\Desktop\txt\图\代收代付\15.jpg" xr:uid="{11ACB67D-17AC-4530-93AF-EB22E8375830}"/>
+    <hyperlink ref="A17" r:id="rId9" display="..\..\Desktop\txt\图\代收代付\14 朱映晓, 文彬 BINSCENT. 2020 Season's Greeting.PNG" xr:uid="{6A975F6D-5E3B-4934-A735-AC8128C9B465}"/>
+    <hyperlink ref="A11" r:id="rId10" display="..\..\Desktop\txt\图\代收代付\9 朱映晓, 文彬 🌙✨2020 SEASON'S GREETING  (台历+毛毯).PNG" xr:uid="{B4874BD5-9BF6-43D9-A429-1FC8570821AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -55491,7 +57005,7 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="17" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -55515,7 +57029,7 @@
         <v>171</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="O17" s="53">
         <v>64.7</v>
@@ -55993,10 +57507,10 @@
         <v>325.18</v>
       </c>
       <c r="F47" s="278" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -56008,7 +57522,7 @@
         <v>504</v>
       </c>
       <c r="M47" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -56022,7 +57536,7 @@
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -56045,7 +57559,7 @@
         <v>43959</v>
       </c>
       <c r="G49" s="277" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="H49" s="279">
         <v>296</v>
@@ -56058,11 +57572,17 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="278">
+        <v>43984</v>
+      </c>
+      <c r="C50">
+        <v>37.200000000000003</v>
+      </c>
       <c r="F50" s="278">
         <v>43964</v>
       </c>
       <c r="G50" s="277" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="H50" s="279">
         <v>295</v>
@@ -56075,11 +57595,17 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="278">
+        <v>43987</v>
+      </c>
+      <c r="C51">
+        <v>43.65</v>
+      </c>
       <c r="F51" s="278">
         <v>43969</v>
       </c>
       <c r="G51" s="277" t="s">
-        <v>1725</v>
+        <v>1711</v>
       </c>
       <c r="H51" s="279">
         <v>245</v>
@@ -56092,11 +57618,17 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="278">
+        <v>43987</v>
+      </c>
+      <c r="C52">
+        <v>29.04</v>
+      </c>
       <c r="F52" s="278">
         <v>43979</v>
       </c>
       <c r="G52" s="277" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="H52" s="279">
         <v>148</v>
@@ -56108,10 +57640,19 @@
         <v>372</v>
       </c>
       <c r="M52" s="296" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="278">
+        <v>43984</v>
+      </c>
+      <c r="G53" s="277" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H53" s="279">
+        <v>395</v>
+      </c>
       <c r="K53" s="278">
         <v>43968</v>
       </c>
@@ -56119,7 +57660,7 @@
         <v>448</v>
       </c>
       <c r="M53" s="296" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -56151,8 +57692,41 @@
       <c r="L56">
         <v>128</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="54">
         <v>5.28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K57" s="278">
+        <v>43986</v>
+      </c>
+      <c r="L57">
+        <v>182</v>
+      </c>
+      <c r="M57" s="58">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K58" s="278">
+        <v>43988</v>
+      </c>
+      <c r="L58">
+        <v>263</v>
+      </c>
+      <c r="M58" s="58">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K59" s="278">
+        <v>43989</v>
+      </c>
+      <c r="L59">
+        <v>72</v>
+      </c>
+      <c r="M59" s="58">
+        <v>6.7</v>
       </c>
     </row>
     <row r="62" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -56172,1381 +57746,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C67651-F5E7-40B0-B9CB-A7741661BB0C}">
-  <dimension ref="A1:U35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="53"/>
-    <col min="2" max="2" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.6640625" style="53" customWidth="1"/>
-    <col min="19" max="19" width="41.6640625" style="174" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="140">
-        <v>43614</v>
-      </c>
-      <c r="C2" s="141">
-        <v>811151564362608</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F2" s="53">
-        <v>192</v>
-      </c>
-      <c r="G2" s="53">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H2" s="142">
-        <v>190.85</v>
-      </c>
-      <c r="K2" s="143"/>
-      <c r="M2" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="N2" s="53">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q2" s="54"/>
-      <c r="S2" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="T2" s="53">
-        <v>15180416892</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="140">
-        <v>43671</v>
-      </c>
-      <c r="C3" s="141">
-        <v>811210507601120</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F3" s="53">
-        <v>114</v>
-      </c>
-      <c r="G3" s="53">
-        <v>0.68</v>
-      </c>
-      <c r="H3" s="142">
-        <v>113.32</v>
-      </c>
-      <c r="I3" s="53">
-        <v>18000</v>
-      </c>
-      <c r="J3" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K3" s="143">
-        <v>129.88999999999999</v>
-      </c>
-      <c r="L3" s="53">
-        <f>H3-K3</f>
-        <v>-16.569999999999993</v>
-      </c>
-      <c r="T3" s="53">
-        <v>15056021071</v>
-      </c>
-      <c r="U3" s="53" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
-        <v>3</v>
-      </c>
-      <c r="B4" s="140">
-        <v>43669</v>
-      </c>
-      <c r="C4" s="141">
-        <v>811204083741936</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F4" s="53">
-        <v>168</v>
-      </c>
-      <c r="G4" s="53">
-        <v>1.01</v>
-      </c>
-      <c r="H4" s="142">
-        <v>166.99</v>
-      </c>
-      <c r="I4" s="53">
-        <v>27000</v>
-      </c>
-      <c r="J4" s="53">
-        <v>4000</v>
-      </c>
-      <c r="K4" s="143">
-        <v>188.35</v>
-      </c>
-      <c r="L4" s="53">
-        <f t="shared" ref="L4:L12" si="0">H4-K4</f>
-        <v>-21.359999999999985</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>1069</v>
-      </c>
-      <c r="N4" s="53">
-        <v>142.69999999999999</v>
-      </c>
-      <c r="O4" s="53">
-        <v>5.03</v>
-      </c>
-      <c r="P4" s="53">
-        <v>12.07</v>
-      </c>
-      <c r="Q4" s="54">
-        <f>N4*0.994+L4</f>
-        <v>120.4838</v>
-      </c>
-      <c r="T4" s="53">
-        <v>15201318164</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
-        <v>4</v>
-      </c>
-      <c r="B5" s="140">
-        <v>43734</v>
-      </c>
-      <c r="C5" s="141">
-        <v>811468872954625</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F5" s="53">
-        <v>148</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0.89</v>
-      </c>
-      <c r="H5" s="142">
-        <v>147.11000000000001</v>
-      </c>
-      <c r="I5" s="53">
-        <v>23000</v>
-      </c>
-      <c r="J5" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="143">
-        <v>163.1</v>
-      </c>
-      <c r="L5" s="53">
-        <f t="shared" si="0"/>
-        <v>-15.989999999999981</v>
-      </c>
-      <c r="N5" s="53">
-        <v>43.59</v>
-      </c>
-      <c r="O5" s="53">
-        <v>1.53</v>
-      </c>
-      <c r="P5" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q5" s="54">
-        <f>N5*0.994+L5</f>
-        <v>27.338460000000019</v>
-      </c>
-      <c r="R5" s="53" t="s">
-        <v>644</v>
-      </c>
-      <c r="T5" s="53">
-        <v>13918424554</v>
-      </c>
-      <c r="U5" s="53" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
-        <v>5</v>
-      </c>
-      <c r="B6" s="140">
-        <v>43736</v>
-      </c>
-      <c r="C6" s="141">
-        <v>811478155875818</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F6" s="53">
-        <v>120</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0.72</v>
-      </c>
-      <c r="H6" s="142">
-        <v>119.28</v>
-      </c>
-      <c r="I6" s="53">
-        <v>19000</v>
-      </c>
-      <c r="J6" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K6" s="143">
-        <v>138.93</v>
-      </c>
-      <c r="L6" s="53">
-        <f t="shared" si="0"/>
-        <v>-19.650000000000006</v>
-      </c>
-      <c r="N6" s="53">
-        <v>41.76</v>
-      </c>
-      <c r="Q6" s="54">
-        <f>N6*0.994+L6</f>
-        <v>21.859439999999992</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>1076</v>
-      </c>
-      <c r="T6" s="53">
-        <v>13672747701</v>
-      </c>
-      <c r="U6" s="53" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="306">
-        <v>6</v>
-      </c>
-      <c r="B7" s="317">
-        <v>43722</v>
-      </c>
-      <c r="C7" s="318">
-        <v>811421352052079</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E7" s="305" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F7" s="53">
-        <v>96</v>
-      </c>
-      <c r="G7" s="306">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H7" s="319">
-        <v>190.85</v>
-      </c>
-      <c r="I7" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J7" s="306">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="200">
-        <v>205.4</v>
-      </c>
-      <c r="L7" s="306">
-        <f>H7-K7</f>
-        <v>-14.550000000000011</v>
-      </c>
-      <c r="N7" s="320">
-        <v>52.86</v>
-      </c>
-      <c r="O7" s="320">
-        <v>0.6</v>
-      </c>
-      <c r="P7" s="320">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q7" s="307">
-        <f>N7*0.994+L7</f>
-        <v>37.992839999999987</v>
-      </c>
-      <c r="R7" s="305" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S7" s="173"/>
-      <c r="T7" s="306">
-        <v>13420877860</v>
-      </c>
-      <c r="U7" s="305" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="306"/>
-      <c r="B8" s="317"/>
-      <c r="C8" s="318"/>
-      <c r="D8" s="43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E8" s="305"/>
-      <c r="F8" s="53">
-        <v>96</v>
-      </c>
-      <c r="G8" s="306"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J8" s="306"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="306"/>
-      <c r="N8" s="320">
-        <v>26.43</v>
-      </c>
-      <c r="O8" s="320"/>
-      <c r="P8" s="320"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="305"/>
-    </row>
-    <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140">
-        <v>43638</v>
-      </c>
-      <c r="C9" s="141">
-        <v>811078301531235</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F9" s="53">
-        <v>96</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H9" s="142">
-        <v>95.42</v>
-      </c>
-      <c r="I9" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J9" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="143">
-        <v>113.14</v>
-      </c>
-      <c r="L9" s="53">
-        <f t="shared" si="0"/>
-        <v>-17.72</v>
-      </c>
-      <c r="N9" s="53">
-        <v>26.24</v>
-      </c>
-      <c r="O9" s="53">
-        <v>1.51</v>
-      </c>
-      <c r="P9" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q9" s="54">
-        <f>N9*0.994+L9</f>
-        <v>8.3625599999999984</v>
-      </c>
-      <c r="T9" s="53">
-        <v>15819660552</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="295">
-        <v>8</v>
-      </c>
-      <c r="B10" s="140">
-        <v>43755</v>
-      </c>
-      <c r="C10" s="141">
-        <v>811548301376903</v>
-      </c>
-      <c r="D10" s="250" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F10" s="53">
-        <v>130</v>
-      </c>
-      <c r="G10" s="53">
-        <v>0.78</v>
-      </c>
-      <c r="H10" s="142">
-        <v>129.22</v>
-      </c>
-      <c r="I10" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J10" s="53">
-        <v>3500</v>
-      </c>
-      <c r="K10" s="143">
-        <v>117.45</v>
-      </c>
-      <c r="L10" s="53">
-        <f t="shared" si="0"/>
-        <v>11.769999999999996</v>
-      </c>
-      <c r="Q10" s="54"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="53">
-        <v>15980115023</v>
-      </c>
-      <c r="U10" s="145" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="295">
-        <v>9</v>
-      </c>
-      <c r="B11" s="140">
-        <v>43749</v>
-      </c>
-      <c r="C11" s="141">
-        <v>811521431838696</v>
-      </c>
-      <c r="D11" s="248" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F11" s="53">
-        <v>308</v>
-      </c>
-      <c r="G11" s="53">
-        <v>1.85</v>
-      </c>
-      <c r="H11" s="142">
-        <v>306.14999999999998</v>
-      </c>
-      <c r="I11" s="53">
-        <v>50000</v>
-      </c>
-      <c r="J11" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K11" s="143">
-        <v>327.20999999999998</v>
-      </c>
-      <c r="L11" s="53">
-        <f t="shared" si="0"/>
-        <v>-21.060000000000002</v>
-      </c>
-      <c r="N11" s="53">
-        <v>117.45</v>
-      </c>
-      <c r="O11" s="53">
-        <v>1.82</v>
-      </c>
-      <c r="P11" s="53">
-        <v>12.07</v>
-      </c>
-      <c r="Q11" s="54">
-        <f>N11*0.994+L11</f>
-        <v>95.685299999999998</v>
-      </c>
-      <c r="R11" s="53" t="s">
-        <v>1090</v>
-      </c>
-      <c r="S11" s="174" t="s">
-        <v>1495</v>
-      </c>
-      <c r="T11" s="53">
-        <v>13705761067</v>
-      </c>
-      <c r="U11" s="145" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="306">
-        <v>10</v>
-      </c>
-      <c r="B12" s="317">
-        <v>43764</v>
-      </c>
-      <c r="C12" s="318">
-        <v>811587551684293</v>
-      </c>
-      <c r="D12" s="150" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E12" s="305" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F12" s="53">
-        <v>126</v>
-      </c>
-      <c r="G12" s="306">
-        <v>1.51</v>
-      </c>
-      <c r="H12" s="319">
-        <v>250.49</v>
-      </c>
-      <c r="I12" s="138">
-        <v>20000</v>
-      </c>
-      <c r="J12" s="306">
-        <v>3000</v>
-      </c>
-      <c r="K12" s="200">
-        <v>267.39999999999998</v>
-      </c>
-      <c r="L12" s="306">
-        <f t="shared" si="0"/>
-        <v>-16.909999999999968</v>
-      </c>
-      <c r="N12" s="306">
-        <v>51.42</v>
-      </c>
-      <c r="Q12" s="307">
-        <f>N12*0.994+L12</f>
-        <v>34.201480000000032</v>
-      </c>
-      <c r="R12" s="305" t="s">
-        <v>1094</v>
-      </c>
-      <c r="S12" s="173"/>
-      <c r="T12" s="306">
-        <v>18108291464</v>
-      </c>
-      <c r="U12" s="305" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="306"/>
-      <c r="B13" s="317"/>
-      <c r="C13" s="318"/>
-      <c r="D13" s="150" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E13" s="305"/>
-      <c r="F13" s="53">
-        <v>126</v>
-      </c>
-      <c r="G13" s="306"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="138">
-        <v>20000</v>
-      </c>
-      <c r="J13" s="306"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="306"/>
-      <c r="N13" s="306"/>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="305"/>
-    </row>
-    <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
-        <v>11</v>
-      </c>
-      <c r="B14" s="140">
-        <v>43775</v>
-      </c>
-      <c r="C14" s="141">
-        <v>811639461515251</v>
-      </c>
-      <c r="D14" s="150" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F14" s="53">
-        <v>147</v>
-      </c>
-      <c r="G14" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="H14" s="142">
-        <v>146.12</v>
-      </c>
-      <c r="I14" s="53">
-        <v>22000</v>
-      </c>
-      <c r="K14" s="143">
-        <v>139.74</v>
-      </c>
-      <c r="L14" s="53">
-        <f t="shared" ref="L14:L21" si="1">H14-K14</f>
-        <v>6.3799999999999955</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>1099</v>
-      </c>
-      <c r="N14" s="53">
-        <v>12.55</v>
-      </c>
-      <c r="Q14" s="54">
-        <f>N14*0.994+L14</f>
-        <v>18.854699999999994</v>
-      </c>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146" t="s">
-        <v>1258</v>
-      </c>
-      <c r="T14" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>12</v>
-      </c>
-      <c r="B15" s="140">
-        <v>43767</v>
-      </c>
-      <c r="C15" s="141">
-        <v>811603150703150</v>
-      </c>
-      <c r="D15" s="150" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F15" s="53">
-        <v>126</v>
-      </c>
-      <c r="G15" s="53">
-        <v>0.76</v>
-      </c>
-      <c r="H15" s="142">
-        <v>125.24</v>
-      </c>
-      <c r="I15" s="53">
-        <v>20000</v>
-      </c>
-      <c r="J15" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K15" s="143">
-        <v>145.82</v>
-      </c>
-      <c r="L15" s="53">
-        <f t="shared" si="1"/>
-        <v>-20.58</v>
-      </c>
-      <c r="N15" s="53">
-        <v>45.33</v>
-      </c>
-      <c r="Q15" s="54">
-        <f>N15*0.994+L15</f>
-        <v>24.478020000000001</v>
-      </c>
-      <c r="R15" s="53" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S15" s="174" t="s">
-        <v>1502</v>
-      </c>
-      <c r="T15" s="53">
-        <v>15603608839</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
-        <v>13</v>
-      </c>
-      <c r="B16" s="140">
-        <v>43767</v>
-      </c>
-      <c r="C16" s="141">
-        <v>811604273035278</v>
-      </c>
-      <c r="D16" s="150" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F16" s="53">
-        <v>126</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0.76</v>
-      </c>
-      <c r="H16" s="142">
-        <v>125.24</v>
-      </c>
-      <c r="I16" s="53">
-        <v>20000</v>
-      </c>
-      <c r="J16" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K16" s="143">
-        <v>145.82</v>
-      </c>
-      <c r="L16" s="53">
-        <f t="shared" si="1"/>
-        <v>-20.58</v>
-      </c>
-      <c r="N16" s="53">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="O16" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="P16" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q16" s="54">
-        <f>N16*0.994+L16</f>
-        <v>16.67512</v>
-      </c>
-      <c r="R16" s="53" t="s">
-        <v>1103</v>
-      </c>
-      <c r="T16" s="53">
-        <v>15062270909</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="295">
-        <v>14</v>
-      </c>
-      <c r="B17" s="140">
-        <v>43749</v>
-      </c>
-      <c r="C17" s="141">
-        <v>811521431838696</v>
-      </c>
-      <c r="D17" s="248" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F17" s="53">
-        <v>152</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="H17" s="142">
-        <v>151.09</v>
-      </c>
-      <c r="I17" s="53">
-        <v>24000</v>
-      </c>
-      <c r="J17" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K17" s="143">
-        <v>170.13</v>
-      </c>
-      <c r="L17" s="53">
-        <f t="shared" si="1"/>
-        <v>-19.039999999999992</v>
-      </c>
-      <c r="N17" s="53">
-        <v>69.73</v>
-      </c>
-      <c r="Q17" s="54">
-        <f>N17*0.994+L17</f>
-        <v>50.271620000000013</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>1109</v>
-      </c>
-      <c r="S17" s="174" t="s">
-        <v>1494</v>
-      </c>
-      <c r="T17" s="53">
-        <v>13705761067</v>
-      </c>
-      <c r="U17" s="53" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="295">
-        <v>15</v>
-      </c>
-      <c r="B18" s="140">
-        <v>43793</v>
-      </c>
-      <c r="C18" s="141">
-        <v>811719362438608</v>
-      </c>
-      <c r="D18" s="253" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F18" s="53">
-        <v>275.60000000000002</v>
-      </c>
-      <c r="G18" s="53">
-        <v>1.65</v>
-      </c>
-      <c r="H18" s="142">
-        <v>273.95</v>
-      </c>
-      <c r="I18" s="53">
-        <v>40000</v>
-      </c>
-      <c r="J18" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K18" s="143">
-        <v>265.04000000000002</v>
-      </c>
-      <c r="L18" s="53">
-        <f t="shared" si="1"/>
-        <v>8.9099999999999682</v>
-      </c>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="53" t="s">
-        <v>1499</v>
-      </c>
-      <c r="T18" s="53">
-        <v>13187381112</v>
-      </c>
-      <c r="U18" s="53" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
-        <v>16</v>
-      </c>
-      <c r="B19" s="140">
-        <v>43788</v>
-      </c>
-      <c r="C19" s="141">
-        <v>811719362438608</v>
-      </c>
-      <c r="D19" s="150" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F19" s="53">
-        <v>137.02000000000001</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0.82</v>
-      </c>
-      <c r="H19" s="142">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="I19" s="53">
-        <v>20000</v>
-      </c>
-      <c r="K19" s="143">
-        <v>127.21</v>
-      </c>
-      <c r="L19" s="53">
-        <f t="shared" si="1"/>
-        <v>8.9899999999999949</v>
-      </c>
-      <c r="N19" s="53">
-        <v>12.9</v>
-      </c>
-      <c r="Q19" s="54">
-        <f>N19*0.994+L19</f>
-        <v>21.812599999999996</v>
-      </c>
-      <c r="R19" s="53" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T19" s="53">
-        <v>17825966284</v>
-      </c>
-      <c r="U19" s="53" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="295">
-        <v>17</v>
-      </c>
-      <c r="D20" s="251" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I20" s="53">
-        <v>11000</v>
-      </c>
-      <c r="K20" s="143">
-        <v>72.67</v>
-      </c>
-      <c r="L20" s="199">
-        <f t="shared" si="1"/>
-        <v>-72.67</v>
-      </c>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="61" t="s">
-        <v>1233</v>
-      </c>
-      <c r="S20" s="226"/>
-      <c r="T20" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U20" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
-        <v>18</v>
-      </c>
-      <c r="B21" s="140">
-        <v>43796</v>
-      </c>
-      <c r="C21" s="141">
-        <v>811734286315507</v>
-      </c>
-      <c r="D21" s="150" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="53">
-        <v>18000</v>
-      </c>
-      <c r="K21" s="143">
-        <v>115.09</v>
-      </c>
-      <c r="L21" s="53">
-        <f t="shared" si="1"/>
-        <v>-115.09</v>
-      </c>
-      <c r="N21" s="53">
-        <v>130.78</v>
-      </c>
-      <c r="Q21" s="54">
-        <f>N21*0.994+L21</f>
-        <v>14.905319999999989</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="T21" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U21" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="52" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
-        <v>19</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I22" s="52">
-        <v>15000</v>
-      </c>
-      <c r="T22" s="52">
-        <v>18173757621</v>
-      </c>
-      <c r="U22" s="52" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="295">
-        <v>20</v>
-      </c>
-      <c r="D23" s="251" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F23" s="53">
-        <v>123.45</v>
-      </c>
-      <c r="G23" s="54">
-        <f>F23*0.006</f>
-        <v>0.74070000000000003</v>
-      </c>
-      <c r="H23" s="147">
-        <f>F23*0.994</f>
-        <v>122.7093</v>
-      </c>
-      <c r="I23" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J23" s="53">
-        <v>3500</v>
-      </c>
-      <c r="K23" s="143">
-        <v>117.45</v>
-      </c>
-      <c r="L23" s="54">
-        <f>H23-K23</f>
-        <v>5.2592999999999961</v>
-      </c>
-      <c r="N23" s="53">
-        <v>7.75</v>
-      </c>
-      <c r="Q23" s="54">
-        <f>N23*0.994+L23</f>
-        <v>12.962799999999996</v>
-      </c>
-      <c r="R23" s="53" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>21</v>
-      </c>
-      <c r="D24" s="252" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F24" s="53">
-        <v>105.63</v>
-      </c>
-      <c r="G24" s="54">
-        <f>F24*0.006</f>
-        <v>0.63378000000000001</v>
-      </c>
-      <c r="H24" s="147">
-        <f>F24*0.994</f>
-        <v>104.99621999999999</v>
-      </c>
-      <c r="I24" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J24" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K24" s="143">
-        <v>115.09</v>
-      </c>
-      <c r="L24" s="54">
-        <f>H24-K24</f>
-        <v>-10.09378000000001</v>
-      </c>
-      <c r="N24" s="53">
-        <v>27.39</v>
-      </c>
-      <c r="Q24" s="54">
-        <f>N24*0.994+L24</f>
-        <v>17.131879999999992</v>
-      </c>
-      <c r="R24" s="83" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="295">
-        <v>22</v>
-      </c>
-      <c r="B25" s="295" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D25" s="251" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E25" s="164" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F25" s="53">
-        <v>49.39</v>
-      </c>
-      <c r="G25" s="54">
-        <f>F25*0.006</f>
-        <v>0.29633999999999999</v>
-      </c>
-      <c r="H25" s="147">
-        <f>F25*0.994</f>
-        <v>49.09366</v>
-      </c>
-      <c r="I25" s="53">
-        <v>6500</v>
-      </c>
-      <c r="K25" s="143">
-        <v>45.39</v>
-      </c>
-      <c r="L25" s="54">
-        <f>H25-K25</f>
-        <v>3.7036599999999993</v>
-      </c>
-      <c r="R25" s="83" t="s">
-        <v>1269</v>
-      </c>
-      <c r="S25" s="83"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="295">
-        <v>23</v>
-      </c>
-      <c r="B26" s="295" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D26" s="251" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E26" s="167" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R26" s="83" t="s">
-        <v>1266</v>
-      </c>
-      <c r="S26" s="83"/>
-    </row>
-    <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="247" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="247" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="249" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="253" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="199">
-        <f>SUM(H2,H4,H5,H6,H7,H9,H12,H14,H16,H19,H21,H23,H24)</f>
-        <v>1796.2555200000002</v>
-      </c>
-      <c r="K33" s="53">
-        <f>SUM(K2,K4,K5,K6,K7,K9,K12,K14,K16,K19,K21,K23,K24)</f>
-        <v>1836.7199999999998</v>
-      </c>
-      <c r="N33" s="199">
-        <f>SUM(N2:N32)</f>
-        <v>864.95999999999992</v>
-      </c>
-      <c r="O33" s="199">
-        <f>SUM(O2:O32)</f>
-        <v>11.39</v>
-      </c>
-      <c r="P33" s="199">
-        <f>SUM(P2:P32)</f>
-        <v>56.34</v>
-      </c>
-      <c r="Q33" s="54">
-        <f>SUM(Q2:Q32)</f>
-        <v>523.01594</v>
-      </c>
-    </row>
-    <row r="35" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M35" s="149" t="s">
-        <v>1122</v>
-      </c>
-      <c r="R35" s="53" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Q12:Q13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="..\..\Desktop\txt\图\代收代付\8.jpg" xr:uid="{72BD73E6-C8E8-4B76-85CC-1527316FAFCA}"/>
-    <hyperlink ref="A20" r:id="rId2" display="..\..\Desktop\txt\图\代收代付\17 有生之年_南城北海.jpg" xr:uid="{200BB495-F57D-46FD-AE9C-2DFAB1737904}"/>
-    <hyperlink ref="A23" r:id="rId3" display="..\..\Desktop\txt\图\代收代付\20 有生之年_南城北海.png" xr:uid="{99536BE8-5D05-47B3-AF56-6435B31AA441}"/>
-    <hyperlink ref="A25" r:id="rId4" display="..\..\Desktop\txt\图\代收代付\22.jpg" xr:uid="{DB39A7AF-2570-433C-963F-FC6D7E93E1CE}"/>
-    <hyperlink ref="B25" r:id="rId5" display="..\..\Desktop\txt\图\代收代付\22（2）.jpg" xr:uid="{9F4F5360-6936-4109-A7F8-AE212284103E}"/>
-    <hyperlink ref="A26" r:id="rId6" display="..\..\Desktop\txt\图\代收代付\23.jpg" xr:uid="{9CF3F4B6-5135-4DF2-B6FC-98DCE658DE3D}"/>
-    <hyperlink ref="B26" r:id="rId7" xr:uid="{7C980615-114C-46CD-A43D-51FF56BD5EA4}"/>
-    <hyperlink ref="A18" r:id="rId8" display="..\..\Desktop\txt\图\代收代付\15.jpg" xr:uid="{11ACB67D-17AC-4530-93AF-EB22E8375830}"/>
-    <hyperlink ref="A17" r:id="rId9" display="..\..\Desktop\txt\图\代收代付\14 朱映晓, 文彬 BINSCENT. 2020 Season's Greeting.PNG" xr:uid="{6A975F6D-5E3B-4934-A735-AC8128C9B465}"/>
-    <hyperlink ref="A11" r:id="rId10" display="..\..\Desktop\txt\图\代收代付\9 朱映晓, 文彬 🌙✨2020 SEASON'S GREETING  (台历+毛毯).PNG" xr:uid="{B4874BD5-9BF6-43D9-A429-1FC8570821AF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -58172,7 +58371,7 @@
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1274</v>
@@ -58191,7 +58390,7 @@
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1282</v>
@@ -58202,10 +58401,10 @@
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>1368</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>1369</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>1316</v>
@@ -58213,57 +58412,57 @@
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="216" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>1373</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="216" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>1375</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="D23" s="260" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD18B8-72D7-4D9D-BF20-D63BA5F72664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32E5D0-772A-4EDD-85E8-3B7964F8CC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="接受箱年后货物情况整理" sheetId="10" r:id="rId3"/>
     <sheet name="接受箱其他" sheetId="6" r:id="rId4"/>
     <sheet name="贩卖机其他" sheetId="5" r:id="rId5"/>
-    <sheet name="代收代付" sheetId="9" r:id="rId6"/>
-    <sheet name="包装及运费" sheetId="7" r:id="rId7"/>
-    <sheet name="补发" sheetId="8" r:id="rId8"/>
+    <sheet name="包装及运费" sheetId="7" r:id="rId6"/>
+    <sheet name="补发" sheetId="8" r:id="rId7"/>
+    <sheet name="代收代付" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1763">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12199,10 +12199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拉链袋全破损*44 扇子少两把(报数少4把)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未补*1(王佳文)  退款*1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13190,10 +13186,6 @@
   </si>
   <si>
     <t>hwiming_doll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.10推文：疫情推迟 3.6恢复生产 交付延迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18022,10 +18014,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.18：制作约还需1月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">AB6IX </t>
     </r>
@@ -18782,15 +18770,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>漏发一套 / 6.9：补发今日发出 /5.2：EB004507875HK Hong Kong Pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.10：生产中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3.23：预计制作需要4~5个月 /5.11推文：打样完成 开始生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉链袋全破损*44 /DREM扇子应为21把，少1把(实际疑收到22把) /CHOCOLATE特典更改：透扇-&gt;徽章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发一套 / 6.11补发：RE00918704HK /5.2：EB004507875HK Hong Kong Pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10：制作已完成，但物流封锁，解决中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -20383,7 +20379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21069,9 +21065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21354,14 +21347,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21391,9 +21387,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21402,6 +21395,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21764,7 +21763,7 @@
         <v>335</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>206</v>
@@ -21797,22 +21796,22 @@
         <v>209</v>
       </c>
       <c r="Q1" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="S1" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="R1" s="92" t="s">
-        <v>1317</v>
-      </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>1319</v>
       </c>
-      <c r="T1" s="92" t="s">
-        <v>1320</v>
-      </c>
       <c r="U1" s="215" t="s">
+        <v>1335</v>
+      </c>
+      <c r="V1" s="215" t="s">
         <v>1336</v>
-      </c>
-      <c r="V1" s="215" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21880,7 +21879,7 @@
         <v>18.11</v>
       </c>
       <c r="W3" s="53" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22235,7 +22234,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W12" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22411,7 +22410,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22493,7 +22492,7 @@
         <v>63.315359999999991</v>
       </c>
       <c r="P18" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -22515,7 +22514,7 @@
         <v>10.06</v>
       </c>
       <c r="W18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23272,7 +23271,7 @@
         <v>10.06</v>
       </c>
       <c r="W37" s="53" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23829,7 +23828,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W51" s="53" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23892,7 +23891,7 @@
         <v>10.06</v>
       </c>
       <c r="W52" s="53" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24032,7 +24031,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W55" s="53" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24203,7 +24202,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W59" s="212" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24309,14 +24308,14 @@
         <v>187.62843999999996</v>
       </c>
       <c r="M62" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="N62">
         <v>142.66</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -24338,7 +24337,7 @@
         <v>6.04</v>
       </c>
       <c r="W62" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24402,7 +24401,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W63" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24501,7 +24500,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W65" s="53" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24613,7 +24612,7 @@
       <c r="L68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="53" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24723,7 +24722,7 @@
         <v>10.06</v>
       </c>
       <c r="W70" s="53" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24799,7 +24798,7 @@
         <v>363.35640000000012</v>
       </c>
       <c r="M73" s="53" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O73" s="54">
         <f>L73-N73</f>
@@ -24825,7 +24824,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W73" s="53" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24963,7 +24962,7 @@
         <v>115.98</v>
       </c>
       <c r="W76" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25047,7 +25046,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W78" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25109,7 +25108,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W79" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25499,7 +25498,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W89" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25638,7 +25637,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W92" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26272,7 +26271,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W109" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26453,7 +26452,7 @@
         <v>308.30711999999994</v>
       </c>
       <c r="M114" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N114">
         <v>15</v>
@@ -26492,17 +26491,17 @@
       <c r="K115" s="310">
         <v>122.8</v>
       </c>
-      <c r="L115" s="309">
+      <c r="L115" s="311">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="311" t="s">
+      <c r="M115" s="309" t="s">
         <v>813</v>
       </c>
       <c r="N115" s="310">
         <v>15</v>
       </c>
-      <c r="O115" s="309">
+      <c r="O115" s="311">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26531,8 +26530,8 @@
       <c r="K116" s="310">
         <v>50.31</v>
       </c>
-      <c r="L116" s="309"/>
-      <c r="M116" s="311" t="s">
+      <c r="L116" s="311"/>
+      <c r="M116" s="309" t="s">
         <v>813</v>
       </c>
       <c r="N116" s="310">
@@ -26761,7 +26760,7 @@
         <v>871.67617999999948</v>
       </c>
       <c r="M122" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O122" s="54">
         <f t="shared" si="11"/>
@@ -26790,7 +26789,7 @@
         <v>10.06</v>
       </c>
       <c r="W122" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26843,7 +26842,7 @@
         <v>135.79</v>
       </c>
       <c r="W123" s="212" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26876,7 +26875,7 @@
         <v>35.196440000000052</v>
       </c>
       <c r="M124" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="N124">
         <v>10</v>
@@ -26920,10 +26919,10 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="311" t="s">
+      <c r="D126" s="309" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="311" t="s">
+      <c r="E126" s="309" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
@@ -26946,13 +26945,13 @@
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="311"/>
-      <c r="N126" s="311"/>
-      <c r="O126" s="309">
+      <c r="M126" s="309"/>
+      <c r="N126" s="309"/>
+      <c r="O126" s="311">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="311"/>
+      <c r="P126" s="309"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -26961,8 +26960,8 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="311"/>
-      <c r="E127" s="311"/>
+      <c r="D127" s="309"/>
+      <c r="E127" s="309"/>
       <c r="F127" s="184"/>
       <c r="G127" s="310"/>
       <c r="H127" s="310"/>
@@ -26970,10 +26969,10 @@
       <c r="J127" s="310"/>
       <c r="K127" s="310"/>
       <c r="L127" s="312"/>
-      <c r="M127" s="311"/>
-      <c r="N127" s="311"/>
-      <c r="O127" s="309"/>
-      <c r="P127" s="311"/>
+      <c r="M127" s="309"/>
+      <c r="N127" s="309"/>
+      <c r="O127" s="311"/>
+      <c r="P127" s="309"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -26982,8 +26981,8 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="311"/>
-      <c r="E128" s="311"/>
+      <c r="D128" s="309"/>
+      <c r="E128" s="309"/>
       <c r="F128" s="184"/>
       <c r="G128" s="310"/>
       <c r="H128" s="310"/>
@@ -26991,10 +26990,10 @@
       <c r="J128" s="310"/>
       <c r="K128" s="310"/>
       <c r="L128" s="312"/>
-      <c r="M128" s="311"/>
-      <c r="N128" s="311"/>
-      <c r="O128" s="309"/>
-      <c r="P128" s="311"/>
+      <c r="M128" s="309"/>
+      <c r="N128" s="309"/>
+      <c r="O128" s="311"/>
+      <c r="P128" s="309"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27003,8 +27002,8 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="311"/>
-      <c r="E129" s="311"/>
+      <c r="D129" s="309"/>
+      <c r="E129" s="309"/>
       <c r="F129" s="184"/>
       <c r="G129" s="310"/>
       <c r="H129" s="310"/>
@@ -27012,10 +27011,10 @@
       <c r="J129" s="310"/>
       <c r="K129" s="310"/>
       <c r="L129" s="312"/>
-      <c r="M129" s="311"/>
-      <c r="N129" s="311"/>
-      <c r="O129" s="309"/>
-      <c r="P129" s="311"/>
+      <c r="M129" s="309"/>
+      <c r="N129" s="309"/>
+      <c r="O129" s="311"/>
+      <c r="P129" s="309"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -27233,14 +27232,14 @@
         <v>586.66499999999996</v>
       </c>
       <c r="M136" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O136" s="54">
         <f t="shared" si="13"/>
         <v>586.66499999999996</v>
       </c>
       <c r="P136" s="53" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27280,7 +27279,7 @@
         <v>282.82951999999977</v>
       </c>
       <c r="P137" s="166" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27302,7 +27301,7 @@
         <v>10.06</v>
       </c>
       <c r="W137" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27594,7 +27593,7 @@
     </row>
     <row r="146" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R146" s="53" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="S146">
         <f>SUM(S3:S145)</f>
@@ -27664,16 +27663,16 @@
         <v>304</v>
       </c>
       <c r="O151" s="207" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="54"/>
       <c r="H152" s="203" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I152" s="203" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J152" s="54">
         <f>SUM(J3:J147)*0.994</f>
@@ -27698,7 +27697,7 @@
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="203" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J153" s="54">
         <f>U146*0.994</f>
@@ -27720,7 +27719,7 @@
       <c r="G154" s="54"/>
       <c r="H154" s="54"/>
       <c r="I154" s="201" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J154" s="54">
         <v>1244.54</v>
@@ -27739,7 +27738,7 @@
       <c r="G155" s="54"/>
       <c r="H155" s="54"/>
       <c r="I155" s="202" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J155" s="54">
         <f>J152+J153-J154</f>
@@ -27773,10 +27772,10 @@
       <c r="A157" s="53"/>
       <c r="B157" s="204"/>
       <c r="H157" s="203" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I157" s="203" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J157" s="208">
         <v>434.22</v>
@@ -27794,7 +27793,7 @@
     <row r="158" spans="1:22" s="212" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="204"/>
       <c r="I158" s="203" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J158" s="210">
         <v>8.4700000000000006</v>
@@ -27810,7 +27809,7 @@
       <c r="A159" s="53"/>
       <c r="B159" s="204"/>
       <c r="I159" s="201" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J159" s="54">
         <f>J165-J154</f>
@@ -27829,7 +27828,7 @@
       <c r="A160" s="53"/>
       <c r="B160" s="204"/>
       <c r="I160" s="202" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J160" s="54">
         <f>J157+J158-J159</f>
@@ -27858,7 +27857,7 @@
     </row>
     <row r="161" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P161" s="198" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q161" s="54">
         <f>Q155+Q160</f>
@@ -27871,7 +27870,7 @@
     </row>
     <row r="162" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="203" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J162" s="54">
         <v>9.57</v>
@@ -27889,7 +27888,7 @@
     </row>
     <row r="164" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="203" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J164" s="54">
         <f>J152+J157+J162</f>
@@ -27906,7 +27905,7 @@
     </row>
     <row r="165" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="203" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J165" s="208">
         <v>1621.99</v>
@@ -27921,7 +27920,7 @@
     </row>
     <row r="166" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="202" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J166" s="54">
         <f>J164-J165</f>
@@ -27942,7 +27941,7 @@
     </row>
     <row r="167" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P167" s="198" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q167" s="54">
         <f>(P166/10)*2</f>
@@ -27955,7 +27954,7 @@
     </row>
     <row r="168" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="43" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
@@ -27964,43 +27963,31 @@
     </row>
     <row r="169" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P169" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P170" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P171" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="295" t="s">
+      <c r="A175" s="294" t="s">
         <v>856</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -28010,6 +27997,18 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -28025,14 +28024,14 @@
   <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B337" sqref="B337"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5546875" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="268" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="267" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="58.5546875" customWidth="1"/>
@@ -28108,22 +28107,22 @@
         <v>209</v>
       </c>
       <c r="T1" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="V1" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="U1" s="92" t="s">
-        <v>1317</v>
-      </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>1319</v>
       </c>
-      <c r="W1" s="92" t="s">
-        <v>1320</v>
-      </c>
       <c r="X1" s="92" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>1324</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>1325</v>
       </c>
       <c r="Z1" s="92"/>
       <c r="AA1" t="s">
@@ -28204,7 +28203,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z2" s="212" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AA2" t="s">
         <v>321</v>
@@ -28333,7 +28332,7 @@
         <v>18.11</v>
       </c>
       <c r="Z4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28403,7 +28402,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28467,7 +28466,7 @@
         <v>116.21</v>
       </c>
       <c r="Z6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28669,7 +28668,7 @@
         <v>1195</v>
       </c>
       <c r="T10" s="211" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="U10" s="54">
         <v>40.86</v>
@@ -28688,7 +28687,7 @@
         <v>10.06</v>
       </c>
       <c r="Z10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28982,7 +28981,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z16" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29046,7 +29045,7 @@
         <v>137</v>
       </c>
       <c r="Z17" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29111,7 +29110,7 @@
         <v>121.23</v>
       </c>
       <c r="Z18" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29200,7 +29199,7 @@
         <v>112.57272000000012</v>
       </c>
       <c r="N20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O20">
         <v>12</v>
@@ -29300,7 +29299,7 @@
         <v>96.873200000000111</v>
       </c>
       <c r="N22" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O22">
         <v>8</v>
@@ -29753,7 +29752,7 @@
         <v>10.06</v>
       </c>
       <c r="Z31" s="212" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30069,7 +30068,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z37" s="212" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30186,7 +30185,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z39" s="212" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30421,7 +30420,7 @@
     </row>
     <row r="45" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
@@ -30465,7 +30464,7 @@
         <v>953.56005999999968</v>
       </c>
       <c r="S45" s="197" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30775,7 +30774,7 @@
         <v>10.06</v>
       </c>
       <c r="Z51" s="212" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30812,7 +30811,7 @@
         <v>136.41399999999999</v>
       </c>
       <c r="N52" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O52" s="154"/>
       <c r="P52" s="155">
@@ -32260,7 +32259,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -32304,7 +32303,7 @@
     </row>
     <row r="137" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="53" t="s">
@@ -32752,10 +32751,10 @@
       </c>
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="266" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B167" s="266"/>
+      <c r="A167" s="265" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B167" s="265"/>
       <c r="C167" s="53">
         <v>11.14</v>
       </c>
@@ -32847,7 +32846,7 @@
         <v>673</v>
       </c>
       <c r="E172" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -33115,7 +33114,7 @@
       <c r="A186" s="53" t="s">
         <v>995</v>
       </c>
-      <c r="B186" s="268"/>
+      <c r="B186" s="267"/>
       <c r="C186" s="54" t="s">
         <v>996</v>
       </c>
@@ -33398,7 +33397,7 @@
         <v>668</v>
       </c>
       <c r="E199" s="83" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F199" s="76" t="s">
         <v>817</v>
@@ -34543,7 +34542,7 @@
     </row>
     <row r="248" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="65" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B248" s="65"/>
       <c r="C248" s="165" t="s">
@@ -34553,7 +34552,7 @@
         <v>700</v>
       </c>
       <c r="E248" s="83" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F248" s="60" t="s">
         <v>817</v>
@@ -34901,7 +34900,7 @@
         <v>1238</v>
       </c>
       <c r="E263" s="164" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="264" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -34948,7 +34947,7 @@
     </row>
     <row r="265" spans="1:26" s="185" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="187" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B265" s="187"/>
       <c r="C265" s="54"/>
@@ -35006,7 +35005,7 @@
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="314" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B267" s="314"/>
       <c r="C267" s="314"/>
@@ -35022,19 +35021,19 @@
     </row>
     <row r="268" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="67" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B268" s="67" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C268" s="255" t="s">
-        <v>1501</v>
+        <v>1568</v>
+      </c>
+      <c r="C268" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="E268" s="283" t="s">
-        <v>1736</v>
+      <c r="E268" s="282" t="s">
+        <v>1733</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>817</v>
@@ -35042,19 +35041,19 @@
     </row>
     <row r="269" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="177" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C269" s="255" t="s">
-        <v>1501</v>
+        <v>1569</v>
+      </c>
+      <c r="C269" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D269" s="133" t="s">
         <v>521</v>
       </c>
       <c r="E269" s="129" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F269" s="129" t="s">
         <v>817</v>
@@ -35062,90 +35061,90 @@
       <c r="J269" s="130"/>
     </row>
     <row r="270" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="257" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B270" s="257" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C270" s="255" t="s">
+      <c r="A270" s="256" t="s">
         <v>1501</v>
+      </c>
+      <c r="B270" s="256" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C270" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="E270" s="255" t="s">
-        <v>1513</v>
+      <c r="E270" s="254" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="258" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B271" s="258" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C271" s="255" t="s">
-        <v>1501</v>
+      <c r="A271" s="257" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B271" s="257" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C271" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>667</v>
       </c>
       <c r="E271" s="218" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="257" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B272" s="257" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C272" s="255" t="s">
-        <v>1501</v>
+      <c r="A272" s="256" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B272" s="256" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C272" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>659</v>
       </c>
       <c r="E272" s="83" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F272" s="83"/>
     </row>
     <row r="273" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="258" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B273" s="258" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C273" s="255" t="s">
-        <v>1501</v>
+      <c r="A273" s="257" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B273" s="257" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C273" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D273" s="13" t="s">
         <v>726</v>
       </c>
       <c r="E273" s="83" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F273" s="83"/>
     </row>
     <row r="274" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="257" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B274" s="257" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C274" s="255" t="s">
-        <v>1501</v>
+      <c r="A274" s="256" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B274" s="256" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C274" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="E274" s="226" t="s">
-        <v>1512</v>
+      <c r="E274" s="225" t="s">
+        <v>1510</v>
       </c>
       <c r="G274" s="83"/>
       <c r="U274" s="212"/>
@@ -35156,20 +35155,20 @@
       <c r="Z274" s="212"/>
     </row>
     <row r="275" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="257" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B275" s="257" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C275" s="255" t="s">
-        <v>1501</v>
+      <c r="A275" s="256" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B275" s="256" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C275" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>712</v>
       </c>
       <c r="E275" s="83" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F275" s="83"/>
       <c r="G275" s="83"/>
@@ -35181,114 +35180,114 @@
       <c r="Z275" s="212"/>
     </row>
     <row r="276" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="255" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B276" s="268" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C276" s="255" t="s">
-        <v>1501</v>
+      <c r="A276" s="254" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B276" s="267" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C276" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="E276" s="255" t="s">
-        <v>1399</v>
+      <c r="E276" s="254" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C277" s="255" t="s">
-        <v>1501</v>
+        <v>1577</v>
+      </c>
+      <c r="C277" s="254" t="s">
+        <v>1499</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>701</v>
       </c>
       <c r="E277" s="130" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="67" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C278" s="256" t="s">
-        <v>1501</v>
+        <v>1578</v>
+      </c>
+      <c r="C278" s="255" t="s">
+        <v>1499</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>852</v>
       </c>
       <c r="E278" s="95" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="279" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="263" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B279" s="263" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C279" s="260" t="s">
-        <v>1547</v>
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="262" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B279" s="262" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C279" s="259" t="s">
+        <v>1545</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>794</v>
       </c>
       <c r="E279" s="83" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H279" s="83"/>
     </row>
-    <row r="280" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="264" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B280" s="264" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C280" s="260" t="s">
+    <row r="280" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="263" t="s">
         <v>1547</v>
+      </c>
+      <c r="B280" s="263" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C280" s="259" t="s">
+        <v>1545</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E280" s="260" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="281" spans="1:26" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="265" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B281" s="265" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C281" s="260" t="s">
-        <v>1547</v>
+      <c r="E280" s="259" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="264" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B281" s="264" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C281" s="259" t="s">
+        <v>1545</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E281" s="260" t="s">
-        <v>1413</v>
+      <c r="E281" s="259" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="266" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B282" s="266" t="s">
-        <v>1564</v>
+      <c r="A282" s="265" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B282" s="265" t="s">
+        <v>1562</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35297,26 +35296,26 @@
         <v>738</v>
       </c>
       <c r="E282" s="83" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F282" s="83"/>
       <c r="G282"/>
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C283" s="261" t="s">
-        <v>1565</v>
+        <v>1582</v>
+      </c>
+      <c r="C283" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E283" s="130" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F283" s="69" t="s">
         <v>977</v>
@@ -35327,13 +35326,13 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C284" s="261" t="s">
-        <v>1565</v>
+        <v>1583</v>
+      </c>
+      <c r="C284" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>731</v>
@@ -35345,15 +35344,15 @@
         <v>817</v>
       </c>
     </row>
-    <row r="285" spans="1:26" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C285" s="261" t="s">
-        <v>1565</v>
+        <v>1584</v>
+      </c>
+      <c r="C285" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>617</v>
@@ -35365,15 +35364,15 @@
         <v>817</v>
       </c>
     </row>
-    <row r="286" spans="1:26" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C286" s="261" t="s">
-        <v>1565</v>
+        <v>1585</v>
+      </c>
+      <c r="C286" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>788</v>
@@ -35387,13 +35386,13 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C287" s="261" t="s">
-        <v>1565</v>
+        <v>1586</v>
+      </c>
+      <c r="C287" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>984</v>
@@ -35407,19 +35406,19 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B288" s="178" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C288" s="261" t="s">
-        <v>1565</v>
+        <v>1587</v>
+      </c>
+      <c r="C288" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>745</v>
       </c>
       <c r="E288" s="83" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F288" s="60" t="s">
         <v>817</v>
@@ -35427,13 +35426,13 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C289" s="261" t="s">
-        <v>1565</v>
+        <v>1588</v>
+      </c>
+      <c r="C289" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>677</v>
@@ -35447,13 +35446,13 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C290" s="261" t="s">
-        <v>1565</v>
+        <v>1589</v>
+      </c>
+      <c r="C290" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>846</v>
@@ -35467,19 +35466,19 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C291" s="261" t="s">
-        <v>1565</v>
+        <v>1590</v>
+      </c>
+      <c r="C291" s="260" t="s">
+        <v>1563</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>703</v>
       </c>
       <c r="E291" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F291" s="121" t="s">
         <v>817</v>
@@ -35487,13 +35486,13 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C292" s="268" t="s">
-        <v>1565</v>
+        <v>1591</v>
+      </c>
+      <c r="C292" s="267" t="s">
+        <v>1563</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>972</v>
@@ -35507,34 +35506,34 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C293" s="268" t="s">
-        <v>1565</v>
+        <v>1593</v>
+      </c>
+      <c r="C293" s="267" t="s">
+        <v>1563</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>757</v>
       </c>
       <c r="E293" s="83" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F293" s="121" t="s">
         <v>817</v>
       </c>
       <c r="H293" s="69"/>
     </row>
-    <row r="294" spans="1:8" s="268" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="267" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C294" s="268" t="s">
-        <v>1565</v>
+        <v>1595</v>
+      </c>
+      <c r="C294" s="267" t="s">
+        <v>1563</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>658</v>
@@ -35549,42 +35548,42 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E295" s="275" t="s">
         <v>1362</v>
-      </c>
-      <c r="E295" s="276" t="s">
-        <v>1363</v>
       </c>
       <c r="F295" s="53"/>
     </row>
     <row r="296" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="180" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B296" s="180"/>
-      <c r="C296" s="261"/>
+      <c r="C296" s="260"/>
       <c r="D296" s="182" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="180" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B297" s="180"/>
-      <c r="C297" s="261"/>
+      <c r="C297" s="260"/>
       <c r="D297" s="182" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E297" s="276" t="s">
-        <v>1629</v>
+        <v>1269</v>
+      </c>
+      <c r="E297" s="275" t="s">
+        <v>1627</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35592,7 +35591,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35601,8 +35600,8 @@
       <c r="D298" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="E298" s="275" t="s">
-        <v>1627</v>
+      <c r="E298" s="274" t="s">
+        <v>1625</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>817</v>
@@ -35610,7 +35609,7 @@
     </row>
     <row r="299" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="181" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B299" s="181"/>
       <c r="C299" s="166" t="s">
@@ -35619,8 +35618,8 @@
       <c r="D299" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E299" s="276" t="s">
-        <v>1628</v>
+      <c r="E299" s="275" t="s">
+        <v>1626</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>817</v>
@@ -35628,7 +35627,7 @@
     </row>
     <row r="300" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="180" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B300" s="180"/>
       <c r="C300" s="176" t="s">
@@ -35638,41 +35637,41 @@
         <v>668</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B303" s="281" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C303" s="282" t="s">
-        <v>1667</v>
+        <v>1644</v>
+      </c>
+      <c r="B303" s="280" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C303" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="F303" s="280" t="s">
+      <c r="F303" s="279" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B304" s="284" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C304" s="282" t="s">
-        <v>1667</v>
+        <v>1661</v>
+      </c>
+      <c r="B304" s="283" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C304" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>716</v>
       </c>
       <c r="E304" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F304" s="121" t="s">
         <v>817</v>
@@ -35683,19 +35682,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B305" s="288" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C305" s="282" t="s">
-        <v>1667</v>
+        <v>1633</v>
+      </c>
+      <c r="B305" s="287" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C305" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E305" s="283" t="s">
-        <v>1634</v>
+      <c r="E305" s="282" t="s">
+        <v>1632</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>817</v>
@@ -35705,20 +35704,20 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="236" t="s">
+      <c r="A306" s="235" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B306" s="286" t="s">
         <v>1636</v>
       </c>
-      <c r="B306" s="287" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C306" s="282" t="s">
-        <v>1667</v>
+      <c r="C306" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>963</v>
       </c>
       <c r="E306" s="83" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F306" s="121" t="s">
         <v>817</v>
@@ -35728,20 +35727,20 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="236" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B307" s="288" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C307" s="282" t="s">
-        <v>1667</v>
+      <c r="A307" s="235" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B307" s="287" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C307" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E307" s="83" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F307" s="121" t="s">
         <v>817</v>
@@ -35751,20 +35750,20 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="236" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B308" s="288" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C308" s="282" t="s">
-        <v>1667</v>
+      <c r="A308" s="235" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B308" s="287" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C308" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>782</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>817</v>
@@ -35774,125 +35773,125 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="236" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B309" s="288" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C309" s="282" t="s">
-        <v>1667</v>
+      <c r="A309" s="235" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B309" s="287" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C309" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>768</v>
       </c>
       <c r="E309" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F309" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G309" s="89" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B310" s="284" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C310" s="282" t="s">
-        <v>1667</v>
+        <v>1659</v>
+      </c>
+      <c r="B310" s="283" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C310" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E310" s="283" t="s">
-        <v>1644</v>
+        <v>1641</v>
+      </c>
+      <c r="E310" s="282" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B311" s="289" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C311" s="282" t="s">
-        <v>1667</v>
+        <v>1662</v>
+      </c>
+      <c r="B311" s="288" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C311" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>746</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G311" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B312" s="283" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C312" s="281" t="s">
         <v>1665</v>
-      </c>
-      <c r="B312" s="284" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C312" s="282" t="s">
-        <v>1667</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>696</v>
       </c>
       <c r="E312" s="130" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F312" s="130"/>
-      <c r="G312" s="226"/>
+      <c r="G312" s="225"/>
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B313" s="289" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C313" s="282" t="s">
-        <v>1667</v>
+        <v>1660</v>
+      </c>
+      <c r="B313" s="288" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C313" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E313" s="276" t="s">
-        <v>1647</v>
+      <c r="E313" s="275" t="s">
+        <v>1645</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G313" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B314" s="285" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C314" s="282" t="s">
-        <v>1667</v>
+        <v>1646</v>
+      </c>
+      <c r="B314" s="284" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C314" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>643</v>
       </c>
       <c r="E314" s="83" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F314" s="121" t="s">
         <v>817</v>
@@ -35903,62 +35902,62 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B315" s="286" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C315" s="282" t="s">
-        <v>1667</v>
+        <v>1664</v>
+      </c>
+      <c r="B315" s="285" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C315" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>666</v>
       </c>
       <c r="E315" s="53" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F315" s="60" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="236" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B316" s="287" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C316" s="282" t="s">
-        <v>1667</v>
+      <c r="A316" s="235" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B316" s="286" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C316" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E316" s="308" t="s">
-        <v>1652</v>
+      <c r="E316" s="307" t="s">
+        <v>1650</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G316" s="276" t="s">
+      <c r="G316" s="275" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B317" s="289" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C317" s="282" t="s">
-        <v>1667</v>
+        <v>1651</v>
+      </c>
+      <c r="B317" s="288" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C317" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E317" s="130" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F317" s="121" t="s">
         <v>86</v>
@@ -35969,19 +35968,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B318" s="288" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C318" s="282" t="s">
-        <v>1667</v>
+        <v>1652</v>
+      </c>
+      <c r="B318" s="287" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C318" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -35992,155 +35991,155 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B319" s="288" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C319" s="282" t="s">
-        <v>1667</v>
+        <v>1654</v>
+      </c>
+      <c r="B319" s="287" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C319" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
       </c>
       <c r="E319" s="83" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G319" s="268"/>
+        <v>1378</v>
+      </c>
+      <c r="G319" s="267"/>
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B320" s="286" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C320" s="282" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B320" s="285" t="s">
         <v>1667</v>
+      </c>
+      <c r="C320" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>662</v>
       </c>
       <c r="E320" s="83" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G320" s="268"/>
+        <v>1377</v>
+      </c>
+      <c r="G320" s="267"/>
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B321" s="289" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C321" s="282" t="s">
-        <v>1667</v>
+        <v>1653</v>
+      </c>
+      <c r="B321" s="288" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C321" s="281" t="s">
+        <v>1665</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>709</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G321" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B322" s="288" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C322" s="291" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D322" s="244" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B322" s="287" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C322" s="290" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D322" s="243" t="s">
         <v>758</v>
       </c>
-      <c r="E322" s="276" t="s">
-        <v>1739</v>
+      <c r="E322" s="275" t="s">
+        <v>1736</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G322" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B323" s="63" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C323" s="290" t="s">
         <v>1690</v>
-      </c>
-      <c r="C323" s="291" t="s">
-        <v>1692</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>780</v>
       </c>
       <c r="E323" s="130" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F323" s="130"/>
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B324" s="177" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C324" s="291" t="s">
-        <v>1692</v>
+        <v>1419</v>
+      </c>
+      <c r="C324" s="290" t="s">
+        <v>1690</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="E324" s="226" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F324" s="226"/>
+      <c r="E324" s="225" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F324" s="225"/>
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B325" s="178" t="s">
         <v>1689</v>
       </c>
-      <c r="B325" s="178" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C325" s="291" t="s">
-        <v>1692</v>
+      <c r="C325" s="290" t="s">
+        <v>1690</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="E325" s="226" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F325" s="226"/>
+      <c r="E325" s="225" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F325" s="225"/>
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B326" s="175" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C326" s="291" t="s">
         <v>1700</v>
       </c>
-      <c r="B326" s="175" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C326" s="292" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D326" s="244" t="s">
+      <c r="D326" s="243" t="s">
         <v>677</v>
       </c>
-      <c r="E326" s="276" t="s">
-        <v>1625</v>
+      <c r="E326" s="275" t="s">
+        <v>1623</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>817</v>
@@ -36150,20 +36149,20 @@
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="242" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B327" s="242" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C327" s="292" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D327" s="244" t="s">
+      <c r="A327" s="241" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B327" s="241" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C327" s="291" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D327" s="243" t="s">
         <v>616</v>
       </c>
-      <c r="E327" s="276" t="s">
-        <v>1683</v>
+      <c r="E327" s="275" t="s">
+        <v>1681</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>817</v>
@@ -36175,19 +36174,19 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C328" s="292" t="s">
-        <v>1702</v>
+        <v>1703</v>
+      </c>
+      <c r="C328" s="291" t="s">
+        <v>1700</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="E328" s="276" t="s">
-        <v>1480</v>
+      <c r="E328" s="275" t="s">
+        <v>1478</v>
       </c>
       <c r="F328" s="60" t="s">
         <v>817</v>
@@ -36198,19 +36197,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B329" s="151" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C329" s="292" t="s">
-        <v>1702</v>
+        <v>1525</v>
+      </c>
+      <c r="C329" s="291" t="s">
+        <v>1700</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E329" s="276" t="s">
-        <v>1616</v>
+      <c r="E329" s="275" t="s">
+        <v>1614</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>817</v>
@@ -36221,19 +36220,19 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B330" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C330" s="293" t="s">
-        <v>1702</v>
+        <v>1520</v>
+      </c>
+      <c r="C330" s="292" t="s">
+        <v>1700</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="E330" s="276" t="s">
-        <v>1478</v>
+      <c r="E330" s="275" t="s">
+        <v>1476</v>
       </c>
       <c r="F330" s="121" t="s">
         <v>817</v>
@@ -36243,20 +36242,20 @@
       </c>
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="236" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B332" s="236" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C332" s="298" t="s">
-        <v>1729</v>
+      <c r="A332" s="235" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B332" s="235" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C332" s="297" t="s">
+        <v>1726</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>993</v>
       </c>
       <c r="E332" s="315" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>817</v>
@@ -36267,16 +36266,16 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B333" s="151" t="s">
         <v>1715</v>
       </c>
-      <c r="B333" s="151" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C333" s="298" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D333" s="244" t="s">
-        <v>1614</v>
+      <c r="C333" s="297" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D333" s="243" t="s">
+        <v>1612</v>
       </c>
       <c r="E333" s="315"/>
       <c r="F333" s="121" t="s">
@@ -36288,16 +36287,16 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B334" s="132" t="s">
         <v>1716</v>
       </c>
-      <c r="B334" s="132" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C334" s="298" t="s">
-        <v>1729</v>
+      <c r="C334" s="297" t="s">
+        <v>1726</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E334" s="315"/>
       <c r="F334" s="121" t="s">
@@ -36308,41 +36307,41 @@
       </c>
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="235" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B335" s="235" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C335" s="298" t="s">
-        <v>1729</v>
+      <c r="A335" s="234" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B335" s="234" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C335" s="297" t="s">
+        <v>1726</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="E335" s="283" t="s">
-        <v>1723</v>
+      <c r="E335" s="282" t="s">
+        <v>1720</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G335" s="243"/>
+      <c r="G335" s="242"/>
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B336" s="132" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C336" s="298" t="s">
-        <v>1729</v>
+        <v>1527</v>
+      </c>
+      <c r="C336" s="297" t="s">
+        <v>1726</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="E336" s="276" t="s">
-        <v>1699</v>
+      <c r="E336" s="275" t="s">
+        <v>1697</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36352,20 +36351,20 @@
       </c>
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="297" t="s">
-        <v>1730</v>
+      <c r="A337" s="296" t="s">
+        <v>1727</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C337" s="298" t="s">
-        <v>1729</v>
+        <v>1718</v>
+      </c>
+      <c r="C337" s="297" t="s">
+        <v>1726</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>879</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>817</v>
@@ -36373,42 +36372,42 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C338" s="298" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D338" s="240" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C338" s="297" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D338" s="239" t="s">
         <v>801</v>
       </c>
       <c r="E338" s="61" t="s">
         <v>1761</v>
       </c>
       <c r="F338" s="170" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G338" s="83" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B339" s="65" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C339" s="297" t="s">
         <v>1726</v>
-      </c>
-      <c r="B339" s="65" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C339" s="298" t="s">
-        <v>1729</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="E339" s="276" t="s">
-        <v>1744</v>
+      <c r="E339" s="275" t="s">
+        <v>1741</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>817</v>
@@ -36419,19 +36418,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B340" s="137" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C340" s="298" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D340" s="240" t="s">
-        <v>1624</v>
+        <v>1725</v>
+      </c>
+      <c r="C340" s="297" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D340" s="239" t="s">
+        <v>1622</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>817</v>
@@ -36442,19 +36441,19 @@
     </row>
     <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="132" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B341" s="132" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C341" s="305" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D341" s="244" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C341" s="304" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D341" s="243" t="s">
         <v>296</v>
       </c>
-      <c r="E341" s="276" t="s">
-        <v>1734</v>
+      <c r="E341" s="275" t="s">
+        <v>1731</v>
       </c>
       <c r="F341" s="121" t="s">
         <v>817</v>
@@ -36464,20 +36463,20 @@
       </c>
     </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="236" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B342" s="236" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C342" s="305" t="s">
-        <v>1750</v>
+      <c r="A342" s="235" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B342" s="235" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C342" s="304" t="s">
+        <v>1747</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E342" s="276" t="s">
-        <v>1411</v>
+      <c r="E342" s="275" t="s">
+        <v>1409</v>
       </c>
       <c r="F342" s="121" t="s">
         <v>817</v>
@@ -36488,24 +36487,24 @@
     </row>
     <row r="343" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="132" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C343" s="58">
         <v>10.6</v>
       </c>
-      <c r="D343" s="244" t="s">
+      <c r="D343" s="243" t="s">
         <v>645</v>
       </c>
-      <c r="E343" s="276" t="s">
-        <v>1743</v>
+      <c r="E343" s="275" t="s">
+        <v>1740</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G343" s="276"/>
+      <c r="G343" s="275"/>
       <c r="H343" s="83"/>
       <c r="U343"/>
       <c r="V343"/>
@@ -36516,24 +36515,24 @@
     </row>
     <row r="344" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="67" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C344" s="54">
         <v>12.21</v>
       </c>
-      <c r="D344" s="244" t="s">
+      <c r="D344" s="243" t="s">
         <v>645</v>
       </c>
-      <c r="E344" s="276" t="s">
-        <v>1743</v>
+      <c r="E344" s="275" t="s">
+        <v>1740</v>
       </c>
       <c r="F344" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G344" s="276" t="s">
+      <c r="G344" s="275" t="s">
         <v>86</v>
       </c>
       <c r="H344" s="83" t="s">
@@ -36541,12 +36540,12 @@
       </c>
     </row>
     <row r="346" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="241" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B346" s="260"/>
+      <c r="A346" s="240" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B346" s="259"/>
       <c r="E346" s="61" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="F346" s="83"/>
       <c r="G346"/>
@@ -36577,30 +36576,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="226" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="225" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="226" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="225" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" style="226" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" style="225" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="231" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="230" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="317" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>359</v>
@@ -36615,13 +36614,13 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="317"/>
       <c r="B3" s="65" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C3" s="132" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D3" s="54">
         <v>11.17</v>
@@ -36634,13 +36633,13 @@
       </c>
       <c r="G3" s="83"/>
     </row>
-    <row r="4" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="317"/>
       <c r="B4" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D4" s="58">
         <v>12.7</v>
@@ -36648,19 +36647,19 @@
       <c r="E4" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="F4" s="226" t="s">
+      <c r="F4" s="225" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="317"/>
       <c r="B5" s="139" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D5" s="225" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D5" s="224" t="s">
         <v>531</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -36671,139 +36670,139 @@
       </c>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" s="245" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="244" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="54"/>
       <c r="E6" s="13"/>
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
     </row>
-    <row r="7" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="230" t="s">
-        <v>1449</v>
+    <row r="7" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="229" t="s">
+        <v>1447</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="13"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="318" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C8" s="229" t="s">
-        <v>1425</v>
+        <v>1430</v>
+      </c>
+      <c r="C8" s="228" t="s">
+        <v>1423</v>
       </c>
       <c r="D8" s="54">
         <v>11.22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="319"/>
       <c r="B9" s="66" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>1426</v>
+        <v>1431</v>
+      </c>
+      <c r="C9" s="228" t="s">
+        <v>1424</v>
       </c>
       <c r="D9" s="54">
         <v>11.22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
       <c r="B10" s="66" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C10" s="229" t="s">
-        <v>1427</v>
+        <v>1432</v>
+      </c>
+      <c r="C10" s="228" t="s">
+        <v>1425</v>
       </c>
       <c r="D10" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="319"/>
       <c r="B11" s="66" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C11" s="229" t="s">
-        <v>1428</v>
+        <v>1433</v>
+      </c>
+      <c r="C11" s="228" t="s">
+        <v>1426</v>
       </c>
       <c r="D11" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="319"/>
       <c r="B12" s="66" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C12" s="229" t="s">
-        <v>1422</v>
+        <v>1434</v>
+      </c>
+      <c r="C12" s="228" t="s">
+        <v>1420</v>
       </c>
       <c r="D12" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="319"/>
       <c r="B13" s="68" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C13" s="229" t="s">
-        <v>1422</v>
+        <v>1435</v>
+      </c>
+      <c r="C13" s="228" t="s">
+        <v>1420</v>
       </c>
       <c r="D13" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="68" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C14" s="229" t="s">
-        <v>1429</v>
+        <v>1436</v>
+      </c>
+      <c r="C14" s="228" t="s">
+        <v>1427</v>
       </c>
       <c r="D14" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="319"/>
       <c r="B15" s="66" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C15" s="229" t="s">
-        <v>1430</v>
+        <v>1437</v>
+      </c>
+      <c r="C15" s="228" t="s">
+        <v>1428</v>
       </c>
       <c r="D15" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="320"/>
       <c r="B16" s="66" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C16" s="229" t="s">
-        <v>1431</v>
+        <v>1438</v>
+      </c>
+      <c r="C16" s="228" t="s">
+        <v>1429</v>
       </c>
       <c r="D16" s="54">
         <v>11.26</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
       <c r="D17" s="54"/>
     </row>
-    <row r="18" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="228" t="s">
-        <v>1601</v>
+    <row r="18" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="227" t="s">
+        <v>1599</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -36823,7 +36822,7 @@
         <v>1212</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -36838,10 +36837,10 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D20" s="54">
         <v>11.18</v>
@@ -36850,10 +36849,10 @@
         <v>658</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>817</v>
@@ -36868,22 +36867,22 @@
     </row>
     <row r="21" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D21" s="58">
         <v>11.9</v>
       </c>
-      <c r="E21" s="240" t="s">
+      <c r="E21" s="239" t="s">
         <v>698</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1242</v>
+        <v>1760</v>
       </c>
       <c r="G21" s="316" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>501</v>
@@ -36902,15 +36901,15 @@
     </row>
     <row r="22" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D22" s="58">
         <v>11.9</v>
       </c>
-      <c r="E22" s="240" t="s">
+      <c r="E22" s="239" t="s">
         <v>698</v>
       </c>
       <c r="F22" s="83" t="s">
@@ -36932,12 +36931,12 @@
       <c r="AA22" s="212"/>
       <c r="AB22" s="212"/>
     </row>
-    <row r="23" spans="1:28" s="226" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D23" s="58">
         <v>12.9</v>
@@ -36946,17 +36945,17 @@
         <v>738</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G23" s="232" t="s">
-        <v>1602</v>
+        <v>1482</v>
+      </c>
+      <c r="G23" s="231" t="s">
+        <v>1600</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="83"/>
     </row>
-    <row r="24" spans="1:28" s="245" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="244" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="54">
@@ -36969,16 +36968,16 @@
         <v>1235</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>1453</v>
-      </c>
-      <c r="H24" s="227" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H24" s="226" t="s">
         <v>86</v>
       </c>
       <c r="I24" s="83"/>
     </row>
-    <row r="25" spans="1:28" s="268" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="267" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="54">
@@ -36988,28 +36987,28 @@
         <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="I25" s="83"/>
     </row>
-    <row r="26" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="226"/>
-      <c r="B27" s="231" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C27" s="226"/>
-      <c r="D27" s="231" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G27" s="226"/>
+      <c r="A27" s="225"/>
+      <c r="B27" s="230" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C27" s="225"/>
+      <c r="D27" s="230" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G27" s="225"/>
       <c r="W27" s="212"/>
       <c r="X27" s="212"/>
       <c r="Y27" s="212"/>
@@ -37018,11 +37017,11 @@
       <c r="AB27" s="212"/>
     </row>
     <row r="28" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="267" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B28" s="302" t="s">
-        <v>1499</v>
+      <c r="A28" s="266" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B28" s="301" t="s">
+        <v>1497</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="166" t="s">
@@ -37046,47 +37045,47 @@
       <c r="AA28" s="212"/>
       <c r="AB28" s="212"/>
     </row>
-    <row r="29" spans="1:28" s="226" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="299" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B29" s="301" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D29" s="226" t="s">
+    <row r="29" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="298" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B29" s="300" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D29" s="225" t="s">
         <v>1223</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>700</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="276"/>
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="275"/>
     </row>
     <row r="31" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="268"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="132"/>
-      <c r="C31" s="268"/>
+      <c r="C31" s="267"/>
       <c r="D31" s="13"/>
       <c r="E31" s="130"/>
       <c r="F31" s="130"/>
       <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="270" t="s">
+      <c r="B32" s="269" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C32" s="270"/>
+      <c r="D32" s="271" t="s">
         <v>1468</v>
-      </c>
-      <c r="C32" s="271"/>
-      <c r="D32" s="272" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C33" s="67">
         <v>6</v>
@@ -37094,23 +37093,23 @@
       <c r="D33" s="54">
         <v>12.17</v>
       </c>
-      <c r="E33" s="240" t="s">
+      <c r="E33" s="239" t="s">
         <v>435</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="281" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="265" t="s">
-        <v>1645</v>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="264" t="s">
+        <v>1643</v>
       </c>
       <c r="C34" s="67">
         <v>18</v>
@@ -37118,26 +37117,26 @@
       <c r="D34" s="54">
         <v>11.19</v>
       </c>
-      <c r="E34" s="240" t="s">
+      <c r="E34" s="239" t="s">
         <v>734</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G34" s="61"/>
       <c r="H34" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I34" s="130" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="254" t="s">
-        <v>1447</v>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="253" t="s">
+        <v>1445</v>
       </c>
       <c r="B35" s="175" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C35" s="65">
         <v>7</v>
@@ -37145,11 +37144,11 @@
       <c r="D35" s="58">
         <v>12.6</v>
       </c>
-      <c r="E35" s="240" t="s">
+      <c r="E35" s="239" t="s">
         <v>783</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="G35" s="61"/>
       <c r="H35" s="121" t="s">
@@ -37159,9 +37158,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="270" t="s">
-        <v>1698</v>
+    <row r="36" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="269" t="s">
+        <v>1696</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="54"/>
@@ -37169,29 +37168,29 @@
       <c r="H36" s="130"/>
       <c r="I36" s="130"/>
     </row>
-    <row r="37" spans="1:9" s="281" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" s="292" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
       <c r="D39" s="54"/>
       <c r="E39" s="13"/>
       <c r="I39" s="130"/>
     </row>
-    <row r="40" spans="1:9" s="260" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="226"/>
-      <c r="B40" s="234" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C40" s="226"/>
+    <row r="40" spans="1:9" s="259" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="225"/>
+      <c r="B40" s="233" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C40" s="225"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="226"/>
+      <c r="G40" s="225"/>
     </row>
     <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="233" t="s">
-        <v>1458</v>
+      <c r="B41" s="232" t="s">
+        <v>1456</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>532</v>
@@ -37205,62 +37204,62 @@
     </row>
     <row r="42" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="260"/>
-      <c r="B43" s="269" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C43" s="260"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="268" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C43" s="259"/>
       <c r="D43" s="58">
         <v>11.8</v>
       </c>
-      <c r="E43" s="260"/>
-      <c r="F43" s="260"/>
-      <c r="G43" s="260"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="259"/>
+      <c r="G43" s="259"/>
       <c r="H43" s="60" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="226"/>
+      <c r="H44" s="225"/>
     </row>
     <row r="45" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="234" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H45" s="226"/>
+      <c r="B45" s="233" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H45" s="225"/>
     </row>
     <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C46" s="226">
+        <v>1458</v>
+      </c>
+      <c r="C46" s="225">
         <v>9</v>
       </c>
       <c r="D46" s="58">
         <v>11.9</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F46" s="168" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G46" s="294"/>
+        <v>1396</v>
+      </c>
+      <c r="G46" s="293"/>
       <c r="H46" s="60" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="274" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="294"/>
+    <row r="47" spans="1:9" s="273" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="293"/>
       <c r="B47" s="65"/>
       <c r="D47" s="58"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="294"/>
-      <c r="H47" s="276"/>
+      <c r="F47" s="293"/>
+      <c r="H47" s="275"/>
     </row>
     <row r="48" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
@@ -37269,30 +37268,30 @@
       <c r="I48" s="83"/>
     </row>
     <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="234" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D49" s="272" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E49" s="272" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F49" s="272" t="s">
-        <v>1612</v>
+      <c r="B49" s="233" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D49" s="271" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E49" s="271" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F49" s="271" t="s">
+        <v>1610</v>
       </c>
       <c r="H49" s="61" t="s">
         <v>514</v>
       </c>
       <c r="I49" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="235" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C50" s="226">
+      <c r="B50" s="234" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C50" s="225">
         <v>2</v>
       </c>
       <c r="D50" s="54">
@@ -37302,22 +37301,22 @@
         <v>664</v>
       </c>
       <c r="F50" s="168" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G50" s="268"/>
+        <v>1601</v>
+      </c>
+      <c r="G50" s="267"/>
       <c r="H50" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I50" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="226"/>
-      <c r="B51" s="235" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C51" s="226">
+      <c r="A51" s="225"/>
+      <c r="B51" s="234" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C51" s="225">
         <v>5</v>
       </c>
       <c r="D51" s="58">
@@ -37327,21 +37326,21 @@
         <v>686</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G51" s="268"/>
+        <v>1464</v>
+      </c>
+      <c r="G51" s="267"/>
       <c r="H51" s="60" t="s">
         <v>817</v>
       </c>
       <c r="I51" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="235" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C52" s="226">
+      <c r="B52" s="234" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C52" s="225">
         <v>5</v>
       </c>
       <c r="D52" s="54">
@@ -37351,20 +37350,20 @@
         <v>705</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G52" s="268" t="s">
-        <v>1610</v>
+        <v>1607</v>
+      </c>
+      <c r="G52" s="267" t="s">
+        <v>1608</v>
       </c>
       <c r="H52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="235" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C53" s="226">
+      <c r="B53" s="234" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C53" s="225">
         <v>1</v>
       </c>
       <c r="D53" s="54">
@@ -37374,17 +37373,17 @@
         <v>741</v>
       </c>
       <c r="F53" s="168" t="s">
-        <v>1617</v>
-      </c>
-      <c r="G53" s="268"/>
+        <v>1615</v>
+      </c>
+      <c r="G53" s="267"/>
       <c r="H53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53"/>
-      <c r="B54" s="235" t="s">
-        <v>1462</v>
+      <c r="B54" s="234" t="s">
+        <v>1460</v>
       </c>
       <c r="C54" s="53">
         <v>4</v>
@@ -37396,47 +37395,47 @@
         <v>773</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G54" s="268"/>
+        <v>1617</v>
+      </c>
+      <c r="G54" s="267"/>
     </row>
     <row r="55" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55" s="236" t="s">
+      <c r="B55" s="235" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="7">
         <v>2</v>
       </c>
-      <c r="D55" s="259" t="s">
+      <c r="D55" s="258" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="237" t="s">
+      <c r="E55" s="236" t="s">
         <v>518</v>
       </c>
       <c r="F55" s="168" t="s">
-        <v>1618</v>
-      </c>
-      <c r="G55" s="268"/>
+        <v>1616</v>
+      </c>
+      <c r="G55" s="267"/>
     </row>
     <row r="56" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="259">
+      <c r="C56" s="258">
         <v>3</v>
       </c>
       <c r="D56" s="54">
         <v>8.24</v>
       </c>
-      <c r="E56" s="262" t="s">
-        <v>1543</v>
+      <c r="E56" s="261" t="s">
+        <v>1541</v>
       </c>
       <c r="F56" s="168" t="s">
         <v>522</v>
       </c>
-      <c r="G56" s="268"/>
+      <c r="G56" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -37456,7 +37455,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37465,7 +37464,7 @@
     <col min="2" max="2" width="7.5546875" style="67" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" style="227" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" style="226" customWidth="1"/>
     <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="83"/>
   </cols>
@@ -37476,7 +37475,7 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -37490,7 +37489,7 @@
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B2" s="132">
         <v>9</v>
@@ -37502,21 +37501,21 @@
         <v>528</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F2" s="260" t="s">
-        <v>1536</v>
+        <v>1477</v>
+      </c>
+      <c r="F2" s="259" t="s">
+        <v>1534</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>817</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B3" s="132">
         <v>10</v>
@@ -37524,14 +37523,14 @@
       <c r="C3" s="54">
         <v>9.24</v>
       </c>
-      <c r="D3" s="240" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E3" s="260" t="s">
-        <v>1537</v>
+      <c r="D3" s="239" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E3" s="259" t="s">
+        <v>1535</v>
       </c>
       <c r="F3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>817</v>
@@ -37542,7 +37541,7 @@
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B4" s="151">
         <v>20</v>
@@ -37553,11 +37552,11 @@
       <c r="D4" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="227" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F4" s="290" t="s">
-        <v>1686</v>
+      <c r="E4" s="226" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F4" s="289" t="s">
+        <v>1684</v>
       </c>
       <c r="G4" s="121" t="s">
         <v>86</v>
@@ -37568,7 +37567,7 @@
     </row>
     <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="178" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B5" s="178">
         <v>39</v>
@@ -37576,14 +37575,14 @@
       <c r="C5" s="58">
         <v>11.3</v>
       </c>
-      <c r="D5" s="240" t="s">
+      <c r="D5" s="239" t="s">
         <v>680</v>
       </c>
-      <c r="E5" s="227" t="s">
-        <v>1757</v>
+      <c r="E5" s="226" t="s">
+        <v>1754</v>
       </c>
       <c r="F5" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>86</v>
@@ -37592,9 +37591,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="239" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B6" s="65">
         <v>5</v>
@@ -37602,14 +37601,14 @@
       <c r="C6" s="54">
         <v>11.13</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="243" t="s">
         <v>706</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>817</v>
@@ -37617,7 +37616,7 @@
     </row>
     <row r="7" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B7" s="132">
         <v>1</v>
@@ -37628,11 +37627,11 @@
       <c r="D7" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="E7" s="227" t="s">
-        <v>1471</v>
+      <c r="E7" s="226" t="s">
+        <v>1469</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>86</v>
@@ -37641,7 +37640,7 @@
     </row>
     <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B8" s="65">
         <v>6</v>
@@ -37649,14 +37648,14 @@
       <c r="C8" s="54">
         <v>11.19</v>
       </c>
-      <c r="D8" s="240" t="s">
+      <c r="D8" s="239" t="s">
         <v>733</v>
       </c>
-      <c r="E8" s="227" t="s">
-        <v>1760</v>
+      <c r="E8" s="226" t="s">
+        <v>1757</v>
       </c>
       <c r="F8" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>553</v>
@@ -37664,7 +37663,7 @@
     </row>
     <row r="9" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B9" s="63">
         <v>5</v>
@@ -37675,11 +37674,11 @@
       <c r="D9" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="E9" s="227" t="s">
-        <v>1759</v>
+      <c r="E9" s="226" t="s">
+        <v>1756</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G9" s="121" t="s">
         <v>86</v>
@@ -37688,7 +37687,7 @@
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B10" s="67">
         <v>12</v>
@@ -37699,22 +37698,22 @@
       <c r="D10" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="E10" s="227" t="s">
-        <v>1763</v>
+      <c r="E10" s="226" t="s">
+        <v>1759</v>
       </c>
       <c r="F10" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="G10" s="60" t="s">
         <v>817</v>
       </c>
       <c r="H10" s="130" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B11" s="67">
         <v>9</v>
@@ -37722,14 +37721,14 @@
       <c r="C11" s="54">
         <v>12.14</v>
       </c>
-      <c r="D11" s="244" t="s">
+      <c r="D11" s="243" t="s">
         <v>850</v>
       </c>
-      <c r="E11" s="227" t="s">
-        <v>1747</v>
-      </c>
-      <c r="F11" s="304" t="s">
-        <v>1747</v>
+      <c r="E11" s="226" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F11" s="303" t="s">
+        <v>1744</v>
       </c>
       <c r="G11" s="88" t="s">
         <v>86</v>
@@ -37738,7 +37737,7 @@
     </row>
     <row r="12" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B12" s="67">
         <v>4</v>
@@ -37747,13 +37746,13 @@
         <v>12.21</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E12" s="227" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F12" s="306" t="s">
-        <v>1753</v>
+        <v>1749</v>
+      </c>
+      <c r="E12" s="226" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F12" s="305" t="s">
+        <v>1750</v>
       </c>
       <c r="G12" s="121" t="s">
         <v>817</v>
@@ -37762,9 +37761,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="237" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B13" s="67">
         <v>3</v>
@@ -37773,13 +37772,13 @@
         <v>1.2</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E13" s="238" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F13" s="260" t="s">
-        <v>1538</v>
+        <v>1474</v>
+      </c>
+      <c r="E13" s="237" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F13" s="259" t="s">
+        <v>1536</v>
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
@@ -37796,7 +37795,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37873,10 +37872,10 @@
         <v>234</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F4" s="183" t="s">
         <v>86</v>
@@ -37943,7 +37942,7 @@
     </row>
     <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>109</v>
@@ -37970,10 +37969,10 @@
         <v>111</v>
       </c>
       <c r="D8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>1391</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>1392</v>
       </c>
       <c r="F8" s="183" t="s">
         <v>86</v>
@@ -37985,16 +37984,16 @@
     </row>
     <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F9" s="183" t="s">
         <v>86</v>
@@ -38165,11 +38164,11 @@
       <c r="A20" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="246" t="s">
+      <c r="C20" s="245" t="s">
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>870</v>
@@ -38189,11 +38188,11 @@
       <c r="B21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C21" s="246" t="s">
+      <c r="C21" s="245" t="s">
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>871</v>
@@ -38211,13 +38210,13 @@
         <v>82</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D22" t="s">
         <v>882</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38228,7 +38227,7 @@
       </c>
       <c r="J22" s="199"/>
       <c r="K22" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="199" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38238,7 +38237,7 @@
         <v>429.41</v>
       </c>
       <c r="K23" s="199" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="84" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38257,17 +38256,17 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="221" t="s">
-        <v>1388</v>
+      <c r="C26" s="325" t="s">
+        <v>1387</v>
       </c>
       <c r="D26" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E26" s="224" t="s">
-        <v>1410</v>
+        <v>1762</v>
+      </c>
+      <c r="E26" s="308" t="s">
+        <v>1762</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G26" s="220" t="s">
         <v>86</v>
@@ -38288,10 +38287,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E27" s="303" t="s">
-        <v>1742</v>
+        <v>1739</v>
+      </c>
+      <c r="E27" s="302" t="s">
+        <v>1739</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38321,10 +38320,10 @@
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E28" s="222" t="s">
-        <v>1551</v>
+        <v>1550</v>
+      </c>
+      <c r="E28" s="221" t="s">
+        <v>1549</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>817</v>
@@ -38354,10 +38353,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E29" s="273" t="s">
-        <v>1615</v>
+        <v>1613</v>
+      </c>
+      <c r="E29" s="272" t="s">
+        <v>1613</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38377,14 +38376,14 @@
       <c r="B30">
         <v>8.19</v>
       </c>
-      <c r="C30" s="246" t="s">
+      <c r="C30" s="245" t="s">
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E30" s="224" t="s">
-        <v>1685</v>
+        <v>1682</v>
+      </c>
+      <c r="E30" s="223" t="s">
+        <v>1683</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38411,10 +38410,10 @@
         <v>979</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E31" s="197" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>817</v>
@@ -38429,16 +38428,16 @@
     </row>
     <row r="32" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D32" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E32" s="223" t="s">
-        <v>1621</v>
+        <v>1618</v>
+      </c>
+      <c r="E32" s="222" t="s">
+        <v>1619</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>817</v>
@@ -38452,8 +38451,8 @@
       <c r="J33" s="199"/>
     </row>
     <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="270" t="s">
-        <v>1698</v>
+      <c r="A34" s="269" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38463,29 +38462,29 @@
       <c r="B35">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C35" s="307" t="s">
-        <v>1387</v>
+      <c r="C35" s="306" t="s">
+        <v>1386</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60" t="s">
         <v>817</v>
       </c>
-      <c r="G35" s="305" t="s">
+      <c r="G35" s="304" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="C36" s="6"/>
-      <c r="F36" s="305"/>
-    </row>
-    <row r="37" spans="1:10" s="300" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="304"/>
+    </row>
+    <row r="37" spans="1:10" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="C37" s="6"/>
-      <c r="F37" s="305"/>
+      <c r="F37" s="304"/>
     </row>
     <row r="38" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
@@ -38533,7 +38532,7 @@
     </row>
     <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>422</v>
@@ -38565,7 +38564,7 @@
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H44">
         <v>453.26</v>
@@ -38587,7 +38586,7 @@
       </c>
       <c r="E45"/>
       <c r="F45" s="199" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H45">
         <v>262.42</v>
@@ -38606,7 +38605,7 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H46">
         <v>226.63</v>
@@ -38633,7 +38632,7 @@
         <v>1022</v>
       </c>
       <c r="F48" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H48">
         <v>411.52</v>
@@ -38672,7 +38671,7 @@
     </row>
     <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -38783,7 +38782,7 @@
     </row>
     <row r="58" spans="1:10" s="53" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B58" s="74"/>
       <c r="G58" s="220"/>
@@ -38810,1398 +38809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C67651-F5E7-40B0-B9CB-A7741661BB0C}">
-  <dimension ref="A1:U35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="53"/>
-    <col min="2" max="2" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.6640625" style="53" customWidth="1"/>
-    <col min="19" max="19" width="41.6640625" style="174" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="140">
-        <v>43614</v>
-      </c>
-      <c r="C2" s="141">
-        <v>811151564362608</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F2" s="53">
-        <v>192</v>
-      </c>
-      <c r="G2" s="53">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H2" s="142">
-        <v>190.85</v>
-      </c>
-      <c r="K2" s="143"/>
-      <c r="M2" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="N2" s="53">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q2" s="54"/>
-      <c r="S2" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="T2" s="53">
-        <v>15180416892</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="140">
-        <v>43671</v>
-      </c>
-      <c r="C3" s="141">
-        <v>811210507601120</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F3" s="53">
-        <v>114</v>
-      </c>
-      <c r="G3" s="53">
-        <v>0.68</v>
-      </c>
-      <c r="H3" s="142">
-        <v>113.32</v>
-      </c>
-      <c r="I3" s="53">
-        <v>18000</v>
-      </c>
-      <c r="J3" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K3" s="143">
-        <v>129.88999999999999</v>
-      </c>
-      <c r="L3" s="53">
-        <f>H3-K3</f>
-        <v>-16.569999999999993</v>
-      </c>
-      <c r="T3" s="53">
-        <v>15056021071</v>
-      </c>
-      <c r="U3" s="53" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
-        <v>3</v>
-      </c>
-      <c r="B4" s="140">
-        <v>43669</v>
-      </c>
-      <c r="C4" s="141">
-        <v>811204083741936</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F4" s="53">
-        <v>168</v>
-      </c>
-      <c r="G4" s="53">
-        <v>1.01</v>
-      </c>
-      <c r="H4" s="142">
-        <v>166.99</v>
-      </c>
-      <c r="I4" s="53">
-        <v>27000</v>
-      </c>
-      <c r="J4" s="53">
-        <v>4000</v>
-      </c>
-      <c r="K4" s="143">
-        <v>188.35</v>
-      </c>
-      <c r="L4" s="53">
-        <f t="shared" ref="L4:L12" si="0">H4-K4</f>
-        <v>-21.359999999999985</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>1069</v>
-      </c>
-      <c r="N4" s="53">
-        <v>142.69999999999999</v>
-      </c>
-      <c r="O4" s="53">
-        <v>5.03</v>
-      </c>
-      <c r="P4" s="53">
-        <v>12.07</v>
-      </c>
-      <c r="Q4" s="54">
-        <f>N4*0.994+L4</f>
-        <v>120.4838</v>
-      </c>
-      <c r="T4" s="53">
-        <v>15201318164</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
-        <v>4</v>
-      </c>
-      <c r="B5" s="140">
-        <v>43734</v>
-      </c>
-      <c r="C5" s="141">
-        <v>811468872954625</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F5" s="53">
-        <v>148</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0.89</v>
-      </c>
-      <c r="H5" s="142">
-        <v>147.11000000000001</v>
-      </c>
-      <c r="I5" s="53">
-        <v>23000</v>
-      </c>
-      <c r="J5" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="143">
-        <v>163.1</v>
-      </c>
-      <c r="L5" s="53">
-        <f t="shared" si="0"/>
-        <v>-15.989999999999981</v>
-      </c>
-      <c r="N5" s="53">
-        <v>43.59</v>
-      </c>
-      <c r="O5" s="53">
-        <v>1.53</v>
-      </c>
-      <c r="P5" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q5" s="54">
-        <f>N5*0.994+L5</f>
-        <v>27.338460000000019</v>
-      </c>
-      <c r="R5" s="53" t="s">
-        <v>644</v>
-      </c>
-      <c r="T5" s="53">
-        <v>13918424554</v>
-      </c>
-      <c r="U5" s="53" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
-        <v>5</v>
-      </c>
-      <c r="B6" s="140">
-        <v>43736</v>
-      </c>
-      <c r="C6" s="141">
-        <v>811478155875818</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F6" s="53">
-        <v>120</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0.72</v>
-      </c>
-      <c r="H6" s="142">
-        <v>119.28</v>
-      </c>
-      <c r="I6" s="53">
-        <v>19000</v>
-      </c>
-      <c r="J6" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K6" s="143">
-        <v>138.93</v>
-      </c>
-      <c r="L6" s="53">
-        <f t="shared" si="0"/>
-        <v>-19.650000000000006</v>
-      </c>
-      <c r="N6" s="53">
-        <v>41.76</v>
-      </c>
-      <c r="Q6" s="54">
-        <f>N6*0.994+L6</f>
-        <v>21.859439999999992</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>1076</v>
-      </c>
-      <c r="T6" s="53">
-        <v>13672747701</v>
-      </c>
-      <c r="U6" s="53" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310">
-        <v>6</v>
-      </c>
-      <c r="B7" s="322">
-        <v>43722</v>
-      </c>
-      <c r="C7" s="323">
-        <v>811421352052079</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E7" s="311" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F7" s="53">
-        <v>96</v>
-      </c>
-      <c r="G7" s="310">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H7" s="324">
-        <v>190.85</v>
-      </c>
-      <c r="I7" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J7" s="310">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="200">
-        <v>205.4</v>
-      </c>
-      <c r="L7" s="310">
-        <f>H7-K7</f>
-        <v>-14.550000000000011</v>
-      </c>
-      <c r="N7" s="321">
-        <v>52.86</v>
-      </c>
-      <c r="O7" s="321">
-        <v>0.6</v>
-      </c>
-      <c r="P7" s="321">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q7" s="309">
-        <f>N7*0.994+L7</f>
-        <v>37.992839999999987</v>
-      </c>
-      <c r="R7" s="311" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S7" s="173"/>
-      <c r="T7" s="310">
-        <v>13420877860</v>
-      </c>
-      <c r="U7" s="311" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="322"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E8" s="311"/>
-      <c r="F8" s="53">
-        <v>96</v>
-      </c>
-      <c r="G8" s="310"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J8" s="310"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="310"/>
-      <c r="N8" s="321">
-        <v>26.43</v>
-      </c>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="311"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="311"/>
-    </row>
-    <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140">
-        <v>43638</v>
-      </c>
-      <c r="C9" s="141">
-        <v>811078301531235</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F9" s="53">
-        <v>96</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H9" s="142">
-        <v>95.42</v>
-      </c>
-      <c r="I9" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J9" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="143">
-        <v>113.14</v>
-      </c>
-      <c r="L9" s="53">
-        <f t="shared" si="0"/>
-        <v>-17.72</v>
-      </c>
-      <c r="N9" s="53">
-        <v>26.24</v>
-      </c>
-      <c r="O9" s="53">
-        <v>1.51</v>
-      </c>
-      <c r="P9" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q9" s="54">
-        <f>N9*0.994+L9</f>
-        <v>8.3625599999999984</v>
-      </c>
-      <c r="T9" s="53">
-        <v>15819660552</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="295">
-        <v>8</v>
-      </c>
-      <c r="B10" s="140">
-        <v>43755</v>
-      </c>
-      <c r="C10" s="141">
-        <v>811548301376903</v>
-      </c>
-      <c r="D10" s="250" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F10" s="53">
-        <v>130</v>
-      </c>
-      <c r="G10" s="53">
-        <v>0.78</v>
-      </c>
-      <c r="H10" s="142">
-        <v>129.22</v>
-      </c>
-      <c r="I10" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J10" s="53">
-        <v>3500</v>
-      </c>
-      <c r="K10" s="143">
-        <v>117.45</v>
-      </c>
-      <c r="L10" s="53">
-        <f t="shared" si="0"/>
-        <v>11.769999999999996</v>
-      </c>
-      <c r="Q10" s="54"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="53">
-        <v>15980115023</v>
-      </c>
-      <c r="U10" s="145" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="295">
-        <v>9</v>
-      </c>
-      <c r="B11" s="140">
-        <v>43749</v>
-      </c>
-      <c r="C11" s="141">
-        <v>811521431838696</v>
-      </c>
-      <c r="D11" s="248" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F11" s="53">
-        <v>308</v>
-      </c>
-      <c r="G11" s="53">
-        <v>1.85</v>
-      </c>
-      <c r="H11" s="142">
-        <v>306.14999999999998</v>
-      </c>
-      <c r="I11" s="53">
-        <v>50000</v>
-      </c>
-      <c r="J11" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K11" s="143">
-        <v>327.20999999999998</v>
-      </c>
-      <c r="L11" s="53">
-        <f t="shared" si="0"/>
-        <v>-21.060000000000002</v>
-      </c>
-      <c r="N11" s="53">
-        <v>117.45</v>
-      </c>
-      <c r="O11" s="53">
-        <v>1.82</v>
-      </c>
-      <c r="P11" s="53">
-        <v>12.07</v>
-      </c>
-      <c r="Q11" s="54">
-        <f>N11*0.994+L11</f>
-        <v>95.685299999999998</v>
-      </c>
-      <c r="R11" s="53" t="s">
-        <v>1090</v>
-      </c>
-      <c r="S11" s="174" t="s">
-        <v>1490</v>
-      </c>
-      <c r="T11" s="53">
-        <v>13705761067</v>
-      </c>
-      <c r="U11" s="145" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="310">
-        <v>10</v>
-      </c>
-      <c r="B12" s="322">
-        <v>43764</v>
-      </c>
-      <c r="C12" s="323">
-        <v>811587551684293</v>
-      </c>
-      <c r="D12" s="150" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E12" s="311" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F12" s="53">
-        <v>126</v>
-      </c>
-      <c r="G12" s="310">
-        <v>1.51</v>
-      </c>
-      <c r="H12" s="324">
-        <v>250.49</v>
-      </c>
-      <c r="I12" s="138">
-        <v>20000</v>
-      </c>
-      <c r="J12" s="310">
-        <v>3000</v>
-      </c>
-      <c r="K12" s="200">
-        <v>267.39999999999998</v>
-      </c>
-      <c r="L12" s="310">
-        <f t="shared" si="0"/>
-        <v>-16.909999999999968</v>
-      </c>
-      <c r="N12" s="310">
-        <v>51.42</v>
-      </c>
-      <c r="Q12" s="309">
-        <f>N12*0.994+L12</f>
-        <v>34.201480000000032</v>
-      </c>
-      <c r="R12" s="311" t="s">
-        <v>1094</v>
-      </c>
-      <c r="S12" s="173"/>
-      <c r="T12" s="310">
-        <v>18108291464</v>
-      </c>
-      <c r="U12" s="311" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="310"/>
-      <c r="B13" s="322"/>
-      <c r="C13" s="323"/>
-      <c r="D13" s="150" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E13" s="311"/>
-      <c r="F13" s="53">
-        <v>126</v>
-      </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="138">
-        <v>20000</v>
-      </c>
-      <c r="J13" s="310"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="310"/>
-      <c r="N13" s="310"/>
-      <c r="Q13" s="309"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="310"/>
-      <c r="U13" s="311"/>
-    </row>
-    <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
-        <v>11</v>
-      </c>
-      <c r="B14" s="140">
-        <v>43775</v>
-      </c>
-      <c r="C14" s="141">
-        <v>811639461515251</v>
-      </c>
-      <c r="D14" s="150" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F14" s="53">
-        <v>147</v>
-      </c>
-      <c r="G14" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="H14" s="142">
-        <v>146.12</v>
-      </c>
-      <c r="I14" s="53">
-        <v>22000</v>
-      </c>
-      <c r="K14" s="143">
-        <v>139.74</v>
-      </c>
-      <c r="L14" s="53">
-        <f t="shared" ref="L14:L21" si="1">H14-K14</f>
-        <v>6.3799999999999955</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>1099</v>
-      </c>
-      <c r="N14" s="53">
-        <v>12.55</v>
-      </c>
-      <c r="Q14" s="54">
-        <f t="shared" ref="Q14:Q19" si="2">N14*0.994+L14</f>
-        <v>18.854699999999994</v>
-      </c>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146" t="s">
-        <v>1258</v>
-      </c>
-      <c r="T14" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>12</v>
-      </c>
-      <c r="B15" s="140">
-        <v>43767</v>
-      </c>
-      <c r="C15" s="141">
-        <v>811603150703150</v>
-      </c>
-      <c r="D15" s="150" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F15" s="53">
-        <v>126</v>
-      </c>
-      <c r="G15" s="53">
-        <v>0.76</v>
-      </c>
-      <c r="H15" s="142">
-        <v>125.24</v>
-      </c>
-      <c r="I15" s="53">
-        <v>20000</v>
-      </c>
-      <c r="J15" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K15" s="143">
-        <v>145.82</v>
-      </c>
-      <c r="L15" s="53">
-        <f t="shared" si="1"/>
-        <v>-20.58</v>
-      </c>
-      <c r="N15" s="53">
-        <v>45.33</v>
-      </c>
-      <c r="Q15" s="54">
-        <f t="shared" si="2"/>
-        <v>24.478020000000001</v>
-      </c>
-      <c r="R15" s="53" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S15" s="174" t="s">
-        <v>1496</v>
-      </c>
-      <c r="T15" s="53">
-        <v>15603608839</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
-        <v>13</v>
-      </c>
-      <c r="B16" s="140">
-        <v>43767</v>
-      </c>
-      <c r="C16" s="141">
-        <v>811604273035278</v>
-      </c>
-      <c r="D16" s="150" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F16" s="53">
-        <v>126</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0.76</v>
-      </c>
-      <c r="H16" s="142">
-        <v>125.24</v>
-      </c>
-      <c r="I16" s="53">
-        <v>20000</v>
-      </c>
-      <c r="J16" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K16" s="143">
-        <v>145.82</v>
-      </c>
-      <c r="L16" s="53">
-        <f t="shared" si="1"/>
-        <v>-20.58</v>
-      </c>
-      <c r="N16" s="53">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="O16" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="P16" s="53">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q16" s="54">
-        <f t="shared" si="2"/>
-        <v>16.67512</v>
-      </c>
-      <c r="R16" s="53" t="s">
-        <v>1103</v>
-      </c>
-      <c r="T16" s="53">
-        <v>15062270909</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="295">
-        <v>14</v>
-      </c>
-      <c r="B17" s="140">
-        <v>43749</v>
-      </c>
-      <c r="C17" s="141">
-        <v>811521431838696</v>
-      </c>
-      <c r="D17" s="248" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F17" s="53">
-        <v>152</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="H17" s="142">
-        <v>151.09</v>
-      </c>
-      <c r="I17" s="53">
-        <v>24000</v>
-      </c>
-      <c r="J17" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K17" s="143">
-        <v>170.13</v>
-      </c>
-      <c r="L17" s="53">
-        <f t="shared" si="1"/>
-        <v>-19.039999999999992</v>
-      </c>
-      <c r="N17" s="53">
-        <v>69.73</v>
-      </c>
-      <c r="Q17" s="54">
-        <f t="shared" si="2"/>
-        <v>50.271620000000013</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>1109</v>
-      </c>
-      <c r="S17" s="174" t="s">
-        <v>1489</v>
-      </c>
-      <c r="T17" s="53">
-        <v>13705761067</v>
-      </c>
-      <c r="U17" s="53" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="295">
-        <v>15</v>
-      </c>
-      <c r="B18" s="140">
-        <v>43793</v>
-      </c>
-      <c r="C18" s="141">
-        <v>811719362438608</v>
-      </c>
-      <c r="D18" s="253" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F18" s="53">
-        <v>275.60000000000002</v>
-      </c>
-      <c r="G18" s="53">
-        <v>1.65</v>
-      </c>
-      <c r="H18" s="142">
-        <v>273.95</v>
-      </c>
-      <c r="I18" s="53">
-        <v>40000</v>
-      </c>
-      <c r="J18" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K18" s="143">
-        <v>265.04000000000002</v>
-      </c>
-      <c r="L18" s="53">
-        <f t="shared" si="1"/>
-        <v>8.9099999999999682</v>
-      </c>
-      <c r="N18" s="53">
-        <v>11.32</v>
-      </c>
-      <c r="O18" s="53">
-        <v>1</v>
-      </c>
-      <c r="P18" s="53">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="Q18" s="54">
-        <f t="shared" si="2"/>
-        <v>20.162079999999968</v>
-      </c>
-      <c r="R18" s="53" t="s">
-        <v>1755</v>
-      </c>
-      <c r="T18" s="53">
-        <v>13187381112</v>
-      </c>
-      <c r="U18" s="53" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
-        <v>16</v>
-      </c>
-      <c r="B19" s="140">
-        <v>43788</v>
-      </c>
-      <c r="C19" s="141">
-        <v>811719362438608</v>
-      </c>
-      <c r="D19" s="150" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F19" s="53">
-        <v>137.02000000000001</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0.82</v>
-      </c>
-      <c r="H19" s="142">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="I19" s="53">
-        <v>20000</v>
-      </c>
-      <c r="K19" s="143">
-        <v>127.21</v>
-      </c>
-      <c r="L19" s="53">
-        <f t="shared" si="1"/>
-        <v>8.9899999999999949</v>
-      </c>
-      <c r="N19" s="53">
-        <v>12.9</v>
-      </c>
-      <c r="Q19" s="54">
-        <f t="shared" si="2"/>
-        <v>21.812599999999996</v>
-      </c>
-      <c r="R19" s="53" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T19" s="53">
-        <v>17825966284</v>
-      </c>
-      <c r="U19" s="53" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="295">
-        <v>17</v>
-      </c>
-      <c r="D20" s="251" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I20" s="53">
-        <v>11000</v>
-      </c>
-      <c r="K20" s="143">
-        <v>72.67</v>
-      </c>
-      <c r="L20" s="199">
-        <f t="shared" si="1"/>
-        <v>-72.67</v>
-      </c>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="61" t="s">
-        <v>1233</v>
-      </c>
-      <c r="S20" s="226"/>
-      <c r="T20" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U20" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
-        <v>18</v>
-      </c>
-      <c r="B21" s="140">
-        <v>43796</v>
-      </c>
-      <c r="C21" s="141">
-        <v>811734286315507</v>
-      </c>
-      <c r="D21" s="150" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="53">
-        <v>18000</v>
-      </c>
-      <c r="K21" s="143">
-        <v>115.09</v>
-      </c>
-      <c r="L21" s="53">
-        <f t="shared" si="1"/>
-        <v>-115.09</v>
-      </c>
-      <c r="N21" s="53">
-        <v>130.78</v>
-      </c>
-      <c r="Q21" s="54">
-        <f>N21*0.994+L21</f>
-        <v>14.905319999999989</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="T21" s="53">
-        <v>18173757621</v>
-      </c>
-      <c r="U21" s="53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="52" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
-        <v>19</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I22" s="52">
-        <v>15000</v>
-      </c>
-      <c r="T22" s="52">
-        <v>18173757621</v>
-      </c>
-      <c r="U22" s="52" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="295">
-        <v>20</v>
-      </c>
-      <c r="D23" s="251" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F23" s="53">
-        <v>123.45</v>
-      </c>
-      <c r="G23" s="54">
-        <f>F23*0.006</f>
-        <v>0.74070000000000003</v>
-      </c>
-      <c r="H23" s="147">
-        <f>F23*0.994</f>
-        <v>122.7093</v>
-      </c>
-      <c r="I23" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J23" s="53">
-        <v>3500</v>
-      </c>
-      <c r="K23" s="143">
-        <v>117.45</v>
-      </c>
-      <c r="L23" s="54">
-        <f>H23-K23</f>
-        <v>5.2592999999999961</v>
-      </c>
-      <c r="N23" s="53">
-        <v>7.75</v>
-      </c>
-      <c r="Q23" s="54">
-        <f>N23*0.994+L23</f>
-        <v>12.962799999999996</v>
-      </c>
-      <c r="R23" s="53" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>21</v>
-      </c>
-      <c r="D24" s="252" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F24" s="53">
-        <v>105.63</v>
-      </c>
-      <c r="G24" s="54">
-        <f>F24*0.006</f>
-        <v>0.63378000000000001</v>
-      </c>
-      <c r="H24" s="147">
-        <f>F24*0.994</f>
-        <v>104.99621999999999</v>
-      </c>
-      <c r="I24" s="53">
-        <v>15000</v>
-      </c>
-      <c r="J24" s="53">
-        <v>3000</v>
-      </c>
-      <c r="K24" s="143">
-        <v>115.09</v>
-      </c>
-      <c r="L24" s="54">
-        <f>H24-K24</f>
-        <v>-10.09378000000001</v>
-      </c>
-      <c r="N24" s="53">
-        <v>27.39</v>
-      </c>
-      <c r="Q24" s="54">
-        <f>N24*0.994+L24</f>
-        <v>17.131879999999992</v>
-      </c>
-      <c r="R24" s="83" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="295">
-        <v>22</v>
-      </c>
-      <c r="B25" s="295" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D25" s="251" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E25" s="164" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F25" s="53">
-        <v>49.39</v>
-      </c>
-      <c r="G25" s="54">
-        <f>F25*0.006</f>
-        <v>0.29633999999999999</v>
-      </c>
-      <c r="H25" s="147">
-        <f>F25*0.994</f>
-        <v>49.09366</v>
-      </c>
-      <c r="I25" s="53">
-        <v>6500</v>
-      </c>
-      <c r="K25" s="143">
-        <v>45.39</v>
-      </c>
-      <c r="L25" s="54">
-        <f>H25-K25</f>
-        <v>3.7036599999999993</v>
-      </c>
-      <c r="R25" s="83" t="s">
-        <v>1269</v>
-      </c>
-      <c r="S25" s="83"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="295">
-        <v>23</v>
-      </c>
-      <c r="B26" s="295" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D26" s="251" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E26" s="167" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R26" s="83" t="s">
-        <v>1266</v>
-      </c>
-      <c r="S26" s="83"/>
-    </row>
-    <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="247" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="247" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="249" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="253" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="199">
-        <f>SUM(H2,H4,H5,H6,H7,H9,H12,H14,H16,H19,H21,H23,H24)</f>
-        <v>1796.2555200000002</v>
-      </c>
-      <c r="K33" s="53">
-        <f>SUM(K2,K4,K5,K6,K7,K9,K12,K14,K16,K19,K21,K23,K24)</f>
-        <v>1836.7199999999998</v>
-      </c>
-      <c r="N33" s="199">
-        <f>SUM(N2:N32)</f>
-        <v>876.28</v>
-      </c>
-      <c r="O33" s="199">
-        <f>SUM(O2:O32)</f>
-        <v>12.39</v>
-      </c>
-      <c r="P33" s="199">
-        <f>SUM(P2:P32)</f>
-        <v>65.39</v>
-      </c>
-      <c r="Q33" s="54">
-        <f>SUM(Q2:Q32)</f>
-        <v>543.17801999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M35" s="149" t="s">
-        <v>1122</v>
-      </c>
-      <c r="R35" s="53" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="..\..\Desktop\txt\图\代收代付\8.jpg" xr:uid="{72BD73E6-C8E8-4B76-85CC-1527316FAFCA}"/>
-    <hyperlink ref="A20" r:id="rId2" display="..\..\Desktop\txt\图\代收代付\17 有生之年_南城北海.jpg" xr:uid="{200BB495-F57D-46FD-AE9C-2DFAB1737904}"/>
-    <hyperlink ref="A23" r:id="rId3" display="..\..\Desktop\txt\图\代收代付\20 有生之年_南城北海.png" xr:uid="{99536BE8-5D05-47B3-AF56-6435B31AA441}"/>
-    <hyperlink ref="A25" r:id="rId4" display="..\..\Desktop\txt\图\代收代付\22.jpg" xr:uid="{DB39A7AF-2570-433C-963F-FC6D7E93E1CE}"/>
-    <hyperlink ref="B25" r:id="rId5" display="..\..\Desktop\txt\图\代收代付\22（2）.jpg" xr:uid="{9F4F5360-6936-4109-A7F8-AE212284103E}"/>
-    <hyperlink ref="A26" r:id="rId6" display="..\..\Desktop\txt\图\代收代付\23.jpg" xr:uid="{9CF3F4B6-5135-4DF2-B6FC-98DCE658DE3D}"/>
-    <hyperlink ref="B26" r:id="rId7" xr:uid="{7C980615-114C-46CD-A43D-51FF56BD5EA4}"/>
-    <hyperlink ref="A18" r:id="rId8" display="..\..\Desktop\txt\图\代收代付\15.jpg" xr:uid="{11ACB67D-17AC-4530-93AF-EB22E8375830}"/>
-    <hyperlink ref="A17" r:id="rId9" display="..\..\Desktop\txt\图\代收代付\14 朱映晓, 文彬 BINSCENT. 2020 Season's Greeting.PNG" xr:uid="{6A975F6D-5E3B-4934-A735-AC8128C9B465}"/>
-    <hyperlink ref="A11" r:id="rId10" display="..\..\Desktop\txt\图\代收代付\9 朱映晓, 文彬 🌙✨2020 SEASON'S GREETING  (台历+毛毯).PNG" xr:uid="{B4874BD5-9BF6-43D9-A429-1FC8570821AF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56681,7 +55293,7 @@
         <v>1621.99</v>
       </c>
       <c r="P3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
@@ -56714,7 +55326,7 @@
         <v>15057.1</v>
       </c>
       <c r="P4" s="199" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -56747,7 +55359,7 @@
         <v>10854</v>
       </c>
       <c r="P5" s="199" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -56823,7 +55435,7 @@
         <v>1244.54</v>
       </c>
       <c r="P8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
@@ -56856,7 +55468,7 @@
         <v>13847.08</v>
       </c>
       <c r="P9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -56887,7 +55499,7 @@
         <v>8068</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -57005,7 +55617,7 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="17" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -57029,7 +55641,7 @@
         <v>171</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="O17" s="53">
         <v>64.7</v>
@@ -57466,7 +56078,7 @@
         <v>43840</v>
       </c>
       <c r="G39" s="95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H39" s="118">
         <v>999.94</v>
@@ -57506,11 +56118,11 @@
       <c r="C47">
         <v>325.18</v>
       </c>
-      <c r="F47" s="278" t="s">
-        <v>1482</v>
+      <c r="F47" s="277" t="s">
+        <v>1480</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -57522,7 +56134,7 @@
         <v>504</v>
       </c>
       <c r="M47" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -57532,11 +56144,11 @@
       <c r="C48">
         <v>30.69</v>
       </c>
-      <c r="F48" s="278">
+      <c r="F48" s="277">
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -57549,22 +56161,22 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="278">
+      <c r="B49" s="277">
         <v>43961</v>
       </c>
       <c r="C49">
         <v>62.48</v>
       </c>
-      <c r="F49" s="278">
+      <c r="F49" s="277">
         <v>43959</v>
       </c>
-      <c r="G49" s="277" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H49" s="279">
+      <c r="G49" s="276" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H49" s="278">
         <v>296</v>
       </c>
-      <c r="K49" s="278">
+      <c r="K49" s="277">
         <v>43960</v>
       </c>
       <c r="L49">
@@ -57572,22 +56184,22 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="278">
+      <c r="B50" s="277">
         <v>43984</v>
       </c>
       <c r="C50">
         <v>37.200000000000003</v>
       </c>
-      <c r="F50" s="278">
+      <c r="F50" s="277">
         <v>43964</v>
       </c>
-      <c r="G50" s="277" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H50" s="279">
+      <c r="G50" s="276" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H50" s="278">
         <v>295</v>
       </c>
-      <c r="K50" s="278">
+      <c r="K50" s="277">
         <v>43962</v>
       </c>
       <c r="L50">
@@ -57595,22 +56207,22 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="278">
+      <c r="B51" s="277">
         <v>43987</v>
       </c>
       <c r="C51">
         <v>43.65</v>
       </c>
-      <c r="F51" s="278">
+      <c r="F51" s="277">
         <v>43969</v>
       </c>
-      <c r="G51" s="277" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H51" s="279">
+      <c r="G51" s="276" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H51" s="278">
         <v>245</v>
       </c>
-      <c r="K51" s="278">
+      <c r="K51" s="277">
         <v>43964</v>
       </c>
       <c r="L51">
@@ -57618,53 +56230,53 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="278">
+      <c r="B52" s="277">
         <v>43987</v>
       </c>
       <c r="C52">
         <v>29.04</v>
       </c>
-      <c r="F52" s="278">
+      <c r="F52" s="277">
         <v>43979</v>
       </c>
-      <c r="G52" s="277" t="s">
-        <v>1737</v>
-      </c>
-      <c r="H52" s="279">
+      <c r="G52" s="276" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H52" s="278">
         <v>148</v>
       </c>
-      <c r="K52" s="278">
+      <c r="K52" s="277">
         <v>43965</v>
       </c>
       <c r="L52">
         <v>372</v>
       </c>
-      <c r="M52" s="296" t="s">
-        <v>1695</v>
+      <c r="M52" s="295" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="278">
+      <c r="F53" s="277">
         <v>43984</v>
       </c>
-      <c r="G53" s="277" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H53" s="279">
+      <c r="G53" s="276" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H53" s="278">
         <v>395</v>
       </c>
-      <c r="K53" s="278">
+      <c r="K53" s="277">
         <v>43968</v>
       </c>
       <c r="L53">
         <v>448</v>
       </c>
-      <c r="M53" s="296" t="s">
-        <v>1696</v>
+      <c r="M53" s="295" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K54" s="278">
+      <c r="K54" s="277">
         <v>43971</v>
       </c>
       <c r="L54">
@@ -57675,7 +56287,7 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="278">
+      <c r="K55" s="277">
         <v>43977</v>
       </c>
       <c r="L55">
@@ -57686,7 +56298,7 @@
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K56" s="278">
+      <c r="K56" s="277">
         <v>43979</v>
       </c>
       <c r="L56">
@@ -57697,7 +56309,7 @@
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K57" s="278">
+      <c r="K57" s="277">
         <v>43986</v>
       </c>
       <c r="L57">
@@ -57708,7 +56320,7 @@
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K58" s="278">
+      <c r="K58" s="277">
         <v>43988</v>
       </c>
       <c r="L58">
@@ -57719,14 +56331,25 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K59" s="278">
-        <v>43989</v>
+      <c r="K59" s="277">
+        <v>43991</v>
       </c>
       <c r="L59">
         <v>72</v>
       </c>
       <c r="M59" s="58">
         <v>6.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K60" s="277">
+        <v>43992</v>
+      </c>
+      <c r="L60">
+        <v>271</v>
+      </c>
+      <c r="M60" s="58">
+        <v>6.9</v>
       </c>
     </row>
     <row r="62" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -57749,7 +56372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3008D6-7A28-47EA-9B79-501203D2FE35}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -58371,98 +56994,98 @@
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>1367</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>1368</v>
-      </c>
       <c r="D18" s="53" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="216" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>1372</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="216" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>1374</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>1544</v>
       </c>
-      <c r="C23" s="53" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D23" s="260" t="s">
-        <v>1545</v>
+      <c r="D23" s="259" t="s">
+        <v>1543</v>
       </c>
     </row>
   </sheetData>
@@ -58470,4 +57093,1391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C67651-F5E7-40B0-B9CB-A7741661BB0C}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="53"/>
+    <col min="2" max="2" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.6640625" style="53" customWidth="1"/>
+    <col min="19" max="19" width="41.6640625" style="174" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="140">
+        <v>43614</v>
+      </c>
+      <c r="C2" s="141">
+        <v>811151564362608</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F2" s="53">
+        <v>192</v>
+      </c>
+      <c r="G2" s="53">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H2" s="142">
+        <v>190.85</v>
+      </c>
+      <c r="K2" s="143"/>
+      <c r="M2" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N2" s="53">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="S2" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T2" s="53">
+        <v>15180416892</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>2</v>
+      </c>
+      <c r="B3" s="140">
+        <v>43671</v>
+      </c>
+      <c r="C3" s="141">
+        <v>811210507601120</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F3" s="53">
+        <v>114</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="H3" s="142">
+        <v>113.32</v>
+      </c>
+      <c r="I3" s="53">
+        <v>18000</v>
+      </c>
+      <c r="J3" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="143">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="L3" s="53">
+        <f>H3-K3</f>
+        <v>-16.569999999999993</v>
+      </c>
+      <c r="T3" s="53">
+        <v>15056021071</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>3</v>
+      </c>
+      <c r="B4" s="140">
+        <v>43669</v>
+      </c>
+      <c r="C4" s="141">
+        <v>811204083741936</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F4" s="53">
+        <v>168</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1.01</v>
+      </c>
+      <c r="H4" s="142">
+        <v>166.99</v>
+      </c>
+      <c r="I4" s="53">
+        <v>27000</v>
+      </c>
+      <c r="J4" s="53">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="143">
+        <v>188.35</v>
+      </c>
+      <c r="L4" s="53">
+        <f t="shared" ref="L4:L12" si="0">H4-K4</f>
+        <v>-21.359999999999985</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N4" s="53">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="O4" s="53">
+        <v>5.03</v>
+      </c>
+      <c r="P4" s="53">
+        <v>12.07</v>
+      </c>
+      <c r="Q4" s="54">
+        <f>N4*0.994+L4</f>
+        <v>120.4838</v>
+      </c>
+      <c r="T4" s="53">
+        <v>15201318164</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>4</v>
+      </c>
+      <c r="B5" s="140">
+        <v>43734</v>
+      </c>
+      <c r="C5" s="141">
+        <v>811468872954625</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F5" s="53">
+        <v>148</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.89</v>
+      </c>
+      <c r="H5" s="142">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="I5" s="53">
+        <v>23000</v>
+      </c>
+      <c r="J5" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="143">
+        <v>163.1</v>
+      </c>
+      <c r="L5" s="53">
+        <f t="shared" si="0"/>
+        <v>-15.989999999999981</v>
+      </c>
+      <c r="N5" s="53">
+        <v>43.59</v>
+      </c>
+      <c r="O5" s="53">
+        <v>1.53</v>
+      </c>
+      <c r="P5" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q5" s="54">
+        <f>N5*0.994+L5</f>
+        <v>27.338460000000019</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="T5" s="53">
+        <v>13918424554</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="140">
+        <v>43736</v>
+      </c>
+      <c r="C6" s="141">
+        <v>811478155875818</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F6" s="53">
+        <v>120</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.72</v>
+      </c>
+      <c r="H6" s="142">
+        <v>119.28</v>
+      </c>
+      <c r="I6" s="53">
+        <v>19000</v>
+      </c>
+      <c r="J6" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K6" s="143">
+        <v>138.93</v>
+      </c>
+      <c r="L6" s="53">
+        <f t="shared" si="0"/>
+        <v>-19.650000000000006</v>
+      </c>
+      <c r="N6" s="53">
+        <v>41.76</v>
+      </c>
+      <c r="Q6" s="54">
+        <f>N6*0.994+L6</f>
+        <v>21.859439999999992</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T6" s="53">
+        <v>13672747701</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="310">
+        <v>6</v>
+      </c>
+      <c r="B7" s="321">
+        <v>43722</v>
+      </c>
+      <c r="C7" s="322">
+        <v>811421352052079</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E7" s="309" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F7" s="53">
+        <v>96</v>
+      </c>
+      <c r="G7" s="310">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="323">
+        <v>190.85</v>
+      </c>
+      <c r="I7" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="310">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="200">
+        <v>205.4</v>
+      </c>
+      <c r="L7" s="310">
+        <f>H7-K7</f>
+        <v>-14.550000000000011</v>
+      </c>
+      <c r="N7" s="324">
+        <v>52.86</v>
+      </c>
+      <c r="O7" s="324">
+        <v>0.6</v>
+      </c>
+      <c r="P7" s="324">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q7" s="311">
+        <f>N7*0.994+L7</f>
+        <v>37.992839999999987</v>
+      </c>
+      <c r="R7" s="309" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S7" s="173"/>
+      <c r="T7" s="310">
+        <v>13420877860</v>
+      </c>
+      <c r="U7" s="309" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="310"/>
+      <c r="B8" s="321"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="43" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E8" s="309"/>
+      <c r="F8" s="53">
+        <v>96</v>
+      </c>
+      <c r="G8" s="310"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="310"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="310"/>
+      <c r="N8" s="324">
+        <v>26.43</v>
+      </c>
+      <c r="O8" s="324"/>
+      <c r="P8" s="324"/>
+      <c r="Q8" s="311"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="309"/>
+    </row>
+    <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140">
+        <v>43638</v>
+      </c>
+      <c r="C9" s="141">
+        <v>811078301531235</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F9" s="53">
+        <v>96</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H9" s="142">
+        <v>95.42</v>
+      </c>
+      <c r="I9" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J9" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="143">
+        <v>113.14</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="0"/>
+        <v>-17.72</v>
+      </c>
+      <c r="N9" s="53">
+        <v>26.24</v>
+      </c>
+      <c r="O9" s="53">
+        <v>1.51</v>
+      </c>
+      <c r="P9" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q9" s="54">
+        <f>N9*0.994+L9</f>
+        <v>8.3625599999999984</v>
+      </c>
+      <c r="T9" s="53">
+        <v>15819660552</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="294">
+        <v>8</v>
+      </c>
+      <c r="B10" s="140">
+        <v>43755</v>
+      </c>
+      <c r="C10" s="141">
+        <v>811548301376903</v>
+      </c>
+      <c r="D10" s="249" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F10" s="53">
+        <v>130</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.78</v>
+      </c>
+      <c r="H10" s="142">
+        <v>129.22</v>
+      </c>
+      <c r="I10" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J10" s="53">
+        <v>3500</v>
+      </c>
+      <c r="K10" s="143">
+        <v>117.45</v>
+      </c>
+      <c r="L10" s="53">
+        <f t="shared" si="0"/>
+        <v>11.769999999999996</v>
+      </c>
+      <c r="Q10" s="54"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="53">
+        <v>15980115023</v>
+      </c>
+      <c r="U10" s="145" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="294">
+        <v>9</v>
+      </c>
+      <c r="B11" s="140">
+        <v>43749</v>
+      </c>
+      <c r="C11" s="141">
+        <v>811521431838696</v>
+      </c>
+      <c r="D11" s="247" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F11" s="53">
+        <v>308</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1.85</v>
+      </c>
+      <c r="H11" s="142">
+        <v>306.14999999999998</v>
+      </c>
+      <c r="I11" s="53">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="143">
+        <v>327.20999999999998</v>
+      </c>
+      <c r="L11" s="53">
+        <f t="shared" si="0"/>
+        <v>-21.060000000000002</v>
+      </c>
+      <c r="N11" s="53">
+        <v>117.45</v>
+      </c>
+      <c r="O11" s="53">
+        <v>1.82</v>
+      </c>
+      <c r="P11" s="53">
+        <v>12.07</v>
+      </c>
+      <c r="Q11" s="54">
+        <f>N11*0.994+L11</f>
+        <v>95.685299999999998</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S11" s="174" t="s">
+        <v>1488</v>
+      </c>
+      <c r="T11" s="53">
+        <v>13705761067</v>
+      </c>
+      <c r="U11" s="145" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="310">
+        <v>10</v>
+      </c>
+      <c r="B12" s="321">
+        <v>43764</v>
+      </c>
+      <c r="C12" s="322">
+        <v>811587551684293</v>
+      </c>
+      <c r="D12" s="150" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E12" s="309" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F12" s="53">
+        <v>126</v>
+      </c>
+      <c r="G12" s="310">
+        <v>1.51</v>
+      </c>
+      <c r="H12" s="323">
+        <v>250.49</v>
+      </c>
+      <c r="I12" s="138">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="310">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="200">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="L12" s="310">
+        <f t="shared" si="0"/>
+        <v>-16.909999999999968</v>
+      </c>
+      <c r="N12" s="310">
+        <v>51.42</v>
+      </c>
+      <c r="Q12" s="311">
+        <f>N12*0.994+L12</f>
+        <v>34.201480000000032</v>
+      </c>
+      <c r="R12" s="309" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S12" s="173"/>
+      <c r="T12" s="310">
+        <v>18108291464</v>
+      </c>
+      <c r="U12" s="309" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="310"/>
+      <c r="B13" s="321"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="150" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E13" s="309"/>
+      <c r="F13" s="53">
+        <v>126</v>
+      </c>
+      <c r="G13" s="310"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="138">
+        <v>20000</v>
+      </c>
+      <c r="J13" s="310"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="310"/>
+      <c r="N13" s="310"/>
+      <c r="Q13" s="311"/>
+      <c r="R13" s="309"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="310"/>
+      <c r="U13" s="309"/>
+    </row>
+    <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>11</v>
+      </c>
+      <c r="B14" s="140">
+        <v>43775</v>
+      </c>
+      <c r="C14" s="141">
+        <v>811639461515251</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F14" s="53">
+        <v>147</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="H14" s="142">
+        <v>146.12</v>
+      </c>
+      <c r="I14" s="53">
+        <v>22000</v>
+      </c>
+      <c r="K14" s="143">
+        <v>139.74</v>
+      </c>
+      <c r="L14" s="53">
+        <f t="shared" ref="L14:L21" si="1">H14-K14</f>
+        <v>6.3799999999999955</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N14" s="53">
+        <v>12.55</v>
+      </c>
+      <c r="Q14" s="54">
+        <f t="shared" ref="Q14:Q19" si="2">N14*0.994+L14</f>
+        <v>18.854699999999994</v>
+      </c>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146" t="s">
+        <v>1257</v>
+      </c>
+      <c r="T14" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>12</v>
+      </c>
+      <c r="B15" s="140">
+        <v>43767</v>
+      </c>
+      <c r="C15" s="141">
+        <v>811603150703150</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F15" s="53">
+        <v>126</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0.76</v>
+      </c>
+      <c r="H15" s="142">
+        <v>125.24</v>
+      </c>
+      <c r="I15" s="53">
+        <v>20000</v>
+      </c>
+      <c r="J15" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="143">
+        <v>145.82</v>
+      </c>
+      <c r="L15" s="53">
+        <f t="shared" si="1"/>
+        <v>-20.58</v>
+      </c>
+      <c r="N15" s="53">
+        <v>45.33</v>
+      </c>
+      <c r="Q15" s="54">
+        <f t="shared" si="2"/>
+        <v>24.478020000000001</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S15" s="174" t="s">
+        <v>1494</v>
+      </c>
+      <c r="T15" s="53">
+        <v>15603608839</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>13</v>
+      </c>
+      <c r="B16" s="140">
+        <v>43767</v>
+      </c>
+      <c r="C16" s="141">
+        <v>811604273035278</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F16" s="53">
+        <v>126</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0.76</v>
+      </c>
+      <c r="H16" s="142">
+        <v>125.24</v>
+      </c>
+      <c r="I16" s="53">
+        <v>20000</v>
+      </c>
+      <c r="J16" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="143">
+        <v>145.82</v>
+      </c>
+      <c r="L16" s="53">
+        <f t="shared" si="1"/>
+        <v>-20.58</v>
+      </c>
+      <c r="N16" s="53">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="P16" s="53">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q16" s="54">
+        <f t="shared" si="2"/>
+        <v>16.67512</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T16" s="53">
+        <v>15062270909</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="294">
+        <v>14</v>
+      </c>
+      <c r="B17" s="140">
+        <v>43749</v>
+      </c>
+      <c r="C17" s="141">
+        <v>811521431838696</v>
+      </c>
+      <c r="D17" s="247" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F17" s="53">
+        <v>152</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0.91</v>
+      </c>
+      <c r="H17" s="142">
+        <v>151.09</v>
+      </c>
+      <c r="I17" s="53">
+        <v>24000</v>
+      </c>
+      <c r="J17" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="143">
+        <v>170.13</v>
+      </c>
+      <c r="L17" s="53">
+        <f t="shared" si="1"/>
+        <v>-19.039999999999992</v>
+      </c>
+      <c r="N17" s="53">
+        <v>69.73</v>
+      </c>
+      <c r="Q17" s="54">
+        <f t="shared" si="2"/>
+        <v>50.271620000000013</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S17" s="174" t="s">
+        <v>1487</v>
+      </c>
+      <c r="T17" s="53">
+        <v>13705761067</v>
+      </c>
+      <c r="U17" s="53" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="294">
+        <v>15</v>
+      </c>
+      <c r="B18" s="140">
+        <v>43793</v>
+      </c>
+      <c r="C18" s="141">
+        <v>811719362438608</v>
+      </c>
+      <c r="D18" s="252" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F18" s="53">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="G18" s="53">
+        <v>1.65</v>
+      </c>
+      <c r="H18" s="142">
+        <v>273.95</v>
+      </c>
+      <c r="I18" s="53">
+        <v>40000</v>
+      </c>
+      <c r="J18" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="143">
+        <v>265.04000000000002</v>
+      </c>
+      <c r="L18" s="53">
+        <f t="shared" si="1"/>
+        <v>8.9099999999999682</v>
+      </c>
+      <c r="N18" s="53">
+        <v>11.32</v>
+      </c>
+      <c r="O18" s="53">
+        <v>1</v>
+      </c>
+      <c r="P18" s="53">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Q18" s="54">
+        <f t="shared" si="2"/>
+        <v>20.162079999999968</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>1752</v>
+      </c>
+      <c r="T18" s="53">
+        <v>13187381112</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
+        <v>16</v>
+      </c>
+      <c r="B19" s="140">
+        <v>43788</v>
+      </c>
+      <c r="C19" s="141">
+        <v>811719362438608</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F19" s="53">
+        <v>137.02000000000001</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0.82</v>
+      </c>
+      <c r="H19" s="142">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="I19" s="53">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="143">
+        <v>127.21</v>
+      </c>
+      <c r="L19" s="53">
+        <f t="shared" si="1"/>
+        <v>8.9899999999999949</v>
+      </c>
+      <c r="N19" s="53">
+        <v>12.9</v>
+      </c>
+      <c r="Q19" s="54">
+        <f t="shared" si="2"/>
+        <v>21.812599999999996</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T19" s="53">
+        <v>17825966284</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="294">
+        <v>17</v>
+      </c>
+      <c r="D20" s="250" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I20" s="53">
+        <v>11000</v>
+      </c>
+      <c r="K20" s="143">
+        <v>72.67</v>
+      </c>
+      <c r="L20" s="199">
+        <f t="shared" si="1"/>
+        <v>-72.67</v>
+      </c>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="S20" s="225"/>
+      <c r="T20" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U20" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>18</v>
+      </c>
+      <c r="B21" s="140">
+        <v>43796</v>
+      </c>
+      <c r="C21" s="141">
+        <v>811734286315507</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="53">
+        <v>18000</v>
+      </c>
+      <c r="K21" s="143">
+        <v>115.09</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="1"/>
+        <v>-115.09</v>
+      </c>
+      <c r="N21" s="53">
+        <v>130.78</v>
+      </c>
+      <c r="Q21" s="54">
+        <f>N21*0.994+L21</f>
+        <v>14.905319999999989</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T21" s="53">
+        <v>18173757621</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="52" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52">
+        <v>19</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I22" s="52">
+        <v>15000</v>
+      </c>
+      <c r="T22" s="52">
+        <v>18173757621</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="294">
+        <v>20</v>
+      </c>
+      <c r="D23" s="250" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F23" s="53">
+        <v>123.45</v>
+      </c>
+      <c r="G23" s="54">
+        <f>F23*0.006</f>
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="H23" s="147">
+        <f>F23*0.994</f>
+        <v>122.7093</v>
+      </c>
+      <c r="I23" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="53">
+        <v>3500</v>
+      </c>
+      <c r="K23" s="143">
+        <v>117.45</v>
+      </c>
+      <c r="L23" s="54">
+        <f>H23-K23</f>
+        <v>5.2592999999999961</v>
+      </c>
+      <c r="N23" s="53">
+        <v>7.75</v>
+      </c>
+      <c r="Q23" s="54">
+        <f>N23*0.994+L23</f>
+        <v>12.962799999999996</v>
+      </c>
+      <c r="R23" s="53" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>21</v>
+      </c>
+      <c r="D24" s="251" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F24" s="53">
+        <v>105.63</v>
+      </c>
+      <c r="G24" s="54">
+        <f>F24*0.006</f>
+        <v>0.63378000000000001</v>
+      </c>
+      <c r="H24" s="147">
+        <f>F24*0.994</f>
+        <v>104.99621999999999</v>
+      </c>
+      <c r="I24" s="53">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="53">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="143">
+        <v>115.09</v>
+      </c>
+      <c r="L24" s="54">
+        <f>H24-K24</f>
+        <v>-10.09378000000001</v>
+      </c>
+      <c r="N24" s="53">
+        <v>27.39</v>
+      </c>
+      <c r="Q24" s="54">
+        <f>N24*0.994+L24</f>
+        <v>17.131879999999992</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>1174</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="294">
+        <v>22</v>
+      </c>
+      <c r="B25" s="294" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D25" s="250" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E25" s="164" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F25" s="53">
+        <v>49.39</v>
+      </c>
+      <c r="G25" s="54">
+        <f>F25*0.006</f>
+        <v>0.29633999999999999</v>
+      </c>
+      <c r="H25" s="147">
+        <f>F25*0.994</f>
+        <v>49.09366</v>
+      </c>
+      <c r="I25" s="53">
+        <v>6500</v>
+      </c>
+      <c r="K25" s="143">
+        <v>45.39</v>
+      </c>
+      <c r="L25" s="54">
+        <f>H25-K25</f>
+        <v>3.7036599999999993</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>1268</v>
+      </c>
+      <c r="S25" s="83"/>
+    </row>
+    <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="294">
+        <v>23</v>
+      </c>
+      <c r="B26" s="294" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D26" s="250" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E26" s="167" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>1265</v>
+      </c>
+      <c r="S26" s="83"/>
+    </row>
+    <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="246" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="246" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="248" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="252" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="199">
+        <f>SUM(H2,H4,H5,H6,H7,H9,H12,H14,H16,H19,H21,H23,H24)</f>
+        <v>1796.2555200000002</v>
+      </c>
+      <c r="K33" s="53">
+        <f>SUM(K2,K4,K5,K6,K7,K9,K12,K14,K16,K19,K21,K23,K24)</f>
+        <v>1836.7199999999998</v>
+      </c>
+      <c r="N33" s="199">
+        <f>SUM(N2:N32)</f>
+        <v>876.28</v>
+      </c>
+      <c r="O33" s="199">
+        <f>SUM(O2:O32)</f>
+        <v>12.39</v>
+      </c>
+      <c r="P33" s="199">
+        <f>SUM(P2:P32)</f>
+        <v>65.39</v>
+      </c>
+      <c r="Q33" s="54">
+        <f>SUM(Q2:Q32)</f>
+        <v>543.17801999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="149" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Q12:Q13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="..\..\Desktop\txt\图\代收代付\8.jpg" xr:uid="{72BD73E6-C8E8-4B76-85CC-1527316FAFCA}"/>
+    <hyperlink ref="A20" r:id="rId2" display="..\..\Desktop\txt\图\代收代付\17 有生之年_南城北海.jpg" xr:uid="{200BB495-F57D-46FD-AE9C-2DFAB1737904}"/>
+    <hyperlink ref="A23" r:id="rId3" display="..\..\Desktop\txt\图\代收代付\20 有生之年_南城北海.png" xr:uid="{99536BE8-5D05-47B3-AF56-6435B31AA441}"/>
+    <hyperlink ref="A25" r:id="rId4" display="..\..\Desktop\txt\图\代收代付\22.jpg" xr:uid="{DB39A7AF-2570-433C-963F-FC6D7E93E1CE}"/>
+    <hyperlink ref="B25" r:id="rId5" display="..\..\Desktop\txt\图\代收代付\22（2）.jpg" xr:uid="{9F4F5360-6936-4109-A7F8-AE212284103E}"/>
+    <hyperlink ref="A26" r:id="rId6" display="..\..\Desktop\txt\图\代收代付\23.jpg" xr:uid="{9CF3F4B6-5135-4DF2-B6FC-98DCE658DE3D}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{7C980615-114C-46CD-A43D-51FF56BD5EA4}"/>
+    <hyperlink ref="A18" r:id="rId8" display="..\..\Desktop\txt\图\代收代付\15.jpg" xr:uid="{11ACB67D-17AC-4530-93AF-EB22E8375830}"/>
+    <hyperlink ref="A17" r:id="rId9" display="..\..\Desktop\txt\图\代收代付\14 朱映晓, 文彬 BINSCENT. 2020 Season's Greeting.PNG" xr:uid="{6A975F6D-5E3B-4934-A735-AC8128C9B465}"/>
+    <hyperlink ref="A11" r:id="rId10" display="..\..\Desktop\txt\图\代收代付\9 朱映晓, 文彬 🌙✨2020 SEASON'S GREETING  (台历+毛毯).PNG" xr:uid="{B4874BD5-9BF6-43D9-A429-1FC8570821AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
 </file>
--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32E5D0-772A-4EDD-85E8-3B7964F8CC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD635C-F537-411A-9AE4-FCA08D319427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="1765">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11190,10 +11190,6 @@
       </rPr>
       <t xml:space="preserve"> 6357081942</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰国发货 / 12.29：EE176229184TH, EE176229520TH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -14994,10 +14990,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.1：预计8月底完成 /深圳发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.14回复：预计6月完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18731,14 +18723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>漏发Mini横幅*1 / 6.6：5151502006179 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwiming_doll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.1：生产时间预计在夏天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18787,6 +18771,30 @@
   </si>
   <si>
     <t>6.10：制作已完成，但物流封锁，解决中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10：7月补发/ 泰国发货 / 12.29：EE176229184TH, EE176229520TH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1：预计8月底完成 /深圳发货 已给怀化地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10：制作已完成，但物流封锁，解决中，预计这两月内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏发Mini横幅*1 / 6.5补发：5151502006179 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16到货补款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -20379,7 +20387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21350,14 +21358,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21387,6 +21401,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21395,12 +21412,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21763,7 +21774,7 @@
         <v>335</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>206</v>
@@ -21796,22 +21807,22 @@
         <v>209</v>
       </c>
       <c r="Q1" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="S1" s="92" t="s">
         <v>1317</v>
       </c>
-      <c r="R1" s="92" t="s">
-        <v>1316</v>
-      </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="T1" s="92" t="s">
-        <v>1319</v>
-      </c>
       <c r="U1" s="215" t="s">
+        <v>1334</v>
+      </c>
+      <c r="V1" s="215" t="s">
         <v>1335</v>
-      </c>
-      <c r="V1" s="215" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21879,7 +21890,7 @@
         <v>18.11</v>
       </c>
       <c r="W3" s="53" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22234,7 +22245,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W12" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22410,7 +22421,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22492,7 +22503,7 @@
         <v>63.315359999999991</v>
       </c>
       <c r="P18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -22514,7 +22525,7 @@
         <v>10.06</v>
       </c>
       <c r="W18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23271,7 +23282,7 @@
         <v>10.06</v>
       </c>
       <c r="W37" s="53" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23828,7 +23839,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W51" s="53" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23891,7 +23902,7 @@
         <v>10.06</v>
       </c>
       <c r="W52" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24031,7 +24042,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W55" s="53" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24202,7 +24213,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W59" s="212" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24308,14 +24319,14 @@
         <v>187.62843999999996</v>
       </c>
       <c r="M62" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="N62">
         <v>142.66</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -24337,7 +24348,7 @@
         <v>6.04</v>
       </c>
       <c r="W62" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24401,7 +24412,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W63" s="53" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24500,7 +24511,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W65" s="53" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24612,7 +24623,7 @@
       <c r="L68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="53" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24722,7 +24733,7 @@
         <v>10.06</v>
       </c>
       <c r="W70" s="53" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24798,7 +24809,7 @@
         <v>363.35640000000012</v>
       </c>
       <c r="M73" s="53" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O73" s="54">
         <f>L73-N73</f>
@@ -24824,7 +24835,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W73" s="53" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24962,7 +24973,7 @@
         <v>115.98</v>
       </c>
       <c r="W76" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25046,7 +25057,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W78" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25108,7 +25119,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W79" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25498,7 +25509,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W89" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25637,7 +25648,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W92" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26271,7 +26282,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W109" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26452,7 +26463,7 @@
         <v>308.30711999999994</v>
       </c>
       <c r="M114" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="N114">
         <v>15</v>
@@ -26476,29 +26487,29 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="310">
+      <c r="G115" s="312">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="310">
+      <c r="H115" s="312">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="310">
+      <c r="I115" s="312">
         <v>92.52</v>
       </c>
-      <c r="J115" s="310">
+      <c r="J115" s="312">
         <v>9.64</v>
       </c>
-      <c r="K115" s="310">
+      <c r="K115" s="312">
         <v>122.8</v>
       </c>
       <c r="L115" s="311">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="309" t="s">
+      <c r="M115" s="313" t="s">
         <v>813</v>
       </c>
-      <c r="N115" s="310">
+      <c r="N115" s="312">
         <v>15</v>
       </c>
       <c r="O115" s="311">
@@ -26519,25 +26530,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="310"/>
-      <c r="H116" s="310"/>
-      <c r="I116" s="310">
+      <c r="G116" s="312"/>
+      <c r="H116" s="312"/>
+      <c r="I116" s="312">
         <v>49.72</v>
       </c>
-      <c r="J116" s="310">
+      <c r="J116" s="312">
         <v>4.84</v>
       </c>
-      <c r="K116" s="310">
+      <c r="K116" s="312">
         <v>50.31</v>
       </c>
       <c r="L116" s="311"/>
-      <c r="M116" s="309" t="s">
+      <c r="M116" s="313" t="s">
         <v>813</v>
       </c>
-      <c r="N116" s="310">
+      <c r="N116" s="312">
         <v>23</v>
       </c>
-      <c r="O116" s="310"/>
+      <c r="O116" s="312"/>
       <c r="P116" s="53" t="s">
         <v>812</v>
       </c>
@@ -26760,7 +26771,7 @@
         <v>871.67617999999948</v>
       </c>
       <c r="M122" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O122" s="54">
         <f t="shared" si="11"/>
@@ -26789,7 +26800,7 @@
         <v>10.06</v>
       </c>
       <c r="W122" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26842,7 +26853,7 @@
         <v>135.79</v>
       </c>
       <c r="W123" s="212" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26875,7 +26886,7 @@
         <v>35.196440000000052</v>
       </c>
       <c r="M124" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N124">
         <v>10</v>
@@ -26919,39 +26930,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="309" t="s">
+      <c r="D126" s="313" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="309" t="s">
+      <c r="E126" s="313" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="310">
+      <c r="G126" s="312">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="310">
+      <c r="H126" s="312">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="310">
+      <c r="I126" s="312">
         <v>160.19</v>
       </c>
-      <c r="J126" s="310">
+      <c r="J126" s="312">
         <v>1.61</v>
       </c>
-      <c r="K126" s="310">
+      <c r="K126" s="312">
         <v>26.16</v>
       </c>
-      <c r="L126" s="312">
+      <c r="L126" s="314">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="309"/>
-      <c r="N126" s="309"/>
+      <c r="M126" s="313"/>
+      <c r="N126" s="313"/>
       <c r="O126" s="311">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="309"/>
+      <c r="P126" s="313"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -26960,19 +26971,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="309"/>
-      <c r="E127" s="309"/>
+      <c r="D127" s="313"/>
+      <c r="E127" s="313"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="310"/>
-      <c r="H127" s="310"/>
-      <c r="I127" s="310"/>
-      <c r="J127" s="310"/>
-      <c r="K127" s="310"/>
-      <c r="L127" s="312"/>
-      <c r="M127" s="309"/>
-      <c r="N127" s="309"/>
+      <c r="G127" s="312"/>
+      <c r="H127" s="312"/>
+      <c r="I127" s="312"/>
+      <c r="J127" s="312"/>
+      <c r="K127" s="312"/>
+      <c r="L127" s="314"/>
+      <c r="M127" s="313"/>
+      <c r="N127" s="313"/>
       <c r="O127" s="311"/>
-      <c r="P127" s="309"/>
+      <c r="P127" s="313"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -26981,19 +26992,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="309"/>
-      <c r="E128" s="309"/>
+      <c r="D128" s="313"/>
+      <c r="E128" s="313"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="310"/>
-      <c r="H128" s="310"/>
-      <c r="I128" s="310"/>
-      <c r="J128" s="310"/>
-      <c r="K128" s="310"/>
-      <c r="L128" s="312"/>
-      <c r="M128" s="309"/>
-      <c r="N128" s="309"/>
+      <c r="G128" s="312"/>
+      <c r="H128" s="312"/>
+      <c r="I128" s="312"/>
+      <c r="J128" s="312"/>
+      <c r="K128" s="312"/>
+      <c r="L128" s="314"/>
+      <c r="M128" s="313"/>
+      <c r="N128" s="313"/>
       <c r="O128" s="311"/>
-      <c r="P128" s="309"/>
+      <c r="P128" s="313"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27002,19 +27013,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="309"/>
-      <c r="E129" s="309"/>
+      <c r="D129" s="313"/>
+      <c r="E129" s="313"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="310"/>
-      <c r="H129" s="310"/>
-      <c r="I129" s="310"/>
-      <c r="J129" s="310"/>
-      <c r="K129" s="310"/>
-      <c r="L129" s="312"/>
-      <c r="M129" s="309"/>
-      <c r="N129" s="309"/>
+      <c r="G129" s="312"/>
+      <c r="H129" s="312"/>
+      <c r="I129" s="312"/>
+      <c r="J129" s="312"/>
+      <c r="K129" s="312"/>
+      <c r="L129" s="314"/>
+      <c r="M129" s="313"/>
+      <c r="N129" s="313"/>
       <c r="O129" s="311"/>
-      <c r="P129" s="309"/>
+      <c r="P129" s="313"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -27232,14 +27243,14 @@
         <v>586.66499999999996</v>
       </c>
       <c r="M136" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O136" s="54">
         <f t="shared" si="13"/>
         <v>586.66499999999996</v>
       </c>
       <c r="P136" s="53" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27279,7 +27290,7 @@
         <v>282.82951999999977</v>
       </c>
       <c r="P137" s="166" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27301,7 +27312,7 @@
         <v>10.06</v>
       </c>
       <c r="W137" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27513,7 +27524,7 @@
         <v>120.79787999999996</v>
       </c>
       <c r="P142" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27593,7 +27604,7 @@
     </row>
     <row r="146" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R146" s="53" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="S146">
         <f>SUM(S3:S145)</f>
@@ -27663,16 +27674,16 @@
         <v>304</v>
       </c>
       <c r="O151" s="207" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="54"/>
       <c r="H152" s="203" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I152" s="203" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J152" s="54">
         <f>SUM(J3:J147)*0.994</f>
@@ -27697,7 +27708,7 @@
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="203" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="J153" s="54">
         <f>U146*0.994</f>
@@ -27719,7 +27730,7 @@
       <c r="G154" s="54"/>
       <c r="H154" s="54"/>
       <c r="I154" s="201" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J154" s="54">
         <v>1244.54</v>
@@ -27738,7 +27749,7 @@
       <c r="G155" s="54"/>
       <c r="H155" s="54"/>
       <c r="I155" s="202" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J155" s="54">
         <f>J152+J153-J154</f>
@@ -27772,10 +27783,10 @@
       <c r="A157" s="53"/>
       <c r="B157" s="204"/>
       <c r="H157" s="203" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I157" s="203" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J157" s="208">
         <v>434.22</v>
@@ -27793,7 +27804,7 @@
     <row r="158" spans="1:22" s="212" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="204"/>
       <c r="I158" s="203" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="J158" s="210">
         <v>8.4700000000000006</v>
@@ -27809,7 +27820,7 @@
       <c r="A159" s="53"/>
       <c r="B159" s="204"/>
       <c r="I159" s="201" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J159" s="54">
         <f>J165-J154</f>
@@ -27828,7 +27839,7 @@
       <c r="A160" s="53"/>
       <c r="B160" s="204"/>
       <c r="I160" s="202" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J160" s="54">
         <f>J157+J158-J159</f>
@@ -27857,7 +27868,7 @@
     </row>
     <row r="161" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P161" s="198" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q161" s="54">
         <f>Q155+Q160</f>
@@ -27870,7 +27881,7 @@
     </row>
     <row r="162" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="203" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J162" s="54">
         <v>9.57</v>
@@ -27888,7 +27899,7 @@
     </row>
     <row r="164" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="203" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J164" s="54">
         <f>J152+J157+J162</f>
@@ -27905,7 +27916,7 @@
     </row>
     <row r="165" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="203" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J165" s="208">
         <v>1621.99</v>
@@ -27920,7 +27931,7 @@
     </row>
     <row r="166" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="202" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J166" s="54">
         <f>J164-J165</f>
@@ -27941,7 +27952,7 @@
     </row>
     <row r="167" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P167" s="198" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q167" s="54">
         <f>(P166/10)*2</f>
@@ -27954,7 +27965,7 @@
     </row>
     <row r="168" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="43" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
@@ -27963,22 +27974,22 @@
     </row>
     <row r="169" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P169" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P170" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P171" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="174" spans="1:18" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27988,6 +27999,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -27997,18 +28020,6 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -28021,11 +28032,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:AA346"/>
+  <dimension ref="A1:AA349"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28107,22 +28118,22 @@
         <v>209</v>
       </c>
       <c r="T1" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="V1" s="92" t="s">
         <v>1317</v>
       </c>
-      <c r="U1" s="92" t="s">
-        <v>1316</v>
-      </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="W1" s="92" t="s">
-        <v>1319</v>
-      </c>
       <c r="X1" s="92" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>1323</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>1324</v>
       </c>
       <c r="Z1" s="92"/>
       <c r="AA1" t="s">
@@ -28181,7 +28192,7 @@
         <v>74.637660000000068</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -28203,7 +28214,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z2" s="212" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AA2" t="s">
         <v>321</v>
@@ -28310,7 +28321,7 @@
         <v>440.9090799999999</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -28332,7 +28343,7 @@
         <v>18.11</v>
       </c>
       <c r="Z4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28402,7 +28413,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z5" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28466,7 +28477,7 @@
         <v>116.21</v>
       </c>
       <c r="Z6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28665,10 +28676,10 @@
         <v>-27.773419999999987</v>
       </c>
       <c r="S10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="T10" s="211" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="U10" s="54">
         <v>40.86</v>
@@ -28687,7 +28698,7 @@
         <v>10.06</v>
       </c>
       <c r="Z10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28959,7 +28970,7 @@
         <v>25.211280000000031</v>
       </c>
       <c r="S16" s="130" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -28981,7 +28992,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z16" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29029,7 +29040,7 @@
         <v>147.84729999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -29045,7 +29056,7 @@
         <v>137</v>
       </c>
       <c r="Z17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29110,7 +29121,7 @@
         <v>121.23</v>
       </c>
       <c r="Z18" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29199,7 +29210,7 @@
         <v>112.57272000000012</v>
       </c>
       <c r="N20" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O20">
         <v>12</v>
@@ -29299,7 +29310,7 @@
         <v>96.873200000000111</v>
       </c>
       <c r="N22" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O22">
         <v>8</v>
@@ -29731,7 +29742,7 @@
         <v>195.31850000000003</v>
       </c>
       <c r="S31" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="T31">
         <v>2</v>
@@ -29752,7 +29763,7 @@
         <v>10.06</v>
       </c>
       <c r="Z31" s="212" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30068,7 +30079,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z37" s="212" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30185,7 +30196,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z39" s="212" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30420,7 +30431,7 @@
     </row>
     <row r="45" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
@@ -30464,7 +30475,7 @@
         <v>953.56005999999968</v>
       </c>
       <c r="S45" s="197" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30774,7 +30785,7 @@
         <v>10.06</v>
       </c>
       <c r="Z51" s="212" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30811,7 +30822,7 @@
         <v>136.41399999999999</v>
       </c>
       <c r="N52" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O52" s="154"/>
       <c r="P52" s="155">
@@ -30885,7 +30896,7 @@
         <v>1307.5459199999993</v>
       </c>
       <c r="S53" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V53" s="212">
         <f>SUM(V2:V52)</f>
@@ -31448,7 +31459,7 @@
         <v>107.10032000000012</v>
       </c>
       <c r="S80" s="163" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -31849,7 +31860,7 @@
       </c>
       <c r="D109" s="53"/>
       <c r="E109" s="53" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F109" s="53" t="s">
         <v>86</v>
@@ -32086,7 +32097,7 @@
         <v>591</v>
       </c>
       <c r="E124" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F124" t="s">
         <v>510</v>
@@ -32259,7 +32270,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -32303,7 +32314,7 @@
     </row>
     <row r="137" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="53" t="s">
@@ -32752,7 +32763,7 @@
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="265" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B167" s="265"/>
       <c r="C167" s="53">
@@ -32762,7 +32773,7 @@
         <v>841</v>
       </c>
       <c r="E167" s="83" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F167" t="s">
         <v>542</v>
@@ -32846,7 +32857,7 @@
         <v>673</v>
       </c>
       <c r="E172" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -32881,7 +32892,7 @@
       <c r="D174" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="E174" s="313" t="s">
+      <c r="E174" s="315" t="s">
         <v>961</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -32903,7 +32914,7 @@
       <c r="D175" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E175" s="313"/>
+      <c r="E175" s="315"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -33031,7 +33042,7 @@
         <v>521</v>
       </c>
       <c r="E182" s="61" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F182" s="61" t="s">
         <v>510</v>
@@ -33209,7 +33220,7 @@
         <v>735</v>
       </c>
       <c r="E190" s="61" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F190" s="61" t="s">
         <v>86</v>
@@ -33397,7 +33408,7 @@
         <v>668</v>
       </c>
       <c r="E199" s="83" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F199" s="76" t="s">
         <v>817</v>
@@ -33613,7 +33624,7 @@
       </c>
       <c r="B209" s="132"/>
       <c r="C209" s="159" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>766</v>
@@ -33730,7 +33741,7 @@
         <v>743</v>
       </c>
       <c r="E213" s="83" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F213" s="60" t="s">
         <v>817</v>
@@ -34012,7 +34023,7 @@
         <v>655</v>
       </c>
       <c r="E225" s="83" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F225" s="60" t="s">
         <v>817</v>
@@ -34101,7 +34112,7 @@
         <v>730</v>
       </c>
       <c r="E229" s="129" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F229" s="129" t="s">
         <v>546</v>
@@ -34110,11 +34121,11 @@
     </row>
     <row r="230" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="65" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B230" s="65"/>
       <c r="C230" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>749</v>
@@ -34133,11 +34144,11 @@
     </row>
     <row r="231" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B231" s="65"/>
       <c r="C231" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>751</v>
@@ -34155,13 +34166,13 @@
       </c>
       <c r="B232" s="65"/>
       <c r="C232" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>371</v>
       </c>
       <c r="E232" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F232" s="69" t="s">
         <v>817</v>
@@ -34178,13 +34189,13 @@
       </c>
       <c r="B233" s="67"/>
       <c r="C233" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D233" s="13" t="s">
         <v>772</v>
       </c>
       <c r="E233" s="179" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F233" s="60" t="s">
         <v>817</v>
@@ -34203,7 +34214,7 @@
       </c>
       <c r="B234" s="67"/>
       <c r="C234" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D234" s="13" t="s">
         <v>848</v>
@@ -34228,7 +34239,7 @@
       </c>
       <c r="B235" s="67"/>
       <c r="C235" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D235" s="13" t="s">
         <v>843</v>
@@ -34253,13 +34264,13 @@
       </c>
       <c r="B236" s="128"/>
       <c r="C236" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D236" s="13" t="s">
         <v>684</v>
       </c>
       <c r="E236" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F236" s="60" t="s">
         <v>817</v>
@@ -34276,7 +34287,7 @@
       </c>
       <c r="B237" s="128"/>
       <c r="C237" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>752</v>
@@ -34299,7 +34310,7 @@
       </c>
       <c r="B238" s="128"/>
       <c r="C238" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D238" s="13" t="s">
         <v>695</v>
@@ -34322,13 +34333,13 @@
       </c>
       <c r="B239" s="127"/>
       <c r="C239" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D239" s="13" t="s">
         <v>827</v>
       </c>
       <c r="E239" s="61" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F239" s="60" t="s">
         <v>817</v>
@@ -34343,17 +34354,17 @@
     </row>
     <row r="240" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="151" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B240" s="151"/>
       <c r="C240" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D240" s="13" t="s">
         <v>714</v>
       </c>
       <c r="E240" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F240" s="60" t="s">
         <v>817</v>
@@ -34370,7 +34381,7 @@
       </c>
       <c r="B241" s="67"/>
       <c r="C241" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>785</v>
@@ -34389,11 +34400,11 @@
     </row>
     <row r="242" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="65" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B242" s="65"/>
       <c r="C242" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>683</v>
@@ -34416,7 +34427,7 @@
       </c>
       <c r="B243" s="151"/>
       <c r="C243" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D243" s="13" t="s">
         <v>650</v>
@@ -34452,13 +34463,13 @@
       </c>
       <c r="B244" s="132"/>
       <c r="C244" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D244" s="13" t="s">
         <v>297</v>
       </c>
       <c r="E244" s="83" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F244" s="60" t="s">
         <v>817</v>
@@ -34471,11 +34482,11 @@
     </row>
     <row r="245" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B245" s="65"/>
       <c r="C245" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>748</v>
@@ -34498,7 +34509,7 @@
       </c>
       <c r="B246" s="161"/>
       <c r="C246" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>799</v>
@@ -34519,11 +34530,11 @@
     </row>
     <row r="247" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B247" s="65"/>
       <c r="C247" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D247" s="13" t="s">
         <v>704</v>
@@ -34542,17 +34553,17 @@
     </row>
     <row r="248" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="65" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B248" s="65"/>
       <c r="C248" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>700</v>
       </c>
       <c r="E248" s="83" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F248" s="60" t="s">
         <v>817</v>
@@ -34565,11 +34576,11 @@
     </row>
     <row r="249" spans="1:26" s="159" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="132" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B249" s="132"/>
       <c r="C249" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>756</v>
@@ -34590,17 +34601,17 @@
     </row>
     <row r="250" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="151" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B250" s="151"/>
       <c r="C250" s="165" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D250" s="13" t="s">
         <v>715</v>
       </c>
       <c r="E250" s="83" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F250" s="122" t="s">
         <v>817</v>
@@ -34617,7 +34628,7 @@
       </c>
       <c r="B251" s="67"/>
       <c r="C251" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D251" s="13" t="s">
         <v>787</v>
@@ -34642,7 +34653,7 @@
       </c>
       <c r="B252" s="136"/>
       <c r="C252" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D252" s="13" t="s">
         <v>692</v>
@@ -34661,11 +34672,11 @@
     </row>
     <row r="253" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="137" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B253" s="137"/>
       <c r="C253" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D253" s="13" t="s">
         <v>692</v>
@@ -34684,11 +34695,11 @@
     </row>
     <row r="254" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="65" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B254" s="65"/>
       <c r="C254" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D254" s="13" t="s">
         <v>744</v>
@@ -34707,17 +34718,17 @@
     </row>
     <row r="255" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="65" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B255" s="65"/>
       <c r="C255" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D255" s="13" t="s">
         <v>706</v>
       </c>
       <c r="E255" s="61" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F255" s="60" t="s">
         <v>817</v>
@@ -34730,17 +34741,17 @@
     </row>
     <row r="256" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="132" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B256" s="132"/>
       <c r="C256" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D256" s="13" t="s">
         <v>654</v>
       </c>
       <c r="E256" s="83" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F256" s="60" t="s">
         <v>817</v>
@@ -34754,17 +34765,17 @@
     </row>
     <row r="257" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="132" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B257" s="132"/>
       <c r="C257" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D257" s="133" t="s">
         <v>729</v>
       </c>
       <c r="E257" s="130" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F257" s="129" t="s">
         <v>817</v>
@@ -34773,17 +34784,17 @@
     </row>
     <row r="258" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B258" s="65"/>
       <c r="C258" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D258" s="13" t="s">
         <v>710</v>
       </c>
       <c r="E258" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F258" s="60" t="s">
         <v>817</v>
@@ -34796,17 +34807,17 @@
     </row>
     <row r="259" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="151" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B259" s="151"/>
       <c r="C259" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D259" s="13" t="s">
         <v>663</v>
       </c>
       <c r="E259" s="83" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F259" s="60" t="s">
         <v>817</v>
@@ -34819,17 +34830,17 @@
     </row>
     <row r="260" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="65" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B260" s="65"/>
       <c r="C260" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D260" s="13" t="s">
         <v>713</v>
       </c>
       <c r="E260" s="83" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F260" s="60" t="s">
         <v>817</v>
@@ -34846,13 +34857,13 @@
       </c>
       <c r="B261" s="67"/>
       <c r="C261" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D261" s="13" t="s">
         <v>829</v>
       </c>
       <c r="E261" s="83" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F261" s="60" t="s">
         <v>817</v>
@@ -34867,17 +34878,17 @@
     </row>
     <row r="262" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="65" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B262" s="65"/>
       <c r="C262" s="166" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D262" s="13" t="s">
         <v>747</v>
       </c>
       <c r="E262" s="83" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F262" s="121" t="s">
         <v>817</v>
@@ -34894,13 +34905,13 @@
       </c>
       <c r="B263" s="10"/>
       <c r="C263" s="166" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D263" s="13" t="s">
         <v>1237</v>
       </c>
-      <c r="D263" s="13" t="s">
-        <v>1238</v>
-      </c>
       <c r="E263" s="164" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="264" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -34915,7 +34926,7 @@
         <v>755</v>
       </c>
       <c r="E264" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F264" s="61" t="s">
         <v>86</v>
@@ -34947,7 +34958,7 @@
     </row>
     <row r="265" spans="1:26" s="185" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="187" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B265" s="187"/>
       <c r="C265" s="54"/>
@@ -35004,11 +35015,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="314" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B267" s="314"/>
-      <c r="C267" s="314"/>
+      <c r="A267" s="316" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B267" s="316"/>
+      <c r="C267" s="316"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -35021,19 +35032,19 @@
     </row>
     <row r="268" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="67" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B268" s="67" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C268" s="254" t="s">
         <v>1498</v>
-      </c>
-      <c r="B268" s="67" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C268" s="254" t="s">
-        <v>1499</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>786</v>
       </c>
       <c r="E268" s="282" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>817</v>
@@ -35041,19 +35052,19 @@
     </row>
     <row r="269" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="177" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C269" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D269" s="133" t="s">
         <v>521</v>
       </c>
-      <c r="E269" s="129" t="s">
-        <v>1397</v>
+      <c r="E269" s="130" t="s">
+        <v>1396</v>
       </c>
       <c r="F269" s="129" t="s">
         <v>817</v>
@@ -35062,89 +35073,89 @@
     </row>
     <row r="270" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="256" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B270" s="256" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C270" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>708</v>
       </c>
       <c r="E270" s="254" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="257" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B271" s="257" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C271" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>667</v>
       </c>
       <c r="E271" s="218" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="256" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B272" s="256" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C272" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>659</v>
       </c>
       <c r="E272" s="83" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F272" s="83"/>
     </row>
     <row r="273" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="257" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B273" s="257" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C273" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D273" s="13" t="s">
         <v>726</v>
       </c>
       <c r="E273" s="83" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F273" s="83"/>
     </row>
     <row r="274" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="256" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B274" s="256" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C274" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>689</v>
       </c>
       <c r="E274" s="225" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G274" s="83"/>
       <c r="U274" s="212"/>
@@ -35156,19 +35167,19 @@
     </row>
     <row r="275" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="256" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B275" s="256" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C275" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>712</v>
       </c>
       <c r="E275" s="83" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F275" s="83"/>
       <c r="G275" s="83"/>
@@ -35181,113 +35192,113 @@
     </row>
     <row r="276" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="254" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B276" s="267" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C276" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>847</v>
       </c>
       <c r="E276" s="254" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C277" s="254" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>701</v>
       </c>
       <c r="E277" s="130" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="67" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C278" s="255" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>852</v>
       </c>
       <c r="E278" s="95" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="279" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="262" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B279" s="262" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C279" s="259" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>794</v>
       </c>
       <c r="E279" s="83" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H279" s="83"/>
     </row>
     <row r="280" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="263" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B280" s="263" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C280" s="259" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>641</v>
       </c>
       <c r="E280" s="259" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="281" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="264" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B281" s="264" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C281" s="259" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>641</v>
       </c>
       <c r="E281" s="259" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="265" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B282" s="265" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35296,26 +35307,26 @@
         <v>738</v>
       </c>
       <c r="E282" s="83" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F282" s="83"/>
       <c r="G282"/>
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C283" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E283" s="130" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F283" s="69" t="s">
         <v>977</v>
@@ -35326,19 +35337,19 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C284" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>731</v>
       </c>
       <c r="E284" s="83" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F284" s="60" t="s">
         <v>817</v>
@@ -35346,19 +35357,19 @@
     </row>
     <row r="285" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C285" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>617</v>
       </c>
       <c r="E285" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F285" s="60" t="s">
         <v>817</v>
@@ -35366,19 +35377,19 @@
     </row>
     <row r="286" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C286" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>788</v>
       </c>
       <c r="E286" s="83" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F286" s="60" t="s">
         <v>817</v>
@@ -35386,19 +35397,19 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C287" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>984</v>
       </c>
       <c r="E287" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F287" s="121" t="s">
         <v>817</v>
@@ -35406,19 +35417,19 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B288" s="178" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C288" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>745</v>
       </c>
       <c r="E288" s="83" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F288" s="60" t="s">
         <v>817</v>
@@ -35426,19 +35437,19 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C289" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>677</v>
       </c>
       <c r="E289" s="83" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F289" s="60" t="s">
         <v>817</v>
@@ -35446,19 +35457,19 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C290" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>846</v>
       </c>
       <c r="E290" s="83" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F290" s="121" t="s">
         <v>817</v>
@@ -35466,19 +35477,19 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C291" s="260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>703</v>
       </c>
       <c r="E291" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F291" s="121" t="s">
         <v>817</v>
@@ -35486,19 +35497,19 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C292" s="267" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>972</v>
       </c>
       <c r="E292" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F292" s="121" t="s">
         <v>817</v>
@@ -35506,19 +35517,19 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C293" s="267" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>757</v>
       </c>
       <c r="E293" s="83" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F293" s="121" t="s">
         <v>817</v>
@@ -35527,19 +35538,19 @@
     </row>
     <row r="294" spans="1:8" s="267" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C294" s="267" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>658</v>
       </c>
       <c r="E294" s="83" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F294" s="60" t="s">
         <v>817</v>
@@ -35548,42 +35559,42 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E295" s="275" t="s">
         <v>1361</v>
-      </c>
-      <c r="E295" s="275" t="s">
-        <v>1362</v>
       </c>
       <c r="F295" s="53"/>
     </row>
     <row r="296" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="180" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B296" s="180"/>
       <c r="C296" s="260"/>
       <c r="D296" s="182" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="180" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B297" s="180"/>
       <c r="C297" s="260"/>
       <c r="D297" s="182" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E297" s="275" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35591,7 +35602,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35601,7 +35612,7 @@
         <v>841</v>
       </c>
       <c r="E298" s="274" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>817</v>
@@ -35609,7 +35620,7 @@
     </row>
     <row r="299" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="181" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B299" s="181"/>
       <c r="C299" s="166" t="s">
@@ -35619,7 +35630,7 @@
         <v>655</v>
       </c>
       <c r="E299" s="275" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>817</v>
@@ -35627,7 +35638,7 @@
     </row>
     <row r="300" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="180" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B300" s="180"/>
       <c r="C300" s="176" t="s">
@@ -35637,18 +35648,18 @@
         <v>668</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B303" s="280" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C303" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>673</v>
@@ -35659,19 +35670,19 @@
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B304" s="283" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C304" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>716</v>
       </c>
       <c r="E304" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F304" s="121" t="s">
         <v>817</v>
@@ -35682,19 +35693,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B305" s="287" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C305" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
       <c r="E305" s="282" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>817</v>
@@ -35705,19 +35716,19 @@
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="235" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B306" s="286" t="s">
         <v>1634</v>
       </c>
-      <c r="B306" s="286" t="s">
-        <v>1636</v>
-      </c>
       <c r="C306" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>963</v>
       </c>
       <c r="E306" s="83" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F306" s="121" t="s">
         <v>817</v>
@@ -35728,19 +35739,19 @@
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="235" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B307" s="287" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C307" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E307" s="83" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F307" s="121" t="s">
         <v>817</v>
@@ -35751,19 +35762,19 @@
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="235" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B308" s="287" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C308" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>782</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>817</v>
@@ -35774,124 +35785,124 @@
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="235" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B309" s="287" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C309" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>768</v>
       </c>
       <c r="E309" s="53" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F309" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G309" s="89" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B310" s="283" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C310" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E310" s="282" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B311" s="288" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C311" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>746</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G311" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B312" s="283" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C312" s="281" t="s">
         <v>1663</v>
-      </c>
-      <c r="B312" s="283" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C312" s="281" t="s">
-        <v>1665</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>696</v>
       </c>
       <c r="E312" s="130" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F312" s="130"/>
       <c r="G312" s="225"/>
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B313" s="288" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C313" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>697</v>
       </c>
       <c r="E313" s="275" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G313" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B314" s="284" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C314" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>643</v>
       </c>
       <c r="E314" s="83" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F314" s="121" t="s">
         <v>817</v>
@@ -35902,19 +35913,19 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B315" s="285" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C315" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>666</v>
       </c>
       <c r="E315" s="53" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F315" s="60" t="s">
         <v>817</v>
@@ -35922,19 +35933,19 @@
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="235" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B316" s="286" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C316" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
       <c r="E316" s="307" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>817</v>
@@ -35945,19 +35956,19 @@
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B317" s="288" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C317" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E317" s="130" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F317" s="121" t="s">
         <v>86</v>
@@ -35968,19 +35979,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B318" s="287" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C318" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -35991,155 +36002,155 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B319" s="287" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C319" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
       </c>
       <c r="E319" s="83" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G319" s="267"/>
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B320" s="285" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C320" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>662</v>
       </c>
       <c r="E320" s="83" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G320" s="267"/>
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B321" s="288" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C321" s="281" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>709</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G321" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B322" s="287" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C322" s="290" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D322" s="243" t="s">
         <v>758</v>
       </c>
       <c r="E322" s="275" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G322" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B323" s="63" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C323" s="290" t="s">
         <v>1688</v>
-      </c>
-      <c r="C323" s="290" t="s">
-        <v>1690</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>780</v>
       </c>
       <c r="E323" s="130" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F323" s="130"/>
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B324" s="177" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C324" s="290" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E324" s="225" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F324" s="225"/>
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B325" s="178" t="s">
         <v>1687</v>
       </c>
-      <c r="B325" s="178" t="s">
-        <v>1689</v>
-      </c>
       <c r="C325" s="290" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E325" s="225" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F325" s="225"/>
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B326" s="175" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C326" s="291" t="s">
         <v>1698</v>
-      </c>
-      <c r="B326" s="175" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C326" s="291" t="s">
-        <v>1700</v>
       </c>
       <c r="D326" s="243" t="s">
         <v>677</v>
       </c>
       <c r="E326" s="275" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>817</v>
@@ -36150,19 +36161,19 @@
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="241" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B327" s="241" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C327" s="291" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D327" s="243" t="s">
         <v>616</v>
       </c>
       <c r="E327" s="275" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>817</v>
@@ -36174,19 +36185,19 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C328" s="291" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>824</v>
       </c>
       <c r="E328" s="275" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F328" s="60" t="s">
         <v>817</v>
@@ -36197,19 +36208,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B329" s="151" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C329" s="291" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>665</v>
       </c>
       <c r="E329" s="275" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>817</v>
@@ -36220,19 +36231,19 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B330" s="65" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C330" s="292" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>742</v>
       </c>
       <c r="E330" s="275" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F330" s="121" t="s">
         <v>817</v>
@@ -36243,19 +36254,19 @@
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="235" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B332" s="235" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C332" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="E332" s="315" t="s">
-        <v>1692</v>
+      <c r="E332" s="317" t="s">
+        <v>1690</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>817</v>
@@ -36266,18 +36277,18 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B333" s="151" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C333" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D333" s="243" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E333" s="315"/>
+        <v>1610</v>
+      </c>
+      <c r="E333" s="317"/>
       <c r="F333" s="121" t="s">
         <v>817</v>
       </c>
@@ -36287,18 +36298,18 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B334" s="132" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C334" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E334" s="315"/>
+        <v>1407</v>
+      </c>
+      <c r="E334" s="317"/>
       <c r="F334" s="121" t="s">
         <v>817</v>
       </c>
@@ -36308,19 +36319,19 @@
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="234" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B335" s="234" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C335" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>702</v>
       </c>
       <c r="E335" s="282" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
@@ -36329,19 +36340,19 @@
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B336" s="132" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C336" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>790</v>
       </c>
       <c r="E336" s="275" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36352,19 +36363,19 @@
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="296" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C337" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>879</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>817</v>
@@ -36372,42 +36383,42 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C338" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D338" s="239" t="s">
         <v>801</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="F338" s="170" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G338" s="83" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C339" s="297" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>717</v>
       </c>
       <c r="E339" s="275" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>817</v>
@@ -36418,19 +36429,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B340" s="137" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C340" s="297" t="s">
         <v>1724</v>
       </c>
-      <c r="B340" s="137" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C340" s="297" t="s">
-        <v>1726</v>
-      </c>
       <c r="D340" s="239" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>817</v>
@@ -36441,19 +36452,19 @@
     </row>
     <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="132" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B341" s="132" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C341" s="304" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D341" s="243" t="s">
         <v>296</v>
       </c>
       <c r="E341" s="275" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F341" s="121" t="s">
         <v>817</v>
@@ -36464,19 +36475,19 @@
     </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="235" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B342" s="235" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C342" s="304" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>661</v>
       </c>
       <c r="E342" s="275" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F342" s="121" t="s">
         <v>817</v>
@@ -36487,19 +36498,19 @@
     </row>
     <row r="343" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="132" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C343" s="58">
-        <v>10.6</v>
+        <v>1743</v>
+      </c>
+      <c r="C343" s="310" t="s">
+        <v>1763</v>
       </c>
       <c r="D343" s="243" t="s">
         <v>645</v>
       </c>
       <c r="E343" s="275" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>817</v>
@@ -36515,19 +36526,19 @@
     </row>
     <row r="344" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="67" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C344" s="54">
-        <v>12.21</v>
+        <v>1744</v>
+      </c>
+      <c r="C344" s="310" t="s">
+        <v>1763</v>
       </c>
       <c r="D344" s="243" t="s">
         <v>645</v>
       </c>
       <c r="E344" s="275" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="F344" s="121" t="s">
         <v>817</v>
@@ -36541,11 +36552,11 @@
     </row>
     <row r="346" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="240" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B346" s="259"/>
       <c r="E346" s="61" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F346" s="83"/>
       <c r="G346"/>
@@ -36556,6 +36567,38 @@
       <c r="X346"/>
       <c r="Y346"/>
       <c r="Z346"/>
+    </row>
+    <row r="349" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="178" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B349" s="178">
+        <v>39</v>
+      </c>
+      <c r="C349" s="310" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D349" s="239" t="s">
+        <v>680</v>
+      </c>
+      <c r="E349" s="226" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G349" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H349" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="U349"/>
+      <c r="V349"/>
+      <c r="W349"/>
+      <c r="X349"/>
+      <c r="Y349"/>
+      <c r="Z349"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36576,8 +36619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A16" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36594,12 +36637,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="230" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="317" t="s">
-        <v>1410</v>
+      <c r="A2" s="319" t="s">
+        <v>1409</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>359</v>
@@ -36615,12 +36658,12 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="B3" s="65" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C3" s="132" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D3" s="54">
         <v>11.17</v>
@@ -36634,12 +36677,12 @@
       <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="67" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C4" s="127" t="s">
         <v>1416</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>1417</v>
       </c>
       <c r="D4" s="58">
         <v>12.7</v>
@@ -36652,12 +36695,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="317"/>
+      <c r="A5" s="319"/>
       <c r="B5" s="139" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D5" s="224" t="s">
         <v>531</v>
@@ -36678,7 +36721,7 @@
     </row>
     <row r="7" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="229" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="13"/>
@@ -36686,110 +36729,110 @@
       <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="318" t="s">
-        <v>1414</v>
+      <c r="A8" s="320" t="s">
+        <v>1413</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C8" s="228" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D8" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="319"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="66" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C9" s="228" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D9" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="319"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="66" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C10" s="228" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D10" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="319"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="66" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C11" s="228" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D11" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="319"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="66" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C12" s="228" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D12" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="319"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="68" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C13" s="228" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D13" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="319"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="68" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C14" s="228" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D14" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="319"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="66" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C15" s="228" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D15" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="320"/>
+      <c r="A16" s="322"/>
       <c r="B16" s="66" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C16" s="228" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D16" s="54">
         <v>11.26</v>
@@ -36802,7 +36845,7 @@
     </row>
     <row r="18" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="227" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -36819,10 +36862,10 @@
         <v>749</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -36837,10 +36880,10 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D20" s="54">
         <v>11.18</v>
@@ -36849,10 +36892,10 @@
         <v>658</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>817</v>
@@ -36867,10 +36910,10 @@
     </row>
     <row r="21" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D21" s="58">
         <v>11.9</v>
@@ -36879,10 +36922,10 @@
         <v>698</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G21" s="316" t="s">
-        <v>1455</v>
+        <v>1756</v>
+      </c>
+      <c r="G21" s="318" t="s">
+        <v>1454</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>501</v>
@@ -36901,10 +36944,10 @@
     </row>
     <row r="22" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D22" s="58">
         <v>11.9</v>
@@ -36912,10 +36955,10 @@
       <c r="E22" s="239" t="s">
         <v>698</v>
       </c>
-      <c r="F22" s="83" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G22" s="316"/>
+      <c r="F22" s="61" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G22" s="318"/>
       <c r="H22" s="61" t="s">
         <v>501</v>
       </c>
@@ -36933,10 +36976,10 @@
     </row>
     <row r="23" spans="1:28" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D23" s="58">
         <v>12.9</v>
@@ -36945,17 +36988,17 @@
         <v>738</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G23" s="231" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:28" s="244" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="54">
@@ -36965,10 +37008,10 @@
         <v>524</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H24" s="226" t="s">
         <v>86</v>
@@ -36977,7 +37020,7 @@
     </row>
     <row r="25" spans="1:28" s="267" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="54">
@@ -36987,10 +37030,10 @@
         <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="I25" s="83"/>
     </row>
@@ -37002,11 +37045,11 @@
     <row r="27" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="225"/>
       <c r="B27" s="230" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C27" s="225"/>
       <c r="D27" s="230" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G27" s="225"/>
       <c r="W27" s="212"/>
@@ -37018,20 +37061,20 @@
     </row>
     <row r="28" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="266" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B28" s="301" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="166" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>827</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G28" s="121"/>
       <c r="H28" s="60" t="s">
@@ -37047,19 +37090,19 @@
     </row>
     <row r="29" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="298" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B29" s="300" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D29" s="225" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>700</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -37076,16 +37119,16 @@
     </row>
     <row r="32" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="269" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C32" s="270"/>
       <c r="D32" s="271" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C33" s="67">
         <v>6</v>
@@ -37097,19 +37140,19 @@
         <v>435</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1748</v>
+        <v>1762</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="264" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C34" s="67">
         <v>18</v>
@@ -37121,22 +37164,22 @@
         <v>734</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="G34" s="61"/>
       <c r="H34" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I34" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="253" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B35" s="175" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C35" s="65">
         <v>7</v>
@@ -37148,7 +37191,7 @@
         <v>783</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G35" s="61"/>
       <c r="H35" s="121" t="s">
@@ -37160,7 +37203,7 @@
     </row>
     <row r="36" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="269" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="54"/>
@@ -37180,7 +37223,7 @@
     <row r="40" spans="1:9" s="259" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="225"/>
       <c r="B40" s="233" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C40" s="225"/>
       <c r="D40"/>
@@ -37190,7 +37233,7 @@
     </row>
     <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="232" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>532</v>
@@ -37204,13 +37247,13 @@
     </row>
     <row r="42" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="259"/>
       <c r="B43" s="268" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C43" s="259"/>
       <c r="D43" s="58">
@@ -37228,13 +37271,13 @@
     </row>
     <row r="45" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="233" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H45" s="225"/>
     </row>
     <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C46" s="225">
         <v>9</v>
@@ -37243,10 +37286,10 @@
         <v>11.9</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F46" s="168" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G46" s="293"/>
       <c r="H46" s="60" t="s">
@@ -37269,27 +37312,27 @@
     </row>
     <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="233" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D49" s="271" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E49" s="271" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F49" s="271" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H49" s="61" t="s">
         <v>514</v>
       </c>
       <c r="I49" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="234" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C50" s="225">
         <v>2</v>
@@ -37301,20 +37344,20 @@
         <v>664</v>
       </c>
       <c r="F50" s="168" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="G50" s="267"/>
       <c r="H50" s="121" t="s">
         <v>817</v>
       </c>
       <c r="I50" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="225"/>
       <c r="B51" s="234" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C51" s="225">
         <v>5</v>
@@ -37326,19 +37369,19 @@
         <v>686</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G51" s="267"/>
       <c r="H51" s="60" t="s">
         <v>817</v>
       </c>
       <c r="I51" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="234" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C52" s="225">
         <v>5</v>
@@ -37350,10 +37393,10 @@
         <v>705</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G52" s="267" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H52" t="s">
         <v>86</v>
@@ -37361,7 +37404,7 @@
     </row>
     <row r="53" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="234" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C53" s="225">
         <v>1</v>
@@ -37373,7 +37416,7 @@
         <v>741</v>
       </c>
       <c r="F53" s="168" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="G53" s="267"/>
       <c r="H53" t="s">
@@ -37383,7 +37426,7 @@
     <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53"/>
       <c r="B54" s="234" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C54" s="53">
         <v>4</v>
@@ -37395,7 +37438,7 @@
         <v>773</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G54" s="267"/>
     </row>
@@ -37414,7 +37457,7 @@
         <v>518</v>
       </c>
       <c r="F55" s="168" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G55" s="267"/>
     </row>
@@ -37430,7 +37473,7 @@
         <v>8.24</v>
       </c>
       <c r="E56" s="261" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F56" s="168" t="s">
         <v>522</v>
@@ -37455,7 +37498,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37475,7 +37518,7 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -37489,7 +37532,7 @@
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B2" s="132">
         <v>9</v>
@@ -37501,21 +37544,21 @@
         <v>528</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F2" s="259" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>817</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B3" s="132">
         <v>10</v>
@@ -37524,13 +37567,13 @@
         <v>9.24</v>
       </c>
       <c r="D3" s="239" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E3" s="259" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>817</v>
@@ -37541,7 +37584,7 @@
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B4" s="151">
         <v>20</v>
@@ -37553,10 +37596,10 @@
         <v>646</v>
       </c>
       <c r="E4" s="226" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="F4" s="289" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G4" s="121" t="s">
         <v>86</v>
@@ -37565,35 +37608,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B5" s="178">
-        <v>39</v>
-      </c>
-      <c r="C5" s="58">
-        <v>11.3</v>
-      </c>
-      <c r="D5" s="239" t="s">
-        <v>680</v>
-      </c>
-      <c r="E5" s="226" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B6" s="65">
         <v>5</v>
@@ -37605,10 +37622,10 @@
         <v>706</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>817</v>
@@ -37616,7 +37633,7 @@
     </row>
     <row r="7" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B7" s="132">
         <v>1</v>
@@ -37628,10 +37645,10 @@
         <v>711</v>
       </c>
       <c r="E7" s="226" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>86</v>
@@ -37640,7 +37657,7 @@
     </row>
     <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B8" s="65">
         <v>6</v>
@@ -37652,10 +37669,10 @@
         <v>733</v>
       </c>
       <c r="E8" s="226" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="F8" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>553</v>
@@ -37663,7 +37680,7 @@
     </row>
     <row r="9" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B9" s="63">
         <v>5</v>
@@ -37675,10 +37692,10 @@
         <v>778</v>
       </c>
       <c r="E9" s="226" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G9" s="121" t="s">
         <v>86</v>
@@ -37687,7 +37704,7 @@
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B10" s="67">
         <v>12</v>
@@ -37699,21 +37716,21 @@
         <v>784</v>
       </c>
       <c r="E10" s="226" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="F10" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="G10" s="60" t="s">
         <v>817</v>
       </c>
       <c r="H10" s="130" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B11" s="67">
         <v>9</v>
@@ -37725,10 +37742,10 @@
         <v>850</v>
       </c>
       <c r="E11" s="226" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="F11" s="303" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G11" s="88" t="s">
         <v>86</v>
@@ -37737,7 +37754,7 @@
     </row>
     <row r="12" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B12" s="67">
         <v>4</v>
@@ -37746,13 +37763,13 @@
         <v>12.21</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1749</v>
+        <v>993</v>
       </c>
       <c r="E12" s="226" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="F12" s="305" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="G12" s="121" t="s">
         <v>817</v>
@@ -37763,7 +37780,7 @@
     </row>
     <row r="13" spans="1:8" s="237" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B13" s="67">
         <v>3</v>
@@ -37772,13 +37789,13 @@
         <v>1.2</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E13" s="237" t="s">
-        <v>1537</v>
+        <v>1760</v>
       </c>
       <c r="F13" s="259" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
@@ -37794,8 +37811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37872,10 +37889,10 @@
         <v>234</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F4" s="183" t="s">
         <v>86</v>
@@ -37942,16 +37959,16 @@
     </row>
     <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>1170</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>1171</v>
       </c>
       <c r="F7" s="183" t="s">
         <v>86</v>
@@ -37969,10 +37986,10 @@
         <v>111</v>
       </c>
       <c r="D8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>1390</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>1391</v>
       </c>
       <c r="F8" s="183" t="s">
         <v>86</v>
@@ -37984,16 +38001,16 @@
     </row>
     <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F9" s="183" t="s">
         <v>86</v>
@@ -38035,10 +38052,10 @@
         <v>356</v>
       </c>
       <c r="D11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -38062,7 +38079,7 @@
         <v>861</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F12" t="s">
         <v>86</v>
@@ -38168,7 +38185,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>870</v>
@@ -38192,7 +38209,7 @@
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>871</v>
@@ -38210,13 +38227,13 @@
         <v>82</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D22" t="s">
         <v>882</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38227,7 +38244,7 @@
       </c>
       <c r="J22" s="199"/>
       <c r="K22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="199" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38237,7 +38254,7 @@
         <v>429.41</v>
       </c>
       <c r="K23" s="199" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="84" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38256,17 +38273,17 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="325" t="s">
-        <v>1387</v>
+      <c r="C26" s="309" t="s">
+        <v>1386</v>
       </c>
       <c r="D26" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E26" s="308" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G26" s="220" t="s">
         <v>86</v>
@@ -38287,10 +38304,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E27" s="302" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38320,10 +38337,10 @@
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E28" s="221" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>817</v>
@@ -38353,10 +38370,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E29" s="272" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38380,10 +38397,10 @@
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E30" s="223" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38410,10 +38427,10 @@
         <v>979</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E31" s="197" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>817</v>
@@ -38428,16 +38445,16 @@
     </row>
     <row r="32" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D32" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E32" s="222" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>817</v>
@@ -38452,7 +38469,7 @@
     </row>
     <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="269" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38463,10 +38480,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C35" s="306" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60" t="s">
@@ -38532,7 +38549,7 @@
     </row>
     <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>422</v>
@@ -38564,7 +38581,7 @@
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H44">
         <v>453.26</v>
@@ -38586,7 +38603,7 @@
       </c>
       <c r="E45"/>
       <c r="F45" s="199" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H45">
         <v>262.42</v>
@@ -38605,7 +38622,7 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H46">
         <v>226.63</v>
@@ -38632,7 +38649,7 @@
         <v>1022</v>
       </c>
       <c r="F48" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H48">
         <v>411.52</v>
@@ -38671,7 +38688,7 @@
     </row>
     <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -38782,7 +38799,7 @@
     </row>
     <row r="58" spans="1:10" s="53" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B58" s="74"/>
       <c r="G58" s="220"/>
@@ -55293,7 +55310,7 @@
         <v>1621.99</v>
       </c>
       <c r="P3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55326,7 +55343,7 @@
         <v>15057.1</v>
       </c>
       <c r="P4" s="199" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55359,7 +55376,7 @@
         <v>10854</v>
       </c>
       <c r="P5" s="199" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55435,7 +55452,7 @@
         <v>1244.54</v>
       </c>
       <c r="P8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55468,7 +55485,7 @@
         <v>13847.08</v>
       </c>
       <c r="P9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -55499,7 +55516,7 @@
         <v>8068</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55617,7 +55634,7 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="17" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -55641,7 +55658,7 @@
         <v>171</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="O17" s="53">
         <v>64.7</v>
@@ -56060,7 +56077,7 @@
         <v>43830</v>
       </c>
       <c r="G38" s="95" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H38" s="118">
         <v>1660</v>
@@ -56078,7 +56095,7 @@
         <v>43840</v>
       </c>
       <c r="G39" s="95" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H39" s="118">
         <v>999.94</v>
@@ -56119,10 +56136,10 @@
         <v>325.18</v>
       </c>
       <c r="F47" s="277" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -56134,7 +56151,7 @@
         <v>504</v>
       </c>
       <c r="M47" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -56148,7 +56165,7 @@
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -56171,7 +56188,7 @@
         <v>43959</v>
       </c>
       <c r="G49" s="276" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="H49" s="278">
         <v>296</v>
@@ -56194,7 +56211,7 @@
         <v>43964</v>
       </c>
       <c r="G50" s="276" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="H50" s="278">
         <v>295</v>
@@ -56217,7 +56234,7 @@
         <v>43969</v>
       </c>
       <c r="G51" s="276" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H51" s="278">
         <v>245</v>
@@ -56240,7 +56257,7 @@
         <v>43979</v>
       </c>
       <c r="G52" s="276" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H52" s="278">
         <v>148</v>
@@ -56252,7 +56269,7 @@
         <v>372</v>
       </c>
       <c r="M52" s="295" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -56260,7 +56277,7 @@
         <v>43984</v>
       </c>
       <c r="G53" s="276" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H53" s="278">
         <v>395</v>
@@ -56272,7 +56289,7 @@
         <v>448</v>
       </c>
       <c r="M53" s="295" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -56994,98 +57011,98 @@
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>1366</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>1367</v>
-      </c>
       <c r="D18" s="53" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="216" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>1371</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="216" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>1373</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>1542</v>
       </c>
-      <c r="C23" s="53" t="s">
-        <v>1544</v>
-      </c>
       <c r="D23" s="259" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -57443,96 +57460,96 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310">
+      <c r="A7" s="312">
         <v>6</v>
       </c>
-      <c r="B7" s="321">
+      <c r="B7" s="324">
         <v>43722</v>
       </c>
-      <c r="C7" s="322">
+      <c r="C7" s="325">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1078</v>
       </c>
-      <c r="E7" s="309" t="s">
+      <c r="E7" s="313" t="s">
         <v>1079</v>
       </c>
       <c r="F7" s="53">
         <v>96</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="312">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="323">
+      <c r="H7" s="326">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
         <v>15000</v>
       </c>
-      <c r="J7" s="310">
+      <c r="J7" s="312">
         <v>3000</v>
       </c>
       <c r="K7" s="200">
         <v>205.4</v>
       </c>
-      <c r="L7" s="310">
+      <c r="L7" s="312">
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
-      <c r="N7" s="324">
+      <c r="N7" s="323">
         <v>52.86</v>
       </c>
-      <c r="O7" s="324">
+      <c r="O7" s="323">
         <v>0.6</v>
       </c>
-      <c r="P7" s="324">
+      <c r="P7" s="323">
         <v>8.0500000000000007</v>
       </c>
       <c r="Q7" s="311">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="309" t="s">
+      <c r="R7" s="313" t="s">
         <v>1080</v>
       </c>
       <c r="S7" s="173"/>
-      <c r="T7" s="310">
+      <c r="T7" s="312">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="309" t="s">
+      <c r="U7" s="313" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="322"/>
+      <c r="A8" s="312"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="325"/>
       <c r="D8" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="E8" s="309"/>
+      <c r="E8" s="313"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
-      <c r="G8" s="310"/>
-      <c r="H8" s="323"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="326"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
-      <c r="J8" s="310"/>
+      <c r="J8" s="312"/>
       <c r="K8" s="200"/>
-      <c r="L8" s="310"/>
-      <c r="N8" s="324">
+      <c r="L8" s="312"/>
+      <c r="N8" s="323">
         <v>26.43</v>
       </c>
-      <c r="O8" s="324"/>
-      <c r="P8" s="324"/>
+      <c r="O8" s="323"/>
+      <c r="P8" s="323"/>
       <c r="Q8" s="311"/>
-      <c r="R8" s="309"/>
+      <c r="R8" s="313"/>
       <c r="S8" s="173"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="309"/>
+      <c r="T8" s="312"/>
+      <c r="U8" s="313"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57650,7 +57667,7 @@
         <v>811521431838696</v>
       </c>
       <c r="D11" s="247" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>1089</v>
@@ -57694,7 +57711,7 @@
         <v>1090</v>
       </c>
       <c r="S11" s="174" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="T11" s="53">
         <v>13705761067</v>
@@ -57704,86 +57721,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="310">
+      <c r="A12" s="312">
         <v>10</v>
       </c>
-      <c r="B12" s="321">
+      <c r="B12" s="324">
         <v>43764</v>
       </c>
-      <c r="C12" s="322">
+      <c r="C12" s="325">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1092</v>
       </c>
-      <c r="E12" s="309" t="s">
+      <c r="E12" s="313" t="s">
         <v>1093</v>
       </c>
       <c r="F12" s="53">
         <v>126</v>
       </c>
-      <c r="G12" s="310">
+      <c r="G12" s="312">
         <v>1.51</v>
       </c>
-      <c r="H12" s="323">
+      <c r="H12" s="326">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
         <v>20000</v>
       </c>
-      <c r="J12" s="310">
+      <c r="J12" s="312">
         <v>3000</v>
       </c>
       <c r="K12" s="200">
         <v>267.39999999999998</v>
       </c>
-      <c r="L12" s="310">
+      <c r="L12" s="312">
         <f t="shared" si="0"/>
         <v>-16.909999999999968</v>
       </c>
-      <c r="N12" s="310">
+      <c r="N12" s="312">
         <v>51.42</v>
       </c>
       <c r="Q12" s="311">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="309" t="s">
+      <c r="R12" s="313" t="s">
         <v>1094</v>
       </c>
       <c r="S12" s="173"/>
-      <c r="T12" s="310">
+      <c r="T12" s="312">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="309" t="s">
+      <c r="U12" s="313" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="310"/>
-      <c r="B13" s="321"/>
-      <c r="C13" s="322"/>
+      <c r="A13" s="312"/>
+      <c r="B13" s="324"/>
+      <c r="C13" s="325"/>
       <c r="D13" s="150" t="s">
         <v>1096</v>
       </c>
-      <c r="E13" s="309"/>
+      <c r="E13" s="313"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="323"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="326"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
-      <c r="J13" s="310"/>
+      <c r="J13" s="312"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="310"/>
-      <c r="N13" s="310"/>
+      <c r="L13" s="312"/>
+      <c r="N13" s="312"/>
       <c r="Q13" s="311"/>
-      <c r="R13" s="309"/>
+      <c r="R13" s="313"/>
       <c r="S13" s="173"/>
-      <c r="T13" s="310"/>
-      <c r="U13" s="309"/>
+      <c r="T13" s="312"/>
+      <c r="U13" s="313"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -57832,7 +57849,7 @@
       </c>
       <c r="R14" s="146"/>
       <c r="S14" s="146" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="T14" s="53">
         <v>18173757621</v>
@@ -57890,7 +57907,7 @@
         <v>1103</v>
       </c>
       <c r="S15" s="174" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="T15" s="53">
         <v>15603608839</v>
@@ -58009,7 +58026,7 @@
         <v>1109</v>
       </c>
       <c r="S17" s="174" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="T17" s="53">
         <v>13705761067</v>
@@ -58070,7 +58087,7 @@
         <v>20.162079999999968</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="T18" s="53">
         <v>13187381112</v>
@@ -58136,7 +58153,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="250" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>1098</v>
@@ -58153,7 +58170,7 @@
       </c>
       <c r="Q20" s="54"/>
       <c r="R20" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="S20" s="225"/>
       <c r="T20" s="53">
@@ -58200,7 +58217,7 @@
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="T21" s="53">
         <v>18173757621</v>
@@ -58316,10 +58333,10 @@
         <v>17.131879999999992</v>
       </c>
       <c r="R24" s="83" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -58327,10 +58344,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="294" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D25" s="250" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E25" s="164" t="s">
         <v>1087</v>
@@ -58357,7 +58374,7 @@
         <v>3.7036599999999993</v>
       </c>
       <c r="R25" s="83" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="S25" s="83"/>
     </row>
@@ -58366,37 +58383,37 @@
         <v>23</v>
       </c>
       <c r="B26" s="294" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D26" s="250" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E26" s="167" t="s">
         <v>1087</v>
       </c>
       <c r="R26" s="83" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="S26" s="83"/>
     </row>
     <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="246" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="246" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="248" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="252" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -58435,6 +58452,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A7:A8"/>
@@ -58443,26 +58480,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD635C-F537-411A-9AE4-FCA08D319427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC291C-E191-469B-9D33-7754D5F83FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{CDE1ECE5-D0A6-400D-BC01-9BF7E63F1345}">
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{CDE1ECE5-D0A6-400D-BC01-9BF7E63F1345}">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1761">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12529,10 +12529,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.13：制作中，预计时间未定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -13041,10 +13037,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>✔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Milky_ProX101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13665,10 +13657,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">裴珠泫 IRENE FIRST LOVE SLOGAN </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">YG </t>
     </r>
@@ -13956,10 +13944,6 @@
   <si>
     <t>4.27：6634949462</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推主：minimanminiman  品項：手幅庫販*2 【漏发一条】</t>
-    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>04/29/20</t>
@@ -14689,43 +14673,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金东贤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Prince and princess 15cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>IU Hotel Del Luna 20cm</t>
     </r>
     <r>
@@ -14982,19 +14929,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.23回复：还需3~4个月 / 4.20推文：预计7月完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1回复：预计8月底完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4.14回复：预计6月完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.23回复：预计制作需要4~5个月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -16286,14 +16225,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.7：暂预计8月  /5.3：已发新地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.28：因疫情，本周恢复生产 /5.7：暂预计8月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>漏发*9 / 最后回复：12.15 /推特已清空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16595,10 +16526,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>漏发Mini横幅*1  5.9：会补发 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -18641,10 +18568,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.29：61366-0114-0977 / 漏发一条 已发送新地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.28：交付延迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18654,10 +18577,6 @@
   </si>
   <si>
     <t>5.15：EG265957462KR，已改怀化地址 /中国工厂发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1：这周补发先入金特典 / 5.22：413894229512</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18731,10 +18650,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当日汇率166 / 已补一条</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <t>部分补款</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
@@ -18758,10 +18673,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.23：预计制作需要4~5个月 /5.11推文：打样完成 开始生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拉链袋全破损*44 /DREM扇子应为21把，少1把(实际疑收到22把) /CHOCOLATE特典更改：透扇-&gt;徽章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18795,6 +18706,113 @@
   </si>
   <si>
     <t>6.16到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16：补发单号 5710401003875 / 6.1：这周补发先入金特典 / 5.22：413894229512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22：预计7/8月完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23：预计制作需要4~5个月 /6.22：生产中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prince and princess 15cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【39】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prince and princess 15cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23：7月交付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日汇率166 / 已补一条 /5.29：补发 61366-0114-0977</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24推文：样品完成 /5.7：暂预计8月  /5.3：已发新地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24推文：样品完成 /5.7：暂预计8月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝店</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18808,7 +18826,7 @@
     <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="128" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19739,8 +19757,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19821,12 +19847,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20387,7 +20407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21134,9 +21154,6 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -21313,13 +21330,6 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21355,23 +21365,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21401,9 +21411,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21412,6 +21419,21 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21732,7 +21754,7 @@
   <dimension ref="A1:W175"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
@@ -21807,22 +21829,22 @@
         <v>209</v>
       </c>
       <c r="Q1" s="92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>1314</v>
+      </c>
+      <c r="S1" s="92" t="s">
         <v>1316</v>
       </c>
-      <c r="R1" s="92" t="s">
-        <v>1315</v>
-      </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>1317</v>
       </c>
-      <c r="T1" s="92" t="s">
-        <v>1318</v>
-      </c>
       <c r="U1" s="215" t="s">
+        <v>1333</v>
+      </c>
+      <c r="V1" s="215" t="s">
         <v>1334</v>
-      </c>
-      <c r="V1" s="215" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -21890,7 +21912,7 @@
         <v>18.11</v>
       </c>
       <c r="W3" s="53" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22245,7 +22267,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W12" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22421,7 +22443,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -22525,7 +22547,7 @@
         <v>10.06</v>
       </c>
       <c r="W18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23282,7 +23304,7 @@
         <v>10.06</v>
       </c>
       <c r="W37" s="53" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23839,7 +23861,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W51" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23902,7 +23924,7 @@
         <v>10.06</v>
       </c>
       <c r="W52" s="53" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24042,7 +24064,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W55" s="53" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24213,7 +24235,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W59" s="212" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24348,7 +24370,7 @@
         <v>6.04</v>
       </c>
       <c r="W62" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="53" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24412,7 +24434,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W63" s="53" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24511,7 +24533,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W65" s="53" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24733,7 +24755,7 @@
         <v>10.06</v>
       </c>
       <c r="W70" s="53" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24835,7 +24857,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W73" s="53" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -24973,7 +24995,7 @@
         <v>115.98</v>
       </c>
       <c r="W76" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25057,7 +25079,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W78" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25119,7 +25141,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W79" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25509,7 +25531,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W89" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25648,7 +25670,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W92" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26282,7 +26304,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="W109" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26487,32 +26509,32 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="312">
+      <c r="G115" s="309">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="312">
+      <c r="H115" s="309">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="312">
+      <c r="I115" s="309">
         <v>92.52</v>
       </c>
-      <c r="J115" s="312">
+      <c r="J115" s="309">
         <v>9.64</v>
       </c>
-      <c r="K115" s="312">
+      <c r="K115" s="309">
         <v>122.8</v>
       </c>
-      <c r="L115" s="311">
+      <c r="L115" s="310">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="313" t="s">
+      <c r="M115" s="308" t="s">
         <v>813</v>
       </c>
-      <c r="N115" s="312">
+      <c r="N115" s="309">
         <v>15</v>
       </c>
-      <c r="O115" s="311">
+      <c r="O115" s="310">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26530,25 +26552,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="312"/>
-      <c r="H116" s="312"/>
-      <c r="I116" s="312">
+      <c r="G116" s="309"/>
+      <c r="H116" s="309"/>
+      <c r="I116" s="309">
         <v>49.72</v>
       </c>
-      <c r="J116" s="312">
+      <c r="J116" s="309">
         <v>4.84</v>
       </c>
-      <c r="K116" s="312">
+      <c r="K116" s="309">
         <v>50.31</v>
       </c>
-      <c r="L116" s="311"/>
-      <c r="M116" s="313" t="s">
+      <c r="L116" s="310"/>
+      <c r="M116" s="308" t="s">
         <v>813</v>
       </c>
-      <c r="N116" s="312">
+      <c r="N116" s="309">
         <v>23</v>
       </c>
-      <c r="O116" s="312"/>
+      <c r="O116" s="309"/>
       <c r="P116" s="53" t="s">
         <v>812</v>
       </c>
@@ -26800,7 +26822,7 @@
         <v>10.06</v>
       </c>
       <c r="W122" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26853,7 +26875,7 @@
         <v>135.79</v>
       </c>
       <c r="W123" s="212" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26930,39 +26952,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="313" t="s">
+      <c r="D126" s="308" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="313" t="s">
+      <c r="E126" s="308" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="312">
+      <c r="G126" s="309">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="312">
+      <c r="H126" s="309">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="312">
+      <c r="I126" s="309">
         <v>160.19</v>
       </c>
-      <c r="J126" s="312">
+      <c r="J126" s="309">
         <v>1.61</v>
       </c>
-      <c r="K126" s="312">
+      <c r="K126" s="309">
         <v>26.16</v>
       </c>
-      <c r="L126" s="314">
+      <c r="L126" s="311">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="313"/>
-      <c r="N126" s="313"/>
-      <c r="O126" s="311">
+      <c r="M126" s="308"/>
+      <c r="N126" s="308"/>
+      <c r="O126" s="310">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="313"/>
+      <c r="P126" s="308"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -26971,19 +26993,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="313"/>
-      <c r="E127" s="313"/>
+      <c r="D127" s="308"/>
+      <c r="E127" s="308"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="312"/>
-      <c r="H127" s="312"/>
-      <c r="I127" s="312"/>
-      <c r="J127" s="312"/>
-      <c r="K127" s="312"/>
-      <c r="L127" s="314"/>
-      <c r="M127" s="313"/>
-      <c r="N127" s="313"/>
-      <c r="O127" s="311"/>
-      <c r="P127" s="313"/>
+      <c r="G127" s="309"/>
+      <c r="H127" s="309"/>
+      <c r="I127" s="309"/>
+      <c r="J127" s="309"/>
+      <c r="K127" s="309"/>
+      <c r="L127" s="311"/>
+      <c r="M127" s="308"/>
+      <c r="N127" s="308"/>
+      <c r="O127" s="310"/>
+      <c r="P127" s="308"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -26992,19 +27014,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="313"/>
-      <c r="E128" s="313"/>
+      <c r="D128" s="308"/>
+      <c r="E128" s="308"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="312"/>
-      <c r="H128" s="312"/>
-      <c r="I128" s="312"/>
-      <c r="J128" s="312"/>
-      <c r="K128" s="312"/>
-      <c r="L128" s="314"/>
-      <c r="M128" s="313"/>
-      <c r="N128" s="313"/>
-      <c r="O128" s="311"/>
-      <c r="P128" s="313"/>
+      <c r="G128" s="309"/>
+      <c r="H128" s="309"/>
+      <c r="I128" s="309"/>
+      <c r="J128" s="309"/>
+      <c r="K128" s="309"/>
+      <c r="L128" s="311"/>
+      <c r="M128" s="308"/>
+      <c r="N128" s="308"/>
+      <c r="O128" s="310"/>
+      <c r="P128" s="308"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27013,19 +27035,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="313"/>
-      <c r="E129" s="313"/>
+      <c r="D129" s="308"/>
+      <c r="E129" s="308"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="312"/>
-      <c r="H129" s="312"/>
-      <c r="I129" s="312"/>
-      <c r="J129" s="312"/>
-      <c r="K129" s="312"/>
-      <c r="L129" s="314"/>
-      <c r="M129" s="313"/>
-      <c r="N129" s="313"/>
-      <c r="O129" s="311"/>
-      <c r="P129" s="313"/>
+      <c r="G129" s="309"/>
+      <c r="H129" s="309"/>
+      <c r="I129" s="309"/>
+      <c r="J129" s="309"/>
+      <c r="K129" s="309"/>
+      <c r="L129" s="311"/>
+      <c r="M129" s="308"/>
+      <c r="N129" s="308"/>
+      <c r="O129" s="310"/>
+      <c r="P129" s="308"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -27312,7 +27334,7 @@
         <v>10.06</v>
       </c>
       <c r="W137" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -27604,7 +27626,7 @@
     </row>
     <row r="146" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R146" s="53" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="S146">
         <f>SUM(S3:S145)</f>
@@ -27674,16 +27696,16 @@
         <v>304</v>
       </c>
       <c r="O151" s="207" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="54"/>
       <c r="H152" s="203" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I152" s="203" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J152" s="54">
         <f>SUM(J3:J147)*0.994</f>
@@ -27708,7 +27730,7 @@
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="203" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J153" s="54">
         <f>U146*0.994</f>
@@ -27730,7 +27752,7 @@
       <c r="G154" s="54"/>
       <c r="H154" s="54"/>
       <c r="I154" s="201" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J154" s="54">
         <v>1244.54</v>
@@ -27749,7 +27771,7 @@
       <c r="G155" s="54"/>
       <c r="H155" s="54"/>
       <c r="I155" s="202" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J155" s="54">
         <f>J152+J153-J154</f>
@@ -27783,10 +27805,10 @@
       <c r="A157" s="53"/>
       <c r="B157" s="204"/>
       <c r="H157" s="203" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I157" s="203" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J157" s="208">
         <v>434.22</v>
@@ -27804,7 +27826,7 @@
     <row r="158" spans="1:22" s="212" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="204"/>
       <c r="I158" s="203" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J158" s="210">
         <v>8.4700000000000006</v>
@@ -27820,7 +27842,7 @@
       <c r="A159" s="53"/>
       <c r="B159" s="204"/>
       <c r="I159" s="201" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J159" s="54">
         <f>J165-J154</f>
@@ -27839,7 +27861,7 @@
       <c r="A160" s="53"/>
       <c r="B160" s="204"/>
       <c r="I160" s="202" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J160" s="54">
         <f>J157+J158-J159</f>
@@ -27868,7 +27890,7 @@
     </row>
     <row r="161" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P161" s="198" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q161" s="54">
         <f>Q155+Q160</f>
@@ -27881,7 +27903,7 @@
     </row>
     <row r="162" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="203" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J162" s="54">
         <v>9.57</v>
@@ -27899,7 +27921,7 @@
     </row>
     <row r="164" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="203" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J164" s="54">
         <f>J152+J157+J162</f>
@@ -27916,7 +27938,7 @@
     </row>
     <row r="165" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="203" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J165" s="208">
         <v>1621.99</v>
@@ -27931,7 +27953,7 @@
     </row>
     <row r="166" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="202" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J166" s="54">
         <f>J164-J165</f>
@@ -27952,7 +27974,7 @@
     </row>
     <row r="167" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P167" s="198" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q167" s="54">
         <f>(P166/10)*2</f>
@@ -27965,7 +27987,7 @@
     </row>
     <row r="168" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="43" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
@@ -27974,43 +27996,31 @@
     </row>
     <row r="169" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P169" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P170" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P171" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" s="296" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="294" t="s">
+      <c r="A175" s="293" t="s">
         <v>856</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -28020,6 +28030,18 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -28032,17 +28054,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:AA349"/>
+  <dimension ref="A1:AA345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C346" sqref="C346"/>
+    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D341" sqref="D341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5546875" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="267" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="266" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="58.5546875" customWidth="1"/>
@@ -28118,22 +28140,22 @@
         <v>209</v>
       </c>
       <c r="T1" s="92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V1" s="92" t="s">
         <v>1316</v>
       </c>
-      <c r="U1" s="92" t="s">
-        <v>1315</v>
-      </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>1317</v>
       </c>
-      <c r="W1" s="92" t="s">
-        <v>1318</v>
-      </c>
       <c r="X1" s="92" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>1322</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>1323</v>
       </c>
       <c r="Z1" s="92"/>
       <c r="AA1" t="s">
@@ -28214,7 +28236,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z2" s="212" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AA2" t="s">
         <v>321</v>
@@ -28343,7 +28365,7 @@
         <v>18.11</v>
       </c>
       <c r="Z4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28413,7 +28435,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28477,7 +28499,7 @@
         <v>116.21</v>
       </c>
       <c r="Z6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28679,7 +28701,7 @@
         <v>1194</v>
       </c>
       <c r="T10" s="211" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="U10" s="54">
         <v>40.86</v>
@@ -28698,7 +28720,7 @@
         <v>10.06</v>
       </c>
       <c r="Z10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28992,7 +29014,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z16" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29056,7 +29078,7 @@
         <v>137</v>
       </c>
       <c r="Z17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29121,7 +29143,7 @@
         <v>121.23</v>
       </c>
       <c r="Z18" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -29763,7 +29785,7 @@
         <v>10.06</v>
       </c>
       <c r="Z31" s="212" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30079,7 +30101,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z37" s="212" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30196,7 +30218,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="Z39" s="212" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30431,7 +30453,7 @@
     </row>
     <row r="45" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
@@ -30475,7 +30497,7 @@
         <v>953.56005999999968</v>
       </c>
       <c r="S45" s="197" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -30785,7 +30807,7 @@
         <v>10.06</v>
       </c>
       <c r="Z51" s="212" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -32762,10 +32784,10 @@
       </c>
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="265" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B167" s="265"/>
+      <c r="A167" s="264" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B167" s="264"/>
       <c r="C167" s="53">
         <v>11.14</v>
       </c>
@@ -32857,7 +32879,7 @@
         <v>673</v>
       </c>
       <c r="E172" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -32892,7 +32914,7 @@
       <c r="D174" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="E174" s="315" t="s">
+      <c r="E174" s="312" t="s">
         <v>961</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -32914,7 +32936,7 @@
       <c r="D175" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E175" s="315"/>
+      <c r="E175" s="312"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -33125,7 +33147,7 @@
       <c r="A186" s="53" t="s">
         <v>995</v>
       </c>
-      <c r="B186" s="267"/>
+      <c r="B186" s="266"/>
       <c r="C186" s="54" t="s">
         <v>996</v>
       </c>
@@ -34553,7 +34575,7 @@
     </row>
     <row r="248" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="65" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B248" s="65"/>
       <c r="C248" s="165" t="s">
@@ -34563,7 +34585,7 @@
         <v>700</v>
       </c>
       <c r="E248" s="83" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F248" s="60" t="s">
         <v>817</v>
@@ -35015,11 +35037,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="316" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B267" s="316"/>
-      <c r="C267" s="316"/>
+      <c r="A267" s="313" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B267" s="313"/>
+      <c r="C267" s="313"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -35032,19 +35054,19 @@
     </row>
     <row r="268" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="67" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B268" s="67" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C268" s="254" t="s">
-        <v>1498</v>
+        <v>1559</v>
+      </c>
+      <c r="C268" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="E268" s="282" t="s">
-        <v>1731</v>
+      <c r="E268" s="281" t="s">
+        <v>1721</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>817</v>
@@ -35052,19 +35074,19 @@
     </row>
     <row r="269" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="177" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C269" s="254" t="s">
-        <v>1498</v>
+        <v>1560</v>
+      </c>
+      <c r="C269" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D269" s="133" t="s">
         <v>521</v>
       </c>
       <c r="E269" s="130" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F269" s="129" t="s">
         <v>817</v>
@@ -35072,48 +35094,48 @@
       <c r="J269" s="130"/>
     </row>
     <row r="270" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="256" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B270" s="256" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C270" s="254" t="s">
-        <v>1498</v>
+      <c r="A270" s="255" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B270" s="255" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C270" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="E270" s="254" t="s">
-        <v>1510</v>
+      <c r="E270" s="253" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="257" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B271" s="257" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C271" s="254" t="s">
-        <v>1498</v>
+      <c r="A271" s="256" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B271" s="256" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C271" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>667</v>
       </c>
       <c r="E271" s="218" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="256" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B272" s="256" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C272" s="254" t="s">
+      <c r="A272" s="255" t="s">
         <v>1498</v>
+      </c>
+      <c r="B272" s="255" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C272" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>659</v>
@@ -35124,14 +35146,14 @@
       <c r="F272" s="83"/>
     </row>
     <row r="273" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="257" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B273" s="257" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C273" s="254" t="s">
-        <v>1498</v>
+      <c r="A273" s="256" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B273" s="256" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C273" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D273" s="13" t="s">
         <v>726</v>
@@ -35142,20 +35164,20 @@
       <c r="F273" s="83"/>
     </row>
     <row r="274" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="256" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B274" s="256" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C274" s="254" t="s">
-        <v>1498</v>
+      <c r="A274" s="255" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B274" s="255" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C274" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>689</v>
       </c>
       <c r="E274" s="225" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="G274" s="83"/>
       <c r="U274" s="212"/>
@@ -35166,20 +35188,20 @@
       <c r="Z274" s="212"/>
     </row>
     <row r="275" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="256" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B275" s="256" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C275" s="254" t="s">
-        <v>1498</v>
+      <c r="A275" s="255" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B275" s="255" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C275" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>712</v>
       </c>
       <c r="E275" s="83" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F275" s="83"/>
       <c r="G275" s="83"/>
@@ -35191,114 +35213,114 @@
       <c r="Z275" s="212"/>
     </row>
     <row r="276" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="254" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B276" s="267" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C276" s="254" t="s">
-        <v>1498</v>
+      <c r="A276" s="253" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B276" s="266" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C276" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="E276" s="254" t="s">
-        <v>1397</v>
+      <c r="E276" s="253" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C277" s="254" t="s">
-        <v>1498</v>
+        <v>1568</v>
+      </c>
+      <c r="C277" s="253" t="s">
+        <v>1494</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>701</v>
       </c>
       <c r="E277" s="130" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="67" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C278" s="255" t="s">
-        <v>1498</v>
+        <v>1569</v>
+      </c>
+      <c r="C278" s="254" t="s">
+        <v>1494</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>852</v>
       </c>
       <c r="E278" s="95" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="279" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="262" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B279" s="262" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C279" s="259" t="s">
-        <v>1543</v>
+      <c r="A279" s="261" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B279" s="261" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C279" s="258" t="s">
+        <v>1536</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>794</v>
       </c>
       <c r="E279" s="83" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H279" s="83"/>
     </row>
     <row r="280" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="263" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B280" s="263" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C280" s="259" t="s">
-        <v>1543</v>
+      <c r="A280" s="262" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B280" s="262" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C280" s="258" t="s">
+        <v>1536</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E280" s="259" t="s">
-        <v>1410</v>
+      <c r="E280" s="258" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="281" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="264" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B281" s="264" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C281" s="259" t="s">
-        <v>1543</v>
+      <c r="A281" s="263" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B281" s="263" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C281" s="258" t="s">
+        <v>1536</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E281" s="259" t="s">
-        <v>1410</v>
+      <c r="E281" s="258" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="265" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B282" s="265" t="s">
-        <v>1560</v>
+      <c r="A282" s="264" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B282" s="264" t="s">
+        <v>1553</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35307,26 +35329,26 @@
         <v>738</v>
       </c>
       <c r="E282" s="83" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F282" s="83"/>
       <c r="G282"/>
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C283" s="260" t="s">
-        <v>1561</v>
+        <v>1573</v>
+      </c>
+      <c r="C283" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>1262</v>
       </c>
       <c r="E283" s="130" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="F283" s="69" t="s">
         <v>977</v>
@@ -35337,13 +35359,13 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C284" s="260" t="s">
-        <v>1561</v>
+        <v>1574</v>
+      </c>
+      <c r="C284" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>731</v>
@@ -35357,13 +35379,13 @@
     </row>
     <row r="285" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C285" s="260" t="s">
-        <v>1561</v>
+        <v>1575</v>
+      </c>
+      <c r="C285" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>617</v>
@@ -35377,13 +35399,13 @@
     </row>
     <row r="286" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C286" s="260" t="s">
-        <v>1561</v>
+        <v>1576</v>
+      </c>
+      <c r="C286" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>788</v>
@@ -35397,13 +35419,13 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C287" s="260" t="s">
-        <v>1561</v>
+        <v>1577</v>
+      </c>
+      <c r="C287" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>984</v>
@@ -35417,13 +35439,13 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B288" s="178" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C288" s="259" t="s">
         <v>1554</v>
-      </c>
-      <c r="B288" s="178" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C288" s="260" t="s">
-        <v>1561</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>745</v>
@@ -35437,13 +35459,13 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C289" s="260" t="s">
-        <v>1561</v>
+        <v>1579</v>
+      </c>
+      <c r="C289" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>677</v>
@@ -35457,13 +35479,13 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C290" s="260" t="s">
-        <v>1561</v>
+        <v>1580</v>
+      </c>
+      <c r="C290" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>846</v>
@@ -35477,13 +35499,13 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C291" s="260" t="s">
-        <v>1561</v>
+        <v>1581</v>
+      </c>
+      <c r="C291" s="259" t="s">
+        <v>1554</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>703</v>
@@ -35497,13 +35519,13 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C292" s="267" t="s">
-        <v>1561</v>
+        <v>1582</v>
+      </c>
+      <c r="C292" s="266" t="s">
+        <v>1554</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>972</v>
@@ -35517,13 +35539,13 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C293" s="267" t="s">
-        <v>1561</v>
+        <v>1584</v>
+      </c>
+      <c r="C293" s="266" t="s">
+        <v>1554</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>757</v>
@@ -35536,15 +35558,15 @@
       </c>
       <c r="H293" s="69"/>
     </row>
-    <row r="294" spans="1:8" s="267" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="266" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C294" s="267" t="s">
-        <v>1561</v>
+        <v>1586</v>
+      </c>
+      <c r="C294" s="266" t="s">
+        <v>1554</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>658</v>
@@ -35559,14 +35581,14 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E295" s="274" t="s">
         <v>1360</v>
-      </c>
-      <c r="E295" s="275" t="s">
-        <v>1361</v>
       </c>
       <c r="F295" s="53"/>
     </row>
@@ -35575,26 +35597,26 @@
         <v>1245</v>
       </c>
       <c r="B296" s="180"/>
-      <c r="C296" s="260"/>
+      <c r="C296" s="259"/>
       <c r="D296" s="182" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="180" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B297" s="180"/>
-      <c r="C297" s="260"/>
+      <c r="C297" s="259"/>
       <c r="D297" s="182" t="s">
         <v>1268</v>
       </c>
-      <c r="E297" s="275" t="s">
-        <v>1625</v>
+      <c r="E297" s="274" t="s">
+        <v>1616</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35602,7 +35624,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35611,8 +35633,8 @@
       <c r="D298" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="E298" s="274" t="s">
-        <v>1623</v>
+      <c r="E298" s="273" t="s">
+        <v>1614</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>817</v>
@@ -35620,7 +35642,7 @@
     </row>
     <row r="299" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="181" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B299" s="181"/>
       <c r="C299" s="166" t="s">
@@ -35629,8 +35651,8 @@
       <c r="D299" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E299" s="275" t="s">
-        <v>1624</v>
+      <c r="E299" s="274" t="s">
+        <v>1615</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>817</v>
@@ -35638,7 +35660,7 @@
     </row>
     <row r="300" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="180" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B300" s="180"/>
       <c r="C300" s="176" t="s">
@@ -35648,41 +35670,41 @@
         <v>668</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="278" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B303" s="280" t="s">
         <v>1633</v>
       </c>
-      <c r="C303" s="281" t="s">
-        <v>1663</v>
+      <c r="B303" s="279" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C303" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="F303" s="279" t="s">
+      <c r="F303" s="278" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B304" s="283" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C304" s="281" t="s">
-        <v>1663</v>
+        <v>1649</v>
+      </c>
+      <c r="B304" s="282" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C304" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>716</v>
       </c>
       <c r="E304" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F304" s="121" t="s">
         <v>817</v>
@@ -35693,19 +35715,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B305" s="287" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C305" s="281" t="s">
-        <v>1663</v>
+        <v>1622</v>
+      </c>
+      <c r="B305" s="286" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C305" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E305" s="282" t="s">
-        <v>1630</v>
+      <c r="E305" s="281" t="s">
+        <v>1621</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>817</v>
@@ -35716,19 +35738,19 @@
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="235" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B306" s="286" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C306" s="281" t="s">
-        <v>1663</v>
+        <v>1623</v>
+      </c>
+      <c r="B306" s="285" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C306" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>963</v>
       </c>
       <c r="E306" s="83" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F306" s="121" t="s">
         <v>817</v>
@@ -35739,19 +35761,19 @@
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="235" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B307" s="286" t="s">
         <v>1654</v>
       </c>
-      <c r="B307" s="287" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C307" s="281" t="s">
-        <v>1663</v>
+      <c r="C307" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E307" s="83" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F307" s="121" t="s">
         <v>817</v>
@@ -35762,19 +35784,19 @@
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="235" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B308" s="287" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C308" s="281" t="s">
-        <v>1663</v>
+        <v>1645</v>
+      </c>
+      <c r="B308" s="286" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C308" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>782</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>817</v>
@@ -35785,76 +35807,76 @@
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="235" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B309" s="287" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C309" s="281" t="s">
-        <v>1663</v>
+        <v>1646</v>
+      </c>
+      <c r="B309" s="286" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C309" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>768</v>
       </c>
       <c r="E309" s="53" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F309" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G309" s="89" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B310" s="283" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C310" s="281" t="s">
-        <v>1663</v>
+        <v>1647</v>
+      </c>
+      <c r="B310" s="282" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C310" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E310" s="282" t="s">
-        <v>1640</v>
+        <v>1630</v>
+      </c>
+      <c r="E310" s="281" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B311" s="288" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C311" s="281" t="s">
-        <v>1663</v>
+        <v>1650</v>
+      </c>
+      <c r="B311" s="287" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C311" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>746</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G311" s="130" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B312" s="283" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C312" s="281" t="s">
-        <v>1663</v>
+        <v>1651</v>
+      </c>
+      <c r="B312" s="282" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C312" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>696</v>
@@ -35867,42 +35889,42 @@
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B313" s="288" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C313" s="281" t="s">
-        <v>1663</v>
+        <v>1648</v>
+      </c>
+      <c r="B313" s="287" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C313" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E313" s="275" t="s">
-        <v>1643</v>
+      <c r="E313" s="274" t="s">
+        <v>1634</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G313" s="130" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B314" s="284" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C314" s="281" t="s">
-        <v>1663</v>
+        <v>1635</v>
+      </c>
+      <c r="B314" s="283" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C314" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>643</v>
       </c>
       <c r="E314" s="83" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F314" s="121" t="s">
         <v>817</v>
@@ -35913,13 +35935,13 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B315" s="285" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C315" s="281" t="s">
-        <v>1663</v>
+        <v>1652</v>
+      </c>
+      <c r="B315" s="284" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C315" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>666</v>
@@ -35933,42 +35955,42 @@
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="235" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B316" s="286" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C316" s="281" t="s">
-        <v>1663</v>
+        <v>1638</v>
+      </c>
+      <c r="B316" s="285" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C316" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E316" s="307" t="s">
-        <v>1648</v>
+      <c r="E316" s="61" t="s">
+        <v>1748</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G316" s="275" t="s">
+      <c r="G316" s="274" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B317" s="288" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C317" s="281" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B317" s="287" t="s">
         <v>1663</v>
+      </c>
+      <c r="C317" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E317" s="130" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F317" s="121" t="s">
         <v>86</v>
@@ -35979,19 +36001,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B318" s="287" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C318" s="281" t="s">
-        <v>1663</v>
+        <v>1640</v>
+      </c>
+      <c r="B318" s="286" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C318" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -36002,155 +36024,155 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B319" s="287" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C319" s="281" t="s">
-        <v>1663</v>
+        <v>1642</v>
+      </c>
+      <c r="B319" s="286" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C319" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
       </c>
       <c r="E319" s="83" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G319" s="267"/>
+        <v>1376</v>
+      </c>
+      <c r="G319" s="266"/>
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B320" s="284" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C320" s="280" t="s">
         <v>1653</v>
-      </c>
-      <c r="B320" s="285" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C320" s="281" t="s">
-        <v>1663</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>662</v>
       </c>
       <c r="E320" s="83" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G320" s="267"/>
+        <v>1375</v>
+      </c>
+      <c r="G320" s="266"/>
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B321" s="288" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C321" s="281" t="s">
-        <v>1663</v>
+        <v>1641</v>
+      </c>
+      <c r="B321" s="287" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C321" s="280" t="s">
+        <v>1653</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>709</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G321" s="130" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B322" s="287" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C322" s="290" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D322" s="243" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B322" s="286" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C322" s="289" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D322" s="242" t="s">
         <v>758</v>
       </c>
-      <c r="E322" s="275" t="s">
-        <v>1734</v>
+      <c r="E322" s="274" t="s">
+        <v>1724</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>817</v>
       </c>
       <c r="G322" s="130" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="B323" s="63" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C323" s="290" t="s">
-        <v>1688</v>
+        <v>1676</v>
+      </c>
+      <c r="C323" s="289" t="s">
+        <v>1678</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>780</v>
       </c>
       <c r="E323" s="130" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F323" s="130"/>
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B324" s="177" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C324" s="290" t="s">
-        <v>1688</v>
+        <v>1416</v>
+      </c>
+      <c r="C324" s="289" t="s">
+        <v>1678</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E324" s="225" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F324" s="225"/>
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="B325" s="178" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C325" s="290" t="s">
-        <v>1688</v>
+        <v>1677</v>
+      </c>
+      <c r="C325" s="289" t="s">
+        <v>1678</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>660</v>
       </c>
       <c r="E325" s="225" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F325" s="225"/>
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B326" s="175" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C326" s="291" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D326" s="243" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C326" s="290" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D326" s="242" t="s">
         <v>677</v>
       </c>
-      <c r="E326" s="275" t="s">
-        <v>1621</v>
+      <c r="E326" s="274" t="s">
+        <v>1612</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>817</v>
@@ -36160,20 +36182,20 @@
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="241" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B327" s="241" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C327" s="291" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D327" s="243" t="s">
+      <c r="A327" s="240" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B327" s="240" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C327" s="290" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D327" s="242" t="s">
         <v>616</v>
       </c>
-      <c r="E327" s="275" t="s">
-        <v>1679</v>
+      <c r="E327" s="274" t="s">
+        <v>1669</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>817</v>
@@ -36185,19 +36207,19 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C328" s="291" t="s">
-        <v>1698</v>
+        <v>1691</v>
+      </c>
+      <c r="C328" s="290" t="s">
+        <v>1688</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="E328" s="275" t="s">
-        <v>1477</v>
+      <c r="E328" s="274" t="s">
+        <v>1474</v>
       </c>
       <c r="F328" s="60" t="s">
         <v>817</v>
@@ -36208,19 +36230,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="B329" s="151" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C329" s="291" t="s">
-        <v>1698</v>
+        <v>1519</v>
+      </c>
+      <c r="C329" s="290" t="s">
+        <v>1688</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E329" s="275" t="s">
-        <v>1612</v>
+      <c r="E329" s="274" t="s">
+        <v>1605</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>817</v>
@@ -36231,19 +36253,19 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="B330" s="65" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C330" s="292" t="s">
-        <v>1698</v>
+        <v>1515</v>
+      </c>
+      <c r="C330" s="291" t="s">
+        <v>1688</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="E330" s="275" t="s">
-        <v>1475</v>
+      <c r="E330" s="274" t="s">
+        <v>1472</v>
       </c>
       <c r="F330" s="121" t="s">
         <v>817</v>
@@ -36254,19 +36276,19 @@
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="235" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="B332" s="235" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C332" s="297" t="s">
-        <v>1724</v>
+        <v>1527</v>
+      </c>
+      <c r="C332" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="E332" s="317" t="s">
-        <v>1690</v>
+      <c r="E332" s="314" t="s">
+        <v>1680</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>817</v>
@@ -36277,18 +36299,18 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="B333" s="151" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C333" s="297" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D333" s="243" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E333" s="317"/>
+        <v>1703</v>
+      </c>
+      <c r="C333" s="294" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D333" s="242" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E333" s="314"/>
       <c r="F333" s="121" t="s">
         <v>817</v>
       </c>
@@ -36298,18 +36320,18 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="B334" s="132" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C334" s="294" t="s">
         <v>1714</v>
       </c>
-      <c r="C334" s="297" t="s">
-        <v>1724</v>
-      </c>
       <c r="D334" s="13" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E334" s="317"/>
+        <v>1405</v>
+      </c>
+      <c r="E334" s="314"/>
       <c r="F334" s="121" t="s">
         <v>817</v>
       </c>
@@ -36319,40 +36341,40 @@
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="234" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="B335" s="234" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C335" s="297" t="s">
-        <v>1724</v>
+        <v>1705</v>
+      </c>
+      <c r="C335" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="E335" s="282" t="s">
-        <v>1718</v>
+      <c r="E335" s="281" t="s">
+        <v>1708</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G335" s="242"/>
+      <c r="G335" s="241"/>
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="B336" s="132" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C336" s="297" t="s">
-        <v>1724</v>
+        <v>1521</v>
+      </c>
+      <c r="C336" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="E336" s="275" t="s">
-        <v>1695</v>
+      <c r="E336" s="274" t="s">
+        <v>1685</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36362,20 +36384,20 @@
       </c>
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="296" t="s">
-        <v>1725</v>
+      <c r="A337" s="177" t="s">
+        <v>1715</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C337" s="297" t="s">
-        <v>1724</v>
+        <v>1706</v>
+      </c>
+      <c r="C337" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>879</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>817</v>
@@ -36383,42 +36405,42 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C338" s="297" t="s">
-        <v>1724</v>
+        <v>1710</v>
+      </c>
+      <c r="C338" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D338" s="239" t="s">
         <v>801</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1246</v>
       </c>
       <c r="G338" s="83" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C339" s="297" t="s">
-        <v>1724</v>
+        <v>1517</v>
+      </c>
+      <c r="C339" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="E339" s="275" t="s">
-        <v>1739</v>
+      <c r="E339" s="274" t="s">
+        <v>1728</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>817</v>
@@ -36429,19 +36451,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="B340" s="137" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C340" s="297" t="s">
-        <v>1724</v>
+        <v>1713</v>
+      </c>
+      <c r="C340" s="294" t="s">
+        <v>1714</v>
       </c>
       <c r="D340" s="239" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>817</v>
@@ -36452,19 +36474,19 @@
     </row>
     <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="132" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="B341" s="132" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C341" s="304" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D341" s="243" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C341" s="301" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D341" s="242" t="s">
         <v>296</v>
       </c>
-      <c r="E341" s="275" t="s">
-        <v>1729</v>
+      <c r="E341" s="274" t="s">
+        <v>1719</v>
       </c>
       <c r="F341" s="121" t="s">
         <v>817</v>
@@ -36475,19 +36497,19 @@
     </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="235" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B342" s="235" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C342" s="301" t="s">
         <v>1733</v>
-      </c>
-      <c r="B342" s="235" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C342" s="304" t="s">
-        <v>1745</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E342" s="275" t="s">
-        <v>1408</v>
+      <c r="E342" s="274" t="s">
+        <v>1406</v>
       </c>
       <c r="F342" s="121" t="s">
         <v>817</v>
@@ -36498,24 +36520,24 @@
     </row>
     <row r="343" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="132" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C343" s="310" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D343" s="243" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C343" s="306" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D343" s="242" t="s">
         <v>645</v>
       </c>
-      <c r="E343" s="275" t="s">
-        <v>1738</v>
+      <c r="E343" s="274" t="s">
+        <v>1727</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G343" s="275"/>
+      <c r="G343" s="274"/>
       <c r="H343" s="83"/>
       <c r="U343"/>
       <c r="V343"/>
@@ -36526,79 +36548,61 @@
     </row>
     <row r="344" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="67" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C344" s="310" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D344" s="243" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C344" s="306" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D344" s="242" t="s">
         <v>645</v>
       </c>
-      <c r="E344" s="275" t="s">
-        <v>1738</v>
+      <c r="E344" s="274" t="s">
+        <v>1727</v>
       </c>
       <c r="F344" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="G344" s="275" t="s">
+      <c r="G344" s="274" t="s">
         <v>86</v>
       </c>
       <c r="H344" s="83" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="346" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="240" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B346" s="259"/>
-      <c r="E346" s="61" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F346" s="83"/>
-      <c r="G346"/>
-      <c r="H346" s="83"/>
-      <c r="U346"/>
-      <c r="V346"/>
-      <c r="W346"/>
-      <c r="X346"/>
-      <c r="Y346"/>
-      <c r="Z346"/>
-    </row>
-    <row r="349" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="178" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B349" s="178">
-        <v>39</v>
-      </c>
-      <c r="C349" s="310" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D349" s="239" t="s">
+    <row r="345" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="178" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B345" s="178" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C345" s="306" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D345" s="242" t="s">
         <v>680</v>
       </c>
-      <c r="E349" s="226" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F349" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G349" s="61" t="s">
+      <c r="E345" s="226" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G345" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H349" s="83" t="s">
+      <c r="H345" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="U349"/>
-      <c r="V349"/>
-      <c r="W349"/>
-      <c r="X349"/>
-      <c r="Y349"/>
-      <c r="Z349"/>
+      <c r="U345"/>
+      <c r="V345"/>
+      <c r="W345"/>
+      <c r="X345"/>
+      <c r="Y345"/>
+      <c r="Z345"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36617,10 +36621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36637,12 +36641,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="230" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="319" t="s">
-        <v>1409</v>
+      <c r="A2" s="316" t="s">
+        <v>1407</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>359</v>
@@ -36658,12 +36662,12 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="319"/>
+      <c r="A3" s="316"/>
       <c r="B3" s="65" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C3" s="132" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D3" s="54">
         <v>11.17</v>
@@ -36677,12 +36681,12 @@
       <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="319"/>
+      <c r="A4" s="316"/>
       <c r="B4" s="67" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D4" s="58">
         <v>12.7</v>
@@ -36695,12 +36699,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="319"/>
+      <c r="A5" s="316"/>
       <c r="B5" s="139" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D5" s="224" t="s">
         <v>531</v>
@@ -36713,7 +36717,7 @@
       </c>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" s="244" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="243" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="54"/>
       <c r="E6" s="13"/>
       <c r="F6" s="83"/>
@@ -36721,7 +36725,7 @@
     </row>
     <row r="7" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="229" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="13"/>
@@ -36729,110 +36733,110 @@
       <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="320" t="s">
-        <v>1413</v>
+      <c r="A8" s="317" t="s">
+        <v>1411</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C8" s="228" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="321"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="66" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C9" s="228" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D9" s="54">
         <v>11.22</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="321"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="66" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C10" s="228" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D10" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="321"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="66" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C11" s="228" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D11" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="321"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="66" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C12" s="228" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D12" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="321"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="68" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C13" s="228" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D13" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="321"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="68" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C14" s="228" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D14" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="321"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="66" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C15" s="228" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D15" s="54">
         <v>11.26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="322"/>
+      <c r="A16" s="319"/>
       <c r="B16" s="66" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C16" s="228" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D16" s="54">
         <v>11.26</v>
@@ -36845,7 +36849,7 @@
     </row>
     <row r="18" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="227" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -36865,7 +36869,7 @@
         <v>1211</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -36880,10 +36884,10 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D20" s="54">
         <v>11.18</v>
@@ -36892,10 +36896,10 @@
         <v>658</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>817</v>
@@ -36910,10 +36914,10 @@
     </row>
     <row r="21" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D21" s="58">
         <v>11.9</v>
@@ -36922,10 +36926,10 @@
         <v>698</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G21" s="318" t="s">
-        <v>1454</v>
+        <v>1742</v>
+      </c>
+      <c r="G21" s="315" t="s">
+        <v>1451</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>501</v>
@@ -36944,10 +36948,10 @@
     </row>
     <row r="22" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D22" s="58">
         <v>11.9</v>
@@ -36956,9 +36960,9 @@
         <v>698</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1759</v>
-      </c>
-      <c r="G22" s="318"/>
+        <v>1745</v>
+      </c>
+      <c r="G22" s="315"/>
       <c r="H22" s="61" t="s">
         <v>501</v>
       </c>
@@ -36976,10 +36980,10 @@
     </row>
     <row r="23" spans="1:28" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D23" s="58">
         <v>12.9</v>
@@ -36988,17 +36992,17 @@
         <v>738</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="G23" s="231" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="83"/>
     </row>
-    <row r="24" spans="1:28" s="244" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="243" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="54">
@@ -37011,16 +37015,16 @@
         <v>1234</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="H24" s="226" t="s">
         <v>86</v>
       </c>
       <c r="I24" s="83"/>
     </row>
-    <row r="25" spans="1:28" s="267" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="266" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="54">
@@ -37030,10 +37034,10 @@
         <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="I25" s="83"/>
     </row>
@@ -37045,11 +37049,11 @@
     <row r="27" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="225"/>
       <c r="B27" s="230" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C27" s="225"/>
       <c r="D27" s="230" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="G27" s="225"/>
       <c r="W27" s="212"/>
@@ -37060,11 +37064,11 @@
       <c r="AB27" s="212"/>
     </row>
     <row r="28" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B28" s="301" t="s">
-        <v>1496</v>
+      <c r="A28" s="265" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B28" s="298" t="s">
+        <v>1492</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="166" t="s">
@@ -37089,11 +37093,11 @@
       <c r="AB28" s="212"/>
     </row>
     <row r="29" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="298" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B29" s="300" t="s">
-        <v>1728</v>
+      <c r="A29" s="295" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B29" s="297" t="s">
+        <v>1718</v>
       </c>
       <c r="D29" s="225" t="s">
         <v>1222</v>
@@ -37102,383 +37106,359 @@
         <v>700</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="275"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="296" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="274"/>
     </row>
     <row r="31" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
+      <c r="A31" s="266"/>
       <c r="B31" s="132"/>
-      <c r="C31" s="267"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="13"/>
       <c r="E31" s="130"/>
       <c r="F31" s="130"/>
       <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="269" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C32" s="270"/>
-      <c r="D32" s="271" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
-        <v>1445</v>
+      <c r="B32" s="268" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C32" s="269"/>
+      <c r="D32" s="270" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="263" t="s">
+        <v>1632</v>
       </c>
       <c r="C33" s="67">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D33" s="54">
-        <v>12.17</v>
+        <v>11.19</v>
       </c>
       <c r="E33" s="239" t="s">
-        <v>435</v>
+        <v>734</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1762</v>
+        <v>1683</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="I33" s="83" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="264" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C34" s="67">
-        <v>18</v>
-      </c>
-      <c r="D34" s="54">
-        <v>11.19</v>
+      <c r="I33" s="130" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="290" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="252" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B34" s="175" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C34" s="65">
+        <v>7</v>
+      </c>
+      <c r="D34" s="58">
+        <v>12.6</v>
       </c>
       <c r="E34" s="239" t="s">
-        <v>734</v>
+        <v>783</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G34" s="61"/>
       <c r="H34" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="I34" s="130" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="253" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B35" s="175" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C35" s="65">
-        <v>7</v>
-      </c>
-      <c r="D35" s="58">
-        <v>12.6</v>
-      </c>
-      <c r="E35" s="239" t="s">
-        <v>783</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>1704</v>
-      </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="121" t="s">
+      <c r="I34" s="89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="290" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="268" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+    </row>
+    <row r="36" spans="1:9" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:9" s="290" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" s="290" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="13"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="1:9" s="258" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="225"/>
+      <c r="B39" s="233" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" s="225"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" s="225"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="232" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="258"/>
+      <c r="B42" s="267" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C42" s="258"/>
+      <c r="D42" s="58">
+        <v>11.8</v>
+      </c>
+      <c r="E42" s="258"/>
+      <c r="F42" s="258"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="60" t="s">
         <v>817</v>
       </c>
-      <c r="I35" s="89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="269" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-    </row>
-    <row r="37" spans="1:9" s="280" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" s="291" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="13"/>
-      <c r="I39" s="130"/>
-    </row>
-    <row r="40" spans="1:9" s="259" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="225"/>
-      <c r="B40" s="233" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C40" s="225"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40" s="225"/>
-    </row>
-    <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="232" t="s">
+    </row>
+    <row r="43" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="225"/>
+    </row>
+    <row r="44" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="233" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H44" s="225"/>
+    </row>
+    <row r="45" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="65" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C45" s="225">
+        <v>9</v>
+      </c>
+      <c r="D45" s="58">
+        <v>11.9</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F45" s="168" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G45" s="292"/>
+      <c r="H45" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="272" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="292"/>
+      <c r="B46" s="65"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="292"/>
+      <c r="H46" s="274"/>
+    </row>
+    <row r="47" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>492</v>
+      </c>
+      <c r="I47" s="83"/>
+    </row>
+    <row r="48" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="233" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D48" s="270" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E48" s="270" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="270" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="I48" s="130" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="234" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C49" s="225">
+        <v>2</v>
+      </c>
+      <c r="D49" s="54">
+        <v>10.3</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="F49" s="168" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G49" s="266"/>
+      <c r="H49" s="121" t="s">
+        <v>817</v>
+      </c>
+      <c r="I49" s="130" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="225"/>
+      <c r="B50" s="234" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C50" s="225">
+        <v>5</v>
+      </c>
+      <c r="D50" s="58">
+        <v>11.7</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="F50" s="168" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G50" s="266"/>
+      <c r="H50" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="I50" s="130" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="234" t="s">
         <v>1455</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F41" s="90" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="259"/>
-      <c r="B43" s="268" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C43" s="259"/>
-      <c r="D43" s="58">
-        <v>11.8</v>
-      </c>
-      <c r="E43" s="259"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="259"/>
-      <c r="H43" s="60" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="225"/>
-    </row>
-    <row r="45" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="233" t="s">
-        <v>1469</v>
-      </c>
-      <c r="H45" s="225"/>
-    </row>
-    <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="65" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C46" s="225">
-        <v>9</v>
-      </c>
-      <c r="D46" s="58">
-        <v>11.9</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F46" s="168" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G46" s="293"/>
-      <c r="H46" s="60" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="273" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="293"/>
-      <c r="B47" s="65"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="293"/>
-      <c r="H47" s="275"/>
-    </row>
-    <row r="48" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>492</v>
-      </c>
-      <c r="I48" s="83"/>
-    </row>
-    <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="233" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D49" s="271" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E49" s="271" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F49" s="271" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="I49" s="130" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="234" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C50" s="225">
-        <v>2</v>
-      </c>
-      <c r="D50" s="54">
-        <v>10.3</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="F50" s="168" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G50" s="267"/>
-      <c r="H50" s="121" t="s">
-        <v>817</v>
-      </c>
-      <c r="I50" s="130" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="225"/>
-      <c r="B51" s="234" t="s">
-        <v>1461</v>
       </c>
       <c r="C51" s="225">
         <v>5</v>
       </c>
-      <c r="D51" s="58">
-        <v>11.7</v>
+      <c r="D51" s="54">
+        <v>11.12</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G51" s="267"/>
-      <c r="H51" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="I51" s="130" t="s">
-        <v>1401</v>
+        <v>1598</v>
+      </c>
+      <c r="G51" s="266" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="234" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C52" s="225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="54">
-        <v>11.12</v>
+        <v>11.21</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G52" s="267" t="s">
         <v>1606</v>
       </c>
+      <c r="G52" s="266"/>
       <c r="H52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
       <c r="B53" s="234" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C53" s="225">
-        <v>1</v>
-      </c>
-      <c r="D53" s="54">
-        <v>11.21</v>
+        <v>1456</v>
+      </c>
+      <c r="C53" s="53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="58">
+        <v>12.8</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="F53" s="168" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G53" s="267"/>
-      <c r="H53" t="s">
-        <v>86</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="G53" s="266"/>
     </row>
     <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="234" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C54" s="53">
-        <v>4</v>
-      </c>
-      <c r="D54" s="58">
-        <v>12.8</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>773</v>
+      <c r="A54"/>
+      <c r="B54" s="235" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2</v>
+      </c>
+      <c r="D54" s="257" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="236" t="s">
+        <v>518</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G54" s="267"/>
+        <v>1607</v>
+      </c>
+      <c r="G54" s="266"/>
     </row>
     <row r="55" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55" s="235" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="7">
-        <v>2</v>
-      </c>
-      <c r="D55" s="258" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="236" t="s">
-        <v>518</v>
+      <c r="B55" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="257">
+        <v>3</v>
+      </c>
+      <c r="D55" s="54">
+        <v>8.24</v>
+      </c>
+      <c r="E55" s="260" t="s">
+        <v>1532</v>
       </c>
       <c r="F55" s="168" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G55" s="267"/>
-    </row>
-    <row r="56" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56" s="151" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="258">
-        <v>3</v>
-      </c>
-      <c r="D56" s="54">
-        <v>8.24</v>
-      </c>
-      <c r="E56" s="261" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F56" s="168" t="s">
         <v>522</v>
       </c>
-      <c r="G56" s="267"/>
+      <c r="G55" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -37495,10 +37475,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37518,7 +37498,7 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -37532,7 +37512,7 @@
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="B2" s="132">
         <v>9</v>
@@ -37544,21 +37524,21 @@
         <v>528</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F2" s="259" t="s">
-        <v>1533</v>
+        <v>1473</v>
+      </c>
+      <c r="F2" s="258" t="s">
+        <v>1528</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>817</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B3" s="132">
         <v>10</v>
@@ -37567,13 +37547,13 @@
         <v>9.24</v>
       </c>
       <c r="D3" s="239" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E3" s="259" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1534</v>
+        <v>1398</v>
+      </c>
+      <c r="E3" s="258" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F3" s="307" t="s">
+        <v>1752</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>817</v>
@@ -37584,7 +37564,7 @@
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B4" s="151">
         <v>20</v>
@@ -37596,10 +37576,10 @@
         <v>646</v>
       </c>
       <c r="E4" s="226" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F4" s="289" t="s">
-        <v>1682</v>
+        <v>1741</v>
+      </c>
+      <c r="F4" s="288" t="s">
+        <v>1672</v>
       </c>
       <c r="G4" s="121" t="s">
         <v>86</v>
@@ -37608,197 +37588,197 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B6" s="65">
+    <row r="5" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B5" s="65">
         <v>5</v>
       </c>
+      <c r="C5" s="54">
+        <v>11.13</v>
+      </c>
+      <c r="D5" s="242" t="s">
+        <v>706</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B6" s="132">
+        <v>1</v>
+      </c>
       <c r="C6" s="54">
-        <v>11.13</v>
-      </c>
-      <c r="D6" s="243" t="s">
-        <v>706</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G6" s="60" t="s">
+        <v>11.14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" s="226" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="83"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B7" s="65">
+        <v>6</v>
+      </c>
+      <c r="C7" s="54">
+        <v>11.19</v>
+      </c>
+      <c r="D7" s="239" t="s">
+        <v>733</v>
+      </c>
+      <c r="E7" s="226" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B8" s="63">
+        <v>5</v>
+      </c>
+      <c r="C8" s="54">
+        <v>11.3</v>
+      </c>
+      <c r="D8" s="239" t="s">
+        <v>778</v>
+      </c>
+      <c r="E8" s="226" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B9" s="67">
+        <v>12</v>
+      </c>
+      <c r="C9" s="58">
+        <v>12.7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" s="226" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F9" s="307" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B7" s="132">
-        <v>1</v>
-      </c>
-      <c r="C7" s="54">
-        <v>11.14</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="E7" s="226" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G7" s="61" t="s">
+      <c r="H9" s="130" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B10" s="67">
+        <v>9</v>
+      </c>
+      <c r="C10" s="54">
+        <v>12.14</v>
+      </c>
+      <c r="D10" s="242" t="s">
+        <v>850</v>
+      </c>
+      <c r="E10" s="226" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F10" s="300" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G10" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B8" s="65">
-        <v>6</v>
-      </c>
-      <c r="C8" s="54">
-        <v>11.19</v>
-      </c>
-      <c r="D8" s="239" t="s">
-        <v>733</v>
-      </c>
-      <c r="E8" s="226" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B9" s="63">
-        <v>5</v>
-      </c>
-      <c r="C9" s="54">
-        <v>11.3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E9" s="226" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="83"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B10" s="67">
-        <v>12</v>
-      </c>
-      <c r="C10" s="58">
-        <v>12.7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="E10" s="226" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="H10" s="130" t="s">
-        <v>1401</v>
-      </c>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="B11" s="67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="54">
-        <v>12.14</v>
-      </c>
-      <c r="D11" s="243" t="s">
-        <v>850</v>
+        <v>12.21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>993</v>
       </c>
       <c r="E11" s="226" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F11" s="303" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G11" s="88" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F11" s="302" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>817</v>
+      </c>
+      <c r="H11" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="83"/>
-    </row>
-    <row r="12" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" s="237" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="B12" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="54">
-        <v>12.21</v>
+        <v>1.2</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="E12" s="226" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E12" s="237" t="s">
         <v>1746</v>
       </c>
-      <c r="F12" s="305" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>817</v>
-      </c>
-      <c r="H12" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="237" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B13" s="67">
-        <v>3</v>
-      </c>
-      <c r="C13" s="54">
-        <v>1.2</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E13" s="237" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F13" s="259" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="F12" s="258" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37811,8 +37791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37889,10 +37869,10 @@
         <v>234</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F4" s="183" t="s">
         <v>86</v>
@@ -37959,7 +37939,7 @@
     </row>
     <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>109</v>
@@ -37986,10 +37966,10 @@
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F8" s="183" t="s">
         <v>86</v>
@@ -38007,10 +37987,10 @@
         <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F9" s="183" t="s">
         <v>86</v>
@@ -38181,11 +38161,11 @@
       <c r="A20" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="245" t="s">
+      <c r="C20" s="244" t="s">
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>870</v>
@@ -38205,11 +38185,11 @@
       <c r="B21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C21" s="245" t="s">
+      <c r="C21" s="244" t="s">
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>871</v>
@@ -38227,13 +38207,13 @@
         <v>82</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D22" t="s">
         <v>882</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38244,7 +38224,7 @@
       </c>
       <c r="J22" s="199"/>
       <c r="K22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="199" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38254,7 +38234,7 @@
         <v>429.41</v>
       </c>
       <c r="K23" s="199" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="84" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38273,14 +38253,14 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="309" t="s">
-        <v>1386</v>
+      <c r="C26" s="305" t="s">
+        <v>1384</v>
       </c>
       <c r="D26" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E26" s="308" t="s">
-        <v>1758</v>
+        <v>1747</v>
+      </c>
+      <c r="E26" s="304" t="s">
+        <v>1744</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>1276</v>
@@ -38304,10 +38284,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E27" s="302" t="s">
-        <v>1737</v>
+        <v>1726</v>
+      </c>
+      <c r="E27" s="299" t="s">
+        <v>1726</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38337,10 +38317,10 @@
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="E28" s="221" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>817</v>
@@ -38370,10 +38350,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E29" s="272" t="s">
-        <v>1611</v>
+        <v>1604</v>
+      </c>
+      <c r="E29" s="271" t="s">
+        <v>1604</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38393,14 +38373,14 @@
       <c r="B30">
         <v>8.19</v>
       </c>
-      <c r="C30" s="245" t="s">
+      <c r="C30" s="244" t="s">
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="E30" s="223" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38427,10 +38407,10 @@
         <v>979</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E31" s="197" t="s">
-        <v>1283</v>
+        <v>1756</v>
+      </c>
+      <c r="E31" s="307" t="s">
+        <v>1756</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>817</v>
@@ -38448,13 +38428,13 @@
         <v>1278</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D32" t="s">
-        <v>1616</v>
+        <v>1758</v>
       </c>
       <c r="E32" s="222" t="s">
-        <v>1617</v>
+        <v>1759</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>817</v>
@@ -38468,8 +38448,8 @@
       <c r="J33" s="199"/>
     </row>
     <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="269" t="s">
-        <v>1694</v>
+      <c r="A34" s="268" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38479,29 +38459,29 @@
       <c r="B35">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C35" s="306" t="s">
-        <v>1385</v>
+      <c r="C35" s="303" t="s">
+        <v>1383</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60" t="s">
         <v>817</v>
       </c>
-      <c r="G35" s="304" t="s">
+      <c r="G35" s="301" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="296" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="C36" s="6"/>
-      <c r="F36" s="304"/>
-    </row>
-    <row r="37" spans="1:10" s="299" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="301"/>
+    </row>
+    <row r="37" spans="1:10" s="296" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="C37" s="6"/>
-      <c r="F37" s="304"/>
+      <c r="F37" s="301"/>
     </row>
     <row r="38" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
@@ -38549,7 +38529,7 @@
     </row>
     <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>422</v>
@@ -38581,7 +38561,7 @@
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H44">
         <v>453.26</v>
@@ -38603,7 +38583,7 @@
       </c>
       <c r="E45"/>
       <c r="F45" s="199" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H45">
         <v>262.42</v>
@@ -38622,7 +38602,7 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H46">
         <v>226.63</v>
@@ -38649,7 +38629,7 @@
         <v>1022</v>
       </c>
       <c r="F48" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H48">
         <v>411.52</v>
@@ -38688,7 +38668,7 @@
     </row>
     <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -38799,7 +38779,7 @@
     </row>
     <row r="58" spans="1:10" s="53" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B58" s="74"/>
       <c r="G58" s="220"/>
@@ -38829,8 +38809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -55310,7 +55290,7 @@
         <v>1621.99</v>
       </c>
       <c r="P3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55343,7 +55323,7 @@
         <v>15057.1</v>
       </c>
       <c r="P4" s="199" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55376,7 +55356,7 @@
         <v>10854</v>
       </c>
       <c r="P5" s="199" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55452,7 +55432,7 @@
         <v>1244.54</v>
       </c>
       <c r="P8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55485,7 +55465,7 @@
         <v>13847.08</v>
       </c>
       <c r="P9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -55516,7 +55496,7 @@
         <v>8068</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -55634,10 +55614,10 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="117">
         <v>43833</v>
       </c>
@@ -55658,13 +55638,13 @@
         <v>171</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="O17" s="53">
         <v>64.7</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="117">
         <v>43835</v>
       </c>
@@ -55684,8 +55664,17 @@
       <c r="L18">
         <v>373</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="53" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O18" s="53">
+        <v>30</v>
+      </c>
+      <c r="P18" s="326">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="54">
         <f>SUM(C15:C18)</f>
         <v>304.55</v>
@@ -55706,7 +55695,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F20" s="117">
         <v>43741</v>
       </c>
@@ -55723,7 +55712,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F21" s="117">
         <v>43749</v>
       </c>
@@ -55740,7 +55729,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B22" s="78" t="s">
         <v>999</v>
       </c>
@@ -55763,7 +55752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F23" s="117">
         <v>43762</v>
       </c>
@@ -55783,7 +55772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F24" s="117">
         <v>43771</v>
       </c>
@@ -55800,7 +55789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F25" s="117">
         <v>43776</v>
       </c>
@@ -55817,7 +55806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="27.6" x14ac:dyDescent="0.25">
       <c r="F26" s="117">
         <v>43781</v>
       </c>
@@ -55837,7 +55826,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F27" s="117">
         <v>43786</v>
       </c>
@@ -55854,7 +55843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F28" s="117">
         <v>43790</v>
       </c>
@@ -55874,7 +55863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="117">
         <v>43659</v>
       </c>
@@ -55891,7 +55880,7 @@
         <v>469.33</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="117">
         <v>43663</v>
       </c>
@@ -55911,7 +55900,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="117">
         <v>43666</v>
       </c>
@@ -55934,7 +55923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="117">
         <v>43672</v>
       </c>
@@ -56135,11 +56124,11 @@
       <c r="C47">
         <v>325.18</v>
       </c>
-      <c r="F47" s="277" t="s">
-        <v>1479</v>
+      <c r="F47" s="276" t="s">
+        <v>1475</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -56150,8 +56139,8 @@
       <c r="L47">
         <v>504</v>
       </c>
-      <c r="M47" t="s">
-        <v>1563</v>
+      <c r="M47" s="324" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -56161,11 +56150,11 @@
       <c r="C48">
         <v>30.69</v>
       </c>
-      <c r="F48" s="277">
+      <c r="F48" s="276">
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -56178,22 +56167,22 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="277">
+      <c r="B49" s="276">
         <v>43961</v>
       </c>
       <c r="C49">
         <v>62.48</v>
       </c>
-      <c r="F49" s="277">
+      <c r="F49" s="276">
         <v>43959</v>
       </c>
-      <c r="G49" s="276" t="s">
-        <v>1627</v>
-      </c>
-      <c r="H49" s="278">
+      <c r="G49" s="275" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H49" s="277">
         <v>296</v>
       </c>
-      <c r="K49" s="277">
+      <c r="K49" s="276">
         <v>43960</v>
       </c>
       <c r="L49">
@@ -56201,22 +56190,22 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="277">
+      <c r="B50" s="276">
         <v>43984</v>
       </c>
       <c r="C50">
         <v>37.200000000000003</v>
       </c>
-      <c r="F50" s="277">
+      <c r="F50" s="276">
         <v>43964</v>
       </c>
-      <c r="G50" s="276" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H50" s="278">
+      <c r="G50" s="275" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H50" s="277">
         <v>295</v>
       </c>
-      <c r="K50" s="277">
+      <c r="K50" s="276">
         <v>43962</v>
       </c>
       <c r="L50">
@@ -56224,22 +56213,22 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="277">
+      <c r="B51" s="276">
         <v>43987</v>
       </c>
       <c r="C51">
         <v>43.65</v>
       </c>
-      <c r="F51" s="277">
+      <c r="F51" s="276">
         <v>43969</v>
       </c>
-      <c r="G51" s="276" t="s">
-        <v>1707</v>
-      </c>
-      <c r="H51" s="278">
+      <c r="G51" s="275" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H51" s="277">
         <v>245</v>
       </c>
-      <c r="K51" s="277">
+      <c r="K51" s="276">
         <v>43964</v>
       </c>
       <c r="L51">
@@ -56247,130 +56236,172 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="277">
+      <c r="B52" s="276">
         <v>43987</v>
       </c>
       <c r="C52">
         <v>29.04</v>
       </c>
-      <c r="F52" s="277">
+      <c r="F52" s="276">
         <v>43979</v>
       </c>
-      <c r="G52" s="276" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H52" s="278">
+      <c r="G52" s="275" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H52" s="277">
         <v>148</v>
       </c>
-      <c r="K52" s="277">
+      <c r="K52" s="276">
         <v>43965</v>
       </c>
       <c r="L52">
         <v>372</v>
       </c>
-      <c r="M52" s="295" t="s">
-        <v>1691</v>
+      <c r="M52" s="325" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="277">
+      <c r="F53" s="276">
         <v>43984</v>
       </c>
-      <c r="G53" s="276" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H53" s="278">
+      <c r="G53" s="275" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H53" s="277">
         <v>395</v>
       </c>
-      <c r="K53" s="277">
+      <c r="K53" s="276">
         <v>43968</v>
       </c>
       <c r="L53">
         <v>448</v>
       </c>
-      <c r="M53" s="295" t="s">
-        <v>1692</v>
+      <c r="M53" s="325" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K54" s="277">
+      <c r="K54" s="276">
         <v>43971</v>
       </c>
       <c r="L54">
         <v>120</v>
       </c>
-      <c r="M54" s="54">
+      <c r="M54" s="326">
         <v>5.2</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="277">
+      <c r="K55" s="276">
         <v>43977</v>
       </c>
       <c r="L55">
         <v>420</v>
       </c>
-      <c r="M55" s="54">
+      <c r="M55" s="326">
         <v>5.26</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K56" s="277">
+      <c r="K56" s="276">
         <v>43979</v>
       </c>
       <c r="L56">
         <v>128</v>
       </c>
-      <c r="M56" s="54">
+      <c r="M56" s="326">
         <v>5.28</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K57" s="277">
+      <c r="K57" s="276">
         <v>43986</v>
       </c>
       <c r="L57">
         <v>182</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="327">
         <v>6.4</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K58" s="277">
+      <c r="K58" s="276">
         <v>43988</v>
       </c>
       <c r="L58">
         <v>263</v>
       </c>
-      <c r="M58" s="58">
+      <c r="M58" s="327">
         <v>6.6</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K59" s="277">
+      <c r="K59" s="276">
         <v>43991</v>
       </c>
       <c r="L59">
         <v>72</v>
       </c>
-      <c r="M59" s="58">
+      <c r="M59" s="327">
         <v>6.7</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K60" s="277">
+      <c r="K60" s="276">
         <v>43992</v>
       </c>
       <c r="L60">
         <v>271</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="327">
         <v>6.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K61" s="276">
+        <v>43994</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61" s="326">
+        <v>6.1</v>
       </c>
     </row>
     <row r="62" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="135"/>
+      <c r="K62" s="276">
+        <v>44002</v>
+      </c>
+      <c r="L62" s="53">
+        <v>287</v>
+      </c>
+      <c r="M62" s="326">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K63" s="276">
+        <v>44005</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63" s="326">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K64" s="276">
+        <v>44006</v>
+      </c>
+      <c r="L64">
+        <v>118</v>
+      </c>
+      <c r="M64" s="326">
+        <v>6.23</v>
+      </c>
     </row>
     <row r="65" spans="2:2" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="135"/>
@@ -57011,7 +57042,7 @@
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1272</v>
@@ -57030,7 +57061,7 @@
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1280</v>
@@ -57041,68 +57072,68 @@
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>1365</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>1366</v>
-      </c>
       <c r="D18" s="53" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="216" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>1370</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="216" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>1372</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D23" s="259" t="s">
-        <v>1541</v>
+        <v>1535</v>
+      </c>
+      <c r="D23" s="258" t="s">
+        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -57116,8 +57147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C67651-F5E7-40B0-B9CB-A7741661BB0C}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="N7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57460,40 +57491,40 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="312">
+      <c r="A7" s="309">
         <v>6</v>
       </c>
-      <c r="B7" s="324">
+      <c r="B7" s="320">
         <v>43722</v>
       </c>
-      <c r="C7" s="325">
+      <c r="C7" s="321">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1078</v>
       </c>
-      <c r="E7" s="313" t="s">
+      <c r="E7" s="308" t="s">
         <v>1079</v>
       </c>
       <c r="F7" s="53">
         <v>96</v>
       </c>
-      <c r="G7" s="312">
+      <c r="G7" s="309">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="326">
+      <c r="H7" s="322">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
         <v>15000</v>
       </c>
-      <c r="J7" s="312">
+      <c r="J7" s="309">
         <v>3000</v>
       </c>
       <c r="K7" s="200">
         <v>205.4</v>
       </c>
-      <c r="L7" s="312">
+      <c r="L7" s="309">
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
@@ -57506,50 +57537,50 @@
       <c r="P7" s="323">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q7" s="311">
+      <c r="Q7" s="310">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="313" t="s">
+      <c r="R7" s="308" t="s">
         <v>1080</v>
       </c>
       <c r="S7" s="173"/>
-      <c r="T7" s="312">
+      <c r="T7" s="309">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="313" t="s">
+      <c r="U7" s="308" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="324"/>
-      <c r="C8" s="325"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="320"/>
+      <c r="C8" s="321"/>
       <c r="D8" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="E8" s="313"/>
+      <c r="E8" s="308"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
-      <c r="G8" s="312"/>
-      <c r="H8" s="326"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="322"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
-      <c r="J8" s="312"/>
+      <c r="J8" s="309"/>
       <c r="K8" s="200"/>
-      <c r="L8" s="312"/>
+      <c r="L8" s="309"/>
       <c r="N8" s="323">
         <v>26.43</v>
       </c>
       <c r="O8" s="323"/>
       <c r="P8" s="323"/>
-      <c r="Q8" s="311"/>
-      <c r="R8" s="313"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="308"/>
       <c r="S8" s="173"/>
-      <c r="T8" s="312"/>
-      <c r="U8" s="313"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="308"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57610,7 +57641,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="294">
+      <c r="A10" s="293">
         <v>8</v>
       </c>
       <c r="B10" s="140">
@@ -57619,7 +57650,7 @@
       <c r="C10" s="141">
         <v>811548301376903</v>
       </c>
-      <c r="D10" s="249" t="s">
+      <c r="D10" s="248" t="s">
         <v>1086</v>
       </c>
       <c r="E10" s="53" t="s">
@@ -57657,7 +57688,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="294">
+      <c r="A11" s="293">
         <v>9</v>
       </c>
       <c r="B11" s="140">
@@ -57666,8 +57697,8 @@
       <c r="C11" s="141">
         <v>811521431838696</v>
       </c>
-      <c r="D11" s="247" t="s">
-        <v>1485</v>
+      <c r="D11" s="246" t="s">
+        <v>1481</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>1089</v>
@@ -57711,7 +57742,7 @@
         <v>1090</v>
       </c>
       <c r="S11" s="174" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="T11" s="53">
         <v>13705761067</v>
@@ -57721,86 +57752,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="312">
+      <c r="A12" s="309">
         <v>10</v>
       </c>
-      <c r="B12" s="324">
+      <c r="B12" s="320">
         <v>43764</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="321">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1092</v>
       </c>
-      <c r="E12" s="313" t="s">
+      <c r="E12" s="308" t="s">
         <v>1093</v>
       </c>
       <c r="F12" s="53">
         <v>126</v>
       </c>
-      <c r="G12" s="312">
+      <c r="G12" s="309">
         <v>1.51</v>
       </c>
-      <c r="H12" s="326">
+      <c r="H12" s="322">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
         <v>20000</v>
       </c>
-      <c r="J12" s="312">
+      <c r="J12" s="309">
         <v>3000</v>
       </c>
       <c r="K12" s="200">
         <v>267.39999999999998</v>
       </c>
-      <c r="L12" s="312">
+      <c r="L12" s="309">
         <f t="shared" si="0"/>
         <v>-16.909999999999968</v>
       </c>
-      <c r="N12" s="312">
+      <c r="N12" s="309">
         <v>51.42</v>
       </c>
-      <c r="Q12" s="311">
+      <c r="Q12" s="310">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="313" t="s">
+      <c r="R12" s="308" t="s">
         <v>1094</v>
       </c>
       <c r="S12" s="173"/>
-      <c r="T12" s="312">
+      <c r="T12" s="309">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="313" t="s">
+      <c r="U12" s="308" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="312"/>
-      <c r="B13" s="324"/>
-      <c r="C13" s="325"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="321"/>
       <c r="D13" s="150" t="s">
         <v>1096</v>
       </c>
-      <c r="E13" s="313"/>
+      <c r="E13" s="308"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
-      <c r="G13" s="312"/>
-      <c r="H13" s="326"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="322"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
-      <c r="J13" s="312"/>
+      <c r="J13" s="309"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="312"/>
-      <c r="N13" s="312"/>
-      <c r="Q13" s="311"/>
-      <c r="R13" s="313"/>
+      <c r="L13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="308"/>
       <c r="S13" s="173"/>
-      <c r="T13" s="312"/>
-      <c r="U13" s="313"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="308"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -57907,7 +57938,7 @@
         <v>1103</v>
       </c>
       <c r="S15" s="174" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="T15" s="53">
         <v>15603608839</v>
@@ -57978,7 +58009,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="294">
+      <c r="A17" s="293">
         <v>14</v>
       </c>
       <c r="B17" s="140">
@@ -57987,7 +58018,7 @@
       <c r="C17" s="141">
         <v>811521431838696</v>
       </c>
-      <c r="D17" s="247" t="s">
+      <c r="D17" s="246" t="s">
         <v>1108</v>
       </c>
       <c r="E17" s="53" t="s">
@@ -58026,7 +58057,7 @@
         <v>1109</v>
       </c>
       <c r="S17" s="174" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="T17" s="53">
         <v>13705761067</v>
@@ -58036,7 +58067,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="294">
+      <c r="A18" s="293">
         <v>15</v>
       </c>
       <c r="B18" s="140">
@@ -58045,7 +58076,7 @@
       <c r="C18" s="141">
         <v>811719362438608</v>
       </c>
-      <c r="D18" s="252" t="s">
+      <c r="D18" s="251" t="s">
         <v>1111</v>
       </c>
       <c r="E18" s="53" t="s">
@@ -58087,7 +58118,7 @@
         <v>20.162079999999968</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="T18" s="53">
         <v>13187381112</v>
@@ -58149,11 +58180,11 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="294">
+      <c r="A20" s="293">
         <v>17</v>
       </c>
-      <c r="D20" s="250" t="s">
-        <v>1491</v>
+      <c r="D20" s="249" t="s">
+        <v>1487</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>1098</v>
@@ -58247,10 +58278,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="294">
+      <c r="A23" s="293">
         <v>20</v>
       </c>
-      <c r="D23" s="250" t="s">
+      <c r="D23" s="249" t="s">
         <v>1119</v>
       </c>
       <c r="E23" s="53" t="s">
@@ -58295,7 +58326,7 @@
       <c r="A24" s="53">
         <v>21</v>
       </c>
-      <c r="D24" s="251" t="s">
+      <c r="D24" s="250" t="s">
         <v>1121</v>
       </c>
       <c r="E24" s="53" t="s">
@@ -58340,14 +58371,14 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="294">
+      <c r="A25" s="293">
         <v>22</v>
       </c>
-      <c r="B25" s="294" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D25" s="250" t="s">
-        <v>1492</v>
+      <c r="B25" s="293" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D25" s="249" t="s">
+        <v>1488</v>
       </c>
       <c r="E25" s="164" t="s">
         <v>1087</v>
@@ -58379,13 +58410,13 @@
       <c r="S25" s="83"/>
     </row>
     <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="294">
+      <c r="A26" s="293">
         <v>23</v>
       </c>
-      <c r="B26" s="294" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D26" s="250" t="s">
+      <c r="B26" s="293" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D26" s="249" t="s">
         <v>1245</v>
       </c>
       <c r="E26" s="167" t="s">
@@ -58397,23 +58428,23 @@
       <c r="S26" s="83"/>
     </row>
     <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="246" t="s">
-        <v>1488</v>
+      <c r="D29" s="245" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="246" t="s">
-        <v>1489</v>
+      <c r="D30" s="245" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="248" t="s">
-        <v>1490</v>
+      <c r="D31" s="247" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="252" t="s">
-        <v>1749</v>
+      <c r="D32" s="251" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -58452,6 +58483,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="R7:R8"/>
@@ -58460,26 +58511,6 @@
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC291C-E191-469B-9D33-7754D5F83FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0C2B9-0035-4925-A644-E71315B0465A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,68 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{97621974-3ECF-49E5-888E-7FFDC1E21DA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待退款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{432CFABA-B897-4E61-AF0E-DDBD8030912A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待退款</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -218,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1762">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14937,10 +14999,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.25回复：目前不在韩国 五月中下旬寄出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BGon0305 /销号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -17562,14 +17620,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.29：已邮件怀化地址 / 中国工厂发货 /5.9：等手机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.9：等手机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.11：仍在生产中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18658,10 +18708,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12.30：LE(红色)*5后寄 /6.8：六月底再次询问 若无法寄出 退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>因疫情暂时无法发货 /6.8：仍然无法发货 /东南亚 /已改收件人为：Zhang Xinyi，已改怀化地址</t>
   </si>
   <si>
@@ -18813,6 +18859,26 @@
   </si>
   <si>
     <t>淘宝店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 开通优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30：LE(红色)*5后寄 /7.1：下周寄出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1：下周寄出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29：已邮件怀化地址 / 中国工厂发货 /7.3：物流近期无法配送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3：物流近期无法配送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21374,6 +21440,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -21421,18 +21499,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26509,32 +26575,32 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="309">
+      <c r="G115" s="313">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="309">
+      <c r="H115" s="313">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="309">
+      <c r="I115" s="313">
         <v>92.52</v>
       </c>
-      <c r="J115" s="309">
+      <c r="J115" s="313">
         <v>9.64</v>
       </c>
-      <c r="K115" s="309">
+      <c r="K115" s="313">
         <v>122.8</v>
       </c>
-      <c r="L115" s="310">
+      <c r="L115" s="314">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="308" t="s">
+      <c r="M115" s="312" t="s">
         <v>813</v>
       </c>
-      <c r="N115" s="309">
+      <c r="N115" s="313">
         <v>15</v>
       </c>
-      <c r="O115" s="310">
+      <c r="O115" s="314">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26552,25 +26618,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="309"/>
-      <c r="H116" s="309"/>
-      <c r="I116" s="309">
+      <c r="G116" s="313"/>
+      <c r="H116" s="313"/>
+      <c r="I116" s="313">
         <v>49.72</v>
       </c>
-      <c r="J116" s="309">
+      <c r="J116" s="313">
         <v>4.84</v>
       </c>
-      <c r="K116" s="309">
+      <c r="K116" s="313">
         <v>50.31</v>
       </c>
-      <c r="L116" s="310"/>
-      <c r="M116" s="308" t="s">
+      <c r="L116" s="314"/>
+      <c r="M116" s="312" t="s">
         <v>813</v>
       </c>
-      <c r="N116" s="309">
+      <c r="N116" s="313">
         <v>23</v>
       </c>
-      <c r="O116" s="309"/>
+      <c r="O116" s="313"/>
       <c r="P116" s="53" t="s">
         <v>812</v>
       </c>
@@ -26952,39 +27018,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="308" t="s">
+      <c r="D126" s="312" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="308" t="s">
+      <c r="E126" s="312" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="309">
+      <c r="G126" s="313">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="309">
+      <c r="H126" s="313">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="309">
+      <c r="I126" s="313">
         <v>160.19</v>
       </c>
-      <c r="J126" s="309">
+      <c r="J126" s="313">
         <v>1.61</v>
       </c>
-      <c r="K126" s="309">
+      <c r="K126" s="313">
         <v>26.16</v>
       </c>
-      <c r="L126" s="311">
+      <c r="L126" s="315">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="308"/>
-      <c r="N126" s="308"/>
-      <c r="O126" s="310">
+      <c r="M126" s="312"/>
+      <c r="N126" s="312"/>
+      <c r="O126" s="314">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="308"/>
+      <c r="P126" s="312"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -26993,19 +27059,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="308"/>
-      <c r="E127" s="308"/>
+      <c r="D127" s="312"/>
+      <c r="E127" s="312"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="309"/>
-      <c r="H127" s="309"/>
-      <c r="I127" s="309"/>
-      <c r="J127" s="309"/>
-      <c r="K127" s="309"/>
-      <c r="L127" s="311"/>
-      <c r="M127" s="308"/>
-      <c r="N127" s="308"/>
-      <c r="O127" s="310"/>
-      <c r="P127" s="308"/>
+      <c r="G127" s="313"/>
+      <c r="H127" s="313"/>
+      <c r="I127" s="313"/>
+      <c r="J127" s="313"/>
+      <c r="K127" s="313"/>
+      <c r="L127" s="315"/>
+      <c r="M127" s="312"/>
+      <c r="N127" s="312"/>
+      <c r="O127" s="314"/>
+      <c r="P127" s="312"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -27014,19 +27080,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="308"/>
-      <c r="E128" s="308"/>
+      <c r="D128" s="312"/>
+      <c r="E128" s="312"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="309"/>
-      <c r="H128" s="309"/>
-      <c r="I128" s="309"/>
-      <c r="J128" s="309"/>
-      <c r="K128" s="309"/>
-      <c r="L128" s="311"/>
-      <c r="M128" s="308"/>
-      <c r="N128" s="308"/>
-      <c r="O128" s="310"/>
-      <c r="P128" s="308"/>
+      <c r="G128" s="313"/>
+      <c r="H128" s="313"/>
+      <c r="I128" s="313"/>
+      <c r="J128" s="313"/>
+      <c r="K128" s="313"/>
+      <c r="L128" s="315"/>
+      <c r="M128" s="312"/>
+      <c r="N128" s="312"/>
+      <c r="O128" s="314"/>
+      <c r="P128" s="312"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27035,19 +27101,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="308"/>
-      <c r="E129" s="308"/>
+      <c r="D129" s="312"/>
+      <c r="E129" s="312"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="309"/>
-      <c r="H129" s="309"/>
-      <c r="I129" s="309"/>
-      <c r="J129" s="309"/>
-      <c r="K129" s="309"/>
-      <c r="L129" s="311"/>
-      <c r="M129" s="308"/>
-      <c r="N129" s="308"/>
-      <c r="O129" s="310"/>
-      <c r="P129" s="308"/>
+      <c r="G129" s="313"/>
+      <c r="H129" s="313"/>
+      <c r="I129" s="313"/>
+      <c r="J129" s="313"/>
+      <c r="K129" s="313"/>
+      <c r="L129" s="315"/>
+      <c r="M129" s="312"/>
+      <c r="N129" s="312"/>
+      <c r="O129" s="314"/>
+      <c r="P129" s="312"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -28011,7 +28077,7 @@
     </row>
     <row r="174" spans="1:18" s="296" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28057,8 +28123,8 @@
   <dimension ref="A1:AA345"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D341" sqref="D341"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E340" sqref="E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32785,7 +32851,7 @@
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="264" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B167" s="264"/>
       <c r="C167" s="53">
@@ -32879,7 +32945,7 @@
         <v>673</v>
       </c>
       <c r="E172" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -32914,7 +32980,7 @@
       <c r="D174" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="E174" s="312" t="s">
+      <c r="E174" s="316" t="s">
         <v>961</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -32936,7 +33002,7 @@
       <c r="D175" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E175" s="312"/>
+      <c r="E175" s="316"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -35037,11 +35103,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="313" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B267" s="313"/>
-      <c r="C267" s="313"/>
+      <c r="A267" s="317" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B267" s="317"/>
+      <c r="C267" s="317"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -35057,7 +35123,7 @@
         <v>1493</v>
       </c>
       <c r="B268" s="67" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C268" s="253" t="s">
         <v>1494</v>
@@ -35066,7 +35132,7 @@
         <v>786</v>
       </c>
       <c r="E268" s="281" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>817</v>
@@ -35077,7 +35143,7 @@
         <v>1495</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C269" s="253" t="s">
         <v>1494</v>
@@ -35098,7 +35164,7 @@
         <v>1496</v>
       </c>
       <c r="B270" s="255" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C270" s="253" t="s">
         <v>1494</v>
@@ -35115,7 +35181,7 @@
         <v>1497</v>
       </c>
       <c r="B271" s="256" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C271" s="253" t="s">
         <v>1494</v>
@@ -35132,7 +35198,7 @@
         <v>1498</v>
       </c>
       <c r="B272" s="255" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C272" s="253" t="s">
         <v>1494</v>
@@ -35150,7 +35216,7 @@
         <v>1499</v>
       </c>
       <c r="B273" s="256" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C273" s="253" t="s">
         <v>1494</v>
@@ -35168,7 +35234,7 @@
         <v>1502</v>
       </c>
       <c r="B274" s="255" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C274" s="253" t="s">
         <v>1494</v>
@@ -35192,7 +35258,7 @@
         <v>1503</v>
       </c>
       <c r="B275" s="255" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C275" s="253" t="s">
         <v>1494</v>
@@ -35217,7 +35283,7 @@
         <v>1501</v>
       </c>
       <c r="B276" s="266" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C276" s="253" t="s">
         <v>1494</v>
@@ -35234,7 +35300,7 @@
         <v>1500</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C277" s="253" t="s">
         <v>1494</v>
@@ -35251,7 +35317,7 @@
         <v>1504</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C278" s="254" t="s">
         <v>1494</v>
@@ -35265,13 +35331,13 @@
     </row>
     <row r="279" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="261" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B279" s="261" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C279" s="258" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>794</v>
@@ -35283,13 +35349,13 @@
     </row>
     <row r="280" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="262" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B280" s="262" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C280" s="258" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>641</v>
@@ -35300,13 +35366,13 @@
     </row>
     <row r="281" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="263" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B281" s="263" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C281" s="258" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>641</v>
@@ -35317,10 +35383,10 @@
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="264" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B282" s="264" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35336,13 +35402,13 @@
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C283" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>1262</v>
@@ -35359,13 +35425,13 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C284" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>731</v>
@@ -35379,13 +35445,13 @@
     </row>
     <row r="285" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C285" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>617</v>
@@ -35399,13 +35465,13 @@
     </row>
     <row r="286" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C286" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>788</v>
@@ -35419,13 +35485,13 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C287" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>984</v>
@@ -35439,13 +35505,13 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B288" s="178" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C288" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>745</v>
@@ -35459,13 +35525,13 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C289" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>677</v>
@@ -35479,13 +35545,13 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C290" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>846</v>
@@ -35499,13 +35565,13 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C291" s="259" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>703</v>
@@ -35519,13 +35585,13 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C292" s="266" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>972</v>
@@ -35539,13 +35605,13 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C293" s="266" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>757</v>
@@ -35560,13 +35626,13 @@
     </row>
     <row r="294" spans="1:8" s="266" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C294" s="266" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>658</v>
@@ -35581,7 +35647,7 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
@@ -35599,10 +35665,10 @@
       <c r="B296" s="180"/>
       <c r="C296" s="259"/>
       <c r="D296" s="182" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F296" s="53"/>
     </row>
@@ -35616,7 +35682,7 @@
         <v>1268</v>
       </c>
       <c r="E297" s="274" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35624,7 +35690,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35634,7 +35700,7 @@
         <v>841</v>
       </c>
       <c r="E298" s="273" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>817</v>
@@ -35652,7 +35718,7 @@
         <v>655</v>
       </c>
       <c r="E299" s="274" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>817</v>
@@ -35670,18 +35736,18 @@
         <v>668</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="278" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B303" s="279" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C303" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>673</v>
@@ -35692,13 +35758,13 @@
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B304" s="282" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C304" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>716</v>
@@ -35715,19 +35781,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B305" s="286" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C305" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
       <c r="E305" s="281" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>817</v>
@@ -35738,13 +35804,13 @@
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="235" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B306" s="285" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C306" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>963</v>
@@ -35761,13 +35827,13 @@
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="235" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B307" s="286" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C307" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D307" s="13" t="s">
         <v>1397</v>
@@ -35784,19 +35850,19 @@
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="235" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B308" s="286" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C308" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>782</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>817</v>
@@ -35807,13 +35873,13 @@
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="235" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B309" s="286" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C309" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>768</v>
@@ -35830,36 +35896,36 @@
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B310" s="282" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C310" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D310" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E310" s="281" t="s">
         <v>1630</v>
-      </c>
-      <c r="E310" s="281" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B311" s="287" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C311" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>746</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>817</v>
@@ -35870,13 +35936,13 @@
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B312" s="282" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C312" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>696</v>
@@ -35889,19 +35955,19 @@
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B313" s="287" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C313" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>697</v>
       </c>
       <c r="E313" s="274" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>817</v>
@@ -35912,13 +35978,13 @@
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B314" s="283" t="s">
         <v>1635</v>
       </c>
-      <c r="B314" s="283" t="s">
-        <v>1636</v>
-      </c>
       <c r="C314" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>643</v>
@@ -35935,13 +36001,13 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B315" s="284" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C315" s="280" t="s">
         <v>1652</v>
-      </c>
-      <c r="B315" s="284" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C315" s="280" t="s">
-        <v>1653</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>666</v>
@@ -35955,19 +36021,19 @@
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="235" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B316" s="285" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C316" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
       <c r="E316" s="61" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>817</v>
@@ -35978,13 +36044,13 @@
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B317" s="287" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C317" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>642</v>
@@ -36001,19 +36067,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B318" s="286" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C318" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>642</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -36024,13 +36090,13 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B319" s="286" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C319" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
@@ -36042,13 +36108,13 @@
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B320" s="284" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C320" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>662</v>
@@ -36060,19 +36126,19 @@
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B321" s="287" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C321" s="280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>709</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>817</v>
@@ -36083,19 +36149,19 @@
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B322" s="286" t="s">
         <v>1657</v>
       </c>
-      <c r="B322" s="286" t="s">
-        <v>1658</v>
-      </c>
       <c r="C322" s="289" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D322" s="242" t="s">
         <v>758</v>
       </c>
       <c r="E322" s="274" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>817</v>
@@ -36106,13 +36172,13 @@
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B323" s="63" t="s">
         <v>1673</v>
       </c>
-      <c r="B323" s="63" t="s">
-        <v>1676</v>
-      </c>
       <c r="C323" s="289" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>780</v>
@@ -36124,13 +36190,13 @@
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B324" s="177" t="s">
         <v>1416</v>
       </c>
       <c r="C324" s="289" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>660</v>
@@ -36142,13 +36208,13 @@
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B325" s="178" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C325" s="289" t="s">
         <v>1675</v>
-      </c>
-      <c r="B325" s="178" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C325" s="289" t="s">
-        <v>1678</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>660</v>
@@ -36160,19 +36226,19 @@
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B326" s="175" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C326" s="290" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D326" s="242" t="s">
         <v>677</v>
       </c>
       <c r="E326" s="274" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>817</v>
@@ -36183,19 +36249,19 @@
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="240" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B327" s="240" t="s">
         <v>1513</v>
       </c>
       <c r="C327" s="290" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D327" s="242" t="s">
         <v>616</v>
       </c>
       <c r="E327" s="274" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>817</v>
@@ -36207,13 +36273,13 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C328" s="290" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>824</v>
@@ -36230,19 +36296,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="B329" s="151" t="s">
         <v>1519</v>
       </c>
       <c r="C329" s="290" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>665</v>
       </c>
       <c r="E329" s="274" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>817</v>
@@ -36253,13 +36319,13 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B330" s="65" t="s">
         <v>1515</v>
       </c>
       <c r="C330" s="291" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>742</v>
@@ -36276,19 +36342,19 @@
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="235" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B332" s="235" t="s">
         <v>1527</v>
       </c>
       <c r="C332" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="E332" s="314" t="s">
-        <v>1680</v>
+      <c r="E332" s="318" t="s">
+        <v>1677</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>817</v>
@@ -36299,18 +36365,18 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B333" s="151" t="s">
         <v>1700</v>
       </c>
-      <c r="B333" s="151" t="s">
-        <v>1703</v>
-      </c>
       <c r="C333" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D333" s="242" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E333" s="314"/>
+        <v>1602</v>
+      </c>
+      <c r="E333" s="318"/>
       <c r="F333" s="121" t="s">
         <v>817</v>
       </c>
@@ -36320,18 +36386,18 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B334" s="132" t="s">
         <v>1701</v>
       </c>
-      <c r="B334" s="132" t="s">
-        <v>1704</v>
-      </c>
       <c r="C334" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D334" s="13" t="s">
         <v>1405</v>
       </c>
-      <c r="E334" s="314"/>
+      <c r="E334" s="318"/>
       <c r="F334" s="121" t="s">
         <v>817</v>
       </c>
@@ -36341,19 +36407,19 @@
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="234" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B335" s="234" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C335" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>702</v>
       </c>
       <c r="E335" s="281" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
@@ -36362,19 +36428,19 @@
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="B336" s="132" t="s">
         <v>1521</v>
       </c>
       <c r="C336" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>790</v>
       </c>
       <c r="E336" s="274" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36385,19 +36451,19 @@
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="177" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C337" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>879</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>817</v>
@@ -36405,19 +36471,19 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C338" s="294" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D338" s="239" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D338" s="242" t="s">
         <v>801</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1246</v>
@@ -36428,19 +36494,19 @@
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B339" s="65" t="s">
         <v>1517</v>
       </c>
       <c r="C339" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>717</v>
       </c>
       <c r="E339" s="274" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>817</v>
@@ -36451,19 +36517,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B340" s="137" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C340" s="294" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D340" s="239" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>817</v>
@@ -36474,19 +36540,19 @@
     </row>
     <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="132" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B341" s="132" t="s">
         <v>1524</v>
       </c>
       <c r="C341" s="301" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D341" s="242" t="s">
         <v>296</v>
       </c>
       <c r="E341" s="274" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="F341" s="121" t="s">
         <v>817</v>
@@ -36497,13 +36563,13 @@
     </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="235" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B342" s="235" t="s">
         <v>1520</v>
       </c>
       <c r="C342" s="301" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>661</v>
@@ -36523,16 +36589,16 @@
         <v>1523</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C343" s="306" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D343" s="242" t="s">
         <v>645</v>
       </c>
       <c r="E343" s="274" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>817</v>
@@ -36551,16 +36617,16 @@
         <v>1509</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C344" s="306" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D344" s="242" t="s">
         <v>645</v>
       </c>
       <c r="E344" s="274" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="F344" s="121" t="s">
         <v>817</v>
@@ -36574,19 +36640,19 @@
     </row>
     <row r="345" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="178" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="B345" s="178" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C345" s="306" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D345" s="242" t="s">
         <v>680</v>
       </c>
       <c r="E345" s="226" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="F345" t="s">
         <v>1530</v>
@@ -36623,8 +36689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="B22" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36645,7 +36711,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="320" t="s">
         <v>1407</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -36662,7 +36728,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="316"/>
+      <c r="A3" s="320"/>
       <c r="B3" s="65" t="s">
         <v>1412</v>
       </c>
@@ -36681,7 +36747,7 @@
       <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="316"/>
+      <c r="A4" s="320"/>
       <c r="B4" s="67" t="s">
         <v>1413</v>
       </c>
@@ -36699,7 +36765,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="316"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="139" t="s">
         <v>1415</v>
       </c>
@@ -36733,7 +36799,7 @@
       <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="317" t="s">
+      <c r="A8" s="321" t="s">
         <v>1411</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -36747,7 +36813,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="318"/>
+      <c r="A9" s="322"/>
       <c r="B9" s="66" t="s">
         <v>1428</v>
       </c>
@@ -36759,7 +36825,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="318"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="66" t="s">
         <v>1429</v>
       </c>
@@ -36771,7 +36837,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="318"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="66" t="s">
         <v>1430</v>
       </c>
@@ -36783,7 +36849,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="318"/>
+      <c r="A12" s="322"/>
       <c r="B12" s="66" t="s">
         <v>1431</v>
       </c>
@@ -36795,7 +36861,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="318"/>
+      <c r="A13" s="322"/>
       <c r="B13" s="68" t="s">
         <v>1432</v>
       </c>
@@ -36807,7 +36873,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="318"/>
+      <c r="A14" s="322"/>
       <c r="B14" s="68" t="s">
         <v>1433</v>
       </c>
@@ -36819,7 +36885,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="318"/>
+      <c r="A15" s="322"/>
       <c r="B15" s="66" t="s">
         <v>1434</v>
       </c>
@@ -36831,7 +36897,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="319"/>
+      <c r="A16" s="323"/>
       <c r="B16" s="66" t="s">
         <v>1435</v>
       </c>
@@ -36849,7 +36915,7 @@
     </row>
     <row r="18" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="227" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -36884,7 +36950,7 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>1436</v>
@@ -36926,9 +36992,9 @@
         <v>698</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G21" s="315" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G21" s="319" t="s">
         <v>1451</v>
       </c>
       <c r="H21" s="61" t="s">
@@ -36960,9 +37026,9 @@
         <v>698</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G22" s="315"/>
+        <v>1741</v>
+      </c>
+      <c r="G22" s="319"/>
       <c r="H22" s="61" t="s">
         <v>501</v>
       </c>
@@ -36995,7 +37061,7 @@
         <v>1477</v>
       </c>
       <c r="G23" s="231" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="83"/>
@@ -37024,7 +37090,7 @@
     </row>
     <row r="25" spans="1:28" s="266" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="54">
@@ -37034,10 +37100,10 @@
         <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="I25" s="83"/>
     </row>
@@ -37097,7 +37163,7 @@
         <v>1441</v>
       </c>
       <c r="B29" s="297" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D29" s="225" t="s">
         <v>1222</v>
@@ -37132,7 +37198,7 @@
     </row>
     <row r="33" spans="1:9" s="279" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="263" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C33" s="67">
         <v>18</v>
@@ -37144,7 +37210,7 @@
         <v>734</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="121" t="s">
@@ -37159,7 +37225,7 @@
         <v>1442</v>
       </c>
       <c r="B34" s="175" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C34" s="65">
         <v>7</v>
@@ -37171,7 +37237,7 @@
         <v>783</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="G34" s="61"/>
       <c r="H34" s="121" t="s">
@@ -37183,7 +37249,7 @@
     </row>
     <row r="35" spans="1:9" s="290" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="268" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C35" s="67"/>
       <c r="D35" s="54"/>
@@ -37227,7 +37293,7 @@
     </row>
     <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -37298,10 +37364,10 @@
         <v>1464</v>
       </c>
       <c r="E48" s="270" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F48" s="270" t="s">
         <v>1600</v>
-      </c>
-      <c r="F48" s="270" t="s">
-        <v>1601</v>
       </c>
       <c r="H48" s="61" t="s">
         <v>514</v>
@@ -37324,7 +37390,7 @@
         <v>664</v>
       </c>
       <c r="F49" s="168" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G49" s="266"/>
       <c r="H49" s="121" t="s">
@@ -37373,10 +37439,10 @@
         <v>705</v>
       </c>
       <c r="F51" s="168" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G51" s="266" t="s">
         <v>1598</v>
-      </c>
-      <c r="G51" s="266" t="s">
-        <v>1599</v>
       </c>
       <c r="H51" t="s">
         <v>86</v>
@@ -37396,7 +37462,7 @@
         <v>741</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G52" s="266"/>
       <c r="H52" t="s">
@@ -37418,7 +37484,7 @@
         <v>773</v>
       </c>
       <c r="F53" s="168" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G53" s="266"/>
     </row>
@@ -37437,7 +37503,7 @@
         <v>518</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G54" s="266"/>
     </row>
@@ -37453,7 +37519,7 @@
         <v>8.24</v>
       </c>
       <c r="E55" s="260" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F55" s="168" t="s">
         <v>522</v>
@@ -37474,11 +37540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37546,14 +37612,14 @@
       <c r="C3" s="54">
         <v>9.24</v>
       </c>
-      <c r="D3" s="239" t="s">
+      <c r="D3" s="242" t="s">
         <v>1398</v>
       </c>
       <c r="E3" s="258" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="F3" s="307" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>817</v>
@@ -37576,10 +37642,10 @@
         <v>646</v>
       </c>
       <c r="E4" s="226" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="F4" s="288" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="G4" s="121" t="s">
         <v>86</v>
@@ -37590,7 +37656,7 @@
     </row>
     <row r="5" spans="1:8" s="238" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B5" s="65">
         <v>5</v>
@@ -37598,20 +37664,20 @@
       <c r="C5" s="54">
         <v>11.13</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="239" t="s">
         <v>706</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>1531</v>
+        <v>1759</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="53" customFormat="1" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132" t="s">
         <v>1518</v>
       </c>
@@ -37649,7 +37715,7 @@
         <v>733</v>
       </c>
       <c r="E7" s="226" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F7" t="s">
         <v>1467</v>
@@ -37672,7 +37738,7 @@
         <v>778</v>
       </c>
       <c r="E8" s="226" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>1469</v>
@@ -37696,10 +37762,10 @@
         <v>784</v>
       </c>
       <c r="E9" s="226" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="F9" s="307" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="G9" s="60" t="s">
         <v>817</v>
@@ -37722,10 +37788,10 @@
         <v>850</v>
       </c>
       <c r="E10" s="226" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="F10" s="300" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="G10" s="88" t="s">
         <v>86</v>
@@ -37746,10 +37812,10 @@
         <v>993</v>
       </c>
       <c r="E11" s="226" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="F11" s="302" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="G11" s="121" t="s">
         <v>817</v>
@@ -37772,7 +37838,7 @@
         <v>1470</v>
       </c>
       <c r="E12" s="237" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F12" s="258" t="s">
         <v>1529</v>
@@ -37784,6 +37850,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -37791,8 +37858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38165,7 +38232,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>870</v>
@@ -38189,7 +38256,7 @@
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>871</v>
@@ -38213,7 +38280,7 @@
         <v>882</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38257,10 +38324,10 @@
         <v>1384</v>
       </c>
       <c r="D26" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E26" s="304" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>1276</v>
@@ -38284,10 +38351,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="E27" s="299" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38313,14 +38380,14 @@
       <c r="B28" s="4">
         <v>8.1</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="244" t="s">
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E28" s="221" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>817</v>
@@ -38350,10 +38417,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E29" s="271" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38377,10 +38444,10 @@
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1670</v>
+        <v>1760</v>
       </c>
       <c r="E30" s="223" t="s">
-        <v>1671</v>
+        <v>1761</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38407,10 +38474,10 @@
         <v>979</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E31" s="307" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>817</v>
@@ -38431,10 +38498,10 @@
         <v>1386</v>
       </c>
       <c r="D32" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E32" s="222" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>817</v>
@@ -38449,7 +38516,7 @@
     </row>
     <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="268" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -38463,7 +38530,7 @@
         <v>1383</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60" t="s">
@@ -38809,8 +38876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -55665,12 +55732,12 @@
         <v>373</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="O18" s="53">
         <v>30</v>
       </c>
-      <c r="P18" s="326">
+      <c r="P18" s="310">
         <v>6.26</v>
       </c>
     </row>
@@ -55694,6 +55761,15 @@
       <c r="L19">
         <v>142</v>
       </c>
+      <c r="N19" t="s">
+        <v>1757</v>
+      </c>
+      <c r="O19">
+        <v>158</v>
+      </c>
+      <c r="P19" s="310">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F20" s="117">
@@ -56128,7 +56204,7 @@
         <v>1475</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -56139,8 +56215,8 @@
       <c r="L47">
         <v>504</v>
       </c>
-      <c r="M47" s="324" t="s">
-        <v>1556</v>
+      <c r="M47" s="308" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -56154,7 +56230,7 @@
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -56177,7 +56253,7 @@
         <v>43959</v>
       </c>
       <c r="G49" s="275" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H49" s="277">
         <v>296</v>
@@ -56200,7 +56276,7 @@
         <v>43964</v>
       </c>
       <c r="G50" s="275" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H50" s="277">
         <v>295</v>
@@ -56223,7 +56299,7 @@
         <v>43969</v>
       </c>
       <c r="G51" s="275" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="H51" s="277">
         <v>245</v>
@@ -56237,7 +56313,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="276">
-        <v>43987</v>
+        <v>44015</v>
       </c>
       <c r="C52">
         <v>29.04</v>
@@ -56246,7 +56322,7 @@
         <v>43979</v>
       </c>
       <c r="G52" s="275" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="H52" s="277">
         <v>148</v>
@@ -56257,8 +56333,8 @@
       <c r="L52">
         <v>372</v>
       </c>
-      <c r="M52" s="325" t="s">
-        <v>1681</v>
+      <c r="M52" s="309" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -56266,7 +56342,7 @@
         <v>43984</v>
       </c>
       <c r="G53" s="275" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="H53" s="277">
         <v>395</v>
@@ -56277,8 +56353,8 @@
       <c r="L53">
         <v>448</v>
       </c>
-      <c r="M53" s="325" t="s">
-        <v>1682</v>
+      <c r="M53" s="309" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -56288,7 +56364,7 @@
       <c r="L54">
         <v>120</v>
       </c>
-      <c r="M54" s="326">
+      <c r="M54" s="310">
         <v>5.2</v>
       </c>
     </row>
@@ -56299,7 +56375,7 @@
       <c r="L55">
         <v>420</v>
       </c>
-      <c r="M55" s="326">
+      <c r="M55" s="310">
         <v>5.26</v>
       </c>
     </row>
@@ -56310,7 +56386,7 @@
       <c r="L56">
         <v>128</v>
       </c>
-      <c r="M56" s="326">
+      <c r="M56" s="310">
         <v>5.28</v>
       </c>
     </row>
@@ -56321,7 +56397,7 @@
       <c r="L57">
         <v>182</v>
       </c>
-      <c r="M57" s="327">
+      <c r="M57" s="311">
         <v>6.4</v>
       </c>
     </row>
@@ -56332,7 +56408,7 @@
       <c r="L58">
         <v>263</v>
       </c>
-      <c r="M58" s="327">
+      <c r="M58" s="311">
         <v>6.6</v>
       </c>
     </row>
@@ -56343,7 +56419,7 @@
       <c r="L59">
         <v>72</v>
       </c>
-      <c r="M59" s="327">
+      <c r="M59" s="311">
         <v>6.7</v>
       </c>
     </row>
@@ -56354,7 +56430,7 @@
       <c r="L60">
         <v>271</v>
       </c>
-      <c r="M60" s="327">
+      <c r="M60" s="311">
         <v>6.9</v>
       </c>
     </row>
@@ -56365,7 +56441,7 @@
       <c r="L61">
         <v>16</v>
       </c>
-      <c r="M61" s="326">
+      <c r="M61" s="310">
         <v>6.1</v>
       </c>
     </row>
@@ -56377,7 +56453,7 @@
       <c r="L62" s="53">
         <v>287</v>
       </c>
-      <c r="M62" s="326">
+      <c r="M62" s="310">
         <v>6.19</v>
       </c>
     </row>
@@ -56388,7 +56464,7 @@
       <c r="L63">
         <v>16</v>
       </c>
-      <c r="M63" s="326">
+      <c r="M63" s="310">
         <v>6.22</v>
       </c>
     </row>
@@ -56399,17 +56475,26 @@
       <c r="L64">
         <v>118</v>
       </c>
-      <c r="M64" s="326">
+      <c r="M64" s="310">
         <v>6.23</v>
       </c>
     </row>
-    <row r="65" spans="2:2" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="135"/>
-    </row>
-    <row r="67" spans="2:2" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="276">
+        <v>44019</v>
+      </c>
+      <c r="L65" s="53">
+        <v>196</v>
+      </c>
+      <c r="M65" s="311">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="135"/>
     </row>
-    <row r="69" spans="2:2" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="135"/>
     </row>
   </sheetData>
@@ -57127,13 +57212,13 @@
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D23" s="258" t="s">
         <v>1533</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D23" s="258" t="s">
-        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -57491,96 +57576,96 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="309">
+      <c r="A7" s="313">
         <v>6</v>
       </c>
-      <c r="B7" s="320">
+      <c r="B7" s="324">
         <v>43722</v>
       </c>
-      <c r="C7" s="321">
+      <c r="C7" s="325">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1078</v>
       </c>
-      <c r="E7" s="308" t="s">
+      <c r="E7" s="312" t="s">
         <v>1079</v>
       </c>
       <c r="F7" s="53">
         <v>96</v>
       </c>
-      <c r="G7" s="309">
+      <c r="G7" s="313">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="322">
+      <c r="H7" s="326">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
         <v>15000</v>
       </c>
-      <c r="J7" s="309">
+      <c r="J7" s="313">
         <v>3000</v>
       </c>
       <c r="K7" s="200">
         <v>205.4</v>
       </c>
-      <c r="L7" s="309">
+      <c r="L7" s="313">
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
-      <c r="N7" s="323">
+      <c r="N7" s="327">
         <v>52.86</v>
       </c>
-      <c r="O7" s="323">
+      <c r="O7" s="327">
         <v>0.6</v>
       </c>
-      <c r="P7" s="323">
+      <c r="P7" s="327">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q7" s="310">
+      <c r="Q7" s="314">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="308" t="s">
+      <c r="R7" s="312" t="s">
         <v>1080</v>
       </c>
       <c r="S7" s="173"/>
-      <c r="T7" s="309">
+      <c r="T7" s="313">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="308" t="s">
+      <c r="U7" s="312" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="320"/>
-      <c r="C8" s="321"/>
+      <c r="A8" s="313"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="325"/>
       <c r="D8" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="E8" s="308"/>
+      <c r="E8" s="312"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
-      <c r="G8" s="309"/>
-      <c r="H8" s="322"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="326"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
-      <c r="J8" s="309"/>
+      <c r="J8" s="313"/>
       <c r="K8" s="200"/>
-      <c r="L8" s="309"/>
-      <c r="N8" s="323">
+      <c r="L8" s="313"/>
+      <c r="N8" s="327">
         <v>26.43</v>
       </c>
-      <c r="O8" s="323"/>
-      <c r="P8" s="323"/>
-      <c r="Q8" s="310"/>
-      <c r="R8" s="308"/>
+      <c r="O8" s="327"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="314"/>
+      <c r="R8" s="312"/>
       <c r="S8" s="173"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="308"/>
+      <c r="T8" s="313"/>
+      <c r="U8" s="312"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57752,86 +57837,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="309">
+      <c r="A12" s="313">
         <v>10</v>
       </c>
-      <c r="B12" s="320">
+      <c r="B12" s="324">
         <v>43764</v>
       </c>
-      <c r="C12" s="321">
+      <c r="C12" s="325">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1092</v>
       </c>
-      <c r="E12" s="308" t="s">
+      <c r="E12" s="312" t="s">
         <v>1093</v>
       </c>
       <c r="F12" s="53">
         <v>126</v>
       </c>
-      <c r="G12" s="309">
+      <c r="G12" s="313">
         <v>1.51</v>
       </c>
-      <c r="H12" s="322">
+      <c r="H12" s="326">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
         <v>20000</v>
       </c>
-      <c r="J12" s="309">
+      <c r="J12" s="313">
         <v>3000</v>
       </c>
       <c r="K12" s="200">
         <v>267.39999999999998</v>
       </c>
-      <c r="L12" s="309">
+      <c r="L12" s="313">
         <f t="shared" si="0"/>
         <v>-16.909999999999968</v>
       </c>
-      <c r="N12" s="309">
+      <c r="N12" s="313">
         <v>51.42</v>
       </c>
-      <c r="Q12" s="310">
+      <c r="Q12" s="314">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="308" t="s">
+      <c r="R12" s="312" t="s">
         <v>1094</v>
       </c>
       <c r="S12" s="173"/>
-      <c r="T12" s="309">
+      <c r="T12" s="313">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="308" t="s">
+      <c r="U12" s="312" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="309"/>
-      <c r="B13" s="320"/>
-      <c r="C13" s="321"/>
+      <c r="A13" s="313"/>
+      <c r="B13" s="324"/>
+      <c r="C13" s="325"/>
       <c r="D13" s="150" t="s">
         <v>1096</v>
       </c>
-      <c r="E13" s="308"/>
+      <c r="E13" s="312"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
-      <c r="G13" s="309"/>
-      <c r="H13" s="322"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="326"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
-      <c r="J13" s="309"/>
+      <c r="J13" s="313"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="Q13" s="310"/>
-      <c r="R13" s="308"/>
+      <c r="L13" s="313"/>
+      <c r="N13" s="313"/>
+      <c r="Q13" s="314"/>
+      <c r="R13" s="312"/>
       <c r="S13" s="173"/>
-      <c r="T13" s="309"/>
-      <c r="U13" s="308"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="312"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -58118,7 +58203,7 @@
         <v>20.162079999999968</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="T18" s="53">
         <v>13187381112</v>
@@ -58375,7 +58460,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="293" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D25" s="249" t="s">
         <v>1488</v>
@@ -58414,7 +58499,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="293" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D26" s="249" t="s">
         <v>1245</v>
@@ -58444,7 +58529,7 @@
     </row>
     <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="251" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F6C0C-FE77-4786-BA3C-850F5152F25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEED86E-FAAE-4CC4-BC6A-048796CF3ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="1751">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -13200,57 +13200,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全昭妍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Like A Miracle" 2020 season's greeting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔连准 YEONJUN 1st Cheering Kit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【28】110g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金东贤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2020 SEASON'S GREETING</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -13275,81 +13224,6 @@
       </rPr>
       <t>台历</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【5】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 290g</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【4】 530g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【40】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【56】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【6】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【42】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【30】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【49】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【44】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -13606,14 +13480,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【33】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【25】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18574,13 +18440,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>因疫情暂时无法发货 /6.8：仍然无法发货 /东南亚 /已改收件人为：Zhang Xinyi，已改怀化地址</t>
-  </si>
-  <si>
-    <t>6.8：待退款 已给zfb二维码 /泰国发货 / 已改收件人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.10：生产中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18713,14 +18572,6 @@
   </si>
   <si>
     <t>淘宝 开通优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30：LE(红色)*5后寄 /7.1：下周寄出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.29：已邮件怀化地址 / 中国工厂发货 /7.3：物流近期无法配送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18885,6 +18736,116 @@
   </si>
   <si>
     <t>7.16：下周末退 / 漏发一套 需要退款 / 2.27：64167-0213-0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全昭妍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Like A Miracle" 2020 season's greeting   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>290g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔连准 YEONJUN 1st Cheering Kit           【110g】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金东贤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2020 SEASON'S GREETING                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收到退款 / 因疫情暂时无法发货 /6.8：仍然无法发货 /东南亚 /已改收件人为：Zhang Xinyi，已改怀化地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29：已邮件怀化地址 / 中国工厂发货 /7.27：物流无法配送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29：香港邮局暂停服务 暂无法发货 /少B*1，换红色米奇款 / 4.26：顺丰寄 已给怀化地址 /5.7：EA304553127HK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29：10号前退款 /6.8：待退款 已给zfb二维码 /泰国发货 / 已改收件人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30：LE(红色)*5后寄 /7.29：近期发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -20495,7 +20456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21474,6 +21435,12 @@
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -26597,32 +26564,32 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="313">
+      <c r="G115" s="315">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="313">
+      <c r="H115" s="315">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="313">
+      <c r="I115" s="315">
         <v>92.52</v>
       </c>
-      <c r="J115" s="313">
+      <c r="J115" s="315">
         <v>9.64</v>
       </c>
-      <c r="K115" s="313">
+      <c r="K115" s="315">
         <v>122.8</v>
       </c>
-      <c r="L115" s="314">
+      <c r="L115" s="316">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="312" t="s">
+      <c r="M115" s="314" t="s">
         <v>812</v>
       </c>
-      <c r="N115" s="313">
+      <c r="N115" s="315">
         <v>15</v>
       </c>
-      <c r="O115" s="314">
+      <c r="O115" s="316">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26640,25 +26607,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="313"/>
-      <c r="H116" s="313"/>
-      <c r="I116" s="313">
+      <c r="G116" s="315"/>
+      <c r="H116" s="315"/>
+      <c r="I116" s="315">
         <v>49.72</v>
       </c>
-      <c r="J116" s="313">
+      <c r="J116" s="315">
         <v>4.84</v>
       </c>
-      <c r="K116" s="313">
+      <c r="K116" s="315">
         <v>50.31</v>
       </c>
-      <c r="L116" s="314"/>
-      <c r="M116" s="312" t="s">
+      <c r="L116" s="316"/>
+      <c r="M116" s="314" t="s">
         <v>812</v>
       </c>
-      <c r="N116" s="313">
+      <c r="N116" s="315">
         <v>23</v>
       </c>
-      <c r="O116" s="313"/>
+      <c r="O116" s="315"/>
       <c r="P116" s="53" t="s">
         <v>811</v>
       </c>
@@ -27040,39 +27007,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="312" t="s">
+      <c r="D126" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="312" t="s">
+      <c r="E126" s="314" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="313">
+      <c r="G126" s="315">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="313">
+      <c r="H126" s="315">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="313">
+      <c r="I126" s="315">
         <v>160.19</v>
       </c>
-      <c r="J126" s="313">
+      <c r="J126" s="315">
         <v>1.61</v>
       </c>
-      <c r="K126" s="313">
+      <c r="K126" s="315">
         <v>26.16</v>
       </c>
-      <c r="L126" s="315">
+      <c r="L126" s="317">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="312"/>
-      <c r="N126" s="312"/>
-      <c r="O126" s="314">
+      <c r="M126" s="314"/>
+      <c r="N126" s="314"/>
+      <c r="O126" s="316">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="312"/>
+      <c r="P126" s="314"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -27081,19 +27048,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="312"/>
-      <c r="E127" s="312"/>
+      <c r="D127" s="314"/>
+      <c r="E127" s="314"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="313"/>
-      <c r="H127" s="313"/>
-      <c r="I127" s="313"/>
-      <c r="J127" s="313"/>
-      <c r="K127" s="313"/>
-      <c r="L127" s="315"/>
-      <c r="M127" s="312"/>
-      <c r="N127" s="312"/>
-      <c r="O127" s="314"/>
-      <c r="P127" s="312"/>
+      <c r="G127" s="315"/>
+      <c r="H127" s="315"/>
+      <c r="I127" s="315"/>
+      <c r="J127" s="315"/>
+      <c r="K127" s="315"/>
+      <c r="L127" s="317"/>
+      <c r="M127" s="314"/>
+      <c r="N127" s="314"/>
+      <c r="O127" s="316"/>
+      <c r="P127" s="314"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -27102,19 +27069,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="312"/>
-      <c r="E128" s="312"/>
+      <c r="D128" s="314"/>
+      <c r="E128" s="314"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="313"/>
-      <c r="H128" s="313"/>
-      <c r="I128" s="313"/>
-      <c r="J128" s="313"/>
-      <c r="K128" s="313"/>
-      <c r="L128" s="315"/>
-      <c r="M128" s="312"/>
-      <c r="N128" s="312"/>
-      <c r="O128" s="314"/>
-      <c r="P128" s="312"/>
+      <c r="G128" s="315"/>
+      <c r="H128" s="315"/>
+      <c r="I128" s="315"/>
+      <c r="J128" s="315"/>
+      <c r="K128" s="315"/>
+      <c r="L128" s="317"/>
+      <c r="M128" s="314"/>
+      <c r="N128" s="314"/>
+      <c r="O128" s="316"/>
+      <c r="P128" s="314"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27123,19 +27090,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="312"/>
-      <c r="E129" s="312"/>
+      <c r="D129" s="314"/>
+      <c r="E129" s="314"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="313"/>
-      <c r="H129" s="313"/>
-      <c r="I129" s="313"/>
-      <c r="J129" s="313"/>
-      <c r="K129" s="313"/>
-      <c r="L129" s="315"/>
-      <c r="M129" s="312"/>
-      <c r="N129" s="312"/>
-      <c r="O129" s="314"/>
-      <c r="P129" s="312"/>
+      <c r="G129" s="315"/>
+      <c r="H129" s="315"/>
+      <c r="I129" s="315"/>
+      <c r="J129" s="315"/>
+      <c r="K129" s="315"/>
+      <c r="L129" s="317"/>
+      <c r="M129" s="314"/>
+      <c r="N129" s="314"/>
+      <c r="O129" s="316"/>
+      <c r="P129" s="314"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -28099,7 +28066,7 @@
     </row>
     <row r="174" spans="1:18" s="293" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -28145,8 +28112,8 @@
   <dimension ref="A1:AA349"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32873,7 +32840,7 @@
     </row>
     <row r="167" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="262" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="B167" s="262"/>
       <c r="C167" s="53">
@@ -32967,7 +32934,7 @@
         <v>672</v>
       </c>
       <c r="E172" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="F172" t="s">
         <v>492</v>
@@ -33002,7 +32969,7 @@
       <c r="D174" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="E174" s="316" t="s">
+      <c r="E174" s="318" t="s">
         <v>960</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -33024,7 +32991,7 @@
       <c r="D175" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="E175" s="316"/>
+      <c r="E175" s="318"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -35125,11 +35092,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="317" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B267" s="317"/>
-      <c r="C267" s="317"/>
+      <c r="A267" s="319" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B267" s="319"/>
+      <c r="C267" s="319"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -35142,19 +35109,19 @@
     </row>
     <row r="268" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="67" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="B268" s="67" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="C268" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>785</v>
       </c>
       <c r="E268" s="278" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="F268" s="121" t="s">
         <v>816</v>
@@ -35162,13 +35129,13 @@
     </row>
     <row r="269" spans="1:26" s="131" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="177" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="B269" s="177" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="C269" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D269" s="133" t="s">
         <v>521</v>
@@ -35183,30 +35150,30 @@
     </row>
     <row r="270" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="253" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="B270" s="253" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="C270" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>707</v>
       </c>
       <c r="E270" s="251" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="254" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="B271" s="254" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="C271" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>666</v>
@@ -35217,13 +35184,13 @@
     </row>
     <row r="272" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="253" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="B272" s="253" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="C272" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>658</v>
@@ -35235,13 +35202,13 @@
     </row>
     <row r="273" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="254" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="B273" s="254" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="C273" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D273" s="13" t="s">
         <v>725</v>
@@ -35253,19 +35220,19 @@
     </row>
     <row r="274" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="253" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
       <c r="B274" s="253" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="C274" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>688</v>
       </c>
       <c r="E274" s="225" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="G274" s="83"/>
       <c r="U274" s="212"/>
@@ -35277,13 +35244,13 @@
     </row>
     <row r="275" spans="1:26" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="253" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="B275" s="253" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="C275" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>711</v>
@@ -35302,13 +35269,13 @@
     </row>
     <row r="276" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="251" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="B276" s="264" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="C276" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>846</v>
@@ -35319,13 +35286,13 @@
     </row>
     <row r="277" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="C277" s="251" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>700</v>
@@ -35336,13 +35303,13 @@
     </row>
     <row r="278" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="67" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="C278" s="252" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>851</v>
@@ -35353,13 +35320,13 @@
     </row>
     <row r="279" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="259" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="B279" s="259" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="C279" s="256" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>793</v>
@@ -35371,13 +35338,13 @@
     </row>
     <row r="280" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="260" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="B280" s="260" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="C280" s="256" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>640</v>
@@ -35388,13 +35355,13 @@
     </row>
     <row r="281" spans="1:26" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="261" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="B281" s="261" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="C281" s="256" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>640</v>
@@ -35405,10 +35372,10 @@
     </row>
     <row r="282" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="262" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="B282" s="262" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="C282" s="58">
         <v>12.9</v>
@@ -35424,19 +35391,19 @@
     </row>
     <row r="283" spans="1:26" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="67" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="C283" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>1261</v>
       </c>
       <c r="E283" s="130" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="F283" s="69" t="s">
         <v>976</v>
@@ -35447,13 +35414,13 @@
     </row>
     <row r="284" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="65" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="C284" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>730</v>
@@ -35467,13 +35434,13 @@
     </row>
     <row r="285" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="B285" s="63" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="C285" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>616</v>
@@ -35487,13 +35454,13 @@
     </row>
     <row r="286" spans="1:26" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="67" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="C286" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>787</v>
@@ -35507,13 +35474,13 @@
     </row>
     <row r="287" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="67" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="C287" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>983</v>
@@ -35527,13 +35494,13 @@
     </row>
     <row r="288" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="178" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="B288" s="178" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="C288" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>744</v>
@@ -35547,13 +35514,13 @@
     </row>
     <row r="289" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="B289" s="132" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="C289" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>676</v>
@@ -35567,13 +35534,13 @@
     </row>
     <row r="290" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="67" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="B290" s="67" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="C290" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>845</v>
@@ -35587,13 +35554,13 @@
     </row>
     <row r="291" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="65" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="C291" s="257" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>702</v>
@@ -35607,13 +35574,13 @@
     </row>
     <row r="292" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="67" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="B292" s="67" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="C292" s="264" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>971</v>
@@ -35627,13 +35594,13 @@
     </row>
     <row r="293" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="177" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="B293" s="177" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="C293" s="264" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>756</v>
@@ -35648,13 +35615,13 @@
     </row>
     <row r="294" spans="1:8" s="264" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="65" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="B294" s="65" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="C294" s="264" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>657</v>
@@ -35669,7 +35636,7 @@
     </row>
     <row r="295" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="180" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="B295" s="180"/>
       <c r="D295" s="182" t="s">
@@ -35687,16 +35654,16 @@
       <c r="B296" s="180"/>
       <c r="C296" s="257"/>
       <c r="D296" s="182" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="E296" s="83" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="180" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
       <c r="B297" s="180"/>
       <c r="C297" s="257"/>
@@ -35704,7 +35671,7 @@
         <v>1267</v>
       </c>
       <c r="E297" s="271" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="F297" s="166" t="s">
         <v>86</v>
@@ -35712,7 +35679,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="169" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="B298" s="169"/>
       <c r="C298" s="166">
@@ -35722,7 +35689,7 @@
         <v>840</v>
       </c>
       <c r="E298" s="270" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="F298" s="60" t="s">
         <v>816</v>
@@ -35730,7 +35697,7 @@
     </row>
     <row r="299" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="181" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="B299" s="181"/>
       <c r="C299" s="166" t="s">
@@ -35740,7 +35707,7 @@
         <v>654</v>
       </c>
       <c r="E299" s="271" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>816</v>
@@ -35748,7 +35715,7 @@
     </row>
     <row r="300" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="180" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
       <c r="B300" s="180"/>
       <c r="C300" s="176" t="s">
@@ -35758,18 +35725,18 @@
         <v>667</v>
       </c>
       <c r="E300" s="130" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="275" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="B303" s="276" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="C303" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>672</v>
@@ -35780,13 +35747,13 @@
     </row>
     <row r="304" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="178" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="B304" s="279" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="C304" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>715</v>
@@ -35803,19 +35770,19 @@
     </row>
     <row r="305" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="132" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="B305" s="283" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="C305" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>530</v>
       </c>
       <c r="E305" s="278" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="F305" s="121" t="s">
         <v>816</v>
@@ -35826,13 +35793,13 @@
     </row>
     <row r="306" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="234" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="B306" s="282" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="C306" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>962</v>
@@ -35849,13 +35816,13 @@
     </row>
     <row r="307" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="234" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="B307" s="283" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="C307" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D307" s="13" t="s">
         <v>1396</v>
@@ -35872,19 +35839,19 @@
     </row>
     <row r="308" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="234" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="B308" s="283" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="C308" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>781</v>
       </c>
       <c r="E308" s="219" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="F308" s="121" t="s">
         <v>816</v>
@@ -35895,13 +35862,13 @@
     </row>
     <row r="309" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="234" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="B309" s="283" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="C309" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>767</v>
@@ -35918,36 +35885,36 @@
     </row>
     <row r="310" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="137" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="B310" s="279" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="C310" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="E310" s="278" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="B311" s="284" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="C311" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>745</v>
       </c>
       <c r="E311" s="130" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="F311" s="121" t="s">
         <v>816</v>
@@ -35958,13 +35925,13 @@
     </row>
     <row r="312" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="178" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="B312" s="279" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="C312" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D312" s="133" t="s">
         <v>695</v>
@@ -35977,19 +35944,19 @@
     </row>
     <row r="313" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="65" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="B313" s="284" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="C313" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>696</v>
       </c>
       <c r="E313" s="271" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="F313" s="121" t="s">
         <v>816</v>
@@ -36000,13 +35967,13 @@
     </row>
     <row r="314" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="139" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="B314" s="280" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="C314" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>642</v>
@@ -36023,13 +35990,13 @@
     </row>
     <row r="315" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="177" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="B315" s="281" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C315" s="277" t="s">
         <v>1622</v>
-      </c>
-      <c r="C315" s="277" t="s">
-        <v>1638</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>665</v>
@@ -36043,19 +36010,19 @@
     </row>
     <row r="316" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="234" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="B316" s="282" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="C316" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>435</v>
       </c>
       <c r="E316" s="61" t="s">
-        <v>1724</v>
+        <v>1706</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>816</v>
@@ -36066,13 +36033,13 @@
     </row>
     <row r="317" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="65" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="B317" s="284" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="C317" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>641</v>
@@ -36089,19 +36056,19 @@
     </row>
     <row r="318" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="132" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="B318" s="283" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="C318" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>641</v>
       </c>
       <c r="E318" s="130" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="F318" s="121" t="s">
         <v>86</v>
@@ -36112,13 +36079,13 @@
     </row>
     <row r="319" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="132" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="B319" s="283" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="C319" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>527</v>
@@ -36130,13 +36097,13 @@
     </row>
     <row r="320" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="177" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="B320" s="281" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="C320" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>661</v>
@@ -36148,19 +36115,19 @@
     </row>
     <row r="321" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="65" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="B321" s="284" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="C321" s="277" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>708</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="F321" s="121" t="s">
         <v>816</v>
@@ -36171,19 +36138,19 @@
     </row>
     <row r="322" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="132" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="B322" s="283" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="C322" s="286" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D322" s="241" t="s">
         <v>757</v>
       </c>
       <c r="E322" s="271" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="F322" s="121" t="s">
         <v>816</v>
@@ -36194,13 +36161,13 @@
     </row>
     <row r="323" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="B323" s="63" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="C323" s="286" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>779</v>
@@ -36212,13 +36179,13 @@
     </row>
     <row r="324" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="177" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="B324" s="177" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C324" s="286" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>659</v>
@@ -36230,13 +36197,13 @@
     </row>
     <row r="325" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="178" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="B325" s="178" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="C325" s="286" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>659</v>
@@ -36248,19 +36215,19 @@
     </row>
     <row r="326" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="175" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="B326" s="175" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="C326" s="287" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D326" s="241" t="s">
         <v>676</v>
       </c>
       <c r="E326" s="271" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="F326" s="121" t="s">
         <v>816</v>
@@ -36271,19 +36238,19 @@
     </row>
     <row r="327" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="239" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="B327" s="239" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="C327" s="287" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D327" s="241" t="s">
         <v>615</v>
       </c>
       <c r="E327" s="271" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="F327" s="121" t="s">
         <v>816</v>
@@ -36295,19 +36262,19 @@
     </row>
     <row r="328" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="67" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="B328" s="67" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="C328" s="287" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>823</v>
       </c>
       <c r="E328" s="271" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="F328" s="60" t="s">
         <v>816</v>
@@ -36318,19 +36285,19 @@
     </row>
     <row r="329" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="151" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="B329" s="151" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="C329" s="287" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>664</v>
       </c>
       <c r="E329" s="271" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="F329" s="121" t="s">
         <v>816</v>
@@ -36341,19 +36308,19 @@
     </row>
     <row r="330" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="65" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="B330" s="65" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="C330" s="288" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>741</v>
       </c>
       <c r="E330" s="271" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="F330" s="121" t="s">
         <v>816</v>
@@ -36364,19 +36331,19 @@
     </row>
     <row r="332" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="234" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="B332" s="234" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="C332" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="E332" s="318" t="s">
-        <v>1662</v>
+      <c r="E332" s="320" t="s">
+        <v>1646</v>
       </c>
       <c r="F332" s="121" t="s">
         <v>816</v>
@@ -36387,18 +36354,18 @@
     </row>
     <row r="333" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="151" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="B333" s="151" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="C333" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D333" s="241" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E333" s="318"/>
+        <v>1575</v>
+      </c>
+      <c r="E333" s="320"/>
       <c r="F333" s="121" t="s">
         <v>816</v>
       </c>
@@ -36408,18 +36375,18 @@
     </row>
     <row r="334" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="132" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="B334" s="132" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="C334" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D334" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="E334" s="318"/>
+      <c r="E334" s="320"/>
       <c r="F334" s="121" t="s">
         <v>816</v>
       </c>
@@ -36429,19 +36396,19 @@
     </row>
     <row r="335" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="233" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="B335" s="233" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="C335" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D335" s="13" t="s">
         <v>701</v>
       </c>
       <c r="E335" s="278" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="F335" s="61" t="s">
         <v>86</v>
@@ -36450,19 +36417,19 @@
     </row>
     <row r="336" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="B336" s="132" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="C336" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>789</v>
       </c>
       <c r="E336" s="271" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="F336" s="61" t="s">
         <v>86</v>
@@ -36473,19 +36440,19 @@
     </row>
     <row r="337" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="177" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="B337" s="132" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="C337" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>878</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="F337" s="121" t="s">
         <v>816</v>
@@ -36493,19 +36460,19 @@
     </row>
     <row r="338" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="B338" s="67" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="C338" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D338" s="241" t="s">
         <v>800</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1721</v>
+        <v>1703</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1245</v>
@@ -36516,19 +36483,19 @@
     </row>
     <row r="339" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="65" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="C339" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>716</v>
       </c>
       <c r="E339" s="271" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="F339" s="121" t="s">
         <v>816</v>
@@ -36539,19 +36506,19 @@
     </row>
     <row r="340" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="137" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="B340" s="137" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="C340" s="291" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D340" s="238" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="E340" s="61" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="F340" s="121" t="s">
         <v>816</v>
@@ -36562,19 +36529,19 @@
     </row>
     <row r="341" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="132" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="B341" s="132" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="C341" s="298" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="D341" s="241" t="s">
         <v>296</v>
       </c>
       <c r="E341" s="271" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="F341" s="121" t="s">
         <v>816</v>
@@ -36585,13 +36552,13 @@
     </row>
     <row r="342" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="234" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="B342" s="234" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="C342" s="298" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>660</v>
@@ -36608,19 +36575,19 @@
     </row>
     <row r="343" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="132" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="C343" s="300" t="s">
-        <v>1725</v>
+        <v>1707</v>
       </c>
       <c r="D343" s="241" t="s">
         <v>644</v>
       </c>
       <c r="E343" s="271" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="F343" s="121" t="s">
         <v>816</v>
@@ -36636,19 +36603,19 @@
     </row>
     <row r="344" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="67" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="C344" s="300" t="s">
-        <v>1725</v>
+        <v>1707</v>
       </c>
       <c r="D344" s="241" t="s">
         <v>644</v>
       </c>
       <c r="E344" s="271" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="F344" s="121" t="s">
         <v>816</v>
@@ -36660,19 +36627,19 @@
     </row>
     <row r="345" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="178" t="s">
-        <v>1729</v>
+        <v>1711</v>
       </c>
       <c r="B345" s="178" t="s">
-        <v>1730</v>
+        <v>1712</v>
       </c>
       <c r="C345" s="300" t="s">
-        <v>1726</v>
+        <v>1708</v>
       </c>
       <c r="D345" s="241" t="s">
         <v>679</v>
       </c>
       <c r="E345" s="226" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="F345" s="61" t="s">
         <v>86</v>
@@ -36692,16 +36659,16 @@
         <v>855</v>
       </c>
       <c r="B347" s="44" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="C347" s="309" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="D347" s="311" t="s">
         <v>1382</v>
       </c>
       <c r="E347" s="61" t="s">
-        <v>1758</v>
+        <v>1738</v>
       </c>
       <c r="F347" s="60" t="s">
         <v>816</v>
@@ -36718,19 +36685,19 @@
     </row>
     <row r="348" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="261" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="B348" s="261" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="C348" s="309" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="D348" s="238" t="s">
         <v>733</v>
       </c>
       <c r="E348" s="61" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="F348" s="121" t="s">
         <v>816</v>
@@ -36741,19 +36708,19 @@
     </row>
     <row r="349" spans="1:26" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="175" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="B349" s="175" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="C349" s="309" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="D349" s="238" t="s">
         <v>782</v>
       </c>
       <c r="E349" s="61" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="F349" s="121" t="s">
         <v>816</v>
@@ -36780,10 +36747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36798,19 +36765,21 @@
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="230" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="322" t="s">
         <v>1406</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="228">
+        <v>27</v>
+      </c>
       <c r="D2" s="54">
         <v>10.16</v>
       </c>
@@ -36819,14 +36788,17 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320"/>
+      <c r="I2" s="225">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="322"/>
       <c r="B3" s="65" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C3" s="132" t="s">
-        <v>1417</v>
+        <v>1743</v>
+      </c>
+      <c r="C3" s="132">
+        <v>3</v>
       </c>
       <c r="D3" s="54">
         <v>11.17</v>
@@ -36838,14 +36810,17 @@
         <v>1128</v>
       </c>
       <c r="G3" s="83"/>
-    </row>
-    <row r="4" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="320"/>
+      <c r="I3" s="225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="322"/>
       <c r="B4" s="67" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>1413</v>
+        <v>1744</v>
+      </c>
+      <c r="C4" s="127">
+        <v>28</v>
       </c>
       <c r="D4" s="58">
         <v>12.7</v>
@@ -36856,14 +36831,17 @@
       <c r="F4" s="225" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="320"/>
+      <c r="I4" s="225">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="322"/>
       <c r="B5" s="139" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>1418</v>
+        <v>1745</v>
+      </c>
+      <c r="C5" s="139">
+        <v>4</v>
       </c>
       <c r="D5" s="224" t="s">
         <v>531</v>
@@ -36875,130 +36853,160 @@
         <v>1020</v>
       </c>
       <c r="G5" s="83"/>
-    </row>
-    <row r="6" spans="1:7" s="242" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="242" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="54"/>
       <c r="E6" s="13"/>
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
     </row>
-    <row r="7" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="229" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="13"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="321" t="s">
+    <row r="8" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="323" t="s">
         <v>1410</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C8" s="228" t="s">
-        <v>1419</v>
+        <v>1412</v>
+      </c>
+      <c r="C8" s="228">
+        <v>40</v>
       </c>
       <c r="D8" s="54">
         <v>11.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="322"/>
+      <c r="I8" s="225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="324"/>
       <c r="B9" s="66" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C9" s="228" t="s">
-        <v>1420</v>
+        <v>1413</v>
+      </c>
+      <c r="C9" s="228">
+        <v>56</v>
       </c>
       <c r="D9" s="54">
         <v>11.22</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="322"/>
+      <c r="I9" s="225">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="324"/>
       <c r="B10" s="66" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C10" s="228" t="s">
-        <v>1421</v>
+        <v>1414</v>
+      </c>
+      <c r="C10" s="228">
+        <v>6</v>
       </c>
       <c r="D10" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="322"/>
+      <c r="I10" s="225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="324"/>
       <c r="B11" s="66" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>1422</v>
+        <v>1415</v>
+      </c>
+      <c r="C11" s="228">
+        <v>42</v>
       </c>
       <c r="D11" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="322"/>
+      <c r="I11" s="225">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="324"/>
       <c r="B12" s="66" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C12" s="228" t="s">
         <v>1416</v>
+      </c>
+      <c r="C12" s="228">
+        <v>3</v>
       </c>
       <c r="D12" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="322"/>
+      <c r="I12" s="225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="324"/>
       <c r="B13" s="68" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C13" s="228" t="s">
-        <v>1416</v>
+        <v>1417</v>
+      </c>
+      <c r="C13" s="228">
+        <v>5</v>
       </c>
       <c r="D13" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="322"/>
+      <c r="I13" s="225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="324"/>
       <c r="B14" s="68" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C14" s="228" t="s">
-        <v>1423</v>
+        <v>1418</v>
+      </c>
+      <c r="C14" s="228">
+        <v>30</v>
       </c>
       <c r="D14" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322"/>
+      <c r="I14" s="225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="324"/>
       <c r="B15" s="66" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C15" s="228" t="s">
-        <v>1424</v>
+        <v>1419</v>
+      </c>
+      <c r="C15" s="228">
+        <v>49</v>
       </c>
       <c r="D15" s="54">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="323"/>
+      <c r="I15" s="225">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="325"/>
       <c r="B16" s="66" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C16" s="228" t="s">
-        <v>1425</v>
+        <v>1420</v>
+      </c>
+      <c r="C16" s="228">
+        <v>44</v>
       </c>
       <c r="D16" s="54">
         <v>11.26</v>
+      </c>
+      <c r="I16" s="225">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -37008,7 +37016,7 @@
     </row>
     <row r="18" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="227" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="54"/>
@@ -37028,7 +37036,7 @@
         <v>1210</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -37043,10 +37051,10 @@
     </row>
     <row r="20" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>1435</v>
+        <v>1698</v>
+      </c>
+      <c r="C20" s="32">
+        <v>31</v>
       </c>
       <c r="D20" s="54">
         <v>11.18</v>
@@ -37055,15 +37063,17 @@
         <v>657</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>816</v>
       </c>
-      <c r="I20" s="53"/>
+      <c r="I20" s="53">
+        <v>27</v>
+      </c>
       <c r="W20" s="212"/>
       <c r="X20" s="212"/>
       <c r="Y20" s="212"/>
@@ -37073,10 +37083,10 @@
     </row>
     <row r="21" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>1425</v>
+        <v>1421</v>
+      </c>
+      <c r="C21" s="32">
+        <v>44</v>
       </c>
       <c r="D21" s="58">
         <v>11.9</v>
@@ -37085,15 +37095,17 @@
         <v>697</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1720</v>
-      </c>
-      <c r="G21" s="319" t="s">
-        <v>1449</v>
+        <v>1702</v>
+      </c>
+      <c r="G21" s="321" t="s">
+        <v>1433</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="83">
+        <v>31</v>
+      </c>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
@@ -37107,10 +37119,10 @@
     </row>
     <row r="22" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>1436</v>
+        <v>1422</v>
+      </c>
+      <c r="C22" s="32">
+        <v>25</v>
       </c>
       <c r="D22" s="58">
         <v>11.9</v>
@@ -37119,13 +37131,15 @@
         <v>697</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G22" s="319"/>
+        <v>1704</v>
+      </c>
+      <c r="G22" s="321"/>
       <c r="H22" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="83">
+        <v>20</v>
+      </c>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
@@ -37139,10 +37153,10 @@
     </row>
     <row r="23" spans="1:28" s="225" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>1423</v>
+        <v>1453</v>
+      </c>
+      <c r="C23" s="67">
+        <v>30</v>
       </c>
       <c r="D23" s="58">
         <v>12.9</v>
@@ -37151,19 +37165,23 @@
         <v>737</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="G23" s="231" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="H23" s="61"/>
-      <c r="I23" s="83"/>
+      <c r="I23" s="271">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:28" s="242" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>1428</v>
+      </c>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
       <c r="D24" s="54">
         <v>9.11</v>
       </c>
@@ -37174,18 +37192,22 @@
         <v>1233</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="H24" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="271">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:28" s="264" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>1567</v>
+      </c>
+      <c r="C25" s="32">
+        <v>5</v>
+      </c>
       <c r="D25" s="54">
         <v>11.14</v>
       </c>
@@ -37193,352 +37215,321 @@
         <v>840</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+        <v>1568</v>
+      </c>
+      <c r="I25" s="271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="312" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17">
+        <f>SUM(C2:C25)</f>
+        <v>477</v>
+      </c>
       <c r="D26" s="54"/>
-    </row>
-    <row r="27" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="225"/>
-      <c r="B27" s="230" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C27" s="225"/>
-      <c r="D27" s="230" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G27" s="225"/>
-      <c r="W27" s="212"/>
-      <c r="X27" s="212"/>
-      <c r="Y27" s="212"/>
-      <c r="Z27" s="212"/>
-      <c r="AA27" s="212"/>
-      <c r="AB27" s="212"/>
-    </row>
-    <row r="28" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="263" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B28" s="295" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="166" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="271"/>
+      <c r="I26" s="17">
+        <f>SUM(I2:I25)</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:28" s="312" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:28" s="166" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="225"/>
+      <c r="B29" s="230" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C29" s="225"/>
+      <c r="D29" s="230" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G29" s="225"/>
+      <c r="W29" s="212"/>
+      <c r="X29" s="212"/>
+      <c r="Y29" s="212"/>
+      <c r="Z29" s="212"/>
+      <c r="AA29" s="212"/>
+      <c r="AB29" s="212"/>
+    </row>
+    <row r="30" spans="1:28" s="166" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="263" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B30" s="295" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="166" t="s">
         <v>1201</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F30" s="61" t="s">
         <v>1237</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="60" t="s">
+      <c r="G30" s="121"/>
+      <c r="H30" s="60" t="s">
         <v>816</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="212"/>
-      <c r="Z28" s="212"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="212"/>
-    </row>
-    <row r="29" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="292" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B29" s="294" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D29" s="225" t="s">
+      <c r="I30" s="69"/>
+      <c r="W30" s="212"/>
+      <c r="X30" s="212"/>
+      <c r="Y30" s="212"/>
+      <c r="Z30" s="212"/>
+      <c r="AA30" s="212"/>
+      <c r="AB30" s="212"/>
+    </row>
+    <row r="31" spans="1:28" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="292" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B31" s="294" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D31" s="225" t="s">
         <v>1221</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F31" s="83" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="293" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="271"/>
-    </row>
-    <row r="31" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="264"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-    </row>
-    <row r="32" spans="1:28" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="307" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C32" s="266"/>
-      <c r="D32" s="267" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C33" s="65">
-        <v>6</v>
-      </c>
-      <c r="D33" s="54">
-        <v>11.19</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="F33" s="306" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G33" s="306" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="271"/>
-    </row>
-    <row r="34" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C34" s="63">
-        <v>5</v>
-      </c>
-      <c r="D34" s="54">
-        <v>11.3</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="F34" s="306" t="s">
-        <v>1717</v>
-      </c>
-      <c r="G34" s="306" t="s">
-        <v>1740</v>
-      </c>
-      <c r="H34" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="271"/>
+    <row r="32" spans="1:28" s="293" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="271"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="264"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="307" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C34" s="266"/>
+      <c r="D34" s="267" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="65" t="s">
-        <v>1578</v>
+        <v>1493</v>
       </c>
       <c r="C35" s="65">
+        <v>6</v>
+      </c>
+      <c r="D35" s="54">
+        <v>11.19</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="F35" s="306" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G35" s="306" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="271"/>
+    </row>
+    <row r="36" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="65" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C36" s="65">
         <v>5</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D36" s="54">
         <v>11.13</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="F35" s="83" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>1744</v>
-      </c>
-      <c r="H35" s="60" t="s">
+      <c r="F36" s="83" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H36" s="60" t="s">
         <v>816</v>
       </c>
-      <c r="I35" s="237"/>
-    </row>
-    <row r="36" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="137" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C36" s="137">
+      <c r="I36" s="237"/>
+    </row>
+    <row r="37" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="137" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C37" s="137">
         <v>11</v>
       </c>
-      <c r="D36" s="306" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F36" s="61" t="s">
+      <c r="D37" s="306" t="s">
         <v>1678</v>
       </c>
-      <c r="G36" s="271" t="s">
-        <v>1742</v>
-      </c>
-      <c r="H36" s="121" t="s">
+      <c r="E37" s="13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G37" s="271" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H37" s="121" t="s">
         <v>816</v>
       </c>
-      <c r="I36" s="130" t="s">
+      <c r="I37" s="130" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="287" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="13"/>
-      <c r="I37" s="130"/>
-    </row>
-    <row r="38" spans="1:9" s="256" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="225"/>
-      <c r="B38" s="308" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C38" s="225"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38" s="225"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="232" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D39" s="55" t="s">
+    <row r="38" spans="1:9" s="287" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="13"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="1:9" s="256" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="225"/>
+      <c r="B39" s="308" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C39" s="225"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" s="225"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="232" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F39" s="90" t="s">
+      <c r="F40" s="90" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="32" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="256"/>
-      <c r="B41" s="265" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C41" s="256"/>
-      <c r="D41" s="58">
+    <row r="41" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="256"/>
+      <c r="B42" s="265" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C42" s="256"/>
+      <c r="D42" s="58">
         <v>11.8</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="60" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C42" s="225">
-        <v>9</v>
-      </c>
-      <c r="D42" s="58">
-        <v>11.9</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F42" s="168" t="s">
-        <v>1392</v>
-      </c>
-      <c r="G42" s="289"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
       <c r="H42" s="60" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="269" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="289"/>
-      <c r="B43" s="65"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="289"/>
-      <c r="H43" s="271"/>
-    </row>
-    <row r="44" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>492</v>
-      </c>
-      <c r="I44" s="83"/>
-    </row>
-    <row r="45" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="308" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D45" s="267" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E45" s="267" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F45" s="267" t="s">
-        <v>1589</v>
-      </c>
-      <c r="H45" s="61" t="s">
+    <row r="43" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="65" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C43" s="225">
+        <v>9</v>
+      </c>
+      <c r="D43" s="58">
+        <v>11.9</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F43" s="168" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G43" s="289"/>
+      <c r="H43" s="60" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="269" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="289"/>
+      <c r="B44" s="63" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C44" s="63">
+        <v>5</v>
+      </c>
+      <c r="D44" s="54">
+        <v>11.3</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="F44" s="306" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G44" s="306" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H44" s="121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="313" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="271"/>
+      <c r="I46" s="83"/>
+    </row>
+    <row r="47" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="308" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D47" s="267" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E47" s="267" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F47" s="267" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H47" s="61" t="s">
         <v>514</v>
-      </c>
-      <c r="I45" s="130" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="233" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C46" s="225">
-        <v>2</v>
-      </c>
-      <c r="D46" s="54">
-        <v>10.3</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="F46" s="306"/>
-      <c r="G46" s="168" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H46" s="121" t="s">
-        <v>816</v>
-      </c>
-      <c r="I46" s="130" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="225"/>
-      <c r="B47" s="233" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C47" s="225">
-        <v>5</v>
-      </c>
-      <c r="D47" s="58">
-        <v>11.7</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="F47" s="306"/>
-      <c r="G47" s="168" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>816</v>
       </c>
       <c r="I47" s="130" t="s">
         <v>1398</v>
@@ -37546,124 +37537,173 @@
     </row>
     <row r="48" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="233" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="C48" s="225">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" s="54">
-        <v>11.12</v>
+        <v>10.3</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="F48" s="306"/>
       <c r="G48" s="168" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1565</v>
+      </c>
+      <c r="H48" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="I48" s="130" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="225"/>
       <c r="B49" s="233" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="C49" s="225">
-        <v>1</v>
-      </c>
-      <c r="D49" s="54">
-        <v>11.21</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="58">
+        <v>11.7</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>740</v>
+        <v>685</v>
       </c>
       <c r="F49" s="306"/>
       <c r="G49" s="168" t="s">
-        <v>1751</v>
-      </c>
-      <c r="H49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+        <v>1442</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="I49" s="130" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="233" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C50" s="53">
-        <v>4</v>
-      </c>
-      <c r="D50" s="58">
-        <v>12.8</v>
+        <v>1437</v>
+      </c>
+      <c r="C50" s="225">
+        <v>5</v>
+      </c>
+      <c r="D50" s="54">
+        <v>11.12</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>772</v>
+        <v>704</v>
       </c>
       <c r="F50" s="306"/>
       <c r="G50" s="168" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51" s="234" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="7">
-        <v>2</v>
-      </c>
-      <c r="D51" s="255" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="235" t="s">
-        <v>518</v>
+        <v>1571</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="233" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C51" s="225">
+        <v>1</v>
+      </c>
+      <c r="D51" s="54">
+        <v>11.21</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>740</v>
       </c>
       <c r="F51" s="306"/>
       <c r="G51" s="168" t="s">
-        <v>1753</v>
+        <v>1731</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52" s="151" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="255">
-        <v>3</v>
-      </c>
-      <c r="D52" s="54">
-        <v>8.24</v>
-      </c>
-      <c r="E52" s="258" t="s">
-        <v>1521</v>
+      <c r="A52" s="53"/>
+      <c r="B52" s="233" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C52" s="53">
+        <v>4</v>
+      </c>
+      <c r="D52" s="58">
+        <v>12.8</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="F52" s="306"/>
       <c r="G52" s="168" t="s">
-        <v>522</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="132" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C53" s="132">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>528</v>
+      <c r="A53"/>
+      <c r="B53" s="234" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7">
+        <v>2</v>
+      </c>
+      <c r="D53" s="255" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="235" t="s">
+        <v>518</v>
       </c>
       <c r="F53" s="306"/>
       <c r="G53" s="168" t="s">
-        <v>1745</v>
-      </c>
-      <c r="H53" s="61" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="255">
+        <v>3</v>
+      </c>
+      <c r="D54" s="54">
+        <v>8.24</v>
+      </c>
+      <c r="E54" s="258" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F54" s="306"/>
+      <c r="G54" s="168" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="132" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C55" s="132">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F55" s="306"/>
+      <c r="G55" s="168" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H55" s="61" t="s">
         <v>816</v>
       </c>
-      <c r="I53" s="130" t="s">
+      <c r="I55" s="130" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -37684,7 +37724,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37704,7 +37744,7 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="1" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -37713,12 +37753,12 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="B2" s="132">
         <v>10</v>
@@ -37730,10 +37770,10 @@
         <v>1397</v>
       </c>
       <c r="E2" s="256" t="s">
-        <v>1727</v>
+        <v>1709</v>
       </c>
       <c r="F2" s="301" t="s">
-        <v>1746</v>
+        <v>1726</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>816</v>
@@ -37744,7 +37784,7 @@
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="B3" s="151">
         <v>20</v>
@@ -37756,10 +37796,10 @@
         <v>645</v>
       </c>
       <c r="E3" s="226" t="s">
-        <v>1719</v>
+        <v>1701</v>
       </c>
       <c r="F3" s="285" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="G3" s="121" t="s">
         <v>86</v>
@@ -37770,7 +37810,7 @@
     </row>
     <row r="4" spans="1:8" s="53" customFormat="1" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="B4" s="132">
         <v>1</v>
@@ -37782,10 +37822,10 @@
         <v>710</v>
       </c>
       <c r="E4" s="226" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>86</v>
@@ -37794,7 +37834,7 @@
     </row>
     <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="B5" s="67">
         <v>12</v>
@@ -37806,10 +37846,10 @@
         <v>783</v>
       </c>
       <c r="E5" s="226" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F5" s="306" t="s">
         <v>1728</v>
-      </c>
-      <c r="F5" s="306" t="s">
-        <v>1748</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>816</v>
@@ -37820,7 +37860,7 @@
     </row>
     <row r="6" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="B6" s="67">
         <v>9</v>
@@ -37832,10 +37872,10 @@
         <v>849</v>
       </c>
       <c r="E6" s="226" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="F6" s="297" t="s">
-        <v>1749</v>
+        <v>1729</v>
       </c>
       <c r="G6" s="88" t="s">
         <v>86</v>
@@ -37844,7 +37884,7 @@
     </row>
     <row r="7" spans="1:8" s="53" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="B7" s="67">
         <v>4</v>
@@ -37856,10 +37896,10 @@
         <v>992</v>
       </c>
       <c r="E7" s="226" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="F7" s="306" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>816</v>
@@ -37870,7 +37910,7 @@
     </row>
     <row r="8" spans="1:8" s="236" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="B8" s="67">
         <v>3</v>
@@ -37879,13 +37919,13 @@
         <v>1.2</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="E8" s="236" t="s">
-        <v>1723</v>
+        <v>1705</v>
       </c>
       <c r="F8" s="256" t="s">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
@@ -37902,7 +37942,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38275,7 +38315,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>869</v>
@@ -38299,7 +38339,7 @@
         <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>870</v>
@@ -38323,7 +38363,7 @@
         <v>881</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -38367,10 +38407,10 @@
         <v>1383</v>
       </c>
       <c r="D26" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="E26" s="310" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>1275</v>
@@ -38394,10 +38434,10 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="E27" s="296" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>86</v>
@@ -38427,10 +38467,10 @@
         <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="E28" s="221" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="F28" s="60" t="s">
         <v>816</v>
@@ -38460,10 +38500,10 @@
         <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="E29" s="268" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>86</v>
@@ -38487,10 +38527,10 @@
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="E30" s="223" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38517,10 +38557,10 @@
         <v>978</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="E31" s="310" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>816</v>
@@ -38541,10 +38581,10 @@
         <v>1385</v>
       </c>
       <c r="D32" t="s">
-        <v>1732</v>
+        <v>1714</v>
       </c>
       <c r="E32" s="222" t="s">
-        <v>1733</v>
+        <v>1715</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>816</v>
@@ -38894,7 +38934,7 @@
   <dimension ref="A1:XFD69"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -55698,7 +55738,7 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="17" spans="2:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -55722,7 +55762,7 @@
         <v>171</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="O17" s="53">
         <v>64.7</v>
@@ -55749,7 +55789,7 @@
         <v>373</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>1734</v>
+        <v>1716</v>
       </c>
       <c r="O18" s="53">
         <v>30</v>
@@ -55779,7 +55819,7 @@
         <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>1735</v>
+        <v>1717</v>
       </c>
       <c r="O19">
         <v>158</v>
@@ -56218,10 +56258,10 @@
         <v>325.18</v>
       </c>
       <c r="F47" s="273" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="H47" s="118">
         <v>3585.21</v>
@@ -56233,7 +56273,7 @@
         <v>504</v>
       </c>
       <c r="M47" s="302" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -56247,7 +56287,7 @@
         <v>43955</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="H48" s="118">
         <v>3155.77</v>
@@ -56270,7 +56310,7 @@
         <v>43959</v>
       </c>
       <c r="G49" s="272" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="H49" s="274">
         <v>296</v>
@@ -56293,7 +56333,7 @@
         <v>43964</v>
       </c>
       <c r="G50" s="272" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="H50" s="274">
         <v>295</v>
@@ -56316,7 +56356,7 @@
         <v>43969</v>
       </c>
       <c r="G51" s="272" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="H51" s="274">
         <v>245</v>
@@ -56339,7 +56379,7 @@
         <v>43979</v>
       </c>
       <c r="G52" s="272" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="H52" s="274">
         <v>148</v>
@@ -56351,7 +56391,7 @@
         <v>372</v>
       </c>
       <c r="M52" s="303" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -56359,7 +56399,7 @@
         <v>43984</v>
       </c>
       <c r="G53" s="272" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="H53" s="274">
         <v>395</v>
@@ -56371,7 +56411,7 @@
         <v>448</v>
       </c>
       <c r="M53" s="303" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -56531,8 +56571,28 @@
         <v>7.19</v>
       </c>
     </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K68" s="273">
+        <v>44036</v>
+      </c>
+      <c r="L68">
+        <v>56</v>
+      </c>
+      <c r="M68" s="304">
+        <v>7.23</v>
+      </c>
+    </row>
     <row r="69" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="135"/>
+      <c r="K69" s="273">
+        <v>44041</v>
+      </c>
+      <c r="L69" s="53">
+        <v>64</v>
+      </c>
+      <c r="M69" s="304">
+        <v>7.28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -57249,13 +57309,13 @@
     </row>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="D23" s="256" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -57613,96 +57673,96 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="313">
+      <c r="A7" s="315">
         <v>6</v>
       </c>
-      <c r="B7" s="324">
+      <c r="B7" s="326">
         <v>43722</v>
       </c>
-      <c r="C7" s="325">
+      <c r="C7" s="327">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1077</v>
       </c>
-      <c r="E7" s="312" t="s">
+      <c r="E7" s="314" t="s">
         <v>1078</v>
       </c>
       <c r="F7" s="53">
         <v>96</v>
       </c>
-      <c r="G7" s="313">
+      <c r="G7" s="315">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="326">
+      <c r="H7" s="328">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
         <v>15000</v>
       </c>
-      <c r="J7" s="313">
+      <c r="J7" s="315">
         <v>3000</v>
       </c>
       <c r="K7" s="200">
         <v>205.4</v>
       </c>
-      <c r="L7" s="313">
+      <c r="L7" s="315">
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
-      <c r="N7" s="327">
+      <c r="N7" s="329">
         <v>52.86</v>
       </c>
-      <c r="O7" s="327">
+      <c r="O7" s="329">
         <v>0.6</v>
       </c>
-      <c r="P7" s="327">
+      <c r="P7" s="329">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q7" s="314">
+      <c r="Q7" s="316">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="312" t="s">
+      <c r="R7" s="314" t="s">
         <v>1079</v>
       </c>
       <c r="S7" s="173"/>
-      <c r="T7" s="313">
+      <c r="T7" s="315">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="312" t="s">
+      <c r="U7" s="314" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="313"/>
-      <c r="B8" s="324"/>
-      <c r="C8" s="325"/>
+      <c r="A8" s="315"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="E8" s="312"/>
+      <c r="E8" s="314"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
-      <c r="G8" s="313"/>
-      <c r="H8" s="326"/>
+      <c r="G8" s="315"/>
+      <c r="H8" s="328"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
-      <c r="J8" s="313"/>
+      <c r="J8" s="315"/>
       <c r="K8" s="200"/>
-      <c r="L8" s="313"/>
-      <c r="N8" s="327">
+      <c r="L8" s="315"/>
+      <c r="N8" s="329">
         <v>26.43</v>
       </c>
-      <c r="O8" s="327"/>
-      <c r="P8" s="327"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="312"/>
+      <c r="O8" s="329"/>
+      <c r="P8" s="329"/>
+      <c r="Q8" s="316"/>
+      <c r="R8" s="314"/>
       <c r="S8" s="173"/>
-      <c r="T8" s="313"/>
-      <c r="U8" s="312"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="314"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57820,7 +57880,7 @@
         <v>811521431838696</v>
       </c>
       <c r="D11" s="245" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>1088</v>
@@ -57864,7 +57924,7 @@
         <v>1089</v>
       </c>
       <c r="S11" s="174" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="T11" s="53">
         <v>13705761067</v>
@@ -57874,86 +57934,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="313">
+      <c r="A12" s="315">
         <v>10</v>
       </c>
-      <c r="B12" s="324">
+      <c r="B12" s="326">
         <v>43764</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="327">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1091</v>
       </c>
-      <c r="E12" s="312" t="s">
+      <c r="E12" s="314" t="s">
         <v>1092</v>
       </c>
       <c r="F12" s="53">
         <v>126</v>
       </c>
-      <c r="G12" s="313">
+      <c r="G12" s="315">
         <v>1.51</v>
       </c>
-      <c r="H12" s="326">
+      <c r="H12" s="328">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
         <v>20000</v>
       </c>
-      <c r="J12" s="313">
+      <c r="J12" s="315">
         <v>3000</v>
       </c>
       <c r="K12" s="200">
         <v>267.39999999999998</v>
       </c>
-      <c r="L12" s="313">
+      <c r="L12" s="315">
         <f t="shared" si="0"/>
         <v>-16.909999999999968</v>
       </c>
-      <c r="N12" s="313">
+      <c r="N12" s="315">
         <v>51.42</v>
       </c>
-      <c r="Q12" s="314">
+      <c r="Q12" s="316">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="312" t="s">
+      <c r="R12" s="314" t="s">
         <v>1093</v>
       </c>
       <c r="S12" s="173"/>
-      <c r="T12" s="313">
+      <c r="T12" s="315">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="312" t="s">
+      <c r="U12" s="314" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="313"/>
-      <c r="B13" s="324"/>
-      <c r="C13" s="325"/>
+      <c r="A13" s="315"/>
+      <c r="B13" s="326"/>
+      <c r="C13" s="327"/>
       <c r="D13" s="150" t="s">
         <v>1095</v>
       </c>
-      <c r="E13" s="312"/>
+      <c r="E13" s="314"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
-      <c r="G13" s="313"/>
-      <c r="H13" s="326"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="328"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
-      <c r="J13" s="313"/>
+      <c r="J13" s="315"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="313"/>
-      <c r="N13" s="313"/>
-      <c r="Q13" s="314"/>
-      <c r="R13" s="312"/>
+      <c r="L13" s="315"/>
+      <c r="N13" s="315"/>
+      <c r="Q13" s="316"/>
+      <c r="R13" s="314"/>
       <c r="S13" s="173"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="312"/>
+      <c r="T13" s="315"/>
+      <c r="U13" s="314"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -58060,7 +58120,7 @@
         <v>1102</v>
       </c>
       <c r="S15" s="174" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="T15" s="53">
         <v>15603608839</v>
@@ -58179,7 +58239,7 @@
         <v>1108</v>
       </c>
       <c r="S17" s="174" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="T17" s="53">
         <v>13705761067</v>
@@ -58240,7 +58300,7 @@
         <v>20.162079999999968</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>1731</v>
+        <v>1713</v>
       </c>
       <c r="T18" s="53">
         <v>13187381112</v>
@@ -58306,7 +58366,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="248" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>1097</v>
@@ -58497,10 +58557,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="290" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="D25" s="248" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="E25" s="164" t="s">
         <v>1086</v>
@@ -58536,7 +58596,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="290" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="D26" s="248" t="s">
         <v>1244</v>
@@ -58551,22 +58611,22 @@
     </row>
     <row r="29" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="244" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="244" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="246" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="250" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="33" spans="8:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEED86E-FAAE-4CC4-BC6A-048796CF3ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C7954-971A-439C-BF13-8301B741B77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -21441,14 +21441,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21478,6 +21478,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21486,9 +21489,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -26579,17 +26579,17 @@
       <c r="K115" s="315">
         <v>122.8</v>
       </c>
-      <c r="L115" s="316">
+      <c r="L115" s="314">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="314" t="s">
+      <c r="M115" s="316" t="s">
         <v>812</v>
       </c>
       <c r="N115" s="315">
         <v>15</v>
       </c>
-      <c r="O115" s="316">
+      <c r="O115" s="314">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26618,8 +26618,8 @@
       <c r="K116" s="315">
         <v>50.31</v>
       </c>
-      <c r="L116" s="316"/>
-      <c r="M116" s="314" t="s">
+      <c r="L116" s="314"/>
+      <c r="M116" s="316" t="s">
         <v>812</v>
       </c>
       <c r="N116" s="315">
@@ -27007,10 +27007,10 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="314" t="s">
+      <c r="D126" s="316" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="314" t="s">
+      <c r="E126" s="316" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
@@ -27033,13 +27033,13 @@
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="314"/>
-      <c r="N126" s="314"/>
-      <c r="O126" s="316">
+      <c r="M126" s="316"/>
+      <c r="N126" s="316"/>
+      <c r="O126" s="314">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="314"/>
+      <c r="P126" s="316"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -27048,8 +27048,8 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="314"/>
-      <c r="E127" s="314"/>
+      <c r="D127" s="316"/>
+      <c r="E127" s="316"/>
       <c r="F127" s="184"/>
       <c r="G127" s="315"/>
       <c r="H127" s="315"/>
@@ -27057,10 +27057,10 @@
       <c r="J127" s="315"/>
       <c r="K127" s="315"/>
       <c r="L127" s="317"/>
-      <c r="M127" s="314"/>
-      <c r="N127" s="314"/>
-      <c r="O127" s="316"/>
-      <c r="P127" s="314"/>
+      <c r="M127" s="316"/>
+      <c r="N127" s="316"/>
+      <c r="O127" s="314"/>
+      <c r="P127" s="316"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -27069,8 +27069,8 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="314"/>
-      <c r="E128" s="314"/>
+      <c r="D128" s="316"/>
+      <c r="E128" s="316"/>
       <c r="F128" s="184"/>
       <c r="G128" s="315"/>
       <c r="H128" s="315"/>
@@ -27078,10 +27078,10 @@
       <c r="J128" s="315"/>
       <c r="K128" s="315"/>
       <c r="L128" s="317"/>
-      <c r="M128" s="314"/>
-      <c r="N128" s="314"/>
-      <c r="O128" s="316"/>
-      <c r="P128" s="314"/>
+      <c r="M128" s="316"/>
+      <c r="N128" s="316"/>
+      <c r="O128" s="314"/>
+      <c r="P128" s="316"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27090,8 +27090,8 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="314"/>
-      <c r="E129" s="314"/>
+      <c r="D129" s="316"/>
+      <c r="E129" s="316"/>
       <c r="F129" s="184"/>
       <c r="G129" s="315"/>
       <c r="H129" s="315"/>
@@ -27099,10 +27099,10 @@
       <c r="J129" s="315"/>
       <c r="K129" s="315"/>
       <c r="L129" s="317"/>
-      <c r="M129" s="314"/>
-      <c r="N129" s="314"/>
-      <c r="O129" s="316"/>
-      <c r="P129" s="314"/>
+      <c r="M129" s="316"/>
+      <c r="N129" s="316"/>
+      <c r="O129" s="314"/>
+      <c r="P129" s="316"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -28076,6 +28076,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -28085,18 +28097,6 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -37941,7 +37941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8190212-71F6-4ABF-B700-F569DF26DF8F}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -38931,10 +38931,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
-  <dimension ref="A1:XFD69"/>
+  <dimension ref="A1:XFD70"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56594,6 +56594,17 @@
         <v>7.28</v>
       </c>
     </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K70" s="273">
+        <v>44045</v>
+      </c>
+      <c r="L70">
+        <v>16</v>
+      </c>
+      <c r="M70" s="305">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57676,16 +57687,16 @@
       <c r="A7" s="315">
         <v>6</v>
       </c>
-      <c r="B7" s="326">
+      <c r="B7" s="327">
         <v>43722</v>
       </c>
-      <c r="C7" s="327">
+      <c r="C7" s="328">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1077</v>
       </c>
-      <c r="E7" s="314" t="s">
+      <c r="E7" s="316" t="s">
         <v>1078</v>
       </c>
       <c r="F7" s="53">
@@ -57694,7 +57705,7 @@
       <c r="G7" s="315">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="328">
+      <c r="H7" s="329">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
@@ -57710,59 +57721,59 @@
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
-      <c r="N7" s="329">
+      <c r="N7" s="326">
         <v>52.86</v>
       </c>
-      <c r="O7" s="329">
+      <c r="O7" s="326">
         <v>0.6</v>
       </c>
-      <c r="P7" s="329">
+      <c r="P7" s="326">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q7" s="316">
+      <c r="Q7" s="314">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="314" t="s">
+      <c r="R7" s="316" t="s">
         <v>1079</v>
       </c>
       <c r="S7" s="173"/>
       <c r="T7" s="315">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="314" t="s">
+      <c r="U7" s="316" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="315"/>
-      <c r="B8" s="326"/>
-      <c r="C8" s="327"/>
+      <c r="B8" s="327"/>
+      <c r="C8" s="328"/>
       <c r="D8" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="E8" s="314"/>
+      <c r="E8" s="316"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
       <c r="G8" s="315"/>
-      <c r="H8" s="328"/>
+      <c r="H8" s="329"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
       <c r="J8" s="315"/>
       <c r="K8" s="200"/>
       <c r="L8" s="315"/>
-      <c r="N8" s="329">
+      <c r="N8" s="326">
         <v>26.43</v>
       </c>
-      <c r="O8" s="329"/>
-      <c r="P8" s="329"/>
-      <c r="Q8" s="316"/>
-      <c r="R8" s="314"/>
+      <c r="O8" s="326"/>
+      <c r="P8" s="326"/>
+      <c r="Q8" s="314"/>
+      <c r="R8" s="316"/>
       <c r="S8" s="173"/>
       <c r="T8" s="315"/>
-      <c r="U8" s="314"/>
+      <c r="U8" s="316"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57937,16 +57948,16 @@
       <c r="A12" s="315">
         <v>10</v>
       </c>
-      <c r="B12" s="326">
+      <c r="B12" s="327">
         <v>43764</v>
       </c>
-      <c r="C12" s="327">
+      <c r="C12" s="328">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1091</v>
       </c>
-      <c r="E12" s="314" t="s">
+      <c r="E12" s="316" t="s">
         <v>1092</v>
       </c>
       <c r="F12" s="53">
@@ -57955,7 +57966,7 @@
       <c r="G12" s="315">
         <v>1.51</v>
       </c>
-      <c r="H12" s="328">
+      <c r="H12" s="329">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
@@ -57974,34 +57985,34 @@
       <c r="N12" s="315">
         <v>51.42</v>
       </c>
-      <c r="Q12" s="316">
+      <c r="Q12" s="314">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="314" t="s">
+      <c r="R12" s="316" t="s">
         <v>1093</v>
       </c>
       <c r="S12" s="173"/>
       <c r="T12" s="315">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="314" t="s">
+      <c r="U12" s="316" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="315"/>
-      <c r="B13" s="326"/>
-      <c r="C13" s="327"/>
+      <c r="B13" s="327"/>
+      <c r="C13" s="328"/>
       <c r="D13" s="150" t="s">
         <v>1095</v>
       </c>
-      <c r="E13" s="314"/>
+      <c r="E13" s="316"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
       <c r="G13" s="315"/>
-      <c r="H13" s="328"/>
+      <c r="H13" s="329"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
@@ -58009,11 +58020,11 @@
       <c r="K13" s="200"/>
       <c r="L13" s="315"/>
       <c r="N13" s="315"/>
-      <c r="Q13" s="316"/>
-      <c r="R13" s="314"/>
+      <c r="Q13" s="314"/>
+      <c r="R13" s="316"/>
       <c r="S13" s="173"/>
       <c r="T13" s="315"/>
-      <c r="U13" s="314"/>
+      <c r="U13" s="316"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -58665,6 +58676,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A7:A8"/>
@@ -58673,26 +58704,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C7954-971A-439C-BF13-8301B741B77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB87B20-6D50-4889-94DD-790181776790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
   <sheets>
     <sheet name="贩卖机补款" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -18440,10 +18434,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.10：生产中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拉链袋全破损*44 /DREM扇子应为21把，少1把(实际疑收到22把) /CHOCOLATE特典更改：透扇-&gt;徽章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18469,10 +18459,6 @@
   </si>
   <si>
     <t>6.16到货补款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.22：预计7/8月完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18846,6 +18832,14 @@
   </si>
   <si>
     <t>12.30：LE(红色)*5后寄 /7.29：近期发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10：生产中 / 8.2推文：(疑似)推迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22：预计7/8月完成 / 7.31推文：(疑似)推迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21441,14 +21435,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21478,9 +21472,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21489,6 +21480,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -26579,17 +26573,17 @@
       <c r="K115" s="315">
         <v>122.8</v>
       </c>
-      <c r="L115" s="314">
+      <c r="L115" s="316">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="316" t="s">
+      <c r="M115" s="314" t="s">
         <v>812</v>
       </c>
       <c r="N115" s="315">
         <v>15</v>
       </c>
-      <c r="O115" s="314">
+      <c r="O115" s="316">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26618,8 +26612,8 @@
       <c r="K116" s="315">
         <v>50.31</v>
       </c>
-      <c r="L116" s="314"/>
-      <c r="M116" s="316" t="s">
+      <c r="L116" s="316"/>
+      <c r="M116" s="314" t="s">
         <v>812</v>
       </c>
       <c r="N116" s="315">
@@ -27007,10 +27001,10 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="316" t="s">
+      <c r="D126" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="316" t="s">
+      <c r="E126" s="314" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
@@ -27033,13 +27027,13 @@
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="316"/>
-      <c r="N126" s="316"/>
-      <c r="O126" s="314">
+      <c r="M126" s="314"/>
+      <c r="N126" s="314"/>
+      <c r="O126" s="316">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="316"/>
+      <c r="P126" s="314"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -27048,8 +27042,8 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="316"/>
-      <c r="E127" s="316"/>
+      <c r="D127" s="314"/>
+      <c r="E127" s="314"/>
       <c r="F127" s="184"/>
       <c r="G127" s="315"/>
       <c r="H127" s="315"/>
@@ -27057,10 +27051,10 @@
       <c r="J127" s="315"/>
       <c r="K127" s="315"/>
       <c r="L127" s="317"/>
-      <c r="M127" s="316"/>
-      <c r="N127" s="316"/>
-      <c r="O127" s="314"/>
-      <c r="P127" s="316"/>
+      <c r="M127" s="314"/>
+      <c r="N127" s="314"/>
+      <c r="O127" s="316"/>
+      <c r="P127" s="314"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -27069,8 +27063,8 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="316"/>
-      <c r="E128" s="316"/>
+      <c r="D128" s="314"/>
+      <c r="E128" s="314"/>
       <c r="F128" s="184"/>
       <c r="G128" s="315"/>
       <c r="H128" s="315"/>
@@ -27078,10 +27072,10 @@
       <c r="J128" s="315"/>
       <c r="K128" s="315"/>
       <c r="L128" s="317"/>
-      <c r="M128" s="316"/>
-      <c r="N128" s="316"/>
-      <c r="O128" s="314"/>
-      <c r="P128" s="316"/>
+      <c r="M128" s="314"/>
+      <c r="N128" s="314"/>
+      <c r="O128" s="316"/>
+      <c r="P128" s="314"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27090,8 +27084,8 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="316"/>
-      <c r="E129" s="316"/>
+      <c r="D129" s="314"/>
+      <c r="E129" s="314"/>
       <c r="F129" s="184"/>
       <c r="G129" s="315"/>
       <c r="H129" s="315"/>
@@ -27099,10 +27093,10 @@
       <c r="J129" s="315"/>
       <c r="K129" s="315"/>
       <c r="L129" s="317"/>
-      <c r="M129" s="316"/>
-      <c r="N129" s="316"/>
-      <c r="O129" s="314"/>
-      <c r="P129" s="316"/>
+      <c r="M129" s="314"/>
+      <c r="N129" s="314"/>
+      <c r="O129" s="316"/>
+      <c r="P129" s="314"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -28076,18 +28070,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -28097,6 +28079,18 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -28113,7 +28107,7 @@
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
+      <selection pane="bottomLeft" activeCell="D349" sqref="D349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36022,7 +36016,7 @@
         <v>435</v>
       </c>
       <c r="E316" s="61" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>816</v>
@@ -36472,7 +36466,7 @@
         <v>800</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1245</v>
@@ -36581,7 +36575,7 @@
         <v>1694</v>
       </c>
       <c r="C343" s="300" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D343" s="241" t="s">
         <v>644</v>
@@ -36609,7 +36603,7 @@
         <v>1695</v>
       </c>
       <c r="C344" s="300" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D344" s="241" t="s">
         <v>644</v>
@@ -36627,13 +36621,13 @@
     </row>
     <row r="345" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="178" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B345" s="178" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C345" s="300" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D345" s="241" t="s">
         <v>679</v>
@@ -36659,16 +36653,16 @@
         <v>855</v>
       </c>
       <c r="B347" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C347" s="309" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D347" s="311" t="s">
         <v>1382</v>
       </c>
       <c r="E347" s="61" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F347" s="60" t="s">
         <v>816</v>
@@ -36688,10 +36682,10 @@
         <v>1601</v>
       </c>
       <c r="B348" s="261" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C348" s="309" t="s">
         <v>1735</v>
-      </c>
-      <c r="C348" s="309" t="s">
-        <v>1737</v>
       </c>
       <c r="D348" s="238" t="s">
         <v>733</v>
@@ -36711,16 +36705,16 @@
         <v>1561</v>
       </c>
       <c r="B349" s="175" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C349" s="309" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D349" s="238" t="s">
         <v>782</v>
       </c>
       <c r="E349" s="61" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="F349" s="121" t="s">
         <v>816</v>
@@ -36749,8 +36743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E18E5-39C2-45B4-BB76-6C3FAB6F7533}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36795,7 +36789,7 @@
     <row r="3" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="322"/>
       <c r="B3" s="65" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C3" s="132">
         <v>3</v>
@@ -36817,7 +36811,7 @@
     <row r="4" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="322"/>
       <c r="B4" s="67" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C4" s="127">
         <v>28</v>
@@ -36838,7 +36832,7 @@
     <row r="5" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="322"/>
       <c r="B5" s="139" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C5" s="139">
         <v>4</v>
@@ -37095,7 +37089,7 @@
         <v>697</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G21" s="321" t="s">
         <v>1433</v>
@@ -37131,7 +37125,7 @@
         <v>697</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G22" s="321"/>
       <c r="H22" s="61" t="s">
@@ -37326,7 +37320,7 @@
     </row>
     <row r="34" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="307" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C34" s="266"/>
       <c r="D34" s="267" t="s">
@@ -37347,10 +37341,10 @@
         <v>732</v>
       </c>
       <c r="F35" s="306" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="G35" s="306" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H35" s="61" t="s">
         <v>86</v>
@@ -37371,10 +37365,10 @@
         <v>705</v>
       </c>
       <c r="F36" s="83" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>816</v>
@@ -37383,7 +37377,7 @@
     </row>
     <row r="37" spans="1:9" s="306" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="137" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C37" s="137">
         <v>11</v>
@@ -37395,10 +37389,10 @@
         <v>1580</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="G37" s="271" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H37" s="121" t="s">
         <v>816</v>
@@ -37496,10 +37490,10 @@
         <v>777</v>
       </c>
       <c r="F44" s="306" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G44" s="306" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H44" s="121" t="s">
         <v>86</v>
@@ -37620,7 +37614,7 @@
       </c>
       <c r="F51" s="306"/>
       <c r="G51" s="168" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H51" t="s">
         <v>86</v>
@@ -37642,7 +37636,7 @@
       </c>
       <c r="F52" s="306"/>
       <c r="G52" s="168" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -37661,7 +37655,7 @@
       </c>
       <c r="F53" s="306"/>
       <c r="G53" s="168" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -37698,7 +37692,7 @@
       </c>
       <c r="F55" s="306"/>
       <c r="G55" s="168" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H55" s="61" t="s">
         <v>816</v>
@@ -37723,8 +37717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D2A10-EF19-483A-93F0-AF0FDE6064D4}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37770,10 +37764,10 @@
         <v>1397</v>
       </c>
       <c r="E2" s="256" t="s">
-        <v>1709</v>
+        <v>1750</v>
       </c>
       <c r="F2" s="301" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>816</v>
@@ -37796,10 +37790,10 @@
         <v>645</v>
       </c>
       <c r="E3" s="226" t="s">
-        <v>1701</v>
+        <v>1749</v>
       </c>
       <c r="F3" s="285" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G3" s="121" t="s">
         <v>86</v>
@@ -37846,10 +37840,10 @@
         <v>783</v>
       </c>
       <c r="E5" s="226" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F5" s="306" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>816</v>
@@ -37875,7 +37869,7 @@
         <v>1693</v>
       </c>
       <c r="F6" s="297" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G6" s="88" t="s">
         <v>86</v>
@@ -37899,7 +37893,7 @@
         <v>1697</v>
       </c>
       <c r="F7" s="306" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>816</v>
@@ -37922,10 +37916,10 @@
         <v>1448</v>
       </c>
       <c r="E8" s="236" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F8" s="256" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
@@ -37942,7 +37936,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38315,7 +38309,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>869</v>
@@ -38407,10 +38401,10 @@
         <v>1383</v>
       </c>
       <c r="D26" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E26" s="310" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>1275</v>
@@ -38527,10 +38521,10 @@
         <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E30" s="223" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -38557,10 +38551,10 @@
         <v>978</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E31" s="310" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>816</v>
@@ -38581,10 +38575,10 @@
         <v>1385</v>
       </c>
       <c r="D32" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E32" s="222" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>816</v>
@@ -38933,7 +38927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C597AF-64BB-47B4-B60A-A1B4FFBA31B3}">
   <dimension ref="A1:XFD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
@@ -55789,7 +55783,7 @@
         <v>373</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="O18" s="53">
         <v>30</v>
@@ -55819,7 +55813,7 @@
         <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O19">
         <v>158</v>
@@ -57687,16 +57681,16 @@
       <c r="A7" s="315">
         <v>6</v>
       </c>
-      <c r="B7" s="327">
+      <c r="B7" s="326">
         <v>43722</v>
       </c>
-      <c r="C7" s="328">
+      <c r="C7" s="327">
         <v>811421352052079</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1077</v>
       </c>
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="314" t="s">
         <v>1078</v>
       </c>
       <c r="F7" s="53">
@@ -57705,7 +57699,7 @@
       <c r="G7" s="315">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H7" s="329">
+      <c r="H7" s="328">
         <v>190.85</v>
       </c>
       <c r="I7" s="53">
@@ -57721,59 +57715,59 @@
         <f>H7-K7</f>
         <v>-14.550000000000011</v>
       </c>
-      <c r="N7" s="326">
+      <c r="N7" s="329">
         <v>52.86</v>
       </c>
-      <c r="O7" s="326">
+      <c r="O7" s="329">
         <v>0.6</v>
       </c>
-      <c r="P7" s="326">
+      <c r="P7" s="329">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q7" s="314">
+      <c r="Q7" s="316">
         <f>N7*0.994+L7</f>
         <v>37.992839999999987</v>
       </c>
-      <c r="R7" s="316" t="s">
+      <c r="R7" s="314" t="s">
         <v>1079</v>
       </c>
       <c r="S7" s="173"/>
       <c r="T7" s="315">
         <v>13420877860</v>
       </c>
-      <c r="U7" s="316" t="s">
+      <c r="U7" s="314" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="315"/>
-      <c r="B8" s="327"/>
-      <c r="C8" s="328"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="E8" s="316"/>
+      <c r="E8" s="314"/>
       <c r="F8" s="53">
         <v>96</v>
       </c>
       <c r="G8" s="315"/>
-      <c r="H8" s="329"/>
+      <c r="H8" s="328"/>
       <c r="I8" s="53">
         <v>15000</v>
       </c>
       <c r="J8" s="315"/>
       <c r="K8" s="200"/>
       <c r="L8" s="315"/>
-      <c r="N8" s="326">
+      <c r="N8" s="329">
         <v>26.43</v>
       </c>
-      <c r="O8" s="326"/>
-      <c r="P8" s="326"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="316"/>
+      <c r="O8" s="329"/>
+      <c r="P8" s="329"/>
+      <c r="Q8" s="316"/>
+      <c r="R8" s="314"/>
       <c r="S8" s="173"/>
       <c r="T8" s="315"/>
-      <c r="U8" s="316"/>
+      <c r="U8" s="314"/>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -57948,16 +57942,16 @@
       <c r="A12" s="315">
         <v>10</v>
       </c>
-      <c r="B12" s="327">
+      <c r="B12" s="326">
         <v>43764</v>
       </c>
-      <c r="C12" s="328">
+      <c r="C12" s="327">
         <v>811587551684293</v>
       </c>
       <c r="D12" s="150" t="s">
         <v>1091</v>
       </c>
-      <c r="E12" s="316" t="s">
+      <c r="E12" s="314" t="s">
         <v>1092</v>
       </c>
       <c r="F12" s="53">
@@ -57966,7 +57960,7 @@
       <c r="G12" s="315">
         <v>1.51</v>
       </c>
-      <c r="H12" s="329">
+      <c r="H12" s="328">
         <v>250.49</v>
       </c>
       <c r="I12" s="138">
@@ -57985,34 +57979,34 @@
       <c r="N12" s="315">
         <v>51.42</v>
       </c>
-      <c r="Q12" s="314">
+      <c r="Q12" s="316">
         <f>N12*0.994+L12</f>
         <v>34.201480000000032</v>
       </c>
-      <c r="R12" s="316" t="s">
+      <c r="R12" s="314" t="s">
         <v>1093</v>
       </c>
       <c r="S12" s="173"/>
       <c r="T12" s="315">
         <v>18108291464</v>
       </c>
-      <c r="U12" s="316" t="s">
+      <c r="U12" s="314" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="315"/>
-      <c r="B13" s="327"/>
-      <c r="C13" s="328"/>
+      <c r="B13" s="326"/>
+      <c r="C13" s="327"/>
       <c r="D13" s="150" t="s">
         <v>1095</v>
       </c>
-      <c r="E13" s="316"/>
+      <c r="E13" s="314"/>
       <c r="F13" s="53">
         <v>126</v>
       </c>
       <c r="G13" s="315"/>
-      <c r="H13" s="329"/>
+      <c r="H13" s="328"/>
       <c r="I13" s="138">
         <v>20000</v>
       </c>
@@ -58020,11 +58014,11 @@
       <c r="K13" s="200"/>
       <c r="L13" s="315"/>
       <c r="N13" s="315"/>
-      <c r="Q13" s="314"/>
-      <c r="R13" s="316"/>
+      <c r="Q13" s="316"/>
+      <c r="R13" s="314"/>
       <c r="S13" s="173"/>
       <c r="T13" s="315"/>
-      <c r="U13" s="316"/>
+      <c r="U13" s="314"/>
     </row>
     <row r="14" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -58311,7 +58305,7 @@
         <v>20.162079999999968</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="T18" s="53">
         <v>13187381112</v>
@@ -58676,6 +58670,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="R7:R8"/>
@@ -58684,26 +58698,6 @@
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/进度整理.xlsx
+++ b/进度整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB87B20-6D50-4889-94DD-790181776790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3BF16-205B-406F-85C8-7E08AD93EB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0E2E0942-AB44-43AB-B043-1C276226D050}"/>
   </bookViews>
@@ -68,6 +68,42 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{8B867981-5DE3-414E-93AE-CD50B80A9E95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+http://ipostal.vnpost.vn/en-us/dinh-vi/buu-pham?key=RR717121660VN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -207,12 +243,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{20593E81-9A4C-4C1D-B30A-11A2D84B06C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.5kg
+2.支付宝直接转账:原野
+3.共支付253rmb
+其中30为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>APOC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>西装</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1758">
   <si>
     <t>已截止入金周边</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18360,10 +18445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.1：二次打样完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -18418,10 +18499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.1：生产时间预计在夏天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">金东贤 ETERNALVISUAL 4th Slogan / Love is..you </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18442,14 +18519,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.10：7月补发/ 泰国发货 / 12.29：EE176229184TH, EE176229520TH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1：预计8月底完成 /深圳发货 已给怀化地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>漏发Mini横幅*1 / 6.5补发：5151502006179 /无徽章-&gt;(类)明信片 /3.9：7511-5643-9320</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18606,10 +18675,6 @@
   </si>
   <si>
     <t>二次打样完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计8月底</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18709,14 +18774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.16：下周寄出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.16：预计8月完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>共3条，漏发两条 /7.16：下周一可寄到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18819,27 +18876,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.29：已邮件怀化地址 / 中国工厂发货 /7.27：物流无法配送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7.29：香港邮局暂停服务 暂无法发货 /少B*1，换红色米奇款 / 4.26：顺丰寄 已给怀化地址 /5.7：EA304553127HK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.29：10号前退款 /6.8：待退款 已给zfb二维码 /泰国发货 / 已改收件人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30：LE(红色)*5后寄 /7.29：近期发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.10：生产中 / 8.2推文：(疑似)推迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6.22：预计7/8月完成 / 7.31推文：(疑似)推迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计8月底九月初</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.16：下周寄出 / 8.4寄出：64147-0112-6226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2：制作中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13：预计9月交付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计9月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖T恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF854562</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25：10月左右补发/ 泰国发货 / 12.29：EE176229184TH, EE176229520TH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输中：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2：本周退款 /6.8：待退款 已给zfb二维码 /泰国发货 / 已改收件人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2：排单中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1：RR717121660VN【特典部分单号 越南-中国工厂】/ 4.29：已邮件怀化地址 / 中国工厂发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6：SF1074716591358 /每只需补款10rmb / 深圳发货 已给怀化地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11到货补款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔连准 Yeonjun Doll 【3】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.11：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>롯데택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 235043071395 / 12.30：LE(红色)*5后寄 /8.10：本周三/四发货</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18853,7 +18990,7 @@
     <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19808,6 +19945,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -20450,7 +20593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21390,9 +21533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21423,9 +21563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21435,14 +21572,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21472,6 +21630,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -21480,9 +21641,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -26558,32 +26716,32 @@
         <v>86</v>
       </c>
       <c r="F115" s="185"/>
-      <c r="G115" s="315">
+      <c r="G115" s="320">
         <v>1335.94</v>
       </c>
-      <c r="H115" s="315">
+      <c r="H115" s="320">
         <v>1182.3499999999999</v>
       </c>
-      <c r="I115" s="315">
+      <c r="I115" s="320">
         <v>92.52</v>
       </c>
-      <c r="J115" s="315">
+      <c r="J115" s="320">
         <v>9.64</v>
       </c>
-      <c r="K115" s="315">
+      <c r="K115" s="320">
         <v>122.8</v>
       </c>
-      <c r="L115" s="316">
+      <c r="L115" s="319">
         <f t="shared" si="9"/>
         <v>245.55488000000014</v>
       </c>
-      <c r="M115" s="314" t="s">
+      <c r="M115" s="321" t="s">
         <v>812</v>
       </c>
-      <c r="N115" s="315">
+      <c r="N115" s="320">
         <v>15</v>
       </c>
-      <c r="O115" s="316">
+      <c r="O115" s="319">
         <f>L115-N115</f>
         <v>230.55488000000014</v>
       </c>
@@ -26601,25 +26759,25 @@
       <c r="E116" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="315"/>
-      <c r="H116" s="315"/>
-      <c r="I116" s="315">
+      <c r="G116" s="320"/>
+      <c r="H116" s="320"/>
+      <c r="I116" s="320">
         <v>49.72</v>
       </c>
-      <c r="J116" s="315">
+      <c r="J116" s="320">
         <v>4.84</v>
       </c>
-      <c r="K116" s="315">
+      <c r="K116" s="320">
         <v>50.31</v>
       </c>
-      <c r="L116" s="316"/>
-      <c r="M116" s="314" t="s">
+      <c r="L116" s="319"/>
+      <c r="M116" s="321" t="s">
         <v>812</v>
       </c>
-      <c r="N116" s="315">
+      <c r="N116" s="320">
         <v>23</v>
       </c>
-      <c r="O116" s="315"/>
+      <c r="O116" s="320"/>
       <c r="P116" s="53" t="s">
         <v>811</v>
       </c>
@@ -27001,39 +27159,39 @@
       <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="314" t="s">
+      <c r="D126" s="321" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="314" t="s">
+      <c r="E126" s="321" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="184"/>
-      <c r="G126" s="315">
+      <c r="G126" s="320">
         <v>1566.74</v>
       </c>
-      <c r="H126" s="315">
+      <c r="H126" s="320">
         <v>1566.14</v>
       </c>
-      <c r="I126" s="315">
+      <c r="I126" s="320">
         <v>160.19</v>
       </c>
-      <c r="J126" s="315">
+      <c r="J126" s="320">
         <v>1.61</v>
       </c>
-      <c r="K126" s="315">
+      <c r="K126" s="320">
         <v>26.16</v>
       </c>
-      <c r="L126" s="317">
+      <c r="L126" s="322">
         <f>G126+I126*0.994-H126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="M126" s="314"/>
-      <c r="N126" s="314"/>
-      <c r="O126" s="316">
+      <c r="M126" s="321"/>
+      <c r="N126" s="321"/>
+      <c r="O126" s="319">
         <f>L126-N126</f>
         <v>159.82885999999985</v>
       </c>
-      <c r="P126" s="314"/>
+      <c r="P126" s="321"/>
     </row>
     <row r="127" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -27042,19 +27200,19 @@
       <c r="B127" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="314"/>
-      <c r="E127" s="314"/>
+      <c r="D127" s="321"/>
+      <c r="E127" s="321"/>
       <c r="F127" s="184"/>
-      <c r="G127" s="315"/>
-      <c r="H127" s="315"/>
-      <c r="I127" s="315"/>
-      <c r="J127" s="315"/>
-      <c r="K127" s="315"/>
-      <c r="L127" s="317"/>
-      <c r="M127" s="314"/>
-      <c r="N127" s="314"/>
-      <c r="O127" s="316"/>
-      <c r="P127" s="314"/>
+      <c r="G127" s="320"/>
+      <c r="H127" s="320"/>
+      <c r="I127" s="320"/>
+      <c r="J127" s="320"/>
+      <c r="K127" s="320"/>
+      <c r="L127" s="322"/>
+      <c r="M127" s="321"/>
+      <c r="N127" s="321"/>
+      <c r="O127" s="319"/>
+      <c r="P127" s="321"/>
     </row>
     <row r="128" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -27063,19 +27221,19 @@
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="314"/>
-      <c r="E128" s="314"/>
+      <c r="D128" s="321"/>
+      <c r="E128" s="321"/>
       <c r="F128" s="184"/>
-      <c r="G128" s="315"/>
-      <c r="H128" s="315"/>
-      <c r="I128" s="315"/>
-      <c r="J128" s="315"/>
-      <c r="K128" s="315"/>
-      <c r="L128" s="317"/>
-      <c r="M128" s="314"/>
-      <c r="N128" s="314"/>
-      <c r="O128" s="316"/>
-      <c r="P128" s="314"/>
+      <c r="G128" s="320"/>
+      <c r="H128" s="320"/>
+      <c r="I128" s="320"/>
+      <c r="J128" s="320"/>
+      <c r="K128" s="320"/>
+      <c r="L128" s="322"/>
+      <c r="M128" s="321"/>
+      <c r="N128" s="321"/>
+      <c r="O128" s="319"/>
+      <c r="P128" s="321"/>
     </row>
     <row r="129" spans="1:23" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -27084,19 +27242,19 @@
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="314"/>
-      <c r="E129" s="314"/>
+      <c r="D129" s="321"/>
+      <c r="E129" s="321"/>
       <c r="F129" s="184"/>
-      <c r="G129" s="315"/>
-      <c r="H129" s="315"/>
-      <c r="I129" s="315"/>
-      <c r="J129" s="315"/>
-      <c r="K129" s="315"/>
-      <c r="L129" s="317"/>
-      <c r="M129" s="314"/>
-      <c r="N129" s="314"/>
-      <c r="O129" s="316"/>
-      <c r="P129" s="314"/>
+      <c r="G129" s="320"/>
+      <c r="H129" s="320"/>
+      <c r="I129" s="320"/>
+      <c r="J129" s="320"/>
+      <c r="K129" s="320"/>
+      <c r="L129" s="322"/>
+      <c r="M129" s="321"/>
+      <c r="N129" s="321"/>
+      <c r="O129" s="319"/>
+      <c r="P129" s="321"/>
     </row>
     <row r="130" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -28070,6 +28228,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
     <mergeCell ref="O115:O116"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H115:H116"/>
@@ -28079,18 +28249,6 @@
     <mergeCell ref="J115:J116"/>
     <mergeCell ref="K115:K116"/>
     <mergeCell ref="L115:L116"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -28103,11 +28261,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54BF69-6C21-45DC-978A-145CA4D022AF}">
-  <dimension ref="A1:AA349"/>
+  <dimension ref="A1:AA352"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D349" sqref="D349"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32963,7 +33121,7 @@
       <c r="D174" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="E174" s="318" t="s">
+      <c r="E174" s="323" t="s">
         <v>960</v>
       </c>
       <c r="F174" s="61" t="s">
@@ -32985,7 +33143,7 @@
       <c r="D175" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="E175" s="318"/>
+      <c r="E175" s="323"/>
       <c r="F175" s="61" t="s">
         <v>86</v>
       </c>
@@ -35086,11 +35244,11 @@
       <c r="Z266" s="212"/>
     </row>
     <row r="267" spans="1:26" s="165" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="319" t="s">
+      <c r="A267" s="324" t="s">
         <v>1531</v>
       </c>
-      <c r="B267" s="319"/>
-      <c r="C267" s="319"/>
+      <c r="B267" s="324"/>
+      <c r="C267" s="324"/>
       <c r="D267" s="13"/>
       <c r="F267" s="69"/>
       <c r="G267" s="69"/>
@@ -36016,7 +36174,7 @@
         <v>435</v>
       </c>
       <c r="E316" s="61" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="F316" s="121" t="s">
         <v>816</v>
@@ -36336,7 +36494,7 @@
       <c r="D332" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="E332" s="320" t="s">
+      <c r="E332" s="325" t="s">
         <v>1646</v>
       </c>
       <c r="F332" s="121" t="s">
@@ -36359,7 +36517,7 @@
       <c r="D333" s="241" t="s">
         <v>1575</v>
       </c>
-      <c r="E333" s="320"/>
+      <c r="E333" s="325"/>
       <c r="F333" s="121" t="s">
         <v>816</v>
       </c>
@@ -36380,7 +36538,7 @@
       <c r="D334" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="E334" s="320"/>
+      <c r="E334" s="325"/>
       <c r="F334" s="121" t="s">
         <v>816</v>
       </c>
@@ -36466,7 +36624,7 @@
         <v>800</v>
       </c>
       <c r="E338" s="61" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F338" s="170" t="s">
         <v>1245</v>
@@ -36529,7 +36687,7 @@
         <v>1501</v>
       </c>
       <c r="C341" s="298" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D341" s="241" t="s">
         <v>296</v>
@@ -36552,7 +36710,7 @@
         <v>1497</v>
       </c>
       <c r="C342" s="298" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>660</v>
@@ -36572,10 +36730,10 @@
         <v>1500</v>
       </c>
       <c r="B343" s="132" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C343" s="300" t="s">
-        <v>1706</v>
+        <v>1693</v>
+      </c>
+      <c r="C343" s="299" t="s">
+        <v>1702</v>
       </c>
       <c r="D343" s="241" t="s">
         <v>644</v>
@@ -36600,10 +36758,10 @@
         <v>1486</v>
       </c>
       <c r="B344" s="67" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C344" s="300" t="s">
-        <v>1706</v>
+        <v>1694</v>
+      </c>
+      <c r="C344" s="299" t="s">
+        <v>1702</v>
       </c>
       <c r="D344" s="241" t="s">
         <v>644</v>
@@ -36621,19 +36779,19 @@
     </row>
     <row r="345" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="178" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="B345" s="178" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C345" s="300" t="s">
-        <v>1707</v>
+        <v>1706</v>
+      </c>
+      <c r="C345" s="299" t="s">
+        <v>1703</v>
       </c>
       <c r="D345" s="241" t="s">
         <v>679</v>
       </c>
       <c r="E345" s="226" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F345" s="61" t="s">
         <v>86</v>
@@ -36653,16 +36811,16 @@
         <v>855</v>
       </c>
       <c r="B347" s="44" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C347" s="309" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D347" s="311" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C347" s="308" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D347" s="309" t="s">
         <v>1382</v>
       </c>
       <c r="E347" s="61" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="F347" s="60" t="s">
         <v>816</v>
@@ -36682,10 +36840,10 @@
         <v>1601</v>
       </c>
       <c r="B348" s="261" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C348" s="309" t="s">
-        <v>1735</v>
+        <v>1728</v>
+      </c>
+      <c r="C348" s="308" t="s">
+        <v>1730</v>
       </c>
       <c r="D348" s="238" t="s">
         <v>733</v>
@@ -36705,16 +36863,16 @@
         <v>1561</v>
       </c>
       <c r="B349" s="175" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C349" s="309" t="s">
-        <v>1735</v>
+        <v>1729</v>
+      </c>
+      <c r="C349" s="308" t="s">
+        <v>1730</v>
       </c>
       <c r="D349" s="238" t="s">
         <v>782</v>
       </c>
       <c r="E349" s="61" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="F349" s="121" t="s">
         <v>816</v>
@@ -36722,6 +36880,58 @@
       <c r="G349" s="89" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="351" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>46</v>
+      </c>
+      <c r="B351" s="314" t="s">
+        <v>46</v>
+      </c>
+      <c r="C351" s="314" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D351" s="313" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E351" s="89" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F351" s="60" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G351" s="220" t="s">
+        <v>86</v>
+      </c>
+      <c r="J351" s="199"/>
+      <c r="U351"/>
+      <c r="V351"/>
+      <c r="W351"/>
+      <c r="X351"/>
+      <c r="Y351"/>
+      <c r="Z351"/>
+    </row>
+    <row r="352" spans="1:26" s="236" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="67" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B352" s="67" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C352" s="318" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D352" s="313" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E352" s="236" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F352" s="256" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G352" s="83"/>
+      <c r="H352" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36744,7 +36954,7 @@
   <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36765,7 +36975,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="327" t="s">
         <v>1406</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -36787,9 +36997,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="322"/>
+      <c r="A3" s="327"/>
       <c r="B3" s="65" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="C3" s="132">
         <v>3</v>
@@ -36809,9 +37019,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="322"/>
+      <c r="A4" s="327"/>
       <c r="B4" s="67" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="C4" s="127">
         <v>28</v>
@@ -36830,9 +37040,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="322"/>
+      <c r="A5" s="327"/>
       <c r="B5" s="139" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="C5" s="139">
         <v>4</v>
@@ -36867,7 +37077,7 @@
       <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="323" t="s">
+      <c r="A8" s="328" t="s">
         <v>1410</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -36884,7 +37094,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="225" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.